--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -106,13 +106,13 @@
     <t>Norwich U21</t>
   </si>
   <si>
+    <t>Nottm Forest U21</t>
+  </si>
+  <si>
     <t>Fulham U21</t>
   </si>
   <si>
     <t>Everton U21</t>
-  </si>
-  <si>
-    <t>Nottm Forest U21</t>
   </si>
   <si>
     <t>Southampton U21</t>
@@ -130,13 +130,13 @@
     <t>Brighton U21</t>
   </si>
   <si>
+    <t>Newcastle U21</t>
+  </si>
+  <si>
     <t>Sunderland U21</t>
   </si>
   <si>
     <t>Leicester U21</t>
-  </si>
-  <si>
-    <t>Newcastle U21</t>
   </si>
   <si>
     <t>Arsenal U21</t>
@@ -564,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC326"/>
+  <dimension ref="A1:AC323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5410524</v>
+        <v>5416754</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -765,73 +765,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N3">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O3">
         <v>4.5</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
+        <v>1.975</v>
+      </c>
+      <c r="S3">
         <v>1.825</v>
       </c>
-      <c r="S3">
-        <v>1.975</v>
-      </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5410523</v>
+        <v>5410524</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -854,7 +854,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -866,22 +866,22 @@
         <v>61</v>
       </c>
       <c r="K4">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N4">
         <v>1.533</v>
       </c>
       <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
         <v>4.2</v>
-      </c>
-      <c r="P4">
-        <v>4.333</v>
       </c>
       <c r="Q4">
         <v>-1</v>
@@ -893,13 +893,13 @@
         <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -908,7 +908,7 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Z4">
         <v>-1</v>
@@ -917,10 +917,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5416754</v>
+        <v>5410523</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -943,73 +943,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="Q5">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
+        <v>1.825</v>
+      </c>
+      <c r="S5">
         <v>1.975</v>
       </c>
-      <c r="S5">
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
         <v>1.825</v>
       </c>
-      <c r="T5">
-        <v>3.75</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
       <c r="W5">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1462,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5420481</v>
+        <v>5420482</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1477,52 +1477,52 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>61</v>
       </c>
       <c r="K11">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M11">
+        <v>2.8</v>
+      </c>
+      <c r="N11">
         <v>2.3</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4.2</v>
       </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
       <c r="P11">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q11">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1531,7 +1531,7 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z11">
         <v>-1</v>
@@ -1540,10 +1540,10 @@
         <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5410529</v>
+        <v>5420481</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1566,52 +1566,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
         <v>61</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L12">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="N12">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1620,19 +1620,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5420482</v>
+        <v>5410529</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1655,7 +1655,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1667,40 +1667,40 @@
         <v>61</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L13">
         <v>4.333</v>
       </c>
       <c r="M13">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="N13">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1709,19 +1709,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.3</v>
+        <v>0.833</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1741,7 +1741,7 @@
         <v>44939.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1833,7 +1833,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2011,7 +2011,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2278,7 +2278,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2367,7 +2367,7 @@
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2631,7 +2631,7 @@
         <v>44946.66666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -2898,7 +2898,7 @@
         <v>44948.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -2990,7 +2990,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>44951.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>57</v>
@@ -3610,10 +3610,10 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
         <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3877,7 +3877,7 @@
         <v>44953.66666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>53</v>
@@ -3966,10 +3966,10 @@
         <v>44956.41666666666</v>
       </c>
       <c r="F39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
         <v>38</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4147,7 +4147,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4236,7 +4236,7 @@
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4503,7 +4503,7 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4592,7 +4592,7 @@
         <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -5034,7 +5034,7 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5111,7 +5111,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5420471</v>
+        <v>5416760</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5123,40 +5123,40 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M52">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="N52">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O52">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
         <v>1.75</v>
@@ -5165,34 +5165,34 @@
         <v>1.95</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5200,7 +5200,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5416760</v>
+        <v>5420471</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5212,40 +5212,40 @@
         <v>44970.66666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>1.4</v>
+      </c>
+      <c r="N53">
+        <v>2.7</v>
+      </c>
+      <c r="O53">
+        <v>4.2</v>
+      </c>
+      <c r="P53">
         <v>2</v>
       </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-      <c r="J53" t="s">
-        <v>62</v>
-      </c>
-      <c r="K53">
-        <v>3.2</v>
-      </c>
-      <c r="L53">
-        <v>4.5</v>
-      </c>
-      <c r="M53">
-        <v>1.727</v>
-      </c>
-      <c r="N53">
-        <v>4.2</v>
-      </c>
-      <c r="O53">
-        <v>4.75</v>
-      </c>
-      <c r="P53">
-        <v>1.5</v>
-      </c>
       <c r="Q53">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
         <v>1.75</v>
@@ -5254,34 +5254,34 @@
         <v>1.95</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z53">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5289,7 +5289,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5410558</v>
+        <v>5410560</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5301,76 +5301,76 @@
         <v>44974.66666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>62</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L54">
         <v>3.75</v>
       </c>
       <c r="M54">
+        <v>1.833</v>
+      </c>
+      <c r="N54">
         <v>3.6</v>
       </c>
-      <c r="N54">
-        <v>2.375</v>
-      </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P54">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5378,7 +5378,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5410560</v>
+        <v>5410558</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5390,76 +5390,76 @@
         <v>44974.66666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>62</v>
       </c>
       <c r="K55">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
         <v>3.75</v>
       </c>
       <c r="M55">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O55">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5482,7 +5482,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>44974.66666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>52</v>
@@ -6013,7 +6013,7 @@
         <v>44977.66666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>36</v>
@@ -6090,7 +6090,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5420467</v>
+        <v>5420468</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6102,76 +6102,76 @@
         <v>44977.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K63">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L63">
+        <v>4.5</v>
+      </c>
+      <c r="M63">
         <v>3.7</v>
       </c>
-      <c r="M63">
-        <v>2.1</v>
-      </c>
       <c r="N63">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
         <v>3.5</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y63">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6179,7 +6179,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5420468</v>
+        <v>5420467</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6191,76 +6191,76 @@
         <v>44977.66666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K64">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="L64">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="M64">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="N64">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>3.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6461,7 +6461,7 @@
         <v>51</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>6</v>
@@ -6550,7 +6550,7 @@
         <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6817,7 +6817,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>7</v>
@@ -6906,7 +6906,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -6995,7 +6995,7 @@
         <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7081,7 +7081,7 @@
         <v>44984.66666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>50</v>
@@ -7425,7 +7425,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5420462</v>
+        <v>5410575</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7437,55 +7437,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J78" t="s">
         <v>61</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="N78">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
         <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7494,7 +7494,7 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.45</v>
+        <v>0.615</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7503,10 +7503,10 @@
         <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7514,7 +7514,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5410575</v>
+        <v>5410574</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7526,73 +7526,73 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K79">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="L79">
         <v>4</v>
       </c>
       <c r="M79">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="N79">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
         <v>3.8</v>
       </c>
       <c r="P79">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7603,7 +7603,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5410574</v>
+        <v>5420462</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7615,34 +7615,34 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s">
         <v>30</v>
       </c>
-      <c r="G80" t="s">
-        <v>52</v>
-      </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
         <v>2.875</v>
       </c>
       <c r="N80">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
         <v>2.45</v>
@@ -7651,13 +7651,13 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
         <v>1.925</v>
@@ -7666,25 +7666,25 @@
         <v>1.875</v>
       </c>
       <c r="W80">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7704,7 +7704,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
         <v>46</v>
@@ -7882,7 +7882,7 @@
         <v>44991.5</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>50</v>
@@ -8149,7 +8149,7 @@
         <v>44991.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
         <v>44</v>
@@ -8315,7 +8315,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5420461</v>
+        <v>5416764</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8327,49 +8327,49 @@
         <v>44991.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>60</v>
       </c>
       <c r="K88">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N88">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O88">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8378,7 +8378,7 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8387,16 +8387,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8404,7 +8404,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5416764</v>
+        <v>5420461</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8416,49 +8416,49 @@
         <v>44991.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>60</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M89">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N89">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O89">
+        <v>5.5</v>
+      </c>
+      <c r="P89">
+        <v>7</v>
+      </c>
+      <c r="Q89">
+        <v>-1.75</v>
+      </c>
+      <c r="R89">
+        <v>1.775</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
         <v>4</v>
-      </c>
-      <c r="P89">
-        <v>4.2</v>
-      </c>
-      <c r="Q89">
-        <v>-0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.75</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
       </c>
       <c r="U89">
         <v>1.825</v>
@@ -8467,7 +8467,7 @@
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8476,16 +8476,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8775,7 +8775,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8864,7 +8864,7 @@
         <v>52</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -9039,10 +9039,10 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9131,7 +9131,7 @@
         <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9309,7 +9309,7 @@
         <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -10006,7 +10006,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5410586</v>
+        <v>5410588</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10018,49 +10018,49 @@
         <v>45016.625</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>62</v>
       </c>
       <c r="K107">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M107">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N107">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P107">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
         <v>1.825</v>
@@ -10072,22 +10072,22 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10095,7 +10095,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5410588</v>
+        <v>5410587</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10107,76 +10107,76 @@
         <v>45016.625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>60</v>
+      </c>
+      <c r="K108">
+        <v>2.1</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>2.625</v>
+      </c>
+      <c r="N108">
         <v>2</v>
       </c>
-      <c r="I108">
-        <v>2</v>
-      </c>
-      <c r="J108" t="s">
-        <v>62</v>
-      </c>
-      <c r="K108">
-        <v>1.4</v>
-      </c>
-      <c r="L108">
-        <v>4.5</v>
-      </c>
-      <c r="M108">
-        <v>5.5</v>
-      </c>
-      <c r="N108">
-        <v>1.25</v>
-      </c>
       <c r="O108">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q108">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X108">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10184,7 +10184,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5410587</v>
+        <v>5410586</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10196,76 +10196,76 @@
         <v>45016.625</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.025</v>
+      </c>
+      <c r="T109">
+        <v>2.75</v>
+      </c>
+      <c r="U109">
         <v>1.825</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>1.975</v>
       </c>
-      <c r="T109">
-        <v>3</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
-      <c r="V109">
-        <v>1.875</v>
-      </c>
       <c r="W109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10451,7 +10451,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5420454</v>
+        <v>5410591</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10463,40 +10463,40 @@
         <v>45019.625</v>
       </c>
       <c r="F112" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>61</v>
       </c>
       <c r="K112">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="L112">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="M112">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="O112">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P112">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R112">
         <v>1.85</v>
@@ -10505,13 +10505,13 @@
         <v>1.95</v>
       </c>
       <c r="T112">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10520,7 +10520,7 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z112">
         <v>-1</v>
@@ -10529,10 +10529,10 @@
         <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10540,7 +10540,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5420453</v>
+        <v>5420454</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10552,76 +10552,76 @@
         <v>45019.625</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="L113">
+        <v>6.5</v>
+      </c>
+      <c r="M113">
+        <v>1.222</v>
+      </c>
+      <c r="N113">
+        <v>7</v>
+      </c>
+      <c r="O113">
+        <v>6.5</v>
+      </c>
+      <c r="P113">
+        <v>1.25</v>
+      </c>
+      <c r="Q113">
+        <v>2</v>
+      </c>
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
+        <v>1.95</v>
+      </c>
+      <c r="T113">
         <v>4</v>
-      </c>
-      <c r="M113">
-        <v>2.25</v>
-      </c>
-      <c r="N113">
-        <v>2.3</v>
-      </c>
-      <c r="O113">
-        <v>3.8</v>
-      </c>
-      <c r="P113">
-        <v>2.375</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>1.875</v>
-      </c>
-      <c r="S113">
-        <v>1.925</v>
-      </c>
-      <c r="T113">
-        <v>3.5</v>
       </c>
       <c r="U113">
         <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10629,7 +10629,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5410591</v>
+        <v>5420453</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10641,76 +10641,76 @@
         <v>45019.625</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K114">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L114">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N114">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O114">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y114">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10718,7 +10718,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5416767</v>
+        <v>5410592</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10730,76 +10730,76 @@
         <v>45019.625</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>61</v>
+      </c>
+      <c r="K115">
+        <v>4.5</v>
+      </c>
+      <c r="L115">
+        <v>4.2</v>
+      </c>
+      <c r="M115">
+        <v>1.533</v>
+      </c>
+      <c r="N115">
+        <v>4.5</v>
+      </c>
+      <c r="O115">
+        <v>4.2</v>
+      </c>
+      <c r="P115">
+        <v>1.55</v>
+      </c>
+      <c r="Q115">
         <v>1</v>
       </c>
-      <c r="J115" t="s">
-        <v>60</v>
-      </c>
-      <c r="K115">
-        <v>3.8</v>
-      </c>
-      <c r="L115">
-        <v>4</v>
-      </c>
-      <c r="M115">
-        <v>1.666</v>
-      </c>
-      <c r="N115">
-        <v>3.2</v>
-      </c>
-      <c r="O115">
-        <v>3.6</v>
-      </c>
-      <c r="P115">
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
       </c>
-      <c r="Q115">
-        <v>0.5</v>
-      </c>
-      <c r="R115">
-        <v>1.8</v>
-      </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
       <c r="T115">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10807,7 +10807,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5410592</v>
+        <v>5416767</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10819,76 +10819,76 @@
         <v>45019.625</v>
       </c>
       <c r="F116" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>1</v>
       </c>
-      <c r="I116">
+      <c r="J116" t="s">
+        <v>60</v>
+      </c>
+      <c r="K116">
+        <v>3.8</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>1.666</v>
+      </c>
+      <c r="N116">
+        <v>3.2</v>
+      </c>
+      <c r="O116">
+        <v>3.6</v>
+      </c>
+      <c r="P116">
+        <v>1.95</v>
+      </c>
+      <c r="Q116">
+        <v>0.5</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
         <v>2</v>
       </c>
-      <c r="J116" t="s">
-        <v>61</v>
-      </c>
-      <c r="K116">
-        <v>4.5</v>
-      </c>
-      <c r="L116">
-        <v>4.2</v>
-      </c>
-      <c r="M116">
-        <v>1.533</v>
-      </c>
-      <c r="N116">
-        <v>4.5</v>
-      </c>
-      <c r="O116">
-        <v>4.2</v>
-      </c>
-      <c r="P116">
-        <v>1.55</v>
-      </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>1.85</v>
-      </c>
-      <c r="S116">
-        <v>1.95</v>
-      </c>
       <c r="T116">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10985,7 +10985,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6494113</v>
+        <v>6112471</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10997,76 +10997,76 @@
         <v>45023.375</v>
       </c>
       <c r="F118" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M118">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N118">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O118">
         <v>3.75</v>
       </c>
       <c r="P118">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11074,7 +11074,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6112471</v>
+        <v>6494113</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11086,76 +11086,76 @@
         <v>45023.375</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G119" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N119">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O119">
         <v>3.75</v>
       </c>
       <c r="P119">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
         <v>3</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y119">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11175,7 +11175,7 @@
         <v>45023.625</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>41</v>
@@ -11356,7 +11356,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>5</v>
@@ -11430,7 +11430,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5410593</v>
+        <v>5420452</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11442,49 +11442,49 @@
         <v>45030.625</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H123">
         <v>3</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K123">
-        <v>2.3</v>
+        <v>1.142</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M123">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="N123">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P123">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R123">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U123">
         <v>1.925</v>
@@ -11493,25 +11493,25 @@
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X123">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.3625</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11519,7 +11519,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5420450</v>
+        <v>5410593</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11531,76 +11531,76 @@
         <v>45030.625</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K124">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N124">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O124">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>1.725</v>
+      </c>
+      <c r="S124">
+        <v>1.975</v>
+      </c>
+      <c r="T124">
+        <v>3.25</v>
+      </c>
+      <c r="U124">
+        <v>1.925</v>
+      </c>
+      <c r="V124">
         <v>1.875</v>
       </c>
-      <c r="S124">
-        <v>1.925</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.85</v>
-      </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
       <c r="W124">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>0.3625</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11608,7 +11608,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5420451</v>
+        <v>5420450</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11620,76 +11620,76 @@
         <v>45030.625</v>
       </c>
       <c r="F125" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
         <v>0</v>
       </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
       <c r="J125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K125">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N125">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
         <v>3.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11697,7 +11697,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5420452</v>
+        <v>5420451</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11709,76 +11709,76 @@
         <v>45030.625</v>
       </c>
       <c r="F126" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G126" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>61</v>
+      </c>
+      <c r="K126">
+        <v>2.55</v>
+      </c>
+      <c r="L126">
+        <v>3.5</v>
+      </c>
+      <c r="M126">
+        <v>2.3</v>
+      </c>
+      <c r="N126">
+        <v>2.625</v>
+      </c>
+      <c r="O126">
+        <v>3.4</v>
+      </c>
+      <c r="P126">
+        <v>2.25</v>
+      </c>
+      <c r="Q126">
         <v>0</v>
       </c>
-      <c r="J126" t="s">
-        <v>60</v>
-      </c>
-      <c r="K126">
-        <v>1.142</v>
-      </c>
-      <c r="L126">
-        <v>7</v>
-      </c>
-      <c r="M126">
-        <v>10</v>
-      </c>
-      <c r="N126">
-        <v>1.25</v>
-      </c>
-      <c r="O126">
-        <v>6.5</v>
-      </c>
-      <c r="P126">
-        <v>7</v>
-      </c>
-      <c r="Q126">
-        <v>-2</v>
-      </c>
       <c r="R126">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T126">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U126">
         <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11976,7 +11976,7 @@
         <v>45032.33333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>35</v>
@@ -12053,7 +12053,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5410598</v>
+        <v>5416768</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12065,40 +12065,40 @@
         <v>45033.375</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I130">
         <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L130">
         <v>4</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N130">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
         <v>1.9</v>
@@ -12107,31 +12107,31 @@
         <v>1.9</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12142,7 +12142,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5416768</v>
+        <v>5410598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12154,40 +12154,40 @@
         <v>45033.375</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
         <v>4</v>
       </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N131">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O131">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
         <v>1.9</v>
@@ -12196,31 +12196,31 @@
         <v>1.9</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12246,7 +12246,7 @@
         <v>50</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12320,7 +12320,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6532859</v>
+        <v>6471576</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12332,76 +12332,76 @@
         <v>45033.625</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K133">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="N133">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X133">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12409,7 +12409,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6471576</v>
+        <v>6532859</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12421,76 +12421,76 @@
         <v>45033.625</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K134">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M134">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
+        <v>3.5</v>
+      </c>
+      <c r="U134">
         <v>1.9</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.9</v>
       </c>
-      <c r="T134">
-        <v>3</v>
-      </c>
-      <c r="U134">
-        <v>1.75</v>
-      </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12510,7 +12510,7 @@
         <v>45033.625</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
         <v>43</v>
@@ -12602,7 +12602,7 @@
         <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12777,7 +12777,7 @@
         <v>45037.625</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
         <v>51</v>
@@ -13225,7 +13225,7 @@
         <v>53</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13400,10 +13400,10 @@
         <v>45040.625</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13934,7 +13934,7 @@
         <v>45044.625</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>41</v>
@@ -14115,7 +14115,7 @@
         <v>48</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14290,7 +14290,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>35</v>
@@ -14382,7 +14382,7 @@
         <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14468,7 +14468,7 @@
         <v>45051.625</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14824,10 +14824,10 @@
         <v>45054.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -15002,7 +15002,7 @@
         <v>45054.625</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
         <v>50</v>
@@ -15094,7 +15094,7 @@
         <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15257,7 +15257,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7032481</v>
+        <v>7032279</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15269,73 +15269,73 @@
         <v>45149.625</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H166">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K166">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N166">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O166">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S166">
         <v>1.95</v>
       </c>
       <c r="T166">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15346,7 +15346,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7032276</v>
+        <v>7046788</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15358,49 +15358,49 @@
         <v>45149.625</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K167">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N167">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U167">
         <v>1.85</v>
@@ -15409,25 +15409,25 @@
         <v>1.95</v>
       </c>
       <c r="W167">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC167">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15435,7 +15435,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032279</v>
+        <v>7032481</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15447,73 +15447,73 @@
         <v>45149.625</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K168">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M168">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N168">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P168">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA168">
+        <v>-1</v>
+      </c>
+      <c r="AB168">
         <v>0.95</v>
-      </c>
-      <c r="AB168">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15524,7 +15524,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7046788</v>
+        <v>7032276</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15536,49 +15536,49 @@
         <v>45149.625</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>60</v>
+      </c>
+      <c r="K169">
+        <v>2.15</v>
+      </c>
+      <c r="L169">
+        <v>3.75</v>
+      </c>
+      <c r="M169">
+        <v>2.6</v>
+      </c>
+      <c r="N169">
+        <v>1.833</v>
+      </c>
+      <c r="O169">
         <v>4</v>
       </c>
-      <c r="J169" t="s">
-        <v>61</v>
-      </c>
-      <c r="K169">
-        <v>2.75</v>
-      </c>
-      <c r="L169">
-        <v>4</v>
-      </c>
-      <c r="M169">
-        <v>2</v>
-      </c>
-      <c r="N169">
-        <v>1.6</v>
-      </c>
-      <c r="O169">
-        <v>4.333</v>
-      </c>
       <c r="P169">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U169">
         <v>1.85</v>
@@ -15587,25 +15587,25 @@
         <v>1.95</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15714,7 +15714,7 @@
         <v>45151.35416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
         <v>33</v>
@@ -15892,7 +15892,7 @@
         <v>45152.625</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
         <v>29</v>
@@ -15981,7 +15981,7 @@
         <v>45152.625</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>49</v>
@@ -16070,7 +16070,7 @@
         <v>45152.625</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
         <v>53</v>
@@ -16162,7 +16162,7 @@
         <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H176">
         <v>4</v>
@@ -16340,7 +16340,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16414,7 +16414,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7032294</v>
+        <v>7032293</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16426,34 +16426,34 @@
         <v>45156.625</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H179">
+        <v>4</v>
+      </c>
+      <c r="I179">
         <v>2</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>60</v>
       </c>
       <c r="K179">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M179">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N179">
         <v>1.55</v>
       </c>
       <c r="O179">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
         <v>4</v>
@@ -16462,19 +16462,19 @@
         <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
         <v>0.55</v>
@@ -16486,16 +16486,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16503,7 +16503,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7032293</v>
+        <v>7032294</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16515,34 +16515,34 @@
         <v>45156.625</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G180" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>60</v>
       </c>
       <c r="K180">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L180">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N180">
         <v>1.55</v>
       </c>
       <c r="O180">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P180">
         <v>4</v>
@@ -16551,19 +16551,19 @@
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
         <v>0.55</v>
@@ -16575,16 +16575,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16607,7 +16607,7 @@
         <v>49</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16693,7 +16693,7 @@
         <v>45156.625</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
         <v>34</v>
@@ -16963,7 +16963,7 @@
         <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H185">
         <v>4</v>
@@ -17141,7 +17141,7 @@
         <v>52</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H187">
         <v>4</v>
@@ -17586,7 +17586,7 @@
         <v>50</v>
       </c>
       <c r="G192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -18028,7 +18028,7 @@
         <v>45163.625</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18209,7 +18209,7 @@
         <v>55</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18387,7 +18387,7 @@
         <v>44</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H201">
         <v>4</v>
@@ -18476,7 +18476,7 @@
         <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -18562,7 +18562,7 @@
         <v>45166.625</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18651,7 +18651,7 @@
         <v>45170.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
         <v>33</v>
@@ -18817,7 +18817,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7032487</v>
+        <v>7039926</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18829,58 +18829,58 @@
         <v>45170.625</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G206" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>60</v>
       </c>
       <c r="K206">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N206">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O206">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q206">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18889,16 +18889,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18906,7 +18906,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7039926</v>
+        <v>7032307</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18918,58 +18918,58 @@
         <v>45170.625</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>60</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L207">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M207">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N207">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O207">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P207">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q207">
         <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T207">
         <v>3.75</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
-        <v>0.6499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18978,7 +18978,7 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA207">
         <v>-0.5</v>
@@ -18987,7 +18987,7 @@
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18995,7 +18995,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7032307</v>
+        <v>7032309</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19007,58 +19007,58 @@
         <v>45170.625</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
       </c>
       <c r="H208">
+        <v>3</v>
+      </c>
+      <c r="I208">
         <v>1</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>60</v>
       </c>
       <c r="K208">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L208">
         <v>4</v>
       </c>
       <c r="M208">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N208">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O208">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T208">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19067,16 +19067,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19084,7 +19084,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7032309</v>
+        <v>7032310</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19096,58 +19096,58 @@
         <v>45170.625</v>
       </c>
       <c r="F209" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H209">
         <v>3</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
         <v>60</v>
       </c>
       <c r="K209">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
         <v>4</v>
       </c>
       <c r="M209">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N209">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O209">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P209">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19156,13 +19156,13 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19173,7 +19173,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7032310</v>
+        <v>7032487</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19185,49 +19185,49 @@
         <v>45170.625</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H210">
         <v>3</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>60</v>
       </c>
       <c r="K210">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L210">
+        <v>5</v>
+      </c>
+      <c r="M210">
+        <v>5</v>
+      </c>
+      <c r="N210">
+        <v>1.285</v>
+      </c>
+      <c r="O210">
+        <v>5.25</v>
+      </c>
+      <c r="P210">
+        <v>6.5</v>
+      </c>
+      <c r="Q210">
+        <v>-1.75</v>
+      </c>
+      <c r="R210">
+        <v>1.9</v>
+      </c>
+      <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
         <v>4</v>
-      </c>
-      <c r="M210">
-        <v>2.3</v>
-      </c>
-      <c r="N210">
-        <v>2</v>
-      </c>
-      <c r="O210">
-        <v>4</v>
-      </c>
-      <c r="P210">
-        <v>2.75</v>
-      </c>
-      <c r="Q210">
-        <v>-0.25</v>
-      </c>
-      <c r="R210">
-        <v>1.825</v>
-      </c>
-      <c r="S210">
-        <v>1.975</v>
-      </c>
-      <c r="T210">
-        <v>3.5</v>
       </c>
       <c r="U210">
         <v>1.9</v>
@@ -19236,7 +19236,7 @@
         <v>1.9</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19245,16 +19245,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC210">
-        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19274,7 +19274,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
         <v>29</v>
@@ -19452,7 +19452,7 @@
         <v>45171.375</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G213" t="s">
         <v>34</v>
@@ -19630,7 +19630,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
         <v>43</v>
@@ -19897,7 +19897,7 @@
         <v>45191.625</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -20164,7 +20164,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
         <v>46</v>
@@ -20345,7 +20345,7 @@
         <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20698,7 +20698,7 @@
         <v>45194.625</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
         <v>49</v>
@@ -20787,7 +20787,7 @@
         <v>45194.625</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
         <v>53</v>
@@ -20879,7 +20879,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20953,7 +20953,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7032338</v>
+        <v>7032337</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20965,76 +20965,76 @@
         <v>45198.625</v>
       </c>
       <c r="F230" t="s">
+        <v>31</v>
+      </c>
+      <c r="G230" t="s">
         <v>40</v>
-      </c>
-      <c r="G230" t="s">
-        <v>32</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K230">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="L230">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M230">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N230">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O230">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P230">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z230">
+        <v>-1</v>
+      </c>
+      <c r="AA230">
+        <v>0.875</v>
+      </c>
+      <c r="AB230">
         <v>-0.5</v>
       </c>
-      <c r="AA230">
-        <v>0.475</v>
-      </c>
-      <c r="AB230">
-        <v>-1</v>
-      </c>
       <c r="AC230">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21057,7 +21057,7 @@
         <v>51</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21232,7 +21232,7 @@
         <v>45198.625</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G233" t="s">
         <v>41</v>
@@ -21309,7 +21309,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7032337</v>
+        <v>7032338</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21321,76 +21321,76 @@
         <v>45198.625</v>
       </c>
       <c r="F234" t="s">
+        <v>38</v>
+      </c>
+      <c r="G234" t="s">
         <v>30</v>
-      </c>
-      <c r="G234" t="s">
-        <v>39</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K234">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="L234">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M234">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N234">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O234">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P234">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q234">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U234">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y234">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA234">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21932,7 +21932,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7032492</v>
+        <v>7234518</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21944,58 +21944,58 @@
         <v>45201.625</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G241" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H241">
+        <v>4</v>
+      </c>
+      <c r="I241">
         <v>2</v>
-      </c>
-      <c r="I241">
-        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>60</v>
       </c>
       <c r="K241">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M241">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N241">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O241">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P241">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
         <v>-1</v>
       </c>
       <c r="R241">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T241">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
-        <v>0.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -22004,16 +22004,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC241">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22021,7 +22021,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7234518</v>
+        <v>7032492</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22033,58 +22033,58 @@
         <v>45201.625</v>
       </c>
       <c r="F242" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
         <v>60</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L242">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M242">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N242">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O242">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P242">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q242">
         <v>-1</v>
       </c>
       <c r="R242">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T242">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U242">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V242">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W242">
-        <v>0.5329999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X242">
         <v>-1</v>
@@ -22093,16 +22093,16 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA242">
         <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22211,7 +22211,7 @@
         <v>45226.625</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
         <v>43</v>
@@ -22300,7 +22300,7 @@
         <v>45226.625</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
         <v>52</v>
@@ -22392,7 +22392,7 @@
         <v>42</v>
       </c>
       <c r="G246" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22555,7 +22555,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7032346</v>
+        <v>7032345</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22567,76 +22567,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K248">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L248">
         <v>3.75</v>
       </c>
       <c r="M248">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N248">
+        <v>2.1</v>
+      </c>
+      <c r="O248">
+        <v>3.75</v>
+      </c>
+      <c r="P248">
+        <v>2.7</v>
+      </c>
+      <c r="Q248">
+        <v>-0.25</v>
+      </c>
+      <c r="R248">
+        <v>1.95</v>
+      </c>
+      <c r="S248">
         <v>1.85</v>
-      </c>
-      <c r="O248">
-        <v>3.8</v>
-      </c>
-      <c r="P248">
-        <v>3.1</v>
-      </c>
-      <c r="Q248">
-        <v>-0.5</v>
-      </c>
-      <c r="R248">
-        <v>1.975</v>
-      </c>
-      <c r="S248">
-        <v>1.825</v>
       </c>
       <c r="T248">
         <v>3.5</v>
       </c>
       <c r="U248">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V248">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W248">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC248">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22644,7 +22644,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7032345</v>
+        <v>7032346</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22656,76 +22656,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G249" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249" t="s">
+        <v>60</v>
+      </c>
+      <c r="K249">
         <v>2</v>
-      </c>
-      <c r="I249">
-        <v>2</v>
-      </c>
-      <c r="J249" t="s">
-        <v>62</v>
-      </c>
-      <c r="K249">
-        <v>2.875</v>
       </c>
       <c r="L249">
         <v>3.75</v>
       </c>
       <c r="M249">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N249">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O249">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P249">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q249">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R249">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
         <v>3.5</v>
       </c>
       <c r="U249">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V249">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X249">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA249">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22822,7 +22822,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7032495</v>
+        <v>7039940</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22834,16 +22834,16 @@
         <v>45229.66666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G251" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H251">
+        <v>7</v>
+      </c>
+      <c r="I251">
         <v>2</v>
-      </c>
-      <c r="I251">
-        <v>1</v>
       </c>
       <c r="J251" t="s">
         <v>60</v>
@@ -22858,10 +22858,10 @@
         <v>3</v>
       </c>
       <c r="N251">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O251">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P251">
         <v>3.6</v>
@@ -22870,22 +22870,22 @@
         <v>-0.75</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T251">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U251">
-        <v>1.9</v>
+        <v>1.675</v>
       </c>
       <c r="V251">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="W251">
-        <v>0.615</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X251">
         <v>-1</v>
@@ -22894,16 +22894,16 @@
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.675</v>
       </c>
       <c r="AC251">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22911,7 +22911,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7032348</v>
+        <v>7032495</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22923,58 +22923,58 @@
         <v>45229.66666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="s">
         <v>60</v>
       </c>
       <c r="K252">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M252">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N252">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="O252">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P252">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q252">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R252">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T252">
         <v>3.75</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V252">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W252">
-        <v>0.45</v>
+        <v>0.615</v>
       </c>
       <c r="X252">
         <v>-1</v>
@@ -22983,16 +22983,16 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23000,7 +23000,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7039940</v>
+        <v>7032348</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -23012,58 +23012,58 @@
         <v>45229.66666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G253" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H253">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
         <v>60</v>
       </c>
       <c r="K253">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L253">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M253">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N253">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="O253">
         <v>4.75</v>
       </c>
       <c r="P253">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q253">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R253">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S253">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T253">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U253">
-        <v>1.675</v>
+        <v>1.825</v>
       </c>
       <c r="V253">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="W253">
-        <v>0.6000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23072,16 +23072,16 @@
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.675</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23104,7 +23104,7 @@
         <v>33</v>
       </c>
       <c r="G254" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23267,7 +23267,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7032350</v>
+        <v>7032353</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23279,73 +23279,73 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G256" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I256">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J256" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K256">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L256">
         <v>4.5</v>
       </c>
       <c r="M256">
+        <v>3.2</v>
+      </c>
+      <c r="N256">
+        <v>2.15</v>
+      </c>
+      <c r="O256">
+        <v>4.2</v>
+      </c>
+      <c r="P256">
         <v>2.4</v>
       </c>
-      <c r="N256">
-        <v>1.533</v>
-      </c>
-      <c r="O256">
-        <v>5</v>
-      </c>
-      <c r="P256">
-        <v>3.6</v>
-      </c>
       <c r="Q256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R256">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S256">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T256">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V256">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB256">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC256">
         <v>-1</v>
@@ -23356,7 +23356,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7032496</v>
+        <v>7032352</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23368,76 +23368,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G257" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K257">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L257">
         <v>4.5</v>
       </c>
       <c r="M257">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="N257">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O257">
         <v>4.5</v>
       </c>
       <c r="P257">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R257">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S257">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T257">
         <v>3.75</v>
       </c>
       <c r="U257">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V257">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y257">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA257">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB257">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23457,7 +23457,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
         <v>36</v>
@@ -23534,7 +23534,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7032352</v>
+        <v>7032350</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23546,76 +23546,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G259" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J259" t="s">
         <v>62</v>
       </c>
       <c r="K259">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L259">
         <v>4.5</v>
       </c>
       <c r="M259">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N259">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="O259">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P259">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q259">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R259">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S259">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V259">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB259">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AC259">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23623,7 +23623,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7032353</v>
+        <v>7032496</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23635,55 +23635,55 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G260" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I260">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J260" t="s">
         <v>61</v>
       </c>
       <c r="K260">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L260">
         <v>4.5</v>
       </c>
       <c r="M260">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N260">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O260">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P260">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R260">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S260">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T260">
         <v>3.75</v>
       </c>
       <c r="U260">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V260">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W260">
         <v>-1</v>
@@ -23692,16 +23692,16 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z260">
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB260">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC260">
         <v>-1</v>
@@ -23712,7 +23712,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7047519</v>
+        <v>7032356</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23724,58 +23724,58 @@
         <v>45234.375</v>
       </c>
       <c r="F261" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G261" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H261">
+        <v>3</v>
+      </c>
+      <c r="I261">
         <v>1</v>
-      </c>
-      <c r="I261">
-        <v>0</v>
       </c>
       <c r="J261" t="s">
         <v>60</v>
       </c>
       <c r="K261">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="L261">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M261">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N261">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="O261">
+        <v>4.333</v>
+      </c>
+      <c r="P261">
+        <v>3.75</v>
+      </c>
+      <c r="Q261">
+        <v>-1</v>
+      </c>
+      <c r="R261">
+        <v>1.925</v>
+      </c>
+      <c r="S261">
+        <v>1.775</v>
+      </c>
+      <c r="T261">
         <v>4</v>
       </c>
-      <c r="P261">
-        <v>2</v>
-      </c>
-      <c r="Q261">
-        <v>0.25</v>
-      </c>
-      <c r="R261">
+      <c r="U261">
         <v>1.975</v>
       </c>
-      <c r="S261">
+      <c r="V261">
         <v>1.825</v>
       </c>
-      <c r="T261">
-        <v>3.5</v>
-      </c>
-      <c r="U261">
-        <v>1.825</v>
-      </c>
-      <c r="V261">
-        <v>1.975</v>
-      </c>
       <c r="W261">
-        <v>1.875</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X261">
         <v>-1</v>
@@ -23784,16 +23784,16 @@
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA261">
         <v>-1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC261">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23801,7 +23801,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7032356</v>
+        <v>7047519</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23813,58 +23813,58 @@
         <v>45234.375</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G262" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
         <v>60</v>
       </c>
       <c r="K262">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="L262">
+        <v>4.5</v>
+      </c>
+      <c r="M262">
+        <v>1.444</v>
+      </c>
+      <c r="N262">
+        <v>2.875</v>
+      </c>
+      <c r="O262">
         <v>4</v>
       </c>
-      <c r="M262">
-        <v>3.1</v>
-      </c>
-      <c r="N262">
-        <v>1.6</v>
-      </c>
-      <c r="O262">
-        <v>4.333</v>
-      </c>
       <c r="P262">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q262">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R262">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S262">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U262">
+        <v>1.825</v>
+      </c>
+      <c r="V262">
         <v>1.975</v>
       </c>
-      <c r="V262">
-        <v>1.825</v>
-      </c>
       <c r="W262">
-        <v>0.6000000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X262">
         <v>-1</v>
@@ -23873,16 +23873,16 @@
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA262">
         <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -24335,7 +24335,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7032359</v>
+        <v>7032360</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24347,58 +24347,58 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F268" t="s">
+        <v>48</v>
+      </c>
+      <c r="G268" t="s">
         <v>30</v>
-      </c>
-      <c r="G268" t="s">
-        <v>37</v>
       </c>
       <c r="H268">
         <v>3</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
         <v>60</v>
       </c>
       <c r="K268">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M268">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N268">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O268">
         <v>4.5</v>
       </c>
       <c r="P268">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q268">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R268">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S268">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T268">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U268">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X268">
         <v>-1</v>
@@ -24407,16 +24407,16 @@
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC268">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24424,7 +24424,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7032360</v>
+        <v>7032359</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24436,58 +24436,58 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H269">
         <v>3</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
         <v>60</v>
       </c>
       <c r="K269">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L269">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M269">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N269">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O269">
         <v>4.5</v>
       </c>
       <c r="P269">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q269">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R269">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S269">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T269">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U269">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V269">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W269">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X269">
         <v>-1</v>
@@ -24496,16 +24496,16 @@
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24703,7 +24703,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
         <v>33</v>
@@ -24792,7 +24792,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G273" t="s">
         <v>36</v>
@@ -24973,7 +24973,7 @@
         <v>51</v>
       </c>
       <c r="G275" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25059,7 +25059,7 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
         <v>50</v>
@@ -25151,7 +25151,7 @@
         <v>43</v>
       </c>
       <c r="G277" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H277">
         <v>3</v>
@@ -25240,7 +25240,7 @@
         <v>37</v>
       </c>
       <c r="G278" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25492,7 +25492,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7032374</v>
+        <v>7032500</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25504,76 +25504,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K281">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L281">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M281">
-        <v>1.615</v>
+        <v>5.5</v>
       </c>
       <c r="N281">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O281">
+        <v>6.5</v>
+      </c>
+      <c r="P281">
+        <v>7.5</v>
+      </c>
+      <c r="Q281">
+        <v>-2</v>
+      </c>
+      <c r="R281">
+        <v>1.875</v>
+      </c>
+      <c r="S281">
+        <v>1.925</v>
+      </c>
+      <c r="T281">
         <v>4</v>
       </c>
-      <c r="P281">
-        <v>2.625</v>
-      </c>
-      <c r="Q281">
-        <v>-0.25</v>
-      </c>
-      <c r="R281">
-        <v>1.925</v>
-      </c>
-      <c r="S281">
-        <v>1.875</v>
-      </c>
-      <c r="T281">
-        <v>3.25</v>
-      </c>
       <c r="U281">
+        <v>1.975</v>
+      </c>
+      <c r="V281">
         <v>1.825</v>
       </c>
-      <c r="V281">
-        <v>1.975</v>
-      </c>
       <c r="W281">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z281">
+        <v>-1</v>
+      </c>
+      <c r="AA281">
         <v>0.925</v>
       </c>
-      <c r="AA281">
-        <v>-1</v>
-      </c>
       <c r="AB281">
+        <v>-1</v>
+      </c>
+      <c r="AC281">
         <v>0.825</v>
-      </c>
-      <c r="AC281">
-        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25581,7 +25581,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7032499</v>
+        <v>7032372</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25593,76 +25593,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G282" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H282">
         <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J282" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K282">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L282">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="M282">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N282">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O282">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P282">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q282">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R282">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S282">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T282">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U282">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V282">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W282">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC282">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25682,7 +25682,7 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G283" t="s">
         <v>41</v>
@@ -25759,7 +25759,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7032372</v>
+        <v>7039936</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25771,40 +25771,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G284" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K284">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L284">
         <v>4.1</v>
       </c>
       <c r="M284">
-        <v>2.05</v>
+        <v>1.869</v>
       </c>
       <c r="N284">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O284">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P284">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q284">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
         <v>1.95</v>
@@ -25813,34 +25813,34 @@
         <v>1.85</v>
       </c>
       <c r="T284">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U284">
+        <v>1.85</v>
+      </c>
+      <c r="V284">
         <v>1.95</v>
       </c>
-      <c r="V284">
-        <v>1.85</v>
-      </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y284">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA284">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB284">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25848,7 +25848,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7032500</v>
+        <v>7032499</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25860,76 +25860,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G285" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K285">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L285">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M285">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N285">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O285">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P285">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q285">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R285">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S285">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T285">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U285">
+        <v>1.825</v>
+      </c>
+      <c r="V285">
         <v>1.975</v>
       </c>
-      <c r="V285">
-        <v>1.825</v>
-      </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25937,7 +25937,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7039936</v>
+        <v>7032374</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25949,76 +25949,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F286" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G286" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K286">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L286">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M286">
-        <v>1.869</v>
+        <v>1.615</v>
       </c>
       <c r="N286">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O286">
         <v>4</v>
       </c>
       <c r="P286">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q286">
         <v>-0.25</v>
       </c>
       <c r="R286">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S286">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T286">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U286">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V286">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X286">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA286">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26038,10 +26038,10 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F287" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G287" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -26394,10 +26394,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G291" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -26483,7 +26483,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G292" t="s">
         <v>53</v>
@@ -27020,7 +27020,7 @@
         <v>55</v>
       </c>
       <c r="G298" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H298">
         <v>2</v>
@@ -27272,7 +27272,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7039946</v>
+        <v>7032395</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27284,76 +27284,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G301" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I301">
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K301">
+        <v>1.333</v>
+      </c>
+      <c r="L301">
+        <v>5</v>
+      </c>
+      <c r="M301">
+        <v>6</v>
+      </c>
+      <c r="N301">
+        <v>1.5</v>
+      </c>
+      <c r="O301">
+        <v>4.333</v>
+      </c>
+      <c r="P301">
+        <v>4.5</v>
+      </c>
+      <c r="Q301">
+        <v>-1</v>
+      </c>
+      <c r="R301">
+        <v>1.825</v>
+      </c>
+      <c r="S301">
+        <v>1.975</v>
+      </c>
+      <c r="T301">
+        <v>3.75</v>
+      </c>
+      <c r="U301">
         <v>1.8</v>
       </c>
-      <c r="L301">
-        <v>4</v>
-      </c>
-      <c r="M301">
-        <v>3.25</v>
-      </c>
-      <c r="N301">
-        <v>1.7</v>
-      </c>
-      <c r="O301">
-        <v>4</v>
-      </c>
-      <c r="P301">
-        <v>3.75</v>
-      </c>
-      <c r="Q301">
-        <v>-0.75</v>
-      </c>
-      <c r="R301">
-        <v>1.85</v>
-      </c>
-      <c r="S301">
-        <v>1.95</v>
-      </c>
-      <c r="T301">
-        <v>3.5</v>
-      </c>
-      <c r="U301">
-        <v>1.825</v>
-      </c>
       <c r="V301">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA301">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC301">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27361,7 +27361,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7032395</v>
+        <v>7039946</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27373,76 +27373,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G302" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K302">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L302">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M302">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N302">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O302">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P302">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q302">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R302">
+        <v>1.85</v>
+      </c>
+      <c r="S302">
+        <v>1.95</v>
+      </c>
+      <c r="T302">
+        <v>3.5</v>
+      </c>
+      <c r="U302">
         <v>1.825</v>
       </c>
-      <c r="S302">
+      <c r="V302">
         <v>1.975</v>
       </c>
-      <c r="T302">
-        <v>3.75</v>
-      </c>
-      <c r="U302">
-        <v>1.8</v>
-      </c>
-      <c r="V302">
-        <v>2</v>
-      </c>
       <c r="W302">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z302">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB302">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27821,7 +27821,7 @@
         <v>35</v>
       </c>
       <c r="G307" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H307">
         <v>2</v>
@@ -27910,7 +27910,7 @@
         <v>44</v>
       </c>
       <c r="G308" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H308">
         <v>2</v>
@@ -27984,7 +27984,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7032394</v>
+        <v>7032393</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27996,49 +27996,49 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G309" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H309">
         <v>1</v>
       </c>
       <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309" t="s">
+        <v>62</v>
+      </c>
+      <c r="K309">
         <v>2</v>
       </c>
-      <c r="J309" t="s">
-        <v>61</v>
-      </c>
-      <c r="K309">
-        <v>2.2</v>
-      </c>
       <c r="L309">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N309">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O309">
         <v>4</v>
       </c>
       <c r="P309">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q309">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R309">
+        <v>1.825</v>
+      </c>
+      <c r="S309">
         <v>1.975</v>
       </c>
-      <c r="S309">
-        <v>1.825</v>
-      </c>
       <c r="T309">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U309">
         <v>1.9</v>
@@ -28050,16 +28050,16 @@
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y309">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA309">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB309">
         <v>-1</v>
@@ -28088,7 +28088,7 @@
         <v>53</v>
       </c>
       <c r="G310" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -28177,7 +28177,7 @@
         <v>47</v>
       </c>
       <c r="G311" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -28251,7 +28251,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7032393</v>
+        <v>7032394</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28263,49 +28263,49 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G312" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H312">
         <v>1</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K312">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M312">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N312">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="O312">
         <v>4</v>
       </c>
       <c r="P312">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q312">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
+        <v>1.975</v>
+      </c>
+      <c r="S312">
         <v>1.825</v>
       </c>
-      <c r="S312">
-        <v>1.975</v>
-      </c>
       <c r="T312">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U312">
         <v>1.9</v>
@@ -28317,16 +28317,16 @@
         <v>-1</v>
       </c>
       <c r="X312">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z312">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB312">
         <v>-1</v>
@@ -28355,7 +28355,7 @@
         <v>51</v>
       </c>
       <c r="G313" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H313">
         <v>2</v>
@@ -28441,7 +28441,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G314" t="s">
         <v>44</v>
@@ -29156,7 +29156,7 @@
         <v>29</v>
       </c>
       <c r="G322" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H322">
         <v>3</v>
@@ -29312,228 +29312,6 @@
       </c>
       <c r="AC323">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:29">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>7039895</v>
-      </c>
-      <c r="C324" t="s">
-        <v>28</v>
-      </c>
-      <c r="D324" t="s">
-        <v>28</v>
-      </c>
-      <c r="E324" s="2">
-        <v>45339.375</v>
-      </c>
-      <c r="F324" t="s">
-        <v>55</v>
-      </c>
-      <c r="G324" t="s">
-        <v>38</v>
-      </c>
-      <c r="K324">
-        <v>2.3</v>
-      </c>
-      <c r="L324">
-        <v>3.75</v>
-      </c>
-      <c r="M324">
-        <v>2.4</v>
-      </c>
-      <c r="N324">
-        <v>2.3</v>
-      </c>
-      <c r="O324">
-        <v>3.75</v>
-      </c>
-      <c r="P324">
-        <v>2.45</v>
-      </c>
-      <c r="Q324">
-        <v>0</v>
-      </c>
-      <c r="R324">
-        <v>1.825</v>
-      </c>
-      <c r="S324">
-        <v>1.975</v>
-      </c>
-      <c r="T324">
-        <v>3.75</v>
-      </c>
-      <c r="U324">
-        <v>1.95</v>
-      </c>
-      <c r="V324">
-        <v>1.85</v>
-      </c>
-      <c r="W324">
-        <v>0</v>
-      </c>
-      <c r="X324">
-        <v>0</v>
-      </c>
-      <c r="Y324">
-        <v>0</v>
-      </c>
-      <c r="Z324">
-        <v>0</v>
-      </c>
-      <c r="AA324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:29">
-      <c r="A325" s="1">
-        <v>323</v>
-      </c>
-      <c r="B325">
-        <v>7032410</v>
-      </c>
-      <c r="C325" t="s">
-        <v>28</v>
-      </c>
-      <c r="D325" t="s">
-        <v>28</v>
-      </c>
-      <c r="E325" s="2">
-        <v>45339.375</v>
-      </c>
-      <c r="F325" t="s">
-        <v>52</v>
-      </c>
-      <c r="G325" t="s">
-        <v>48</v>
-      </c>
-      <c r="K325">
-        <v>2.05</v>
-      </c>
-      <c r="L325">
-        <v>4</v>
-      </c>
-      <c r="M325">
-        <v>2.7</v>
-      </c>
-      <c r="N325">
-        <v>2.05</v>
-      </c>
-      <c r="O325">
-        <v>4</v>
-      </c>
-      <c r="P325">
-        <v>2.7</v>
-      </c>
-      <c r="Q325">
-        <v>-0.25</v>
-      </c>
-      <c r="R325">
-        <v>1.875</v>
-      </c>
-      <c r="S325">
-        <v>1.925</v>
-      </c>
-      <c r="T325">
-        <v>3.75</v>
-      </c>
-      <c r="U325">
-        <v>1.9</v>
-      </c>
-      <c r="V325">
-        <v>1.9</v>
-      </c>
-      <c r="W325">
-        <v>0</v>
-      </c>
-      <c r="X325">
-        <v>0</v>
-      </c>
-      <c r="Y325">
-        <v>0</v>
-      </c>
-      <c r="Z325">
-        <v>0</v>
-      </c>
-      <c r="AA325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:29">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326">
-        <v>7032411</v>
-      </c>
-      <c r="C326" t="s">
-        <v>28</v>
-      </c>
-      <c r="D326" t="s">
-        <v>28</v>
-      </c>
-      <c r="E326" s="2">
-        <v>45339.41666666666</v>
-      </c>
-      <c r="F326" t="s">
-        <v>40</v>
-      </c>
-      <c r="G326" t="s">
-        <v>35</v>
-      </c>
-      <c r="K326">
-        <v>3</v>
-      </c>
-      <c r="L326">
-        <v>4</v>
-      </c>
-      <c r="M326">
-        <v>1.9</v>
-      </c>
-      <c r="N326">
-        <v>3.6</v>
-      </c>
-      <c r="O326">
-        <v>4.333</v>
-      </c>
-      <c r="P326">
-        <v>1.65</v>
-      </c>
-      <c r="Q326">
-        <v>0.75</v>
-      </c>
-      <c r="R326">
-        <v>1.95</v>
-      </c>
-      <c r="S326">
-        <v>1.85</v>
-      </c>
-      <c r="T326">
-        <v>3.5</v>
-      </c>
-      <c r="U326">
-        <v>1.975</v>
-      </c>
-      <c r="V326">
-        <v>1.825</v>
-      </c>
-      <c r="W326">
-        <v>0</v>
-      </c>
-      <c r="X326">
-        <v>0</v>
-      </c>
-      <c r="Y326">
-        <v>0</v>
-      </c>
-      <c r="Z326">
-        <v>0</v>
-      </c>
-      <c r="AA326">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -27005,7 +27005,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7032503</v>
+        <v>7032384</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27017,13 +27017,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G298" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H298">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I298">
         <v>1</v>
@@ -27032,43 +27032,43 @@
         <v>61</v>
       </c>
       <c r="K298">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L298">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M298">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N298">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O298">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P298">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q298">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R298">
+        <v>1.825</v>
+      </c>
+      <c r="S298">
+        <v>1.975</v>
+      </c>
+      <c r="T298">
+        <v>3.75</v>
+      </c>
+      <c r="U298">
+        <v>1.95</v>
+      </c>
+      <c r="V298">
         <v>1.85</v>
       </c>
-      <c r="S298">
-        <v>1.95</v>
-      </c>
-      <c r="T298">
-        <v>4</v>
-      </c>
-      <c r="U298">
-        <v>1.875</v>
-      </c>
-      <c r="V298">
-        <v>1.925</v>
-      </c>
       <c r="W298">
-        <v>0.833</v>
+        <v>0.25</v>
       </c>
       <c r="X298">
         <v>-1</v>
@@ -27077,16 +27077,16 @@
         <v>-1</v>
       </c>
       <c r="Z298">
+        <v>-1</v>
+      </c>
+      <c r="AA298">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB298">
+        <v>-1</v>
+      </c>
+      <c r="AC298">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA298">
-        <v>-1</v>
-      </c>
-      <c r="AB298">
-        <v>0.875</v>
-      </c>
-      <c r="AC298">
-        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27094,7 +27094,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7032384</v>
+        <v>7032503</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27106,13 +27106,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F299" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G299" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I299">
         <v>1</v>
@@ -27121,43 +27121,43 @@
         <v>61</v>
       </c>
       <c r="K299">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L299">
+        <v>4.1</v>
+      </c>
+      <c r="M299">
+        <v>2.3</v>
+      </c>
+      <c r="N299">
+        <v>1.833</v>
+      </c>
+      <c r="O299">
         <v>4.5</v>
       </c>
-      <c r="M299">
-        <v>3.75</v>
-      </c>
-      <c r="N299">
-        <v>1.25</v>
-      </c>
-      <c r="O299">
-        <v>5.25</v>
-      </c>
       <c r="P299">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q299">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R299">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S299">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T299">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U299">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V299">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W299">
-        <v>0.25</v>
+        <v>0.833</v>
       </c>
       <c r="X299">
         <v>-1</v>
@@ -27166,16 +27166,16 @@
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA299">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC299">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -106,16 +106,16 @@
     <t>Aston Villa U21</t>
   </si>
   <si>
+    <t>Chelsea U21</t>
+  </si>
+  <si>
     <t>Brighton U21</t>
   </si>
   <si>
-    <t>Chelsea U21</t>
+    <t>Arsenal U21</t>
   </si>
   <si>
     <t>Wolverhampton U21</t>
-  </si>
-  <si>
-    <t>Arsenal U21</t>
   </si>
   <si>
     <t>Man City U21</t>
@@ -127,22 +127,19 @@
     <t>Crystal Palace U21</t>
   </si>
   <si>
-    <t>Sunderland U21</t>
+    <t>Liverpool U21</t>
   </si>
   <si>
-    <t>Nottm Forest U21</t>
-  </si>
-  <si>
-    <t>Liverpool U21</t>
+    <t>Stoke U21</t>
   </si>
   <si>
     <t>Leicester U21</t>
   </si>
   <si>
-    <t>Stoke U21</t>
+    <t>Sunderland U21</t>
   </si>
   <si>
-    <t>West Ham U21</t>
+    <t>Nottm Forest U21</t>
   </si>
   <si>
     <t>Southampton U21</t>
@@ -151,10 +148,13 @@
     <t>Norwich U21</t>
   </si>
   <si>
-    <t>Derby U21</t>
+    <t>Fulham U21</t>
   </si>
   <si>
-    <t>Fulham U21</t>
+    <t>West Ham U21</t>
+  </si>
+  <si>
+    <t>Derby U21</t>
   </si>
   <si>
     <t>Man Utd U21</t>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7046788</v>
+        <v>7032481</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -756,70 +756,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q3">
         <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
         <v>1.95</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3">
+        <v>1.95</v>
+      </c>
+      <c r="V3">
         <v>1.85</v>
       </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>0.95</v>
-      </c>
-      <c r="AB3">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7032481</v>
+        <v>7046788</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -845,70 +845,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
         <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
         <v>1.95</v>
       </c>
       <c r="T4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
+        <v>1.85</v>
+      </c>
+      <c r="V4">
         <v>1.95</v>
       </c>
-      <c r="V4">
-        <v>1.85</v>
-      </c>
       <c r="W4">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
+        <v>0.95</v>
+      </c>
+      <c r="AB4">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AB4">
-        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7032279</v>
+        <v>7032276</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -934,73 +934,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L5">
         <v>3.75</v>
       </c>
       <c r="M5">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7032276</v>
+        <v>7032279</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1023,73 +1023,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
         <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1201,7 +1201,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7063025</v>
+        <v>7032283</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1379,10 +1379,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1391,43 +1391,43 @@
         <v>58</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>3.5</v>
       </c>
       <c r="U10">
+        <v>1.975</v>
+      </c>
+      <c r="V10">
         <v>1.825</v>
       </c>
-      <c r="V10">
-        <v>1.975</v>
-      </c>
       <c r="W10">
-        <v>0.6659999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1436,16 +1436,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7062776</v>
+        <v>7062953</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1468,37 +1468,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N11">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1507,22 +1507,22 @@
         <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z11">
         <v>-1</v>
@@ -1531,10 +1531,10 @@
         <v>0.875</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7032283</v>
+        <v>7062765</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1557,55 +1557,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>58</v>
       </c>
       <c r="K12">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N12">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
         <v>3.5</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>0.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1614,16 +1614,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1631,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7062765</v>
+        <v>7063025</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1646,31 +1646,31 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L13">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N13">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <v>3.75</v>
@@ -1688,13 +1688,13 @@
         <v>3.5</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.6499999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1703,16 +1703,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1720,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7062953</v>
+        <v>7062776</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1735,37 +1735,37 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R14">
         <v>1.925</v>
@@ -1774,22 +1774,22 @@
         <v>1.875</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y14">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
@@ -1798,10 +1798,10 @@
         <v>0.875</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1809,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7032294</v>
+        <v>7032285</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1821,58 +1821,58 @@
         <v>45156.625</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>58</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L15">
         <v>4.333</v>
       </c>
       <c r="M15">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q15">
         <v>-1</v>
       </c>
       <c r="R15">
+        <v>1.75</v>
+      </c>
+      <c r="S15">
         <v>1.95</v>
       </c>
-      <c r="S15">
-        <v>1.85</v>
-      </c>
       <c r="T15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1881,16 +1881,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1910,7 +1910,7 @@
         <v>45156.625</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
@@ -1999,10 +1999,10 @@
         <v>45156.625</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7032287</v>
+        <v>7032286</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2088,49 +2088,49 @@
         <v>45156.625</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="L18">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P18">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2142,22 +2142,22 @@
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032285</v>
+        <v>7032288</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2177,13 +2177,13 @@
         <v>45156.625</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2192,43 +2192,43 @@
         <v>58</v>
       </c>
       <c r="K19">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="L19">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
         <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2237,16 +2237,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2254,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032286</v>
+        <v>7032294</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2266,76 +2266,76 @@
         <v>45156.625</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L20">
         <v>4.333</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
         <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>1.95</v>
       </c>
       <c r="T20">
         <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2343,7 +2343,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032288</v>
+        <v>7032287</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2358,64 +2358,64 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="L21">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M21">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P21">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U21">
+        <v>1.925</v>
+      </c>
+      <c r="V21">
         <v>1.875</v>
       </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -2424,7 +2424,7 @@
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2889,10 +2889,10 @@
         <v>45159.625</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2978,10 +2978,10 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3334,10 +3334,10 @@
         <v>45163.625</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3426,7 +3426,7 @@
         <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3500,7 +3500,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7032484</v>
+        <v>7032298</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3512,56 +3512,56 @@
         <v>45163.625</v>
       </c>
       <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
         <v>45</v>
       </c>
-      <c r="G34" t="s">
-        <v>49</v>
-      </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
         <v>57</v>
       </c>
       <c r="K34">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
         <v>4.5</v>
       </c>
       <c r="M34">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N34">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O34">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P34">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q34">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
+        <v>1.825</v>
+      </c>
+      <c r="V34">
         <v>1.975</v>
       </c>
-      <c r="V34">
-        <v>1.825</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
@@ -3569,19 +3569,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3589,7 +3589,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7032298</v>
+        <v>7032484</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3601,56 +3601,56 @@
         <v>45163.625</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>2</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
       </c>
       <c r="J35" t="s">
         <v>57</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L35">
         <v>4.5</v>
       </c>
       <c r="M35">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O35">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P35">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R35">
+        <v>1.8</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>3.75</v>
+      </c>
+      <c r="U35">
+        <v>1.975</v>
+      </c>
+      <c r="V35">
         <v>1.825</v>
       </c>
-      <c r="S35">
-        <v>1.975</v>
-      </c>
-      <c r="T35">
-        <v>3.25</v>
-      </c>
-      <c r="U35">
-        <v>1.825</v>
-      </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
@@ -3658,19 +3658,19 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>0.825</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3693,7 +3693,7 @@
         <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -3871,7 +3871,7 @@
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -3960,7 +3960,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4046,10 +4046,10 @@
         <v>45166.625</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4135,10 +4135,10 @@
         <v>45170.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4227,7 +4227,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4301,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7032310</v>
+        <v>7032309</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4313,58 +4313,58 @@
         <v>45170.625</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>58</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L43">
         <v>4</v>
       </c>
       <c r="M43">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4373,13 +4373,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4402,7 +4402,7 @@
         <v>45170.625</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>51</v>
@@ -4479,7 +4479,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7039926</v>
+        <v>7032307</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4491,58 +4491,58 @@
         <v>45170.625</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>41</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>58</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
         <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
         <v>3.75</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>0.6499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4551,7 +4551,7 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA45">
         <v>-0.5</v>
@@ -4560,7 +4560,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4568,7 +4568,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7032307</v>
+        <v>7039926</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4580,58 +4580,58 @@
         <v>45170.625</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>58</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N46">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
         <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>3.75</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>0.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4640,7 +4640,7 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA46">
         <v>-0.5</v>
@@ -4649,7 +4649,7 @@
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4657,7 +4657,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7032309</v>
+        <v>7032310</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4669,58 +4669,58 @@
         <v>45170.625</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>58</v>
       </c>
       <c r="K47">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L47">
         <v>4</v>
       </c>
       <c r="M47">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N47">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4729,13 +4729,13 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4758,10 +4758,10 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4835,7 +4835,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7032311</v>
+        <v>7032488</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4847,73 +4847,73 @@
         <v>45171.375</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
         <v>0</v>
       </c>
-      <c r="I49">
+      <c r="J49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49">
+        <v>1.615</v>
+      </c>
+      <c r="L49">
+        <v>4.1</v>
+      </c>
+      <c r="M49">
         <v>4</v>
       </c>
-      <c r="J49" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49">
-        <v>2.9</v>
-      </c>
-      <c r="L49">
+      <c r="N49">
+        <v>1.6</v>
+      </c>
+      <c r="O49">
+        <v>4.333</v>
+      </c>
+      <c r="P49">
         <v>4</v>
       </c>
-      <c r="M49">
-        <v>1.909</v>
-      </c>
-      <c r="N49">
-        <v>2.45</v>
-      </c>
-      <c r="O49">
-        <v>3.8</v>
-      </c>
-      <c r="P49">
-        <v>2.2</v>
-      </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T49">
         <v>3.75</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
       <c r="AC49">
         <v>-0.5</v>
@@ -4924,7 +4924,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7032488</v>
+        <v>7032311</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4936,73 +4936,73 @@
         <v>45171.375</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>4</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K50">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L50">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="O50">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
+        <v>1.75</v>
+      </c>
+      <c r="S50">
         <v>1.95</v>
-      </c>
-      <c r="S50">
-        <v>1.85</v>
       </c>
       <c r="T50">
         <v>3.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
         <v>0.95</v>
       </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
       <c r="AB50">
-        <v>0.4625</v>
+        <v>0.425</v>
       </c>
       <c r="AC50">
         <v>-0.5</v>
@@ -5025,7 +5025,7 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>50</v>
@@ -5114,7 +5114,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>47</v>
@@ -5203,7 +5203,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>48</v>
@@ -5292,10 +5292,10 @@
         <v>45191.625</v>
       </c>
       <c r="F54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" t="s">
         <v>42</v>
-      </c>
-      <c r="G54" t="s">
-        <v>43</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5369,7 +5369,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7032316</v>
+        <v>7039927</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5381,58 +5381,58 @@
         <v>45191.625</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
         <v>2</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>58</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O55">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5441,16 +5441,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5458,7 +5458,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7039927</v>
+        <v>7032316</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5470,58 +5470,58 @@
         <v>45191.625</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>58</v>
       </c>
       <c r="K56">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P56">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T56">
         <v>3.5</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5530,16 +5530,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5562,7 +5562,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5648,7 +5648,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5740,7 +5740,7 @@
         <v>47</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5826,7 +5826,7 @@
         <v>45192.5</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5915,10 +5915,10 @@
         <v>45193.375</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7032324</v>
+        <v>7032322</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6093,13 +6093,13 @@
         <v>45194.625</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -6108,25 +6108,25 @@
         <v>57</v>
       </c>
       <c r="K63">
+        <v>2.25</v>
+      </c>
+      <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
         <v>2.5</v>
       </c>
-      <c r="L63">
-        <v>3.8</v>
-      </c>
-      <c r="M63">
-        <v>2.2</v>
-      </c>
       <c r="N63">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O63">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
         <v>1.9</v>
@@ -6135,13 +6135,13 @@
         <v>1.9</v>
       </c>
       <c r="T63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6150,7 +6150,7 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z63">
         <v>-1</v>
@@ -6159,10 +6159,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6170,7 +6170,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7032490</v>
+        <v>7039939</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6182,40 +6182,40 @@
         <v>45194.625</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K64">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="L64">
         <v>4.5</v>
       </c>
       <c r="M64">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O64">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R64">
         <v>1.95</v>
@@ -6227,31 +6227,31 @@
         <v>3.75</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6259,7 +6259,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7032322</v>
+        <v>7032490</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6271,55 +6271,55 @@
         <v>45194.625</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>57</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L65">
+        <v>4.5</v>
+      </c>
+      <c r="M65">
+        <v>1.5</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>4.5</v>
+      </c>
+      <c r="P65">
+        <v>1.55</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1.95</v>
+      </c>
+      <c r="S65">
+        <v>1.85</v>
+      </c>
+      <c r="T65">
         <v>3.75</v>
       </c>
-      <c r="M65">
-        <v>2.5</v>
-      </c>
-      <c r="N65">
-        <v>3.1</v>
-      </c>
-      <c r="O65">
-        <v>4</v>
-      </c>
-      <c r="P65">
-        <v>1.85</v>
-      </c>
-      <c r="Q65">
-        <v>0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.9</v>
-      </c>
-      <c r="S65">
-        <v>1.9</v>
-      </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6328,19 +6328,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
+        <v>0.55</v>
+      </c>
+      <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
-      <c r="AA65">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6348,7 +6348,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7039939</v>
+        <v>7032324</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6360,76 +6360,76 @@
         <v>45194.625</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>3</v>
       </c>
-      <c r="I66">
+      <c r="J66" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66">
+        <v>2.5</v>
+      </c>
+      <c r="L66">
+        <v>3.8</v>
+      </c>
+      <c r="M66">
+        <v>2.2</v>
+      </c>
+      <c r="N66">
+        <v>4.2</v>
+      </c>
+      <c r="O66">
+        <v>4.333</v>
+      </c>
+      <c r="P66">
+        <v>1.55</v>
+      </c>
+      <c r="Q66">
         <v>1</v>
       </c>
-      <c r="J66" t="s">
-        <v>58</v>
-      </c>
-      <c r="K66">
-        <v>1.615</v>
-      </c>
-      <c r="L66">
-        <v>4.5</v>
-      </c>
-      <c r="M66">
-        <v>3.6</v>
-      </c>
-      <c r="N66">
-        <v>1.4</v>
-      </c>
-      <c r="O66">
-        <v>5</v>
-      </c>
-      <c r="P66">
-        <v>5</v>
-      </c>
-      <c r="Q66">
-        <v>-1.5</v>
-      </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
         <v>3.75</v>
       </c>
       <c r="U66">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6437,7 +6437,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7032337</v>
+        <v>7039930</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6449,76 +6449,76 @@
         <v>45198.625</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K67">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M67">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="O67">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q67">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC67">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6526,7 +6526,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7032330</v>
+        <v>7039928</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6538,76 +6538,76 @@
         <v>45198.625</v>
       </c>
       <c r="F68" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K68">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="L68">
+        <v>4.2</v>
+      </c>
+      <c r="M68">
+        <v>4.3</v>
+      </c>
+      <c r="N68">
+        <v>1.333</v>
+      </c>
+      <c r="O68">
         <v>5</v>
       </c>
-      <c r="M68">
-        <v>1.45</v>
-      </c>
-      <c r="N68">
-        <v>2.875</v>
-      </c>
-      <c r="O68">
-        <v>4.2</v>
-      </c>
       <c r="P68">
+        <v>5.75</v>
+      </c>
+      <c r="Q68">
+        <v>-1.5</v>
+      </c>
+      <c r="R68">
         <v>1.85</v>
       </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-      <c r="R68">
-        <v>1.925</v>
-      </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X68">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6615,7 +6615,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7032326</v>
+        <v>7032338</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6627,76 +6627,76 @@
         <v>45198.625</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69">
+        <v>2.25</v>
+      </c>
+      <c r="L69">
+        <v>4.2</v>
+      </c>
+      <c r="M69">
+        <v>2.3</v>
+      </c>
+      <c r="N69">
         <v>2</v>
       </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
-      <c r="J69" t="s">
-        <v>57</v>
-      </c>
-      <c r="K69">
-        <v>5</v>
-      </c>
-      <c r="L69">
-        <v>5</v>
-      </c>
-      <c r="M69">
-        <v>1.4</v>
-      </c>
-      <c r="N69">
+      <c r="O69">
         <v>4.333</v>
       </c>
-      <c r="O69">
-        <v>4.75</v>
-      </c>
       <c r="P69">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q69">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y69">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6704,7 +6704,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7032338</v>
+        <v>7032326</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6716,76 +6716,76 @@
         <v>45198.625</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M70">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N70">
+        <v>4.333</v>
+      </c>
+      <c r="O70">
+        <v>4.75</v>
+      </c>
+      <c r="P70">
+        <v>1.5</v>
+      </c>
+      <c r="Q70">
+        <v>1.25</v>
+      </c>
+      <c r="R70">
+        <v>1.8</v>
+      </c>
+      <c r="S70">
         <v>2</v>
       </c>
-      <c r="O70">
-        <v>4.333</v>
-      </c>
-      <c r="P70">
-        <v>2.6</v>
-      </c>
-      <c r="Q70">
-        <v>-0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.85</v>
-      </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
       <c r="T70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z70">
+        <v>0.4</v>
+      </c>
+      <c r="AA70">
         <v>-0.5</v>
       </c>
-      <c r="AA70">
-        <v>0.475</v>
-      </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6793,7 +6793,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7032325</v>
+        <v>7032337</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6805,13 +6805,13 @@
         <v>45198.625</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -6820,40 +6820,40 @@
         <v>57</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M71">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="N71">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P71">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6862,19 +6862,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6882,7 +6882,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7039930</v>
+        <v>7032325</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6894,73 +6894,73 @@
         <v>45198.625</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N72">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
         <v>3.75</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>2.5</v>
+      </c>
+      <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB72">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6971,7 +6971,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7039928</v>
+        <v>7032330</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6983,76 +6983,76 @@
         <v>45198.625</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K73">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>1.45</v>
+      </c>
+      <c r="N73">
+        <v>2.875</v>
+      </c>
+      <c r="O73">
         <v>4.2</v>
       </c>
-      <c r="M73">
-        <v>4.3</v>
-      </c>
-      <c r="N73">
-        <v>1.333</v>
-      </c>
-      <c r="O73">
-        <v>5</v>
-      </c>
       <c r="P73">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q73">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R73">
+        <v>1.925</v>
+      </c>
+      <c r="S73">
+        <v>1.875</v>
+      </c>
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
         <v>1.85</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.95</v>
       </c>
-      <c r="T73">
-        <v>3.75</v>
-      </c>
-      <c r="U73">
-        <v>1.825</v>
-      </c>
-      <c r="V73">
-        <v>1.975</v>
-      </c>
       <c r="W73">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7164,7 +7164,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7250,7 +7250,7 @@
         <v>45200.375</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>51</v>
@@ -7342,7 +7342,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7416,7 +7416,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7234518</v>
+        <v>7032492</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7428,58 +7428,58 @@
         <v>45201.625</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>58</v>
       </c>
       <c r="K78">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L78">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N78">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O78">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q78">
         <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>0.5329999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7488,16 +7488,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7505,7 +7505,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7032492</v>
+        <v>7234518</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7517,58 +7517,58 @@
         <v>45201.625</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
         <v>2</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>58</v>
       </c>
       <c r="K79">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M79">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q79">
         <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7577,16 +7577,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7594,7 +7594,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7032494</v>
+        <v>7032342</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7606,76 +7606,76 @@
         <v>45226.625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K80">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M80">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N80">
+        <v>1.5</v>
+      </c>
+      <c r="O80">
+        <v>4.2</v>
+      </c>
+      <c r="P80">
         <v>4.75</v>
       </c>
-      <c r="O80">
-        <v>4.333</v>
-      </c>
-      <c r="P80">
-        <v>1.5</v>
-      </c>
       <c r="Q80">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
         <v>3.75</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y80">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7683,7 +7683,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7032344</v>
+        <v>7032494</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7695,46 +7695,46 @@
         <v>45226.625</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K81">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="N81">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>3.75</v>
@@ -7746,19 +7746,19 @@
         <v>1.85</v>
       </c>
       <c r="W81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>0.95</v>
@@ -7784,7 +7784,7 @@
         <v>45226.625</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
         <v>47</v>
@@ -7861,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7032342</v>
+        <v>7032344</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7873,76 +7873,76 @@
         <v>45226.625</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K83">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7962,7 +7962,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
@@ -8143,7 +8143,7 @@
         <v>52</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8229,10 +8229,10 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>6</v>
@@ -8306,7 +8306,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7032348</v>
+        <v>7032495</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8318,58 +8318,58 @@
         <v>45229.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>58</v>
       </c>
       <c r="K88">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="O88">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P88">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T88">
         <v>3.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>0.45</v>
+        <v>0.615</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8378,16 +8378,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8395,7 +8395,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7032495</v>
+        <v>7032348</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8407,58 +8407,58 @@
         <v>45229.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>58</v>
       </c>
       <c r="K89">
+        <v>2.15</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>2.5</v>
+      </c>
+      <c r="N89">
+        <v>1.45</v>
+      </c>
+      <c r="O89">
+        <v>4.75</v>
+      </c>
+      <c r="P89">
+        <v>4.5</v>
+      </c>
+      <c r="Q89">
+        <v>-1.25</v>
+      </c>
+      <c r="R89">
         <v>1.85</v>
       </c>
-      <c r="L89">
-        <v>4.2</v>
-      </c>
-      <c r="M89">
-        <v>3</v>
-      </c>
-      <c r="N89">
-        <v>1.615</v>
-      </c>
-      <c r="O89">
-        <v>4.5</v>
-      </c>
-      <c r="P89">
-        <v>3.6</v>
-      </c>
-      <c r="Q89">
-        <v>-0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
         <v>3.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>0.615</v>
+        <v>0.45</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8467,16 +8467,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8585,10 +8585,10 @@
         <v>45233.375</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7032496</v>
+        <v>7032351</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8674,76 +8674,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K92">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
         <v>4.5</v>
       </c>
       <c r="M92">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
+        <v>4</v>
+      </c>
+      <c r="U92">
+        <v>1.85</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="S92">
-        <v>1.85</v>
-      </c>
-      <c r="T92">
-        <v>3.75</v>
-      </c>
-      <c r="U92">
-        <v>1.925</v>
-      </c>
-      <c r="V92">
-        <v>1.875</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8751,7 +8751,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7032351</v>
+        <v>7032350</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8763,76 +8763,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L93">
         <v>4.5</v>
       </c>
       <c r="M93">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N93">
+        <v>1.533</v>
+      </c>
+      <c r="O93">
+        <v>5</v>
+      </c>
+      <c r="P93">
+        <v>3.6</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+      <c r="R93">
+        <v>1.875</v>
+      </c>
+      <c r="S93">
+        <v>1.925</v>
+      </c>
+      <c r="T93">
+        <v>4.25</v>
+      </c>
+      <c r="U93">
         <v>2</v>
       </c>
-      <c r="O93">
-        <v>4.2</v>
-      </c>
-      <c r="P93">
-        <v>2.625</v>
-      </c>
-      <c r="Q93">
-        <v>-0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.925</v>
-      </c>
-      <c r="S93">
-        <v>1.875</v>
-      </c>
-      <c r="T93">
+      <c r="V93">
+        <v>1.8</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>4</v>
       </c>
-      <c r="U93">
-        <v>1.85</v>
-      </c>
-      <c r="V93">
-        <v>1.95</v>
-      </c>
-      <c r="W93">
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>0.925</v>
+      </c>
+      <c r="AB93">
         <v>1</v>
       </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>0.925</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8852,10 +8852,10 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8929,7 +8929,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7032350</v>
+        <v>7032353</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8941,73 +8941,73 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K95">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
         <v>4.5</v>
       </c>
       <c r="M95">
+        <v>3.2</v>
+      </c>
+      <c r="N95">
+        <v>2.15</v>
+      </c>
+      <c r="O95">
+        <v>4.2</v>
+      </c>
+      <c r="P95">
         <v>2.4</v>
       </c>
-      <c r="N95">
-        <v>1.533</v>
-      </c>
-      <c r="O95">
-        <v>5</v>
-      </c>
-      <c r="P95">
-        <v>3.6</v>
-      </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9018,7 +9018,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7032353</v>
+        <v>7032352</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9030,76 +9030,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L96">
         <v>4.5</v>
       </c>
       <c r="M96">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N96">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>3.75</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y96">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9107,7 +9107,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7032352</v>
+        <v>7032496</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9119,76 +9119,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L97">
         <v>4.5</v>
       </c>
       <c r="M97">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="N97">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O97">
         <v>4.5</v>
       </c>
       <c r="P97">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
         <v>3.75</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z97">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9196,7 +9196,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7047519</v>
+        <v>7032356</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9208,58 +9208,58 @@
         <v>45234.375</v>
       </c>
       <c r="F98" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
         <v>1</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>58</v>
       </c>
       <c r="K98">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N98">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="O98">
+        <v>4.333</v>
+      </c>
+      <c r="P98">
+        <v>3.75</v>
+      </c>
+      <c r="Q98">
+        <v>-1</v>
+      </c>
+      <c r="R98">
+        <v>1.925</v>
+      </c>
+      <c r="S98">
+        <v>1.775</v>
+      </c>
+      <c r="T98">
         <v>4</v>
       </c>
-      <c r="P98">
-        <v>2</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
-      <c r="R98">
+      <c r="U98">
         <v>1.975</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.825</v>
       </c>
-      <c r="T98">
-        <v>3.5</v>
-      </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
-      <c r="V98">
-        <v>1.975</v>
-      </c>
       <c r="W98">
-        <v>1.875</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9268,16 +9268,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9285,7 +9285,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7032356</v>
+        <v>7047519</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9297,58 +9297,58 @@
         <v>45234.375</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>58</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="L99">
+        <v>4.5</v>
+      </c>
+      <c r="M99">
+        <v>1.444</v>
+      </c>
+      <c r="N99">
+        <v>2.875</v>
+      </c>
+      <c r="O99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>3.1</v>
-      </c>
-      <c r="N99">
-        <v>1.6</v>
-      </c>
-      <c r="O99">
-        <v>4.333</v>
-      </c>
       <c r="P99">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
+        <v>1.825</v>
+      </c>
+      <c r="V99">
         <v>1.975</v>
       </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
       <c r="W99">
-        <v>0.6000000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9357,16 +9357,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9386,10 +9386,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9463,7 +9463,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7039933</v>
+        <v>7039943</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9475,46 +9475,46 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M101">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N101">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="O101">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q101">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
         <v>3.75</v>
@@ -9526,25 +9526,25 @@
         <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9552,7 +9552,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7039943</v>
+        <v>7039933</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9564,46 +9564,46 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>58</v>
+      </c>
+      <c r="K102">
+        <v>1.3</v>
+      </c>
+      <c r="L102">
+        <v>5.5</v>
+      </c>
+      <c r="M102">
         <v>6</v>
       </c>
-      <c r="J102" t="s">
-        <v>57</v>
-      </c>
-      <c r="K102">
-        <v>1.727</v>
-      </c>
-      <c r="L102">
-        <v>4.2</v>
-      </c>
-      <c r="M102">
-        <v>3.4</v>
-      </c>
       <c r="N102">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P102">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T102">
         <v>3.75</v>
@@ -9615,25 +9615,25 @@
         <v>1.95</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
+        <v>1.075</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.95</v>
-      </c>
-      <c r="AB102">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9730,7 +9730,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7032359</v>
+        <v>7032360</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9742,58 +9742,58 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>58</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M104">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O104">
         <v>4.5</v>
       </c>
       <c r="P104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9802,16 +9802,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9831,7 +9831,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
         <v>54</v>
@@ -9908,7 +9908,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7032360</v>
+        <v>7032359</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9920,58 +9920,58 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>58</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N106">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O106">
         <v>4.5</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9980,16 +9980,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10098,7 +10098,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
         <v>50</v>
@@ -10175,7 +10175,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7032365</v>
+        <v>7032364</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10187,73 +10187,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K109">
+        <v>2.1</v>
+      </c>
+      <c r="L109">
+        <v>4.5</v>
+      </c>
+      <c r="M109">
         <v>2.4</v>
       </c>
-      <c r="L109">
-        <v>4.333</v>
-      </c>
-      <c r="M109">
-        <v>2.15</v>
-      </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="O109">
+        <v>6.5</v>
+      </c>
+      <c r="P109">
         <v>4.75</v>
       </c>
-      <c r="P109">
-        <v>1.7</v>
-      </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>4</v>
+      </c>
+      <c r="U109">
         <v>1.925</v>
       </c>
-      <c r="T109">
-        <v>3.5</v>
-      </c>
-      <c r="U109">
-        <v>1.975</v>
-      </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
         <v>0.925</v>
-      </c>
-      <c r="AB109">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10264,7 +10264,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7032364</v>
+        <v>7032365</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10276,73 +10276,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K110">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M110">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N110">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O110">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P110">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q110">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
+        <v>1.875</v>
+      </c>
+      <c r="S110">
+        <v>1.925</v>
+      </c>
+      <c r="T110">
+        <v>3.5</v>
+      </c>
+      <c r="U110">
+        <v>1.975</v>
+      </c>
+      <c r="V110">
         <v>1.825</v>
       </c>
-      <c r="S110">
-        <v>1.975</v>
-      </c>
-      <c r="T110">
-        <v>4</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
-      <c r="V110">
-        <v>1.775</v>
-      </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10365,10 +10365,10 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10457,7 +10457,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10721,10 +10721,10 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10798,7 +10798,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7032371</v>
+        <v>7032498</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10810,76 +10810,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="J116" t="s">
+        <v>57</v>
+      </c>
+      <c r="K116">
+        <v>1.833</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
+        <v>3.8</v>
+      </c>
+      <c r="O116">
+        <v>4.2</v>
+      </c>
+      <c r="P116">
+        <v>1.615</v>
+      </c>
+      <c r="Q116">
         <v>1</v>
       </c>
-      <c r="J116" t="s">
-        <v>58</v>
-      </c>
-      <c r="K116">
-        <v>2.1</v>
-      </c>
-      <c r="L116">
-        <v>3.6</v>
-      </c>
-      <c r="M116">
-        <v>2.8</v>
-      </c>
-      <c r="N116">
-        <v>2.15</v>
-      </c>
-      <c r="O116">
-        <v>3.6</v>
-      </c>
-      <c r="P116">
-        <v>2.7</v>
-      </c>
-      <c r="Q116">
-        <v>-0.25</v>
-      </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10887,7 +10887,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7032498</v>
+        <v>7032371</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10899,76 +10899,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K117">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N117">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>1.8</v>
+      </c>
+      <c r="T117">
+        <v>3.5</v>
+      </c>
+      <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
+        <v>1.825</v>
+      </c>
+      <c r="W117">
+        <v>1.15</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
         <v>1</v>
       </c>
-      <c r="R117">
-        <v>1.775</v>
-      </c>
-      <c r="S117">
-        <v>1.925</v>
-      </c>
-      <c r="T117">
-        <v>3.75</v>
-      </c>
-      <c r="U117">
-        <v>1.85</v>
-      </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>0.615</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10976,7 +10976,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7032375</v>
+        <v>7032374</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10988,49 +10988,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
         <v>1</v>
       </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
       <c r="J118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K118">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
+        <v>4.5</v>
+      </c>
+      <c r="M118">
+        <v>1.615</v>
+      </c>
+      <c r="N118">
+        <v>2.05</v>
+      </c>
+      <c r="O118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>1.909</v>
-      </c>
-      <c r="N118">
-        <v>1.533</v>
-      </c>
-      <c r="O118">
-        <v>4.75</v>
-      </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q118">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
         <v>1.825</v>
@@ -11039,25 +11039,25 @@
         <v>1.975</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11065,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7032374</v>
+        <v>7032375</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11077,49 +11077,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K119">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="N119">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U119">
         <v>1.825</v>
@@ -11128,25 +11128,25 @@
         <v>1.975</v>
       </c>
       <c r="W119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11243,7 +11243,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7039936</v>
+        <v>7032372</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11255,40 +11255,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J121" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K121">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L121">
         <v>4.1</v>
       </c>
       <c r="M121">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="N121">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
         <v>1.95</v>
@@ -11297,34 +11297,34 @@
         <v>1.85</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
         <v>1.85</v>
       </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11332,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7032500</v>
+        <v>7039936</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11344,76 +11344,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G122" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K122">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="M122">
-        <v>5.5</v>
+        <v>1.869</v>
       </c>
       <c r="N122">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O122">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q122">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y122">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC122">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7032372</v>
+        <v>7032500</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11433,55 +11433,55 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>57</v>
       </c>
       <c r="K123">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N123">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="O123">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P123">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>4</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11490,19 +11490,19 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.8</v>
+        <v>6.5</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11510,7 +11510,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7650774</v>
+        <v>7671764</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11522,40 +11522,40 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K124">
+        <v>2.875</v>
+      </c>
+      <c r="L124">
+        <v>3.9</v>
+      </c>
+      <c r="M124">
+        <v>1.95</v>
+      </c>
+      <c r="N124">
         <v>2.4</v>
       </c>
-      <c r="L124">
-        <v>3.8</v>
-      </c>
-      <c r="M124">
-        <v>2.3</v>
-      </c>
-      <c r="N124">
-        <v>2.15</v>
-      </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11564,31 +11564,31 @@
         <v>1.8</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X124">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11599,7 +11599,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7671764</v>
+        <v>7650774</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11611,40 +11611,40 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K125">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N125">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
         <v>2</v>
@@ -11653,31 +11653,31 @@
         <v>1.8</v>
       </c>
       <c r="T125">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11688,7 +11688,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7032378</v>
+        <v>7032377</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11700,46 +11700,46 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>58</v>
       </c>
       <c r="K126">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N126">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
         <v>3.75</v>
@@ -11751,7 +11751,7 @@
         <v>1.875</v>
       </c>
       <c r="W126">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11760,16 +11760,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11777,7 +11777,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7032379</v>
+        <v>7032501</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11789,40 +11789,40 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K127">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N127">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="O127">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P127">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q127">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R127">
         <v>1.9</v>
@@ -11831,22 +11831,22 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U127">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11855,10 +11855,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11866,7 +11866,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7032502</v>
+        <v>7032380</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11878,55 +11878,55 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J128" t="s">
         <v>57</v>
       </c>
       <c r="K128">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="N128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O128">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T128">
         <v>3.75</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11935,16 +11935,16 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="Z128">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11955,7 +11955,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7032501</v>
+        <v>7032379</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11970,37 +11970,37 @@
         <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M129">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="O129">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
         <v>1.9</v>
@@ -12009,22 +12009,22 @@
         <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
@@ -12033,10 +12033,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12044,7 +12044,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7032377</v>
+        <v>7032378</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12056,46 +12056,46 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>58</v>
       </c>
       <c r="K130">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N130">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O130">
         <v>4</v>
       </c>
       <c r="P130">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>3.75</v>
@@ -12107,25 +12107,25 @@
         <v>1.875</v>
       </c>
       <c r="W130">
+        <v>1.5</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
         <v>0.75</v>
       </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>0.4875</v>
-      </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12133,7 +12133,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7032380</v>
+        <v>7032502</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12145,55 +12145,55 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>57</v>
       </c>
       <c r="K131">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M131">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T131">
         <v>3.75</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12202,16 +12202,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12234,10 +12234,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12415,7 +12415,7 @@
         <v>51</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7032384</v>
+        <v>7032503</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12501,13 +12501,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12516,43 +12516,43 @@
         <v>58</v>
       </c>
       <c r="K135">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L135">
+        <v>4.1</v>
+      </c>
+      <c r="M135">
+        <v>2.3</v>
+      </c>
+      <c r="N135">
+        <v>1.833</v>
+      </c>
+      <c r="O135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>3.75</v>
-      </c>
-      <c r="N135">
-        <v>1.25</v>
-      </c>
-      <c r="O135">
-        <v>5.25</v>
-      </c>
       <c r="P135">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>0.25</v>
+        <v>0.833</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12561,16 +12561,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12578,7 +12578,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7032503</v>
+        <v>7032384</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12590,13 +12590,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12605,43 +12605,43 @@
         <v>58</v>
       </c>
       <c r="K136">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L136">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N136">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
+        <v>1.975</v>
+      </c>
+      <c r="T136">
+        <v>3.75</v>
+      </c>
+      <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
         <v>1.85</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>4</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
       <c r="W136">
-        <v>0.833</v>
+        <v>0.25</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12650,16 +12650,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.875</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12682,7 +12682,7 @@
         <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12857,10 +12857,10 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12946,10 +12946,10 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F140" t="s">
+        <v>33</v>
+      </c>
+      <c r="G140" t="s">
         <v>32</v>
-      </c>
-      <c r="G140" t="s">
-        <v>33</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13124,7 +13124,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
         <v>50</v>
@@ -13216,7 +13216,7 @@
         <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13302,10 +13302,10 @@
         <v>45319.375</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13468,7 +13468,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7032394</v>
+        <v>7032392</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13480,55 +13480,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
         <v>1</v>
-      </c>
-      <c r="I146">
-        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>57</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13537,19 +13537,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.625</v>
+        <v>1.15</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13646,7 +13646,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7032392</v>
+        <v>7032394</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13658,55 +13658,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>57</v>
       </c>
       <c r="K148">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M148">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N148">
+        <v>2.1</v>
+      </c>
+      <c r="O148">
+        <v>4</v>
+      </c>
+      <c r="P148">
         <v>2.625</v>
       </c>
-      <c r="O148">
-        <v>3.6</v>
-      </c>
-      <c r="P148">
-        <v>2.15</v>
-      </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13715,19 +13715,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.15</v>
+        <v>1.625</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13750,7 +13750,7 @@
         <v>52</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13824,7 +13824,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7032396</v>
+        <v>7032403</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13836,76 +13836,76 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K150">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L150">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M150">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N150">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
         <v>3.75</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13913,7 +13913,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7032403</v>
+        <v>7032396</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13925,76 +13925,76 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K151">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L151">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M151">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N151">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O151">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P151">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T151">
         <v>3.75</v>
       </c>
       <c r="U151">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y151">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14014,7 +14014,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G152" t="s">
         <v>54</v>
@@ -14192,10 +14192,10 @@
         <v>45331.6875</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14284,7 +14284,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14370,10 +14370,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14462,7 +14462,7 @@
         <v>51</v>
       </c>
       <c r="G157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7032408</v>
+        <v>7032407</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14548,58 +14548,58 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H158">
         <v>4</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>58</v>
       </c>
       <c r="K158">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M158">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N158">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O158">
+        <v>4.5</v>
+      </c>
+      <c r="P158">
+        <v>3.4</v>
+      </c>
+      <c r="Q158">
+        <v>-0.75</v>
+      </c>
+      <c r="R158">
+        <v>1.85</v>
+      </c>
+      <c r="S158">
+        <v>1.95</v>
+      </c>
+      <c r="T158">
         <v>3.75</v>
       </c>
-      <c r="P158">
-        <v>2.55</v>
-      </c>
-      <c r="Q158">
-        <v>-0.25</v>
-      </c>
-      <c r="R158">
-        <v>2</v>
-      </c>
-      <c r="S158">
-        <v>1.8</v>
-      </c>
-      <c r="T158">
-        <v>3.5</v>
-      </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14608,13 +14608,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14637,10 +14637,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F159" t="s">
+        <v>43</v>
+      </c>
+      <c r="G159" t="s">
         <v>44</v>
-      </c>
-      <c r="G159" t="s">
-        <v>46</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -14714,7 +14714,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032407</v>
+        <v>7032408</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14726,58 +14726,58 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H160">
         <v>4</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>58</v>
       </c>
       <c r="K160">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="L160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N160">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O160">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P160">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>1.8</v>
+      </c>
+      <c r="T160">
+        <v>3.5</v>
+      </c>
+      <c r="U160">
         <v>1.85</v>
       </c>
-      <c r="S160">
+      <c r="V160">
         <v>1.95</v>
       </c>
-      <c r="T160">
-        <v>3.75</v>
-      </c>
-      <c r="U160">
-        <v>1.9</v>
-      </c>
-      <c r="V160">
-        <v>1.9</v>
-      </c>
       <c r="W160">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14786,13 +14786,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
+        <v>1</v>
+      </c>
+      <c r="AA160">
+        <v>-1</v>
+      </c>
+      <c r="AB160">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14803,7 +14803,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7032410</v>
+        <v>7039895</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14815,40 +14815,40 @@
         <v>45339.375</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K161">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N161">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O161">
         <v>4.2</v>
       </c>
       <c r="P161">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R161">
         <v>1.9</v>
@@ -14860,31 +14860,31 @@
         <v>3.75</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X161">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
         <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14892,7 +14892,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7039895</v>
+        <v>7032410</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14904,40 +14904,40 @@
         <v>45339.375</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N162">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O162">
         <v>4.2</v>
       </c>
       <c r="P162">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q162">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
         <v>1.9</v>
@@ -14949,31 +14949,31 @@
         <v>3.75</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14996,7 +14996,7 @@
         <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>52</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15171,10 +15171,10 @@
         <v>45341.45833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -15248,7 +15248,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7032507</v>
+        <v>7032414</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15260,40 +15260,40 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>59</v>
+      </c>
+      <c r="K166">
         <v>3</v>
       </c>
-      <c r="I166">
+      <c r="L166">
+        <v>4.1</v>
+      </c>
+      <c r="M166">
+        <v>1.85</v>
+      </c>
+      <c r="N166">
+        <v>2.45</v>
+      </c>
+      <c r="O166">
+        <v>4</v>
+      </c>
+      <c r="P166">
+        <v>2.2</v>
+      </c>
+      <c r="Q166">
         <v>0</v>
-      </c>
-      <c r="J166" t="s">
-        <v>58</v>
-      </c>
-      <c r="K166">
-        <v>1.727</v>
-      </c>
-      <c r="L166">
-        <v>4</v>
-      </c>
-      <c r="M166">
-        <v>3.5</v>
-      </c>
-      <c r="N166">
-        <v>1.5</v>
-      </c>
-      <c r="O166">
-        <v>4.333</v>
-      </c>
-      <c r="P166">
-        <v>4.75</v>
-      </c>
-      <c r="Q166">
-        <v>-1.25</v>
       </c>
       <c r="R166">
         <v>2</v>
@@ -15305,31 +15305,31 @@
         <v>3.5</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15337,7 +15337,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7039896</v>
+        <v>7032507</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15349,76 +15349,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L167">
         <v>4</v>
       </c>
       <c r="M167">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>1.8</v>
+      </c>
+      <c r="T167">
+        <v>3.5</v>
+      </c>
+      <c r="U167">
+        <v>1.825</v>
+      </c>
+      <c r="V167">
         <v>1.975</v>
       </c>
-      <c r="S167">
-        <v>1.825</v>
-      </c>
-      <c r="T167">
-        <v>3.75</v>
-      </c>
-      <c r="U167">
-        <v>1.975</v>
-      </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15426,7 +15426,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032414</v>
+        <v>7039896</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15438,76 +15438,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K168">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L168">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N168">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O168">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15619,7 +15619,7 @@
         <v>53</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15708,7 +15708,7 @@
         <v>48</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15797,7 +15797,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15886,7 +15886,16 @@
         <v>51</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="H173">
+        <v>3</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>58</v>
       </c>
       <c r="K173">
         <v>3.6</v>
@@ -15898,46 +15907,52 @@
         <v>1.666</v>
       </c>
       <c r="N173">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O173">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P173">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="Q173">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
         <v>3.75</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="X173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -106,10 +106,10 @@
     <t>Aston Villa U21</t>
   </si>
   <si>
-    <t>Wolverhampton U21</t>
+    <t>Chelsea U21</t>
   </si>
   <si>
-    <t>Chelsea U21</t>
+    <t>Wolverhampton U21</t>
   </si>
   <si>
     <t>Arsenal U21</t>
@@ -127,19 +127,22 @@
     <t>Crystal Palace U21</t>
   </si>
   <si>
+    <t>Sunderland U21</t>
+  </si>
+  <si>
     <t>Liverpool U21</t>
   </si>
   <si>
-    <t>Sunderland U21</t>
+    <t>Stoke U21</t>
   </si>
   <si>
     <t>Nottm Forest U21</t>
   </si>
   <si>
-    <t>Stoke U21</t>
+    <t>Leicester U21</t>
   </si>
   <si>
-    <t>Leicester U21</t>
+    <t>Southampton U21</t>
   </si>
   <si>
     <t>Man Utd U21</t>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>Derby U21</t>
-  </si>
-  <si>
-    <t>Southampton U21</t>
   </si>
   <si>
     <t>Tottenham U21</t>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7032279</v>
+        <v>7032481</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -756,70 +756,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
         <v>1.95</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>0.95</v>
-      </c>
-      <c r="AB3">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7032481</v>
+        <v>7032279</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -845,70 +845,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N4">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
         <v>1.95</v>
       </c>
       <c r="T4">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -934,7 +934,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1201,7 +1201,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -1290,7 +1290,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7032283</v>
+        <v>7063025</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1379,10 +1379,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1391,43 +1391,43 @@
         <v>58</v>
       </c>
       <c r="K10">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N10">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
         <v>3.5</v>
       </c>
       <c r="U10">
+        <v>1.825</v>
+      </c>
+      <c r="V10">
         <v>1.975</v>
       </c>
-      <c r="V10">
-        <v>1.825</v>
-      </c>
       <c r="W10">
-        <v>0.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1436,16 +1436,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7063025</v>
+        <v>7032283</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1468,10 +1468,10 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1480,43 +1480,43 @@
         <v>58</v>
       </c>
       <c r="K11">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M11">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
         <v>3.5</v>
       </c>
       <c r="U11">
+        <v>1.975</v>
+      </c>
+      <c r="V11">
         <v>1.825</v>
       </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
       <c r="W11">
-        <v>0.6659999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1525,16 +1525,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7062776</v>
+        <v>7062953</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1557,37 +1557,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N12">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1596,22 +1596,22 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z12">
         <v>-1</v>
@@ -1620,10 +1620,10 @@
         <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1631,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7062953</v>
+        <v>7062776</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1646,37 +1646,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1685,22 +1685,22 @@
         <v>1.875</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U13">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y13">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
@@ -1709,10 +1709,10 @@
         <v>0.875</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1735,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>45156.625</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1987,7 +1987,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7032289</v>
+        <v>7032293</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2002,73 +2002,73 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M17">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N17">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="O17">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P17">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7032294</v>
+        <v>7032289</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2091,16 +2091,16 @@
         <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2112,52 +2112,52 @@
         <v>3.3</v>
       </c>
       <c r="N18">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
         <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032291</v>
+        <v>7032294</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2180,73 +2180,73 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L19">
+        <v>4.333</v>
+      </c>
+      <c r="M19">
+        <v>3.3</v>
+      </c>
+      <c r="N19">
+        <v>1.55</v>
+      </c>
+      <c r="O19">
+        <v>4.5</v>
+      </c>
+      <c r="P19">
         <v>4</v>
       </c>
-      <c r="M19">
-        <v>2.4</v>
-      </c>
-      <c r="N19">
-        <v>3.25</v>
-      </c>
-      <c r="O19">
-        <v>4.2</v>
-      </c>
-      <c r="P19">
-        <v>1.75</v>
-      </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
         <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X19">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2254,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032290</v>
+        <v>7032291</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2269,7 +2269,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2281,40 +2281,40 @@
         <v>59</v>
       </c>
       <c r="K20">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N20">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="O20">
         <v>4.2</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T20">
         <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2326,13 +2326,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2343,7 +2343,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032288</v>
+        <v>7032290</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2358,43 +2358,43 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L21">
         <v>4.2</v>
       </c>
       <c r="M21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P21">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
         <v>3.5</v>
@@ -2406,25 +2406,25 @@
         <v>1.925</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2432,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7032287</v>
+        <v>7032288</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2447,64 +2447,64 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="N22">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
+        <v>1.825</v>
+      </c>
+      <c r="T22">
+        <v>3.5</v>
+      </c>
+      <c r="U22">
         <v>1.875</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.925</v>
       </c>
-      <c r="T22">
-        <v>3.75</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
-      <c r="V22">
-        <v>1.875</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2513,7 +2513,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2521,7 +2521,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7032293</v>
+        <v>7032287</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2536,43 +2536,43 @@
         <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23">
+        <v>7.5</v>
+      </c>
+      <c r="L23">
+        <v>5.5</v>
+      </c>
+      <c r="M23">
+        <v>1.25</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+      <c r="O23">
+        <v>5.5</v>
+      </c>
+      <c r="P23">
+        <v>1.25</v>
+      </c>
+      <c r="Q23">
         <v>2</v>
       </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23">
-        <v>1.909</v>
-      </c>
-      <c r="L23">
-        <v>4.2</v>
-      </c>
-      <c r="M23">
-        <v>2.875</v>
-      </c>
-      <c r="N23">
-        <v>1.55</v>
-      </c>
-      <c r="O23">
-        <v>4.75</v>
-      </c>
-      <c r="P23">
-        <v>4</v>
-      </c>
-      <c r="Q23">
-        <v>-1</v>
-      </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
         <v>3.75</v>
@@ -2584,25 +2584,25 @@
         <v>1.875</v>
       </c>
       <c r="W23">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2889,10 +2889,10 @@
         <v>45159.625</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7039925</v>
+        <v>7032303</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2978,40 +2978,40 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>59</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L28">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M28">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O28">
         <v>4</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
         <v>1.925</v>
@@ -3023,10 +3023,10 @@
         <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -3044,10 +3044,10 @@
         <v>0.875</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3055,7 +3055,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7032303</v>
+        <v>7039925</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3067,40 +3067,40 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>59</v>
       </c>
       <c r="K29">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L29">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M29">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N29">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
         <v>4</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
         <v>1.925</v>
@@ -3112,10 +3112,10 @@
         <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3133,10 +3133,10 @@
         <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3156,10 +3156,10 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>45163.625</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -3423,10 +3423,10 @@
         <v>45163.625</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3512,10 +3512,10 @@
         <v>45163.625</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3604,7 +3604,7 @@
         <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3779,10 +3779,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -3960,7 +3960,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4046,7 +4046,7 @@
         <v>45166.625</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4135,10 +4135,10 @@
         <v>45170.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4227,7 +4227,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4301,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7039926</v>
+        <v>7032307</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4313,58 +4313,58 @@
         <v>45170.625</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>40</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>58</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q43">
         <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>3.75</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.6499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4373,7 +4373,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA43">
         <v>-0.5</v>
@@ -4382,7 +4382,7 @@
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4390,7 +4390,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7032310</v>
+        <v>7032309</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4402,58 +4402,58 @@
         <v>45170.625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>58</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L44">
         <v>4</v>
       </c>
       <c r="M44">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4462,13 +4462,13 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4479,7 +4479,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7032309</v>
+        <v>7032310</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4491,58 +4491,58 @@
         <v>45170.625</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>58</v>
       </c>
       <c r="K45">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N45">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4551,13 +4551,13 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4568,7 +4568,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7032307</v>
+        <v>7032487</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4580,13 +4580,13 @@
         <v>45170.625</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4595,34 +4595,34 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>1.285</v>
+      </c>
+      <c r="O46">
+        <v>5.25</v>
+      </c>
+      <c r="P46">
+        <v>6.5</v>
+      </c>
+      <c r="Q46">
+        <v>-1.75</v>
+      </c>
+      <c r="R46">
+        <v>1.9</v>
+      </c>
+      <c r="S46">
+        <v>1.9</v>
+      </c>
+      <c r="T46">
         <v>4</v>
-      </c>
-      <c r="M46">
-        <v>4</v>
-      </c>
-      <c r="N46">
-        <v>1.75</v>
-      </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-      <c r="P46">
-        <v>3.5</v>
-      </c>
-      <c r="Q46">
-        <v>-0.75</v>
-      </c>
-      <c r="R46">
-        <v>1.975</v>
-      </c>
-      <c r="S46">
-        <v>1.825</v>
-      </c>
-      <c r="T46">
-        <v>3.75</v>
       </c>
       <c r="U46">
         <v>1.9</v>
@@ -4631,7 +4631,7 @@
         <v>1.9</v>
       </c>
       <c r="W46">
-        <v>0.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4640,10 +4640,10 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4657,7 +4657,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7032487</v>
+        <v>7039926</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4669,58 +4669,58 @@
         <v>45170.625</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>58</v>
       </c>
       <c r="K47">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4729,16 +4729,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4761,7 +4761,7 @@
         <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5114,10 +5114,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5203,10 +5203,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -5381,10 +5381,10 @@
         <v>45191.625</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5473,7 +5473,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5648,7 +5648,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5737,7 +5737,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6004,10 +6004,10 @@
         <v>45193.375</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7032490</v>
+        <v>7039939</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6093,40 +6093,40 @@
         <v>45194.625</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K63">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="L63">
         <v>4.5</v>
       </c>
       <c r="M63">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P63">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R63">
         <v>1.95</v>
@@ -6138,31 +6138,31 @@
         <v>3.75</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6185,7 +6185,7 @@
         <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6274,7 +6274,7 @@
         <v>51</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7039939</v>
+        <v>7032490</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6360,40 +6360,40 @@
         <v>45194.625</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K66">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L66">
         <v>4.5</v>
       </c>
       <c r="M66">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="N66">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P66">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="Q66">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>1.95</v>
@@ -6405,31 +6405,31 @@
         <v>3.75</v>
       </c>
       <c r="U66">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6449,10 +6449,10 @@
         <v>45198.625</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6541,7 +6541,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6627,7 +6627,7 @@
         <v>45198.625</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s">
         <v>41</v>
@@ -6716,7 +6716,7 @@
         <v>45198.625</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
         <v>50</v>
@@ -6793,7 +6793,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7032326</v>
+        <v>7032330</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6805,76 +6805,76 @@
         <v>45198.625</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K71">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="N71">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q71">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6882,7 +6882,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7032325</v>
+        <v>7032326</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6894,10 +6894,10 @@
         <v>45198.625</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6909,40 +6909,40 @@
         <v>57</v>
       </c>
       <c r="K72">
+        <v>5</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>1.4</v>
+      </c>
+      <c r="N72">
+        <v>4.333</v>
+      </c>
+      <c r="O72">
+        <v>4.75</v>
+      </c>
+      <c r="P72">
+        <v>1.5</v>
+      </c>
+      <c r="Q72">
+        <v>1.25</v>
+      </c>
+      <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
         <v>2</v>
       </c>
-      <c r="L72">
-        <v>4</v>
-      </c>
-      <c r="M72">
-        <v>2.75</v>
-      </c>
-      <c r="N72">
-        <v>1.65</v>
-      </c>
-      <c r="O72">
-        <v>4.333</v>
-      </c>
-      <c r="P72">
+      <c r="T72">
         <v>3.5</v>
       </c>
-      <c r="Q72">
-        <v>-0.75</v>
-      </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>1.975</v>
-      </c>
-      <c r="T72">
-        <v>3.75</v>
-      </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6951,16 +6951,16 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA72">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6971,7 +6971,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7032330</v>
+        <v>7032325</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6983,49 +6983,49 @@
         <v>45198.625</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K73">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="N73">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P73">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U73">
         <v>1.85</v>
@@ -7037,22 +7037,22 @@
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7075,7 +7075,7 @@
         <v>54</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7164,7 +7164,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7250,7 +7250,7 @@
         <v>45200.375</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
         <v>51</v>
@@ -7342,7 +7342,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7431,7 +7431,7 @@
         <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7517,7 +7517,7 @@
         <v>45201.625</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>53</v>
@@ -7606,10 +7606,10 @@
         <v>45226.625</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -7683,7 +7683,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7032343</v>
+        <v>7032494</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7695,76 +7695,76 @@
         <v>45226.625</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N81">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7772,7 +7772,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7032342</v>
+        <v>7032343</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7784,10 +7784,10 @@
         <v>45226.625</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7799,25 +7799,25 @@
         <v>59</v>
       </c>
       <c r="K82">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L82">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N82">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
         <v>1.9</v>
@@ -7826,19 +7826,19 @@
         <v>1.9</v>
       </c>
       <c r="T82">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7853,7 +7853,7 @@
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7861,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7032494</v>
+        <v>7032342</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7873,76 +7873,76 @@
         <v>45226.625</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K83">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M83">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N83">
+        <v>1.5</v>
+      </c>
+      <c r="O83">
+        <v>4.2</v>
+      </c>
+      <c r="P83">
         <v>4.75</v>
       </c>
-      <c r="O83">
-        <v>4.333</v>
-      </c>
-      <c r="P83">
-        <v>1.5</v>
-      </c>
       <c r="Q83">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7962,7 +7962,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
@@ -8143,7 +8143,7 @@
         <v>53</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8306,7 +8306,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7032495</v>
+        <v>7032348</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8318,58 +8318,58 @@
         <v>45229.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>58</v>
       </c>
       <c r="K88">
+        <v>2.15</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>2.5</v>
+      </c>
+      <c r="N88">
+        <v>1.45</v>
+      </c>
+      <c r="O88">
+        <v>4.75</v>
+      </c>
+      <c r="P88">
+        <v>4.5</v>
+      </c>
+      <c r="Q88">
+        <v>-1.25</v>
+      </c>
+      <c r="R88">
         <v>1.85</v>
       </c>
-      <c r="L88">
-        <v>4.2</v>
-      </c>
-      <c r="M88">
-        <v>3</v>
-      </c>
-      <c r="N88">
-        <v>1.615</v>
-      </c>
-      <c r="O88">
-        <v>4.5</v>
-      </c>
-      <c r="P88">
-        <v>3.6</v>
-      </c>
-      <c r="Q88">
-        <v>-0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
         <v>3.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>0.615</v>
+        <v>0.45</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8378,16 +8378,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8395,7 +8395,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7039940</v>
+        <v>7032495</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8407,16 +8407,16 @@
         <v>45229.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>58</v>
@@ -8431,10 +8431,10 @@
         <v>3</v>
       </c>
       <c r="N89">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P89">
         <v>3.6</v>
@@ -8443,22 +8443,22 @@
         <v>-0.75</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U89">
-        <v>1.675</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.6000000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8467,16 +8467,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.675</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8484,7 +8484,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7032348</v>
+        <v>7039940</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8496,58 +8496,58 @@
         <v>45229.66666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>58</v>
       </c>
       <c r="K90">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N90">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O90">
         <v>4.75</v>
       </c>
       <c r="P90">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>1.675</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>2.15</v>
       </c>
       <c r="W90">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8556,16 +8556,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.675</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8585,10 +8585,10 @@
         <v>45233.375</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7032352</v>
+        <v>7032353</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8674,76 +8674,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
         <v>4.5</v>
       </c>
       <c r="M92">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N92">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O92">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>3.75</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z92">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8763,7 +8763,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
         <v>49</v>
@@ -8852,10 +8852,10 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8929,7 +8929,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7032353</v>
+        <v>7032350</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8941,73 +8941,73 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L95">
         <v>4.5</v>
       </c>
       <c r="M95">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N95">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P95">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
+        <v>1.925</v>
+      </c>
+      <c r="T95">
+        <v>4.25</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.8</v>
       </c>
-      <c r="S95">
-        <v>2</v>
-      </c>
-      <c r="T95">
-        <v>3.75</v>
-      </c>
-      <c r="U95">
-        <v>1.825</v>
-      </c>
-      <c r="V95">
-        <v>1.975</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y95">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
+        <v>0.925</v>
+      </c>
+      <c r="AB95">
         <v>1</v>
-      </c>
-      <c r="AB95">
-        <v>0.825</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9018,7 +9018,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7032350</v>
+        <v>7032352</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9030,76 +9030,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>59</v>
       </c>
       <c r="K96">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L96">
         <v>4.5</v>
       </c>
       <c r="M96">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N96">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA96">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9297,7 +9297,7 @@
         <v>45234.375</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s">
         <v>52</v>
@@ -9386,10 +9386,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9475,10 +9475,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9567,7 +9567,7 @@
         <v>54</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9742,10 +9742,10 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9831,7 +9831,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G105" t="s">
         <v>33</v>
@@ -9920,7 +9920,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G106" t="s">
         <v>54</v>
@@ -10086,7 +10086,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7032364</v>
+        <v>7032365</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10098,73 +10098,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N108">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O108">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>3.5</v>
+      </c>
+      <c r="U108">
+        <v>1.975</v>
+      </c>
+      <c r="V108">
         <v>1.825</v>
       </c>
-      <c r="S108">
-        <v>1.975</v>
-      </c>
-      <c r="T108">
-        <v>4</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.775</v>
-      </c>
       <c r="W108">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10175,7 +10175,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7032365</v>
+        <v>7032364</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10187,73 +10187,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K109">
+        <v>2.1</v>
+      </c>
+      <c r="L109">
+        <v>4.5</v>
+      </c>
+      <c r="M109">
         <v>2.4</v>
       </c>
-      <c r="L109">
-        <v>4.333</v>
-      </c>
-      <c r="M109">
-        <v>2.15</v>
-      </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="O109">
+        <v>6.5</v>
+      </c>
+      <c r="P109">
         <v>4.75</v>
       </c>
-      <c r="P109">
-        <v>1.7</v>
-      </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>4</v>
+      </c>
+      <c r="U109">
         <v>1.925</v>
       </c>
-      <c r="T109">
-        <v>3.5</v>
-      </c>
-      <c r="U109">
-        <v>1.975</v>
-      </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
         <v>0.925</v>
-      </c>
-      <c r="AB109">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10276,7 +10276,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G110" t="s">
         <v>50</v>
@@ -10365,10 +10365,10 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F111" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" t="s">
         <v>48</v>
-      </c>
-      <c r="G111" t="s">
-        <v>47</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10457,7 +10457,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10632,7 +10632,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
         <v>35</v>
@@ -10810,10 +10810,10 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10902,7 +10902,7 @@
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10976,7 +10976,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7032374</v>
+        <v>7032372</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10988,73 +10988,73 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>5</v>
+      </c>
+      <c r="J118" t="s">
+        <v>57</v>
+      </c>
+      <c r="K118">
+        <v>2.625</v>
+      </c>
+      <c r="L118">
+        <v>4.1</v>
+      </c>
+      <c r="M118">
+        <v>2.05</v>
+      </c>
+      <c r="N118">
         <v>3</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" t="s">
-        <v>58</v>
-      </c>
-      <c r="K118">
-        <v>3.6</v>
-      </c>
-      <c r="L118">
+      <c r="O118">
         <v>4.5</v>
       </c>
-      <c r="M118">
-        <v>1.615</v>
-      </c>
-      <c r="N118">
-        <v>2.05</v>
-      </c>
-      <c r="O118">
+      <c r="P118">
+        <v>1.8</v>
+      </c>
+      <c r="Q118">
+        <v>0.5</v>
+      </c>
+      <c r="R118">
+        <v>1.95</v>
+      </c>
+      <c r="S118">
+        <v>1.85</v>
+      </c>
+      <c r="T118">
         <v>4</v>
       </c>
-      <c r="P118">
-        <v>2.625</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.925</v>
-      </c>
-      <c r="S118">
-        <v>1.875</v>
-      </c>
-      <c r="T118">
-        <v>3.25</v>
-      </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11065,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7032375</v>
+        <v>7039936</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11077,76 +11077,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K119">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L119">
+        <v>4.1</v>
+      </c>
+      <c r="M119">
+        <v>1.869</v>
+      </c>
+      <c r="N119">
+        <v>2.15</v>
+      </c>
+      <c r="O119">
         <v>4</v>
       </c>
-      <c r="M119">
-        <v>1.909</v>
-      </c>
-      <c r="N119">
-        <v>1.533</v>
-      </c>
-      <c r="O119">
-        <v>4.75</v>
-      </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
         <v>1.85</v>
       </c>
-      <c r="S119">
+      <c r="T119">
+        <v>3.75</v>
+      </c>
+      <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
         <v>1.95</v>
       </c>
-      <c r="T119">
-        <v>4.25</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC119">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11154,7 +11154,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7032499</v>
+        <v>7032500</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11166,76 +11166,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K120">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L120">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M120">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N120">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="O120">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q120">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R120">
+        <v>1.875</v>
+      </c>
+      <c r="S120">
+        <v>1.925</v>
+      </c>
+      <c r="T120">
+        <v>4</v>
+      </c>
+      <c r="U120">
         <v>1.975</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.825</v>
       </c>
-      <c r="T120">
-        <v>3.75</v>
-      </c>
-      <c r="U120">
-        <v>1.825</v>
-      </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
+        <v>0.925</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.825</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
-      </c>
-      <c r="AC120">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11243,7 +11243,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7032500</v>
+        <v>7032499</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11255,76 +11255,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K121">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L121">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M121">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N121">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O121">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P121">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U121">
+        <v>1.825</v>
+      </c>
+      <c r="V121">
         <v>1.975</v>
       </c>
-      <c r="V121">
-        <v>1.825</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11332,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7039936</v>
+        <v>7032375</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11344,76 +11344,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K122">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L122">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>1.869</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P122">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R122">
+        <v>1.85</v>
+      </c>
+      <c r="S122">
         <v>1.95</v>
       </c>
-      <c r="S122">
-        <v>1.85</v>
-      </c>
       <c r="T122">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7032372</v>
+        <v>7032374</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11433,73 +11433,73 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H123">
+        <v>3</v>
+      </c>
+      <c r="I123">
         <v>1</v>
       </c>
-      <c r="I123">
-        <v>5</v>
-      </c>
       <c r="J123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K123">
+        <v>3.6</v>
+      </c>
+      <c r="L123">
+        <v>4.5</v>
+      </c>
+      <c r="M123">
+        <v>1.615</v>
+      </c>
+      <c r="N123">
+        <v>2.05</v>
+      </c>
+      <c r="O123">
+        <v>4</v>
+      </c>
+      <c r="P123">
         <v>2.625</v>
       </c>
-      <c r="L123">
-        <v>4.1</v>
-      </c>
-      <c r="M123">
-        <v>2.05</v>
-      </c>
-      <c r="N123">
-        <v>3</v>
-      </c>
-      <c r="O123">
-        <v>4.5</v>
-      </c>
-      <c r="P123">
-        <v>1.8</v>
-      </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11510,7 +11510,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7671764</v>
+        <v>7650774</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11522,40 +11522,40 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K124">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M124">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N124">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11564,31 +11564,31 @@
         <v>1.8</v>
       </c>
       <c r="T124">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11599,7 +11599,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7650774</v>
+        <v>7671764</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11611,40 +11611,40 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K125">
+        <v>2.875</v>
+      </c>
+      <c r="L125">
+        <v>3.9</v>
+      </c>
+      <c r="M125">
+        <v>1.95</v>
+      </c>
+      <c r="N125">
         <v>2.4</v>
       </c>
-      <c r="L125">
-        <v>3.8</v>
-      </c>
-      <c r="M125">
-        <v>2.3</v>
-      </c>
-      <c r="N125">
-        <v>2.15</v>
-      </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
         <v>2</v>
@@ -11653,31 +11653,31 @@
         <v>1.8</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X125">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA125">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11703,7 +11703,7 @@
         <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11789,10 +11789,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11866,7 +11866,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7032379</v>
+        <v>7032502</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11878,76 +11878,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K128">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L128">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N128">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O128">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q128">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U128">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11955,7 +11955,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7032502</v>
+        <v>7032379</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11967,76 +11967,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F129" t="s">
+        <v>47</v>
+      </c>
+      <c r="G129" t="s">
         <v>48</v>
-      </c>
-      <c r="G129" t="s">
-        <v>49</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K129">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M129">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N129">
+        <v>1.3</v>
+      </c>
+      <c r="O129">
+        <v>6.5</v>
+      </c>
+      <c r="P129">
         <v>5</v>
       </c>
-      <c r="O129">
-        <v>4.75</v>
-      </c>
-      <c r="P129">
-        <v>1.4</v>
-      </c>
       <c r="Q129">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
+        <v>1.9</v>
+      </c>
+      <c r="S129">
+        <v>1.9</v>
+      </c>
+      <c r="T129">
+        <v>4</v>
+      </c>
+      <c r="U129">
+        <v>1.775</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="S129">
-        <v>1.775</v>
-      </c>
-      <c r="T129">
-        <v>3.75</v>
-      </c>
-      <c r="U129">
-        <v>1.975</v>
-      </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12056,10 +12056,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12145,10 +12145,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12237,7 +12237,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12415,7 +12415,7 @@
         <v>51</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7032384</v>
+        <v>7032503</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12501,13 +12501,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12516,43 +12516,43 @@
         <v>58</v>
       </c>
       <c r="K135">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L135">
+        <v>4.1</v>
+      </c>
+      <c r="M135">
+        <v>2.3</v>
+      </c>
+      <c r="N135">
+        <v>1.833</v>
+      </c>
+      <c r="O135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>3.75</v>
-      </c>
-      <c r="N135">
-        <v>1.25</v>
-      </c>
-      <c r="O135">
-        <v>5.25</v>
-      </c>
       <c r="P135">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>0.25</v>
+        <v>0.833</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12561,16 +12561,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12578,7 +12578,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7032503</v>
+        <v>7032384</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12590,13 +12590,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12605,43 +12605,43 @@
         <v>58</v>
       </c>
       <c r="K136">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L136">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N136">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
+        <v>1.975</v>
+      </c>
+      <c r="T136">
+        <v>3.75</v>
+      </c>
+      <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
         <v>1.85</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>4</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
       <c r="W136">
-        <v>0.833</v>
+        <v>0.25</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12650,16 +12650,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.875</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12768,10 +12768,10 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12857,7 +12857,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>32</v>
@@ -12946,7 +12946,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
         <v>51</v>
@@ -13124,7 +13124,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
         <v>50</v>
@@ -13213,10 +13213,10 @@
         <v>45318.5</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13302,10 +13302,10 @@
         <v>45319.375</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13468,7 +13468,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7032392</v>
+        <v>7032394</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13480,55 +13480,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>57</v>
       </c>
       <c r="K146">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M146">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
+        <v>2.1</v>
+      </c>
+      <c r="O146">
+        <v>4</v>
+      </c>
+      <c r="P146">
         <v>2.625</v>
       </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
-      <c r="P146">
-        <v>2.15</v>
-      </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13537,19 +13537,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.15</v>
+        <v>1.625</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13557,7 +13557,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7032393</v>
+        <v>7039947</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13569,76 +13569,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="N147">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>3.75</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
+        <v>0.95</v>
+      </c>
+      <c r="AB147">
+        <v>0.425</v>
+      </c>
+      <c r="AC147">
         <v>-0.5</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13646,7 +13646,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7039947</v>
+        <v>7032393</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13658,76 +13658,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K148">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="N148">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
         <v>3.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y148">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA148">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13735,7 +13735,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7032394</v>
+        <v>7032392</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13747,55 +13747,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>57</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N149">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13804,19 +13804,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.625</v>
+        <v>1.15</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13836,7 +13836,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G150" t="s">
         <v>54</v>
@@ -13925,10 +13925,10 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14195,7 +14195,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14284,7 +14284,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14370,10 +14370,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14462,7 +14462,7 @@
         <v>51</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14548,10 +14548,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -14640,7 +14640,7 @@
         <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -14729,7 +14729,7 @@
         <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H160">
         <v>4</v>
@@ -14818,7 +14818,7 @@
         <v>50</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14907,7 +14907,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14996,7 +14996,7 @@
         <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>53</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15171,7 +15171,7 @@
         <v>45341.45833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -15260,7 +15260,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
         <v>51</v>
@@ -15337,7 +15337,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7039896</v>
+        <v>7032414</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15349,76 +15349,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>59</v>
+      </c>
+      <c r="K167">
         <v>3</v>
       </c>
-      <c r="J167" t="s">
-        <v>57</v>
-      </c>
-      <c r="K167">
+      <c r="L167">
+        <v>4.1</v>
+      </c>
+      <c r="M167">
+        <v>1.85</v>
+      </c>
+      <c r="N167">
+        <v>2.45</v>
+      </c>
+      <c r="O167">
+        <v>4</v>
+      </c>
+      <c r="P167">
         <v>2.2</v>
       </c>
-      <c r="L167">
-        <v>4</v>
-      </c>
-      <c r="M167">
-        <v>2.45</v>
-      </c>
-      <c r="N167">
-        <v>1.727</v>
-      </c>
-      <c r="O167">
-        <v>4.2</v>
-      </c>
-      <c r="P167">
-        <v>3.4</v>
-      </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T167">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15426,7 +15426,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032414</v>
+        <v>7039896</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15438,76 +15438,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K168">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L168">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N168">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="O168">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15530,7 +15530,7 @@
         <v>52</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15616,7 +15616,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s">
         <v>34</v>
@@ -15705,10 +15705,10 @@
         <v>45345.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15797,7 +15797,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15972,7 +15972,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>32</v>
@@ -16061,10 +16061,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16150,10 +16150,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16227,7 +16227,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7032418</v>
+        <v>7032417</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16239,76 +16239,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K177">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L177">
         <v>3.75</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N177">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
+        <v>3.8</v>
+      </c>
+      <c r="P177">
         <v>3.75</v>
       </c>
-      <c r="P177">
-        <v>1.95</v>
-      </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
         <v>3.75</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X177">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16316,7 +16316,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7032417</v>
+        <v>7032418</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16328,76 +16328,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H178">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K178">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L178">
         <v>3.75</v>
       </c>
       <c r="M178">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N178">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T178">
         <v>3.75</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16509,7 +16509,7 @@
         <v>54</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16595,7 +16595,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -16687,7 +16687,7 @@
         <v>51</v>
       </c>
       <c r="G182" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16761,7 +16761,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7898839</v>
+        <v>7032425</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16773,76 +16773,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183" t="s">
+        <v>57</v>
+      </c>
+      <c r="K183">
+        <v>2.9</v>
+      </c>
+      <c r="L183">
+        <v>4</v>
+      </c>
+      <c r="M183">
+        <v>1.909</v>
+      </c>
+      <c r="N183">
+        <v>2.25</v>
+      </c>
+      <c r="O183">
+        <v>3.8</v>
+      </c>
+      <c r="P183">
+        <v>2.4</v>
+      </c>
+      <c r="Q183">
         <v>0</v>
       </c>
-      <c r="J183" t="s">
-        <v>58</v>
-      </c>
-      <c r="K183">
-        <v>2</v>
-      </c>
-      <c r="L183">
-        <v>3.75</v>
-      </c>
-      <c r="M183">
-        <v>2.9</v>
-      </c>
-      <c r="N183">
-        <v>1.666</v>
-      </c>
-      <c r="O183">
-        <v>4</v>
-      </c>
-      <c r="P183">
-        <v>4</v>
-      </c>
-      <c r="Q183">
-        <v>-0.75</v>
-      </c>
       <c r="R183">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
         <v>3.75</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z183">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16850,7 +16850,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7032426</v>
+        <v>7032424</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16862,76 +16862,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H184">
         <v>2</v>
       </c>
       <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>58</v>
+      </c>
+      <c r="K184">
+        <v>2.25</v>
+      </c>
+      <c r="L184">
+        <v>3.75</v>
+      </c>
+      <c r="M184">
+        <v>2.5</v>
+      </c>
+      <c r="N184">
+        <v>1.909</v>
+      </c>
+      <c r="O184">
+        <v>3.8</v>
+      </c>
+      <c r="P184">
+        <v>3</v>
+      </c>
+      <c r="Q184">
+        <v>-0.5</v>
+      </c>
+      <c r="R184">
         <v>2</v>
       </c>
-      <c r="J184" t="s">
-        <v>59</v>
-      </c>
-      <c r="K184">
-        <v>1.727</v>
-      </c>
-      <c r="L184">
-        <v>4.5</v>
-      </c>
-      <c r="M184">
-        <v>3.2</v>
-      </c>
-      <c r="N184">
-        <v>1.7</v>
-      </c>
-      <c r="O184">
-        <v>4.5</v>
-      </c>
-      <c r="P184">
-        <v>3.3</v>
-      </c>
-      <c r="Q184">
-        <v>-0.75</v>
-      </c>
-      <c r="R184">
-        <v>1.95</v>
-      </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
         <v>3.5</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X184">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16939,7 +16939,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7032424</v>
+        <v>7032426</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16951,76 +16951,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K185">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N185">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O185">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
         <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17028,7 +17028,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7032425</v>
+        <v>7898839</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17040,76 +17040,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F186" t="s">
+        <v>34</v>
+      </c>
+      <c r="G186" t="s">
         <v>40</v>
       </c>
-      <c r="G186" t="s">
-        <v>36</v>
-      </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>3.75</v>
+      </c>
+      <c r="M186">
         <v>2.9</v>
       </c>
-      <c r="L186">
+      <c r="N186">
+        <v>1.666</v>
+      </c>
+      <c r="O186">
         <v>4</v>
       </c>
-      <c r="M186">
-        <v>1.909</v>
-      </c>
-      <c r="N186">
-        <v>2.25</v>
-      </c>
-      <c r="O186">
-        <v>3.8</v>
-      </c>
       <c r="P186">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T186">
         <v>3.75</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17384,7 +17384,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7032430</v>
+        <v>7039908</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17396,58 +17396,58 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>58</v>
       </c>
       <c r="K190">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M190">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N190">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
         <v>4</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
-        <v>0.833</v>
+        <v>0.7</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17456,13 +17456,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17473,7 +17473,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7039908</v>
+        <v>7039907</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17485,76 +17485,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H191">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K191">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L191">
         <v>4.2</v>
       </c>
       <c r="M191">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N191">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O191">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P191">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q191">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>4</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17577,7 +17577,7 @@
         <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17663,10 +17663,10 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17740,7 +17740,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7039907</v>
+        <v>7032430</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17752,76 +17752,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I194">
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K194">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L194">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M194">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N194">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O194">
         <v>4.2</v>
       </c>
       <c r="P194">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q194">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
         <v>4</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB194">
-        <v>-1</v>
-      </c>
       <c r="AC194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17844,7 +17844,7 @@
         <v>50</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17918,7 +17918,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7032436</v>
+        <v>7032435</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17930,73 +17930,73 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K196">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M196">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N196">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O196">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P196">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q196">
         <v>0.25</v>
       </c>
       <c r="R196">
+        <v>1.85</v>
+      </c>
+      <c r="S196">
+        <v>1.95</v>
+      </c>
+      <c r="T196">
+        <v>3.75</v>
+      </c>
+      <c r="U196">
         <v>1.875</v>
       </c>
-      <c r="S196">
+      <c r="V196">
         <v>1.925</v>
       </c>
-      <c r="T196">
-        <v>3.5</v>
-      </c>
-      <c r="U196">
-        <v>1.85</v>
-      </c>
-      <c r="V196">
-        <v>1.95</v>
-      </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -18007,7 +18007,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7032435</v>
+        <v>7032509</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18019,37 +18019,37 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K197">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L197">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N197">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O197">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q197">
         <v>0.25</v>
@@ -18061,34 +18061,34 @@
         <v>1.95</v>
       </c>
       <c r="T197">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18096,7 +18096,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7032509</v>
+        <v>7905004</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18108,64 +18108,64 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K198">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L198">
+        <v>4.5</v>
+      </c>
+      <c r="M198">
+        <v>2.5</v>
+      </c>
+      <c r="N198">
+        <v>1.5</v>
+      </c>
+      <c r="O198">
+        <v>5</v>
+      </c>
+      <c r="P198">
         <v>4</v>
       </c>
-      <c r="M198">
-        <v>2.15</v>
-      </c>
-      <c r="N198">
-        <v>2.55</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
-      <c r="P198">
-        <v>2.15</v>
-      </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S198">
         <v>1.95</v>
       </c>
       <c r="T198">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y198">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
@@ -18174,10 +18174,10 @@
         <v>0.95</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18185,7 +18185,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7905004</v>
+        <v>7032436</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18197,76 +18197,76 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J199" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K199">
+        <v>1.8</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>3.25</v>
+      </c>
+      <c r="N199">
+        <v>2.75</v>
+      </c>
+      <c r="O199">
+        <v>3.8</v>
+      </c>
+      <c r="P199">
         <v>2.05</v>
       </c>
-      <c r="L199">
-        <v>4.5</v>
-      </c>
-      <c r="M199">
-        <v>2.5</v>
-      </c>
-      <c r="N199">
-        <v>1.5</v>
-      </c>
-      <c r="O199">
-        <v>5</v>
-      </c>
-      <c r="P199">
-        <v>4</v>
-      </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
+        <v>1.925</v>
+      </c>
+      <c r="T199">
+        <v>3.5</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
         <v>1.95</v>
       </c>
-      <c r="T199">
-        <v>4</v>
-      </c>
-      <c r="U199">
-        <v>1.875</v>
-      </c>
-      <c r="V199">
-        <v>1.925</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC199">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18289,7 +18289,7 @@
         <v>52</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18375,7 +18375,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
         <v>36</v>
@@ -18452,7 +18452,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7032442</v>
+        <v>7039909</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18464,34 +18464,34 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G202" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>57</v>
       </c>
       <c r="K202">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L202">
         <v>3.75</v>
       </c>
       <c r="M202">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N202">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O202">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P202">
         <v>2.625</v>
@@ -18500,19 +18500,19 @@
         <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18527,13 +18527,13 @@
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18541,7 +18541,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7039909</v>
+        <v>7032437</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18553,76 +18553,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K203">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M203">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N203">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P203">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
         <v>3.75</v>
       </c>
       <c r="U203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y203">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC203">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18630,7 +18630,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7032437</v>
+        <v>7032442</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18642,76 +18642,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+      <c r="J204" t="s">
+        <v>57</v>
+      </c>
+      <c r="K204">
+        <v>2.875</v>
+      </c>
+      <c r="L204">
+        <v>3.75</v>
+      </c>
+      <c r="M204">
         <v>2</v>
       </c>
-      <c r="I204">
+      <c r="N204">
+        <v>2.15</v>
+      </c>
+      <c r="O204">
+        <v>3.75</v>
+      </c>
+      <c r="P204">
+        <v>2.625</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.9</v>
+      </c>
+      <c r="S204">
+        <v>1.9</v>
+      </c>
+      <c r="T204">
+        <v>3.25</v>
+      </c>
+      <c r="U204">
         <v>2</v>
       </c>
-      <c r="J204" t="s">
-        <v>59</v>
-      </c>
-      <c r="K204">
-        <v>1.909</v>
-      </c>
-      <c r="L204">
-        <v>3.6</v>
-      </c>
-      <c r="M204">
-        <v>3.2</v>
-      </c>
-      <c r="N204">
-        <v>1.6</v>
-      </c>
-      <c r="O204">
-        <v>4</v>
-      </c>
-      <c r="P204">
-        <v>4</v>
-      </c>
-      <c r="Q204">
-        <v>-0.75</v>
-      </c>
-      <c r="R204">
-        <v>1.75</v>
-      </c>
-      <c r="S204">
-        <v>1.95</v>
-      </c>
-      <c r="T204">
-        <v>3.75</v>
-      </c>
-      <c r="U204">
-        <v>1.975</v>
-      </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB204">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18734,7 +18734,7 @@
         <v>53</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -18820,10 +18820,10 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18909,7 +18909,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G207" t="s">
         <v>49</v>
@@ -18998,7 +18998,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
         <v>34</v>
@@ -19087,7 +19087,7 @@
         <v>45369.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
         <v>35</v>
@@ -19179,7 +19179,7 @@
         <v>51</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19268,7 +19268,7 @@
         <v>50</v>
       </c>
       <c r="G211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19354,7 +19354,7 @@
         <v>45373.66666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
         <v>41</v>
@@ -19443,7 +19443,7 @@
         <v>45373.66666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
         <v>35</v>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -106,10 +106,10 @@
     <t>Aston Villa U21</t>
   </si>
   <si>
-    <t>Chelsea U21</t>
+    <t>Wolverhampton U21</t>
   </si>
   <si>
-    <t>Wolverhampton U21</t>
+    <t>Chelsea U21</t>
   </si>
   <si>
     <t>Arsenal U21</t>
@@ -127,9 +127,6 @@
     <t>Crystal Palace U21</t>
   </si>
   <si>
-    <t>Sunderland U21</t>
-  </si>
-  <si>
     <t>Liverpool U21</t>
   </si>
   <si>
@@ -139,10 +136,10 @@
     <t>Nottm Forest U21</t>
   </si>
   <si>
-    <t>Leicester U21</t>
+    <t>Sunderland U21</t>
   </si>
   <si>
-    <t>Southampton U21</t>
+    <t>Leicester U21</t>
   </si>
   <si>
     <t>Man Utd U21</t>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Middlesbrough U21</t>
+  </si>
+  <si>
+    <t>Southampton U21</t>
   </si>
   <si>
     <t>Fulham U21</t>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7032481</v>
+        <v>7032279</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -756,70 +756,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N3">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S3">
         <v>1.95</v>
       </c>
       <c r="T3">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7032279</v>
+        <v>7032481</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -845,70 +845,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M4">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
         <v>1.95</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
         <v>0.95</v>
-      </c>
-      <c r="AB4">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -934,7 +934,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1201,7 +1201,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -1290,7 +1290,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7063025</v>
+        <v>7032283</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1379,10 +1379,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1391,43 +1391,43 @@
         <v>58</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>3.5</v>
       </c>
       <c r="U10">
+        <v>1.975</v>
+      </c>
+      <c r="V10">
         <v>1.825</v>
       </c>
-      <c r="V10">
-        <v>1.975</v>
-      </c>
       <c r="W10">
-        <v>0.6659999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1436,16 +1436,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7032283</v>
+        <v>7062953</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1468,73 +1468,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N11">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
+        <v>1.925</v>
+      </c>
+      <c r="S11">
+        <v>1.875</v>
+      </c>
+      <c r="T11">
+        <v>3.25</v>
+      </c>
+      <c r="U11">
         <v>1.775</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>1.925</v>
       </c>
-      <c r="T11">
-        <v>3.5</v>
-      </c>
-      <c r="U11">
-        <v>1.975</v>
-      </c>
-      <c r="V11">
-        <v>1.825</v>
-      </c>
       <c r="W11">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7062953</v>
+        <v>7062776</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1557,37 +1557,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N12">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1596,22 +1596,22 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
@@ -1620,10 +1620,10 @@
         <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1631,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7062776</v>
+        <v>7063025</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1646,73 +1646,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L13">
+        <v>3.75</v>
+      </c>
+      <c r="M13">
+        <v>2.55</v>
+      </c>
+      <c r="N13">
+        <v>1.666</v>
+      </c>
+      <c r="O13">
         <v>4</v>
       </c>
-      <c r="M13">
-        <v>3.5</v>
-      </c>
-      <c r="N13">
-        <v>1.571</v>
-      </c>
-      <c r="O13">
-        <v>4.333</v>
-      </c>
       <c r="P13">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
         <v>3.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X13">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1910,7 +1910,7 @@
         <v>45156.625</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1987,7 +1987,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7032293</v>
+        <v>7032289</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2002,73 +2002,73 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M17">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N17">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="O17">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
+        <v>1.825</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>3.5</v>
+      </c>
+      <c r="U17">
         <v>1.9</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.9</v>
       </c>
-      <c r="T17">
-        <v>3.75</v>
-      </c>
-      <c r="U17">
-        <v>1.925</v>
-      </c>
-      <c r="V17">
-        <v>1.875</v>
-      </c>
       <c r="W17">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.925</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7032289</v>
+        <v>7032294</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2091,16 +2091,16 @@
         <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2112,52 +2112,52 @@
         <v>3.3</v>
       </c>
       <c r="N18">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="O18">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
         <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032294</v>
+        <v>7032291</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2180,73 +2180,73 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L19">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N19">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O19">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
         <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W19">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2254,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032291</v>
+        <v>7032290</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2269,7 +2269,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2281,40 +2281,40 @@
         <v>59</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="O20">
         <v>4.2</v>
       </c>
       <c r="P20">
+        <v>2.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
         <v>1.75</v>
       </c>
-      <c r="Q20">
-        <v>0.5</v>
-      </c>
-      <c r="R20">
-        <v>1.925</v>
-      </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
         <v>3.5</v>
       </c>
       <c r="U20">
+        <v>1.875</v>
+      </c>
+      <c r="V20">
         <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.775</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2326,13 +2326,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2343,7 +2343,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032290</v>
+        <v>7032293</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2358,70 +2358,70 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
         <v>4.2</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N21">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U21">
+        <v>1.925</v>
+      </c>
+      <c r="V21">
         <v>1.875</v>
       </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X21">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2536,7 +2536,7 @@
         <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2889,10 +2889,10 @@
         <v>45159.625</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3070,7 +3070,7 @@
         <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         <v>45163.625</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3512,10 +3512,10 @@
         <v>45163.625</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3604,7 +3604,7 @@
         <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3779,10 +3779,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -4046,7 +4046,7 @@
         <v>45166.625</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4138,7 +4138,7 @@
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4316,7 +4316,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>45170.625</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
         <v>52</v>
@@ -4491,7 +4491,7 @@
         <v>45170.625</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>36</v>
@@ -4580,7 +4580,7 @@
         <v>45170.625</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -4672,7 +4672,7 @@
         <v>53</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4761,7 +4761,7 @@
         <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5114,10 +5114,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5203,10 +5203,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -5381,10 +5381,10 @@
         <v>45191.625</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5473,7 +5473,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5648,7 +5648,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5737,7 +5737,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6004,10 +6004,10 @@
         <v>45193.375</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6081,7 +6081,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7039939</v>
+        <v>7032490</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6093,40 +6093,40 @@
         <v>45194.625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K63">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L63">
         <v>4.5</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="N63">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R63">
         <v>1.95</v>
@@ -6138,31 +6138,31 @@
         <v>3.75</v>
       </c>
       <c r="U63">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6185,7 +6185,7 @@
         <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7032490</v>
+        <v>7039939</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6360,40 +6360,40 @@
         <v>45194.625</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K66">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="L66">
         <v>4.5</v>
       </c>
       <c r="M66">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O66">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P66">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R66">
         <v>1.95</v>
@@ -6405,31 +6405,31 @@
         <v>3.75</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6449,10 +6449,10 @@
         <v>45198.625</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6541,7 +6541,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6716,7 +6716,7 @@
         <v>45198.625</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s">
         <v>50</v>
@@ -6793,7 +6793,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7032330</v>
+        <v>7032326</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6805,76 +6805,76 @@
         <v>45198.625</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K71">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="N71">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R71">
+        <v>1.8</v>
+      </c>
+      <c r="S71">
+        <v>2</v>
+      </c>
+      <c r="T71">
+        <v>3.5</v>
+      </c>
+      <c r="U71">
         <v>1.925</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>3.25</v>
-      </c>
-      <c r="U71">
-        <v>1.85</v>
-      </c>
-      <c r="V71">
-        <v>1.95</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z71">
+        <v>0.4</v>
+      </c>
+      <c r="AA71">
+        <v>-0.5</v>
+      </c>
+      <c r="AB71">
         <v>0.925</v>
       </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>-1</v>
-      </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6882,7 +6882,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7032326</v>
+        <v>7032325</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6894,10 +6894,10 @@
         <v>45198.625</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6909,40 +6909,40 @@
         <v>57</v>
       </c>
       <c r="K72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="N72">
+        <v>1.65</v>
+      </c>
+      <c r="O72">
         <v>4.333</v>
       </c>
-      <c r="O72">
-        <v>4.75</v>
-      </c>
       <c r="P72">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q72">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6951,16 +6951,16 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z72">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6971,7 +6971,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7032325</v>
+        <v>7032330</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6983,49 +6983,49 @@
         <v>45198.625</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="N73">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P73">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T73">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
         <v>1.85</v>
@@ -7037,22 +7037,22 @@
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7075,7 +7075,7 @@
         <v>54</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7164,7 +7164,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7250,7 +7250,7 @@
         <v>45200.375</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
         <v>51</v>
@@ -7342,7 +7342,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7431,7 +7431,7 @@
         <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7517,7 +7517,7 @@
         <v>45201.625</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>53</v>
@@ -7606,10 +7606,10 @@
         <v>45226.625</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -7683,7 +7683,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7032494</v>
+        <v>7032343</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7695,76 +7695,76 @@
         <v>45226.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>59</v>
+      </c>
+      <c r="K81">
+        <v>2.4</v>
+      </c>
+      <c r="L81">
+        <v>3.6</v>
+      </c>
+      <c r="M81">
+        <v>2.4</v>
+      </c>
+      <c r="N81">
+        <v>1.833</v>
+      </c>
+      <c r="O81">
         <v>4</v>
       </c>
-      <c r="J81" t="s">
-        <v>57</v>
-      </c>
-      <c r="K81">
-        <v>4.333</v>
-      </c>
-      <c r="L81">
-        <v>4</v>
-      </c>
-      <c r="M81">
-        <v>1.571</v>
-      </c>
-      <c r="N81">
-        <v>4.75</v>
-      </c>
-      <c r="O81">
-        <v>4.333</v>
-      </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7772,7 +7772,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7032343</v>
+        <v>7032342</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7784,10 +7784,10 @@
         <v>45226.625</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7799,25 +7799,25 @@
         <v>59</v>
       </c>
       <c r="K82">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M82">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N82">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
         <v>1.9</v>
@@ -7826,19 +7826,19 @@
         <v>1.9</v>
       </c>
       <c r="T82">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7853,7 +7853,7 @@
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7861,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7032342</v>
+        <v>7032494</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7873,76 +7873,76 @@
         <v>45226.625</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K83">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N83">
+        <v>4.75</v>
+      </c>
+      <c r="O83">
+        <v>4.333</v>
+      </c>
+      <c r="P83">
         <v>1.5</v>
       </c>
-      <c r="O83">
-        <v>4.2</v>
-      </c>
-      <c r="P83">
-        <v>4.75</v>
-      </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8039,7 +8039,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7032346</v>
+        <v>7032345</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8051,76 +8051,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G85" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L85">
         <v>3.75</v>
       </c>
       <c r="M85">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N85">
+        <v>2.1</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>2.7</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
         <v>1.85</v>
-      </c>
-      <c r="O85">
-        <v>3.8</v>
-      </c>
-      <c r="P85">
-        <v>3.1</v>
-      </c>
-      <c r="Q85">
-        <v>-0.5</v>
-      </c>
-      <c r="R85">
-        <v>1.975</v>
-      </c>
-      <c r="S85">
-        <v>1.825</v>
       </c>
       <c r="T85">
         <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8128,7 +8128,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7032345</v>
+        <v>7032346</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8140,76 +8140,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>58</v>
+      </c>
+      <c r="K86">
         <v>2</v>
-      </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>59</v>
-      </c>
-      <c r="K86">
-        <v>2.875</v>
       </c>
       <c r="L86">
         <v>3.75</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8407,10 +8407,10 @@
         <v>45229.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8585,10 +8585,10 @@
         <v>45233.375</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
         <v>49</v>
@@ -8852,10 +8852,10 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9030,7 +9030,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>47</v>
@@ -9297,7 +9297,7 @@
         <v>45234.375</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
         <v>52</v>
@@ -9386,10 +9386,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
         <v>48</v>
@@ -9567,7 +9567,7 @@
         <v>54</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9742,10 +9742,10 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9819,7 +9819,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7032359</v>
+        <v>7039934</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9831,13 +9831,13 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9846,43 +9846,43 @@
         <v>58</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M105">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O105">
+        <v>5.75</v>
+      </c>
+      <c r="P105">
+        <v>5.5</v>
+      </c>
+      <c r="Q105">
+        <v>-1.75</v>
+      </c>
+      <c r="R105">
+        <v>1.875</v>
+      </c>
+      <c r="S105">
+        <v>1.925</v>
+      </c>
+      <c r="T105">
         <v>4.5</v>
       </c>
-      <c r="P105">
-        <v>4.5</v>
-      </c>
-      <c r="Q105">
-        <v>-1.25</v>
-      </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.875</v>
-      </c>
-      <c r="T105">
-        <v>3.75</v>
-      </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9891,7 +9891,7 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9900,7 +9900,7 @@
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9908,7 +9908,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7039934</v>
+        <v>7032359</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9920,13 +9920,13 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G106" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9935,43 +9935,43 @@
         <v>58</v>
       </c>
       <c r="K106">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M106">
+        <v>2.75</v>
+      </c>
+      <c r="N106">
+        <v>1.5</v>
+      </c>
+      <c r="O106">
+        <v>4.5</v>
+      </c>
+      <c r="P106">
+        <v>4.5</v>
+      </c>
+      <c r="Q106">
+        <v>-1.25</v>
+      </c>
+      <c r="R106">
+        <v>1.925</v>
+      </c>
+      <c r="S106">
+        <v>1.875</v>
+      </c>
+      <c r="T106">
         <v>3.75</v>
       </c>
-      <c r="N106">
-        <v>1.333</v>
-      </c>
-      <c r="O106">
-        <v>5.75</v>
-      </c>
-      <c r="P106">
-        <v>5.5</v>
-      </c>
-      <c r="Q106">
-        <v>-1.75</v>
-      </c>
-      <c r="R106">
-        <v>1.875</v>
-      </c>
-      <c r="S106">
-        <v>1.925</v>
-      </c>
-      <c r="T106">
-        <v>4.5</v>
-      </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9980,7 +9980,7 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
@@ -9989,7 +9989,7 @@
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10101,7 +10101,7 @@
         <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10190,7 +10190,7 @@
         <v>52</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H109">
         <v>5</v>
@@ -10365,7 +10365,7 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G111" t="s">
         <v>48</v>
@@ -10632,7 +10632,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
         <v>35</v>
@@ -10810,10 +10810,10 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10902,7 +10902,7 @@
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10976,7 +10976,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7032372</v>
+        <v>7032375</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10988,55 +10988,55 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>57</v>
       </c>
       <c r="K118">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="L118">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P118">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
         <v>1.95</v>
       </c>
-      <c r="S118">
-        <v>1.85</v>
-      </c>
       <c r="T118">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11045,19 +11045,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11065,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7039936</v>
+        <v>7032374</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11077,76 +11077,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L119">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M119">
-        <v>1.869</v>
+        <v>1.615</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O119">
         <v>4</v>
       </c>
       <c r="P119">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q119">
         <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11154,7 +11154,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7032500</v>
+        <v>7032499</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11166,76 +11166,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K120">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L120">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M120">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N120">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O120">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P120">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U120">
+        <v>1.825</v>
+      </c>
+      <c r="V120">
         <v>1.975</v>
       </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11243,7 +11243,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7032499</v>
+        <v>7039936</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11255,76 +11255,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K121">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L121">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="M121">
-        <v>4.75</v>
+        <v>1.869</v>
       </c>
       <c r="N121">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O121">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q121">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>3.75</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11332,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7032375</v>
+        <v>7032372</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11344,56 +11344,56 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J122" t="s">
         <v>57</v>
       </c>
       <c r="K122">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="L122">
+        <v>4.1</v>
+      </c>
+      <c r="M122">
+        <v>2.05</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122">
+        <v>4.5</v>
+      </c>
+      <c r="P122">
+        <v>1.8</v>
+      </c>
+      <c r="Q122">
+        <v>0.5</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.85</v>
+      </c>
+      <c r="T122">
         <v>4</v>
       </c>
-      <c r="M122">
-        <v>1.909</v>
-      </c>
-      <c r="N122">
-        <v>1.533</v>
-      </c>
-      <c r="O122">
-        <v>4.75</v>
-      </c>
-      <c r="P122">
-        <v>4.2</v>
-      </c>
-      <c r="Q122">
-        <v>-1.5</v>
-      </c>
-      <c r="R122">
+      <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="S122">
-        <v>1.95</v>
-      </c>
-      <c r="T122">
-        <v>4.25</v>
-      </c>
-      <c r="U122">
-        <v>1.825</v>
-      </c>
-      <c r="V122">
-        <v>1.975</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
@@ -11401,19 +11401,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB122">
         <v>0.95</v>
       </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7032374</v>
+        <v>7032500</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11433,76 +11433,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>1.615</v>
+        <v>5.5</v>
       </c>
       <c r="N123">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O123">
+        <v>6.5</v>
+      </c>
+      <c r="P123">
+        <v>7.5</v>
+      </c>
+      <c r="Q123">
+        <v>-2</v>
+      </c>
+      <c r="R123">
+        <v>1.875</v>
+      </c>
+      <c r="S123">
+        <v>1.925</v>
+      </c>
+      <c r="T123">
         <v>4</v>
       </c>
-      <c r="P123">
-        <v>2.625</v>
-      </c>
-      <c r="Q123">
-        <v>-0.25</v>
-      </c>
-      <c r="R123">
-        <v>1.925</v>
-      </c>
-      <c r="S123">
-        <v>1.875</v>
-      </c>
-      <c r="T123">
-        <v>3.25</v>
-      </c>
       <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.825</v>
       </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
       <c r="W123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
         <v>0.925</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.825</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11611,10 +11611,10 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -11688,7 +11688,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7032377</v>
+        <v>7032379</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11700,58 +11700,58 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
         <v>1</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>58</v>
       </c>
       <c r="K126">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="L126">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M126">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="O126">
+        <v>6.5</v>
+      </c>
+      <c r="P126">
+        <v>5</v>
+      </c>
+      <c r="Q126">
+        <v>-1.75</v>
+      </c>
+      <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
         <v>4</v>
       </c>
-      <c r="P126">
-        <v>3.3</v>
-      </c>
-      <c r="Q126">
-        <v>-0.75</v>
-      </c>
-      <c r="R126">
-        <v>1.975</v>
-      </c>
-      <c r="S126">
-        <v>1.825</v>
-      </c>
-      <c r="T126">
-        <v>3.75</v>
-      </c>
       <c r="U126">
+        <v>1.775</v>
+      </c>
+      <c r="V126">
         <v>1.925</v>
       </c>
-      <c r="V126">
-        <v>1.875</v>
-      </c>
       <c r="W126">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11760,16 +11760,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11789,10 +11789,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11866,7 +11866,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7032502</v>
+        <v>7032377</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11878,76 +11878,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K128">
+        <v>1.533</v>
+      </c>
+      <c r="L128">
         <v>4.333</v>
       </c>
-      <c r="L128">
-        <v>4.5</v>
-      </c>
       <c r="M128">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="N128">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="O128">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
         <v>3.75</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AA128">
         <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11955,7 +11955,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7032379</v>
+        <v>7032502</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11967,76 +11967,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K129">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L129">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N129">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O129">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q129">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12056,10 +12056,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F130" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" t="s">
         <v>40</v>
-      </c>
-      <c r="G130" t="s">
-        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12145,10 +12145,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12237,7 +12237,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12415,7 +12415,7 @@
         <v>51</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7032503</v>
+        <v>7032384</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12501,13 +12501,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12516,43 +12516,43 @@
         <v>58</v>
       </c>
       <c r="K135">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L135">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O135">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P135">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>1.975</v>
+      </c>
+      <c r="T135">
+        <v>3.75</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
         <v>1.85</v>
       </c>
-      <c r="S135">
-        <v>1.95</v>
-      </c>
-      <c r="T135">
-        <v>4</v>
-      </c>
-      <c r="U135">
-        <v>1.875</v>
-      </c>
-      <c r="V135">
-        <v>1.925</v>
-      </c>
       <c r="W135">
-        <v>0.833</v>
+        <v>0.25</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12561,16 +12561,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0.875</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12578,7 +12578,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7032384</v>
+        <v>7032503</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12590,13 +12590,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12605,43 +12605,43 @@
         <v>58</v>
       </c>
       <c r="K136">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L136">
+        <v>4.1</v>
+      </c>
+      <c r="M136">
+        <v>2.3</v>
+      </c>
+      <c r="N136">
+        <v>1.833</v>
+      </c>
+      <c r="O136">
         <v>4.5</v>
       </c>
-      <c r="M136">
-        <v>3.75</v>
-      </c>
-      <c r="N136">
-        <v>1.25</v>
-      </c>
-      <c r="O136">
-        <v>5.25</v>
-      </c>
       <c r="P136">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q136">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0.25</v>
+        <v>0.833</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12650,16 +12650,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12756,7 +12756,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7032395</v>
+        <v>7032386</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12768,13 +12768,13 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -12783,25 +12783,25 @@
         <v>58</v>
       </c>
       <c r="K138">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N138">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O138">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P138">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R138">
         <v>1.825</v>
@@ -12810,16 +12810,16 @@
         <v>1.975</v>
       </c>
       <c r="T138">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12834,10 +12834,10 @@
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12845,7 +12845,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7032386</v>
+        <v>7032395</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12857,13 +12857,13 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -12872,25 +12872,25 @@
         <v>58</v>
       </c>
       <c r="K139">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M139">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N139">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P139">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q139">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R139">
         <v>1.825</v>
@@ -12899,16 +12899,16 @@
         <v>1.975</v>
       </c>
       <c r="T139">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12923,10 +12923,10 @@
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12946,7 +12946,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G140" t="s">
         <v>51</v>
@@ -13124,7 +13124,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>50</v>
@@ -13213,10 +13213,10 @@
         <v>45318.5</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13302,7 +13302,7 @@
         <v>45319.375</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>47</v>
@@ -13468,7 +13468,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7032394</v>
+        <v>7039947</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13480,55 +13480,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
         <v>57</v>
       </c>
       <c r="K146">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L146">
         <v>3.9</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13537,19 +13537,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13557,7 +13557,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7039947</v>
+        <v>7032394</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13569,55 +13569,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
         <v>57</v>
       </c>
       <c r="K147">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
         <v>3.9</v>
       </c>
       <c r="M147">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P147">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13626,19 +13626,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.75</v>
+        <v>1.625</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13646,7 +13646,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7032393</v>
+        <v>7032392</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13658,76 +13658,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M148">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N148">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
         <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13735,7 +13735,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7032392</v>
+        <v>7032393</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13747,76 +13747,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N149">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q149">
         <v>0.25</v>
       </c>
       <c r="R149">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA149">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13925,10 +13925,10 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14195,7 +14195,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14284,7 +14284,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14370,10 +14370,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F156" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s">
         <v>38</v>
-      </c>
-      <c r="G156" t="s">
-        <v>39</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14548,7 +14548,7 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
         <v>47</v>
@@ -14640,7 +14640,7 @@
         <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -14729,7 +14729,7 @@
         <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H160">
         <v>4</v>
@@ -14818,7 +14818,7 @@
         <v>50</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14907,7 +14907,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14996,7 +14996,7 @@
         <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>53</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15171,7 +15171,7 @@
         <v>45341.45833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -15260,7 +15260,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>51</v>
@@ -15530,7 +15530,7 @@
         <v>52</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15616,7 +15616,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
         <v>34</v>
@@ -15705,10 +15705,10 @@
         <v>45345.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15797,7 +15797,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15972,7 +15972,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
         <v>32</v>
@@ -16049,7 +16049,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7039905</v>
+        <v>7032418</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16061,76 +16061,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>59</v>
+      </c>
+      <c r="K175">
+        <v>2.1</v>
+      </c>
+      <c r="L175">
+        <v>3.75</v>
+      </c>
+      <c r="M175">
+        <v>2.7</v>
+      </c>
+      <c r="N175">
         <v>3</v>
       </c>
-      <c r="J175" t="s">
-        <v>57</v>
-      </c>
-      <c r="K175">
-        <v>1.5</v>
-      </c>
-      <c r="L175">
-        <v>4.5</v>
-      </c>
-      <c r="M175">
-        <v>4.5</v>
-      </c>
-      <c r="N175">
-        <v>2</v>
-      </c>
       <c r="O175">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P175">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
         <v>3.75</v>
       </c>
       <c r="U175">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y175">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA175">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB175">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7032422</v>
+        <v>7032417</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16150,40 +16150,40 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G176" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K176">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L176">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N176">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
         <v>1.9</v>
@@ -16195,28 +16195,28 @@
         <v>3.75</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16227,7 +16227,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7032417</v>
+        <v>7032422</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16239,40 +16239,40 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H177">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K177">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M177">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N177">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P177">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
         <v>1.9</v>
@@ -16284,28 +16284,28 @@
         <v>3.75</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16316,7 +16316,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7032418</v>
+        <v>7039905</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16328,76 +16328,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K178">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M178">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T178">
         <v>3.75</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z178">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16509,7 +16509,7 @@
         <v>54</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16595,7 +16595,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -16687,7 +16687,7 @@
         <v>51</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16773,7 +16773,7 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G183" t="s">
         <v>36</v>
@@ -16951,7 +16951,7 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>35</v>
@@ -17043,7 +17043,7 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17206,7 +17206,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7032429</v>
+        <v>7039908</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17218,49 +17218,49 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>58</v>
       </c>
       <c r="K188">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M188">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="N188">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P188">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q188">
         <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T188">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U188">
         <v>1.95</v>
@@ -17269,7 +17269,7 @@
         <v>1.85</v>
       </c>
       <c r="W188">
-        <v>0.7270000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17278,10 +17278,10 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>0.95</v>
@@ -17295,7 +17295,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7032427</v>
+        <v>7032429</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17307,40 +17307,40 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G189" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K189">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M189">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N189">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
         <v>1.95</v>
@@ -17349,34 +17349,34 @@
         <v>1.85</v>
       </c>
       <c r="T189">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17384,7 +17384,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7039908</v>
+        <v>7032427</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17396,76 +17396,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K190">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L190">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N190">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O190">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W190">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17473,7 +17473,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7039907</v>
+        <v>7032430</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17485,76 +17485,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I191">
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K191">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L191">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N191">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O191">
         <v>4.2</v>
       </c>
       <c r="P191">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
         <v>4</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
       <c r="AC191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17577,7 +17577,7 @@
         <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17663,7 +17663,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
         <v>47</v>
@@ -17740,7 +17740,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7032430</v>
+        <v>7039907</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17752,76 +17752,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G194" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K194">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M194">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N194">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O194">
         <v>4.2</v>
       </c>
       <c r="P194">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
         <v>4</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z194">
+        <v>-1</v>
+      </c>
+      <c r="AA194">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
         <v>0.875</v>
-      </c>
-      <c r="AA194">
-        <v>-1</v>
-      </c>
-      <c r="AB194">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC194">
-        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17844,7 +17844,7 @@
         <v>50</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18022,7 +18022,7 @@
         <v>48</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18111,7 +18111,7 @@
         <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18197,7 +18197,7 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
         <v>54</v>
@@ -18289,7 +18289,7 @@
         <v>52</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18375,7 +18375,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G201" t="s">
         <v>36</v>
@@ -18452,7 +18452,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7039909</v>
+        <v>7032442</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18464,34 +18464,34 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J202" t="s">
         <v>57</v>
       </c>
       <c r="K202">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L202">
         <v>3.75</v>
       </c>
       <c r="M202">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N202">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O202">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P202">
         <v>2.625</v>
@@ -18500,19 +18500,19 @@
         <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S202">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T202">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18527,13 +18527,13 @@
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18541,7 +18541,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7032437</v>
+        <v>7039909</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18553,76 +18553,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L203">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N203">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T203">
         <v>3.75</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V203">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB203">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18630,7 +18630,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7032442</v>
+        <v>7032437</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18642,76 +18642,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204" t="s">
+        <v>59</v>
+      </c>
+      <c r="K204">
+        <v>1.909</v>
+      </c>
+      <c r="L204">
+        <v>3.6</v>
+      </c>
+      <c r="M204">
+        <v>3.2</v>
+      </c>
+      <c r="N204">
+        <v>1.6</v>
+      </c>
+      <c r="O204">
         <v>4</v>
       </c>
-      <c r="J204" t="s">
-        <v>57</v>
-      </c>
-      <c r="K204">
-        <v>2.875</v>
-      </c>
-      <c r="L204">
+      <c r="P204">
+        <v>4</v>
+      </c>
+      <c r="Q204">
+        <v>-0.75</v>
+      </c>
+      <c r="R204">
+        <v>1.75</v>
+      </c>
+      <c r="S204">
+        <v>1.95</v>
+      </c>
+      <c r="T204">
         <v>3.75</v>
       </c>
-      <c r="M204">
-        <v>2</v>
-      </c>
-      <c r="N204">
-        <v>2.15</v>
-      </c>
-      <c r="O204">
-        <v>3.75</v>
-      </c>
-      <c r="P204">
-        <v>2.625</v>
-      </c>
-      <c r="Q204">
-        <v>-0.25</v>
-      </c>
-      <c r="R204">
-        <v>1.9</v>
-      </c>
-      <c r="S204">
-        <v>1.9</v>
-      </c>
-      <c r="T204">
-        <v>3.25</v>
-      </c>
       <c r="U204">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y204">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB204">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18820,10 +18820,10 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18909,7 +18909,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G207" t="s">
         <v>49</v>
@@ -18998,7 +18998,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
         <v>34</v>
@@ -19087,7 +19087,7 @@
         <v>45369.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
         <v>35</v>
@@ -19179,7 +19179,7 @@
         <v>51</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19268,7 +19268,7 @@
         <v>50</v>
       </c>
       <c r="G211" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19354,7 +19354,7 @@
         <v>45373.66666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G212" t="s">
         <v>41</v>
@@ -19443,7 +19443,7 @@
         <v>45373.66666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
         <v>35</v>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -9730,7 +9730,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7032359</v>
+        <v>7039934</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9742,13 +9742,13 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9757,43 +9757,43 @@
         <v>58</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M104">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O104">
+        <v>5.75</v>
+      </c>
+      <c r="P104">
+        <v>5.5</v>
+      </c>
+      <c r="Q104">
+        <v>-1.75</v>
+      </c>
+      <c r="R104">
+        <v>1.875</v>
+      </c>
+      <c r="S104">
+        <v>1.925</v>
+      </c>
+      <c r="T104">
         <v>4.5</v>
       </c>
-      <c r="P104">
-        <v>4.5</v>
-      </c>
-      <c r="Q104">
-        <v>-1.25</v>
-      </c>
-      <c r="R104">
-        <v>1.925</v>
-      </c>
-      <c r="S104">
-        <v>1.875</v>
-      </c>
-      <c r="T104">
-        <v>3.75</v>
-      </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9802,7 +9802,7 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
         <v>-1</v>
@@ -9811,7 +9811,7 @@
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9819,7 +9819,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7039934</v>
+        <v>7032360</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9831,49 +9831,49 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>58</v>
       </c>
       <c r="K105">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N105">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O105">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P105">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q105">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
         <v>1.9</v>
@@ -9882,7 +9882,7 @@
         <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.333</v>
+        <v>0.55</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9891,16 +9891,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9908,7 +9908,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7032360</v>
+        <v>7032359</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9920,58 +9920,58 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>58</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N106">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O106">
         <v>4.5</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9980,16 +9980,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10086,7 +10086,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7039979</v>
+        <v>7032365</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10098,73 +10098,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K108">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="N108">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O108">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T108">
         <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10175,7 +10175,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7032365</v>
+        <v>7032364</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10187,73 +10187,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K109">
+        <v>2.1</v>
+      </c>
+      <c r="L109">
+        <v>4.5</v>
+      </c>
+      <c r="M109">
         <v>2.4</v>
       </c>
-      <c r="L109">
-        <v>4.333</v>
-      </c>
-      <c r="M109">
-        <v>2.15</v>
-      </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="O109">
+        <v>6.5</v>
+      </c>
+      <c r="P109">
         <v>4.75</v>
       </c>
-      <c r="P109">
-        <v>1.7</v>
-      </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>4</v>
+      </c>
+      <c r="U109">
         <v>1.925</v>
       </c>
-      <c r="T109">
-        <v>3.5</v>
-      </c>
-      <c r="U109">
-        <v>1.975</v>
-      </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
         <v>0.925</v>
-      </c>
-      <c r="AB109">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10264,7 +10264,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7032364</v>
+        <v>7039979</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10276,58 +10276,58 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H110">
         <v>5</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>58</v>
       </c>
       <c r="K110">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L110">
         <v>4.5</v>
       </c>
       <c r="M110">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N110">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O110">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P110">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q110">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>1.875</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10336,13 +10336,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10798,7 +10798,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7032498</v>
+        <v>7032371</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10810,76 +10810,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K116">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N116">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>3.5</v>
+      </c>
+      <c r="U116">
+        <v>1.975</v>
+      </c>
+      <c r="V116">
+        <v>1.825</v>
+      </c>
+      <c r="W116">
+        <v>1.15</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
         <v>1</v>
       </c>
-      <c r="R116">
-        <v>1.775</v>
-      </c>
-      <c r="S116">
-        <v>1.925</v>
-      </c>
-      <c r="T116">
-        <v>3.75</v>
-      </c>
-      <c r="U116">
-        <v>1.85</v>
-      </c>
-      <c r="V116">
-        <v>1.95</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>0.615</v>
-      </c>
-      <c r="Z116">
-        <v>-1</v>
-      </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10887,7 +10887,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7032371</v>
+        <v>7032498</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10899,76 +10899,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117" t="s">
+        <v>57</v>
+      </c>
+      <c r="K117">
+        <v>1.833</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>3.1</v>
+      </c>
+      <c r="N117">
+        <v>3.8</v>
+      </c>
+      <c r="O117">
+        <v>4.2</v>
+      </c>
+      <c r="P117">
+        <v>1.615</v>
+      </c>
+      <c r="Q117">
         <v>1</v>
       </c>
-      <c r="J117" t="s">
-        <v>58</v>
-      </c>
-      <c r="K117">
-        <v>2.1</v>
-      </c>
-      <c r="L117">
-        <v>3.6</v>
-      </c>
-      <c r="M117">
-        <v>2.8</v>
-      </c>
-      <c r="N117">
-        <v>2.15</v>
-      </c>
-      <c r="O117">
-        <v>3.6</v>
-      </c>
-      <c r="P117">
-        <v>2.7</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10976,7 +10976,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7032375</v>
+        <v>7032499</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10988,49 +10988,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K118">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N118">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O118">
+        <v>5.25</v>
+      </c>
+      <c r="P118">
         <v>4.75</v>
-      </c>
-      <c r="P118">
-        <v>4.2</v>
       </c>
       <c r="Q118">
         <v>-1.5</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U118">
         <v>1.825</v>
@@ -11039,19 +11039,19 @@
         <v>1.975</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -11065,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7039936</v>
+        <v>7032372</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11077,40 +11077,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L119">
         <v>4.1</v>
       </c>
       <c r="M119">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P119">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
         <v>1.95</v>
@@ -11119,34 +11119,34 @@
         <v>1.85</v>
       </c>
       <c r="T119">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="V119">
-        <v>1.95</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB119">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11243,7 +11243,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7032499</v>
+        <v>7032374</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11255,49 +11255,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
         <v>1</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>58</v>
       </c>
       <c r="K121">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="L121">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M121">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="N121">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O121">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q121">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
         <v>1.825</v>
@@ -11306,7 +11306,7 @@
         <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11315,16 +11315,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
         <v>0.825</v>
       </c>
-      <c r="AB121">
-        <v>-1</v>
-      </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11332,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7032372</v>
+        <v>7039936</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11344,40 +11344,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K122">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L122">
         <v>4.1</v>
       </c>
       <c r="M122">
-        <v>2.05</v>
+        <v>1.869</v>
       </c>
       <c r="N122">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O122">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
         <v>1.95</v>
@@ -11386,34 +11386,34 @@
         <v>1.85</v>
       </c>
       <c r="T122">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U122">
+        <v>1.85</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7032374</v>
+        <v>7032375</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11433,49 +11433,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="L123">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="N123">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P123">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U123">
         <v>1.825</v>
@@ -11484,25 +11484,25 @@
         <v>1.975</v>
       </c>
       <c r="W123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -13468,7 +13468,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7032392</v>
+        <v>7039947</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13480,55 +13480,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
         <v>57</v>
       </c>
       <c r="K146">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M146">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13537,19 +13537,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13557,7 +13557,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7032394</v>
+        <v>7032393</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13569,49 +13569,49 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>59</v>
+      </c>
+      <c r="K147">
         <v>2</v>
       </c>
-      <c r="J147" t="s">
-        <v>57</v>
-      </c>
-      <c r="K147">
-        <v>2.2</v>
-      </c>
       <c r="L147">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N147">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O147">
         <v>4</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
         <v>1.975</v>
       </c>
-      <c r="S147">
-        <v>1.825</v>
-      </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U147">
         <v>1.9</v>
@@ -13623,16 +13623,16 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y147">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13646,7 +13646,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7032393</v>
+        <v>7032394</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13658,49 +13658,49 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M148">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N148">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="O148">
         <v>4</v>
       </c>
       <c r="P148">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
         <v>1.825</v>
       </c>
-      <c r="S148">
-        <v>1.975</v>
-      </c>
       <c r="T148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U148">
         <v>1.9</v>
@@ -13712,16 +13712,16 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13735,7 +13735,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7039947</v>
+        <v>7032392</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13747,55 +13747,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>3</v>
       </c>
       <c r="J149" t="s">
         <v>57</v>
       </c>
       <c r="K149">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N149">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q149">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13804,19 +13804,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14625,7 +14625,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7032409</v>
+        <v>7032407</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14637,73 +14637,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K159">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M159">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N159">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O159">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P159">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
         <v>3.75</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X159">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14714,7 +14714,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032407</v>
+        <v>7032409</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14726,73 +14726,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160" t="s">
+        <v>59</v>
+      </c>
+      <c r="K160">
+        <v>2.3</v>
+      </c>
+      <c r="L160">
+        <v>3.75</v>
+      </c>
+      <c r="M160">
+        <v>2.4</v>
+      </c>
+      <c r="N160">
+        <v>2.25</v>
+      </c>
+      <c r="O160">
+        <v>3.75</v>
+      </c>
+      <c r="P160">
+        <v>2.45</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>1.8</v>
+      </c>
+      <c r="S160">
         <v>2</v>
-      </c>
-      <c r="J160" t="s">
-        <v>58</v>
-      </c>
-      <c r="K160">
-        <v>1.363</v>
-      </c>
-      <c r="L160">
-        <v>5</v>
-      </c>
-      <c r="M160">
-        <v>5.5</v>
-      </c>
-      <c r="N160">
-        <v>1.666</v>
-      </c>
-      <c r="O160">
-        <v>4.5</v>
-      </c>
-      <c r="P160">
-        <v>3.4</v>
-      </c>
-      <c r="Q160">
-        <v>-0.75</v>
-      </c>
-      <c r="R160">
-        <v>1.85</v>
-      </c>
-      <c r="S160">
-        <v>1.95</v>
       </c>
       <c r="T160">
         <v>3.75</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -15426,7 +15426,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032412</v>
+        <v>7032414</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15438,76 +15438,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K168">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L168">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="M168">
+        <v>1.85</v>
+      </c>
+      <c r="N168">
+        <v>2.45</v>
+      </c>
+      <c r="O168">
         <v>4</v>
       </c>
-      <c r="N168">
-        <v>2.3</v>
-      </c>
-      <c r="O168">
-        <v>4.2</v>
-      </c>
       <c r="P168">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q168">
         <v>0</v>
       </c>
       <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>1.8</v>
+      </c>
+      <c r="T168">
+        <v>3.5</v>
+      </c>
+      <c r="U168">
+        <v>1.85</v>
+      </c>
+      <c r="V168">
         <v>1.95</v>
       </c>
-      <c r="S168">
-        <v>1.85</v>
-      </c>
-      <c r="T168">
-        <v>4</v>
-      </c>
-      <c r="U168">
-        <v>1.9</v>
-      </c>
-      <c r="V168">
-        <v>1.9</v>
-      </c>
       <c r="W168">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>-0</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
         <v>0.95</v>
-      </c>
-      <c r="AA168">
-        <v>-1</v>
-      </c>
-      <c r="AB168">
-        <v>-1</v>
-      </c>
-      <c r="AC168">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15515,7 +15515,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7032414</v>
+        <v>7032412</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15527,76 +15527,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K169">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="L169">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="M169">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q169">
         <v>0</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T169">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X169">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7039905</v>
+        <v>7032422</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16150,55 +16150,55 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
         <v>57</v>
       </c>
       <c r="K176">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L176">
+        <v>5.5</v>
+      </c>
+      <c r="M176">
+        <v>5.5</v>
+      </c>
+      <c r="N176">
+        <v>1.833</v>
+      </c>
+      <c r="O176">
         <v>4.5</v>
       </c>
-      <c r="M176">
-        <v>4.5</v>
-      </c>
-      <c r="N176">
-        <v>2</v>
-      </c>
-      <c r="O176">
-        <v>4</v>
-      </c>
       <c r="P176">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
         <v>3.75</v>
       </c>
       <c r="U176">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
         <v>-1</v>
@@ -16207,16 +16207,16 @@
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB176">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16227,7 +16227,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7032417</v>
+        <v>7039905</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16239,73 +16239,73 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H177">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K177">
+        <v>1.5</v>
+      </c>
+      <c r="L177">
+        <v>4.5</v>
+      </c>
+      <c r="M177">
+        <v>4.5</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177">
+        <v>4</v>
+      </c>
+      <c r="P177">
+        <v>2.8</v>
+      </c>
+      <c r="Q177">
+        <v>-0.25</v>
+      </c>
+      <c r="R177">
         <v>1.8</v>
       </c>
-      <c r="L177">
-        <v>3.75</v>
-      </c>
-      <c r="M177">
-        <v>3.4</v>
-      </c>
-      <c r="N177">
-        <v>1.7</v>
-      </c>
-      <c r="O177">
-        <v>3.8</v>
-      </c>
-      <c r="P177">
-        <v>3.75</v>
-      </c>
-      <c r="Q177">
-        <v>-0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
       <c r="S177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T177">
         <v>3.75</v>
       </c>
       <c r="U177">
+        <v>1.75</v>
+      </c>
+      <c r="V177">
         <v>1.95</v>
       </c>
-      <c r="V177">
-        <v>1.85</v>
-      </c>
       <c r="W177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16316,7 +16316,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7032422</v>
+        <v>7032417</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16328,40 +16328,40 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K178">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L178">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N178">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O178">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
         <v>1.9</v>
@@ -16373,28 +16373,28 @@
         <v>3.75</v>
       </c>
       <c r="U178">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -17473,7 +17473,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7032431</v>
+        <v>7032432</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17485,49 +17485,49 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K191">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L191">
+        <v>4.5</v>
+      </c>
+      <c r="M191">
         <v>4.333</v>
       </c>
-      <c r="M191">
-        <v>2.5</v>
-      </c>
       <c r="N191">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O191">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P191">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q191">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
+        <v>1.75</v>
+      </c>
+      <c r="S191">
         <v>1.95</v>
       </c>
-      <c r="S191">
-        <v>1.85</v>
-      </c>
       <c r="T191">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U191">
         <v>1.9</v>
@@ -17536,19 +17536,19 @@
         <v>1.9</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA191">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
         <v>-1</v>
@@ -17562,7 +17562,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7032432</v>
+        <v>7032431</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17574,49 +17574,49 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K192">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L192">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M192">
+        <v>2.5</v>
+      </c>
+      <c r="N192">
+        <v>1.909</v>
+      </c>
+      <c r="O192">
         <v>4.333</v>
       </c>
-      <c r="N192">
-        <v>1.6</v>
-      </c>
-      <c r="O192">
-        <v>4.2</v>
-      </c>
       <c r="P192">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q192">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U192">
         <v>1.9</v>
@@ -17625,19 +17625,19 @@
         <v>1.9</v>
       </c>
       <c r="W192">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z192">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
@@ -18630,7 +18630,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7032438</v>
+        <v>7032440</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18642,55 +18642,55 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J204" t="s">
         <v>57</v>
       </c>
       <c r="K204">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="L204">
         <v>4.5</v>
       </c>
       <c r="M204">
+        <v>1.444</v>
+      </c>
+      <c r="N204">
+        <v>5.75</v>
+      </c>
+      <c r="O204">
         <v>5</v>
       </c>
-      <c r="N204">
-        <v>1.4</v>
-      </c>
-      <c r="O204">
-        <v>4.75</v>
-      </c>
       <c r="P204">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U204">
         <v>1.925</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18699,13 +18699,13 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>4.25</v>
+        <v>0.363</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
         <v>0.925</v>
@@ -18719,7 +18719,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7032437</v>
+        <v>7032438</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18731,76 +18731,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K205">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N205">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB205">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18808,7 +18808,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7032440</v>
+        <v>7032437</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18820,76 +18820,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K206">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M206">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="N206">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="O206">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="Q206">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T206">
         <v>3.75</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y206">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -555,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC213"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9730,7 +9730,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7039934</v>
+        <v>7032359</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9742,13 +9742,13 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9757,43 +9757,43 @@
         <v>58</v>
       </c>
       <c r="K104">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M104">
+        <v>2.75</v>
+      </c>
+      <c r="N104">
+        <v>1.5</v>
+      </c>
+      <c r="O104">
+        <v>4.5</v>
+      </c>
+      <c r="P104">
+        <v>4.5</v>
+      </c>
+      <c r="Q104">
+        <v>-1.25</v>
+      </c>
+      <c r="R104">
+        <v>1.925</v>
+      </c>
+      <c r="S104">
+        <v>1.875</v>
+      </c>
+      <c r="T104">
         <v>3.75</v>
       </c>
-      <c r="N104">
-        <v>1.333</v>
-      </c>
-      <c r="O104">
-        <v>5.75</v>
-      </c>
-      <c r="P104">
-        <v>5.5</v>
-      </c>
-      <c r="Q104">
-        <v>-1.75</v>
-      </c>
-      <c r="R104">
-        <v>1.875</v>
-      </c>
-      <c r="S104">
-        <v>1.925</v>
-      </c>
-      <c r="T104">
-        <v>4.5</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9802,7 +9802,7 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA104">
         <v>-1</v>
@@ -9811,7 +9811,7 @@
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9819,7 +9819,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7032360</v>
+        <v>7039934</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9831,49 +9831,49 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>58</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L105">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M105">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="O105">
+        <v>5.75</v>
+      </c>
+      <c r="P105">
+        <v>5.5</v>
+      </c>
+      <c r="Q105">
+        <v>-1.75</v>
+      </c>
+      <c r="R105">
+        <v>1.875</v>
+      </c>
+      <c r="S105">
+        <v>1.925</v>
+      </c>
+      <c r="T105">
         <v>4.5</v>
-      </c>
-      <c r="P105">
-        <v>4</v>
-      </c>
-      <c r="Q105">
-        <v>-1</v>
-      </c>
-      <c r="R105">
-        <v>1.95</v>
-      </c>
-      <c r="S105">
-        <v>1.85</v>
-      </c>
-      <c r="T105">
-        <v>3.5</v>
       </c>
       <c r="U105">
         <v>1.9</v>
@@ -9882,7 +9882,7 @@
         <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.55</v>
+        <v>0.333</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9891,16 +9891,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9908,7 +9908,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7032359</v>
+        <v>7032360</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9920,58 +9920,58 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>58</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N106">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O106">
         <v>4.5</v>
       </c>
       <c r="P106">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9980,16 +9980,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10086,7 +10086,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7032365</v>
+        <v>7039979</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10098,73 +10098,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="I108">
         <v>1</v>
       </c>
-      <c r="I108">
-        <v>3</v>
-      </c>
       <c r="J108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L108">
+        <v>4.5</v>
+      </c>
+      <c r="M108">
+        <v>1.615</v>
+      </c>
+      <c r="N108">
+        <v>2.875</v>
+      </c>
+      <c r="O108">
         <v>4.333</v>
       </c>
-      <c r="M108">
-        <v>2.15</v>
-      </c>
-      <c r="N108">
-        <v>3.2</v>
-      </c>
-      <c r="O108">
-        <v>4.75</v>
-      </c>
       <c r="P108">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10175,7 +10175,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7032364</v>
+        <v>7032365</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10187,73 +10187,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L109">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M109">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N109">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P109">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q109">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
+        <v>1.875</v>
+      </c>
+      <c r="S109">
+        <v>1.925</v>
+      </c>
+      <c r="T109">
+        <v>3.5</v>
+      </c>
+      <c r="U109">
+        <v>1.975</v>
+      </c>
+      <c r="V109">
         <v>1.825</v>
       </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
-      <c r="T109">
-        <v>4</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
-      <c r="V109">
-        <v>1.775</v>
-      </c>
       <c r="W109">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10264,7 +10264,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7039979</v>
+        <v>7032364</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10276,58 +10276,58 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G110" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H110">
         <v>5</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>58</v>
       </c>
       <c r="K110">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L110">
         <v>4.5</v>
       </c>
       <c r="M110">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N110">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O110">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P110">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W110">
-        <v>1.875</v>
+        <v>0.363</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10336,13 +10336,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10798,7 +10798,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7032371</v>
+        <v>7032498</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10810,76 +10810,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="J116" t="s">
+        <v>57</v>
+      </c>
+      <c r="K116">
+        <v>1.833</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
+        <v>3.8</v>
+      </c>
+      <c r="O116">
+        <v>4.2</v>
+      </c>
+      <c r="P116">
+        <v>1.615</v>
+      </c>
+      <c r="Q116">
         <v>1</v>
       </c>
-      <c r="J116" t="s">
-        <v>58</v>
-      </c>
-      <c r="K116">
-        <v>2.1</v>
-      </c>
-      <c r="L116">
-        <v>3.6</v>
-      </c>
-      <c r="M116">
-        <v>2.8</v>
-      </c>
-      <c r="N116">
-        <v>2.15</v>
-      </c>
-      <c r="O116">
-        <v>3.6</v>
-      </c>
-      <c r="P116">
-        <v>2.7</v>
-      </c>
-      <c r="Q116">
-        <v>-0.25</v>
-      </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10887,7 +10887,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7032498</v>
+        <v>7032371</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10899,76 +10899,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K117">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N117">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>1.8</v>
+      </c>
+      <c r="T117">
+        <v>3.5</v>
+      </c>
+      <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
+        <v>1.825</v>
+      </c>
+      <c r="W117">
+        <v>1.15</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
         <v>1</v>
       </c>
-      <c r="R117">
-        <v>1.775</v>
-      </c>
-      <c r="S117">
-        <v>1.925</v>
-      </c>
-      <c r="T117">
-        <v>3.75</v>
-      </c>
-      <c r="U117">
-        <v>1.85</v>
-      </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>0.615</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10976,7 +10976,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7032499</v>
+        <v>7032375</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10988,49 +10988,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K118">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>1.909</v>
+      </c>
+      <c r="N118">
+        <v>1.533</v>
+      </c>
+      <c r="O118">
         <v>4.75</v>
       </c>
-      <c r="M118">
-        <v>4.75</v>
-      </c>
-      <c r="N118">
-        <v>1.4</v>
-      </c>
-      <c r="O118">
-        <v>5.25</v>
-      </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
         <v>-1.5</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U118">
         <v>1.825</v>
@@ -11039,19 +11039,19 @@
         <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -11065,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7032372</v>
+        <v>7039936</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11077,40 +11077,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K119">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L119">
         <v>4.1</v>
       </c>
       <c r="M119">
-        <v>2.05</v>
+        <v>1.869</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
         <v>1.95</v>
@@ -11119,34 +11119,34 @@
         <v>1.85</v>
       </c>
       <c r="T119">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
         <v>1.95</v>
       </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB119">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11243,7 +11243,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7032374</v>
+        <v>7032499</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11255,49 +11255,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>58</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="L121">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M121">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="N121">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P121">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U121">
         <v>1.825</v>
@@ -11306,7 +11306,7 @@
         <v>1.975</v>
       </c>
       <c r="W121">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11315,16 +11315,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11332,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7039936</v>
+        <v>7032372</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11344,40 +11344,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K122">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L122">
         <v>4.1</v>
       </c>
       <c r="M122">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="N122">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P122">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
         <v>1.95</v>
@@ -11386,34 +11386,34 @@
         <v>1.85</v>
       </c>
       <c r="T122">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB122">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7032375</v>
+        <v>7032374</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11433,49 +11433,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H123">
+        <v>3</v>
+      </c>
+      <c r="I123">
         <v>1</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
       <c r="J123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K123">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
+        <v>4.5</v>
+      </c>
+      <c r="M123">
+        <v>1.615</v>
+      </c>
+      <c r="N123">
+        <v>2.05</v>
+      </c>
+      <c r="O123">
         <v>4</v>
       </c>
-      <c r="M123">
-        <v>1.909</v>
-      </c>
-      <c r="N123">
-        <v>1.533</v>
-      </c>
-      <c r="O123">
-        <v>4.75</v>
-      </c>
       <c r="P123">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q123">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
         <v>1.825</v>
@@ -11484,25 +11484,25 @@
         <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12489,7 +12489,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7032384</v>
+        <v>7032503</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12501,13 +12501,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12516,43 +12516,43 @@
         <v>58</v>
       </c>
       <c r="K135">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L135">
+        <v>4.1</v>
+      </c>
+      <c r="M135">
+        <v>2.3</v>
+      </c>
+      <c r="N135">
+        <v>1.833</v>
+      </c>
+      <c r="O135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>3.75</v>
-      </c>
-      <c r="N135">
-        <v>1.25</v>
-      </c>
-      <c r="O135">
-        <v>5.25</v>
-      </c>
       <c r="P135">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>0.25</v>
+        <v>0.833</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12561,16 +12561,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12578,7 +12578,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7032503</v>
+        <v>7032384</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12590,13 +12590,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12605,43 +12605,43 @@
         <v>58</v>
       </c>
       <c r="K136">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L136">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N136">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
+        <v>1.975</v>
+      </c>
+      <c r="T136">
+        <v>3.75</v>
+      </c>
+      <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
         <v>1.85</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>4</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
       <c r="W136">
-        <v>0.833</v>
+        <v>0.25</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12650,16 +12650,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.875</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13468,7 +13468,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7039947</v>
+        <v>7032392</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13480,55 +13480,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
         <v>1</v>
-      </c>
-      <c r="I146">
-        <v>3</v>
       </c>
       <c r="J146" t="s">
         <v>57</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="N146">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q146">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13537,19 +13537,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13557,7 +13557,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7032393</v>
+        <v>7032394</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13569,49 +13569,49 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
         <v>4</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
         <v>1.825</v>
       </c>
-      <c r="S147">
-        <v>1.975</v>
-      </c>
       <c r="T147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
         <v>1.9</v>
@@ -13623,16 +13623,16 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13646,7 +13646,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7032394</v>
+        <v>7032393</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13658,49 +13658,49 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>59</v>
+      </c>
+      <c r="K148">
         <v>2</v>
       </c>
-      <c r="J148" t="s">
-        <v>57</v>
-      </c>
-      <c r="K148">
-        <v>2.2</v>
-      </c>
       <c r="L148">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N148">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O148">
         <v>4</v>
       </c>
       <c r="P148">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
+        <v>1.825</v>
+      </c>
+      <c r="S148">
         <v>1.975</v>
       </c>
-      <c r="S148">
-        <v>1.825</v>
-      </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U148">
         <v>1.9</v>
@@ -13712,16 +13712,16 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y148">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13735,7 +13735,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7032392</v>
+        <v>7039947</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13747,55 +13747,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
         <v>57</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M149">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N149">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13804,19 +13804,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14625,7 +14625,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7032407</v>
+        <v>7032409</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14637,73 +14637,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I159">
+        <v>3</v>
+      </c>
+      <c r="J159" t="s">
+        <v>59</v>
+      </c>
+      <c r="K159">
+        <v>2.3</v>
+      </c>
+      <c r="L159">
+        <v>3.75</v>
+      </c>
+      <c r="M159">
+        <v>2.4</v>
+      </c>
+      <c r="N159">
+        <v>2.25</v>
+      </c>
+      <c r="O159">
+        <v>3.75</v>
+      </c>
+      <c r="P159">
+        <v>2.45</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>1.8</v>
+      </c>
+      <c r="S159">
         <v>2</v>
-      </c>
-      <c r="J159" t="s">
-        <v>58</v>
-      </c>
-      <c r="K159">
-        <v>1.363</v>
-      </c>
-      <c r="L159">
-        <v>5</v>
-      </c>
-      <c r="M159">
-        <v>5.5</v>
-      </c>
-      <c r="N159">
-        <v>1.666</v>
-      </c>
-      <c r="O159">
-        <v>4.5</v>
-      </c>
-      <c r="P159">
-        <v>3.4</v>
-      </c>
-      <c r="Q159">
-        <v>-0.75</v>
-      </c>
-      <c r="R159">
-        <v>1.85</v>
-      </c>
-      <c r="S159">
-        <v>1.95</v>
       </c>
       <c r="T159">
         <v>3.75</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB159">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14714,7 +14714,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032409</v>
+        <v>7032407</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14726,73 +14726,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K160">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P160">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
         <v>3.75</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X160">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -15426,7 +15426,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032414</v>
+        <v>7032412</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15438,76 +15438,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K168">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="L168">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="M168">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O168">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q168">
         <v>0</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T168">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X168">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15515,7 +15515,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7032412</v>
+        <v>7032414</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15527,76 +15527,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K169">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L169">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="M169">
+        <v>1.85</v>
+      </c>
+      <c r="N169">
+        <v>2.45</v>
+      </c>
+      <c r="O169">
         <v>4</v>
       </c>
-      <c r="N169">
-        <v>2.3</v>
-      </c>
-      <c r="O169">
-        <v>4.2</v>
-      </c>
       <c r="P169">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q169">
         <v>0</v>
       </c>
       <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>1.8</v>
+      </c>
+      <c r="T169">
+        <v>3.5</v>
+      </c>
+      <c r="U169">
+        <v>1.85</v>
+      </c>
+      <c r="V169">
         <v>1.95</v>
       </c>
-      <c r="S169">
-        <v>1.85</v>
-      </c>
-      <c r="T169">
-        <v>4</v>
-      </c>
-      <c r="U169">
-        <v>1.9</v>
-      </c>
-      <c r="V169">
-        <v>1.9</v>
-      </c>
       <c r="W169">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>-0</v>
+      </c>
+      <c r="AB169">
+        <v>-1</v>
+      </c>
+      <c r="AC169">
         <v>0.95</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
-      <c r="AC169">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7032422</v>
+        <v>7039905</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16150,55 +16150,55 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
       <c r="I176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
         <v>57</v>
       </c>
       <c r="K176">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L176">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N176">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T176">
         <v>3.75</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
         <v>-1</v>
@@ -16207,16 +16207,16 @@
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB176">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16227,7 +16227,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7039905</v>
+        <v>7032417</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16239,73 +16239,73 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K177">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N177">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
         <v>3.75</v>
       </c>
       <c r="U177">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16316,7 +16316,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7032417</v>
+        <v>7032422</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16328,40 +16328,40 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K178">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M178">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N178">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P178">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
         <v>1.9</v>
@@ -16373,28 +16373,28 @@
         <v>3.75</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -17473,7 +17473,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7032432</v>
+        <v>7032431</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17485,49 +17485,49 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K191">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L191">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M191">
+        <v>2.5</v>
+      </c>
+      <c r="N191">
+        <v>1.909</v>
+      </c>
+      <c r="O191">
         <v>4.333</v>
       </c>
-      <c r="N191">
-        <v>1.6</v>
-      </c>
-      <c r="O191">
-        <v>4.2</v>
-      </c>
       <c r="P191">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q191">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U191">
         <v>1.9</v>
@@ -17536,19 +17536,19 @@
         <v>1.9</v>
       </c>
       <c r="W191">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z191">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB191">
         <v>-1</v>
@@ -17562,7 +17562,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7032431</v>
+        <v>7032432</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17574,49 +17574,49 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K192">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
         <v>4.333</v>
       </c>
-      <c r="M192">
-        <v>2.5</v>
-      </c>
       <c r="N192">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O192">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P192">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
+        <v>1.75</v>
+      </c>
+      <c r="S192">
         <v>1.95</v>
       </c>
-      <c r="S192">
-        <v>1.85</v>
-      </c>
       <c r="T192">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U192">
         <v>1.9</v>
@@ -17625,19 +17625,19 @@
         <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB192">
         <v>-1</v>
@@ -18630,7 +18630,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7032440</v>
+        <v>7032438</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18642,55 +18642,55 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
         <v>3</v>
-      </c>
-      <c r="I204">
-        <v>5</v>
       </c>
       <c r="J204" t="s">
         <v>57</v>
       </c>
       <c r="K204">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="L204">
         <v>4.5</v>
       </c>
       <c r="M204">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N204">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="O204">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P204">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="Q204">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U204">
         <v>1.925</v>
       </c>
       <c r="V204">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18699,13 +18699,13 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0.363</v>
+        <v>4.25</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB204">
         <v>0.925</v>
@@ -18719,7 +18719,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7032438</v>
+        <v>7032437</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18731,76 +18731,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205" t="s">
+        <v>59</v>
+      </c>
+      <c r="K205">
+        <v>1.909</v>
+      </c>
+      <c r="L205">
+        <v>3.6</v>
+      </c>
+      <c r="M205">
+        <v>3.2</v>
+      </c>
+      <c r="N205">
+        <v>1.6</v>
+      </c>
+      <c r="O205">
+        <v>4</v>
+      </c>
+      <c r="P205">
+        <v>4</v>
+      </c>
+      <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.75</v>
+      </c>
+      <c r="S205">
+        <v>1.95</v>
+      </c>
+      <c r="T205">
+        <v>3.75</v>
+      </c>
+      <c r="U205">
+        <v>1.975</v>
+      </c>
+      <c r="V205">
+        <v>1.825</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
         <v>3</v>
       </c>
-      <c r="J205" t="s">
-        <v>57</v>
-      </c>
-      <c r="K205">
-        <v>1.444</v>
-      </c>
-      <c r="L205">
-        <v>4.5</v>
-      </c>
-      <c r="M205">
-        <v>5</v>
-      </c>
-      <c r="N205">
-        <v>1.4</v>
-      </c>
-      <c r="O205">
-        <v>4.75</v>
-      </c>
-      <c r="P205">
-        <v>5.25</v>
-      </c>
-      <c r="Q205">
-        <v>-1.25</v>
-      </c>
-      <c r="R205">
-        <v>1.825</v>
-      </c>
-      <c r="S205">
-        <v>1.975</v>
-      </c>
-      <c r="T205">
-        <v>3.5</v>
-      </c>
-      <c r="U205">
-        <v>1.925</v>
-      </c>
-      <c r="V205">
-        <v>1.875</v>
-      </c>
-      <c r="W205">
-        <v>-1</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
       <c r="Y205">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB205">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18808,7 +18808,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7032437</v>
+        <v>7032440</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18820,76 +18820,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J206" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K206">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="N206">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="O206">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P206">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R206">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
         <v>3.75</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB206">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19513,6 +19513,154 @@
       </c>
       <c r="AC213">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7032449</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45387.625</v>
+      </c>
+      <c r="F214" t="s">
+        <v>45</v>
+      </c>
+      <c r="G214" t="s">
+        <v>43</v>
+      </c>
+      <c r="K214">
+        <v>1.333</v>
+      </c>
+      <c r="L214">
+        <v>5.5</v>
+      </c>
+      <c r="M214">
+        <v>5.5</v>
+      </c>
+      <c r="N214">
+        <v>1.333</v>
+      </c>
+      <c r="O214">
+        <v>5.5</v>
+      </c>
+      <c r="P214">
+        <v>5.25</v>
+      </c>
+      <c r="Q214">
+        <v>-1.25</v>
+      </c>
+      <c r="R214">
+        <v>1.7</v>
+      </c>
+      <c r="S214">
+        <v>2.1</v>
+      </c>
+      <c r="T214">
+        <v>3.75</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
+        <v>1.85</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7039910</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45387.625</v>
+      </c>
+      <c r="F215" t="s">
+        <v>44</v>
+      </c>
+      <c r="G215" t="s">
+        <v>46</v>
+      </c>
+      <c r="K215">
+        <v>2.1</v>
+      </c>
+      <c r="L215">
+        <v>4.5</v>
+      </c>
+      <c r="M215">
+        <v>2.4</v>
+      </c>
+      <c r="N215">
+        <v>2.15</v>
+      </c>
+      <c r="O215">
+        <v>4.5</v>
+      </c>
+      <c r="P215">
+        <v>2.375</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
+        <v>2</v>
+      </c>
+      <c r="T215">
+        <v>4</v>
+      </c>
+      <c r="U215">
+        <v>1.95</v>
+      </c>
+      <c r="V215">
+        <v>1.85</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -555,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC218"/>
+  <dimension ref="A1:AC216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3233,7 +3233,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7032298</v>
+        <v>7032486</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3245,73 +3245,73 @@
         <v>45163.625</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L31">
         <v>4.5</v>
       </c>
       <c r="M31">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O31">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
         <v>1.825</v>
       </c>
-      <c r="S31">
-        <v>1.975</v>
-      </c>
       <c r="T31">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3322,7 +3322,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7032299</v>
+        <v>7032485</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3334,58 +3334,58 @@
         <v>45163.625</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>58</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L32">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M32">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3394,16 +3394,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3411,7 +3411,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7032485</v>
+        <v>7032298</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3423,46 +3423,46 @@
         <v>45163.625</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33">
+        <v>2.25</v>
+      </c>
+      <c r="L33">
+        <v>4.5</v>
+      </c>
+      <c r="M33">
+        <v>2.25</v>
+      </c>
+      <c r="N33">
+        <v>2.25</v>
+      </c>
+      <c r="O33">
+        <v>4.333</v>
+      </c>
+      <c r="P33">
         <v>2.3</v>
-      </c>
-      <c r="L33">
-        <v>4.1</v>
-      </c>
-      <c r="M33">
-        <v>2.3</v>
-      </c>
-      <c r="N33">
-        <v>2.2</v>
-      </c>
-      <c r="O33">
-        <v>3.8</v>
-      </c>
-      <c r="P33">
-        <v>2.5</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
         <v>3.25</v>
@@ -3474,19 +3474,19 @@
         <v>1.975</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB33">
         <v>0.825</v>
@@ -3500,7 +3500,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7032486</v>
+        <v>7032299</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3512,49 +3512,49 @@
         <v>45163.625</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>58</v>
       </c>
       <c r="K34">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
         <v>4.5</v>
       </c>
       <c r="M34">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N34">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P34">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3563,7 +3563,7 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3572,16 +3572,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -5280,7 +5280,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7032316</v>
+        <v>7039927</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5292,58 +5292,58 @@
         <v>45191.625</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
         <v>2</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>58</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N54">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O54">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5352,16 +5352,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5369,7 +5369,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7032317</v>
+        <v>7032316</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5381,76 +5381,76 @@
         <v>45191.625</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K55">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
         <v>3.75</v>
       </c>
       <c r="M55">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P55">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T55">
         <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5458,7 +5458,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7032489</v>
+        <v>7032317</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5470,76 +5470,76 @@
         <v>45191.625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L56">
         <v>3.75</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N56">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O56">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y56">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5547,7 +5547,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7039927</v>
+        <v>7032489</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5559,76 +5559,76 @@
         <v>45191.625</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K57">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
         <v>2.375</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
         <v>1.375</v>
       </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5903,7 +5903,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7032320</v>
+        <v>7032321</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5915,76 +5915,76 @@
         <v>45193.375</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N61">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5992,7 +5992,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7032321</v>
+        <v>7032320</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6004,76 +6004,76 @@
         <v>45193.375</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K62">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L62">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N62">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U62">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6170,7 +6170,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7032322</v>
+        <v>7032324</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6182,13 +6182,13 @@
         <v>45194.625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -6197,25 +6197,25 @@
         <v>57</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L64">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N64">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P64">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R64">
         <v>1.9</v>
@@ -6224,13 +6224,13 @@
         <v>1.9</v>
       </c>
       <c r="T64">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6239,7 +6239,7 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="Z64">
         <v>-1</v>
@@ -6248,10 +6248,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6259,7 +6259,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7032490</v>
+        <v>7032322</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6271,55 +6271,55 @@
         <v>45194.625</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
         <v>57</v>
       </c>
       <c r="K65">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N65">
+        <v>3.1</v>
+      </c>
+      <c r="O65">
         <v>4</v>
       </c>
-      <c r="O65">
-        <v>4.5</v>
-      </c>
       <c r="P65">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6328,19 +6328,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6348,7 +6348,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7032324</v>
+        <v>7032490</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6360,34 +6360,34 @@
         <v>45194.625</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>57</v>
       </c>
       <c r="K66">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L66">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M66">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N66">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P66">
         <v>1.55</v>
@@ -6396,19 +6396,19 @@
         <v>1</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
         <v>3.75</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6423,13 +6423,13 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6437,7 +6437,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7032325</v>
+        <v>7032330</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6449,49 +6449,49 @@
         <v>45198.625</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="N67">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="O67">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T67">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6503,22 +6503,22 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6526,7 +6526,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7032338</v>
+        <v>7032325</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6538,76 +6538,76 @@
         <v>45198.625</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O68">
         <v>4.333</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
         <v>3.75</v>
       </c>
       <c r="U68">
+        <v>1.85</v>
+      </c>
+      <c r="V68">
         <v>1.95</v>
       </c>
-      <c r="V68">
-        <v>1.85</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6615,7 +6615,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7032330</v>
+        <v>7032338</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6627,10 +6627,10 @@
         <v>45198.625</v>
       </c>
       <c r="F69" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6642,61 +6642,61 @@
         <v>59</v>
       </c>
       <c r="K69">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="N69">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P69">
+        <v>2.6</v>
+      </c>
+      <c r="Q69">
+        <v>-0.25</v>
+      </c>
+      <c r="R69">
         <v>1.85</v>
       </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-      <c r="R69">
-        <v>1.925</v>
-      </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6793,7 +6793,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7039930</v>
+        <v>7039928</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6805,40 +6805,40 @@
         <v>45198.625</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>58</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L71">
         <v>4.2</v>
       </c>
       <c r="M71">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="N71">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6850,13 +6850,13 @@
         <v>3.75</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>0.8500000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6871,7 +6871,7 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6971,7 +6971,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7039928</v>
+        <v>7039930</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6983,40 +6983,40 @@
         <v>45198.625</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>58</v>
       </c>
       <c r="K73">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
         <v>4.2</v>
       </c>
       <c r="M73">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="N73">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q73">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
         <v>1.85</v>
@@ -7028,13 +7028,13 @@
         <v>3.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>0.333</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7049,7 +7049,7 @@
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7772,7 +7772,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7032494</v>
+        <v>7032342</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7784,76 +7784,76 @@
         <v>45226.625</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K82">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M82">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N82">
+        <v>1.5</v>
+      </c>
+      <c r="O82">
+        <v>4.2</v>
+      </c>
+      <c r="P82">
         <v>4.75</v>
       </c>
-      <c r="O82">
-        <v>4.333</v>
-      </c>
-      <c r="P82">
-        <v>1.5</v>
-      </c>
       <c r="Q82">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7861,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7032342</v>
+        <v>7032494</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7873,76 +7873,76 @@
         <v>45226.625</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K83">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N83">
+        <v>4.75</v>
+      </c>
+      <c r="O83">
+        <v>4.333</v>
+      </c>
+      <c r="P83">
         <v>1.5</v>
       </c>
-      <c r="O83">
-        <v>4.2</v>
-      </c>
-      <c r="P83">
-        <v>4.75</v>
-      </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8751,7 +8751,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7032496</v>
+        <v>7032350</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8763,73 +8763,73 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K93">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L93">
         <v>4.5</v>
       </c>
       <c r="M93">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P93">
+        <v>3.6</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+      <c r="R93">
+        <v>1.875</v>
+      </c>
+      <c r="S93">
+        <v>1.925</v>
+      </c>
+      <c r="T93">
+        <v>4.25</v>
+      </c>
+      <c r="U93">
+        <v>2</v>
+      </c>
+      <c r="V93">
         <v>1.8</v>
       </c>
-      <c r="Q93">
-        <v>0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.95</v>
-      </c>
-      <c r="S93">
-        <v>1.85</v>
-      </c>
-      <c r="T93">
-        <v>3.75</v>
-      </c>
-      <c r="U93">
-        <v>1.925</v>
-      </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8840,7 +8840,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7032350</v>
+        <v>7032351</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8852,76 +8852,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K94">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L94">
         <v>4.5</v>
       </c>
       <c r="M94">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P94">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
+        <v>1.925</v>
+      </c>
+      <c r="S94">
         <v>1.875</v>
       </c>
-      <c r="S94">
-        <v>1.925</v>
-      </c>
       <c r="T94">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X94">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9107,7 +9107,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7032351</v>
+        <v>7032496</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9119,76 +9119,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L97">
         <v>4.5</v>
       </c>
       <c r="M97">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P97">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
+        <v>1.85</v>
+      </c>
+      <c r="T97">
+        <v>3.75</v>
+      </c>
+      <c r="U97">
         <v>1.925</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="T97">
-        <v>4</v>
-      </c>
-      <c r="U97">
-        <v>1.85</v>
-      </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
       <c r="W97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB97">
         <v>0.925</v>
       </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -10798,7 +10798,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7032498</v>
+        <v>7032371</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10810,76 +10810,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K116">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N116">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O116">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>3.5</v>
+      </c>
+      <c r="U116">
+        <v>1.975</v>
+      </c>
+      <c r="V116">
+        <v>1.825</v>
+      </c>
+      <c r="W116">
+        <v>1.15</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
         <v>1</v>
       </c>
-      <c r="R116">
-        <v>1.775</v>
-      </c>
-      <c r="S116">
-        <v>1.925</v>
-      </c>
-      <c r="T116">
-        <v>3.75</v>
-      </c>
-      <c r="U116">
-        <v>1.85</v>
-      </c>
-      <c r="V116">
-        <v>1.95</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>0.615</v>
-      </c>
-      <c r="Z116">
-        <v>-1</v>
-      </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10887,7 +10887,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7032371</v>
+        <v>7032498</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10899,76 +10899,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117" t="s">
+        <v>57</v>
+      </c>
+      <c r="K117">
+        <v>1.833</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>3.1</v>
+      </c>
+      <c r="N117">
+        <v>3.8</v>
+      </c>
+      <c r="O117">
+        <v>4.2</v>
+      </c>
+      <c r="P117">
+        <v>1.615</v>
+      </c>
+      <c r="Q117">
         <v>1</v>
       </c>
-      <c r="J117" t="s">
-        <v>58</v>
-      </c>
-      <c r="K117">
-        <v>2.1</v>
-      </c>
-      <c r="L117">
-        <v>3.6</v>
-      </c>
-      <c r="M117">
-        <v>2.8</v>
-      </c>
-      <c r="N117">
-        <v>2.15</v>
-      </c>
-      <c r="O117">
-        <v>3.6</v>
-      </c>
-      <c r="P117">
-        <v>2.7</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10976,7 +10976,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7039936</v>
+        <v>7032372</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10988,40 +10988,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L118">
         <v>4.1</v>
       </c>
       <c r="M118">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
         <v>1.95</v>
@@ -11030,34 +11030,34 @@
         <v>1.85</v>
       </c>
       <c r="T118">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
         <v>1.85</v>
       </c>
-      <c r="V118">
-        <v>1.95</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB118">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11065,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7032374</v>
+        <v>7032375</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11077,49 +11077,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K119">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="N119">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U119">
         <v>1.825</v>
@@ -11128,25 +11128,25 @@
         <v>1.975</v>
       </c>
       <c r="W119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11154,7 +11154,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7032500</v>
+        <v>7032499</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11166,76 +11166,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G120" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K120">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L120">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M120">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N120">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O120">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P120">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U120">
+        <v>1.825</v>
+      </c>
+      <c r="V120">
         <v>1.975</v>
       </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11243,7 +11243,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7032499</v>
+        <v>7032500</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11255,76 +11255,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K121">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L121">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M121">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N121">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="O121">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P121">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q121">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R121">
+        <v>1.875</v>
+      </c>
+      <c r="S121">
+        <v>1.925</v>
+      </c>
+      <c r="T121">
+        <v>4</v>
+      </c>
+      <c r="U121">
         <v>1.975</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.825</v>
       </c>
-      <c r="T121">
-        <v>3.75</v>
-      </c>
-      <c r="U121">
-        <v>1.825</v>
-      </c>
-      <c r="V121">
-        <v>1.975</v>
-      </c>
       <c r="W121">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
+        <v>0.925</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
         <v>0.825</v>
-      </c>
-      <c r="AB121">
-        <v>-1</v>
-      </c>
-      <c r="AC121">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11332,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7032375</v>
+        <v>7032374</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11344,49 +11344,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
         <v>1</v>
       </c>
-      <c r="I122">
-        <v>2</v>
-      </c>
       <c r="J122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K122">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="L122">
+        <v>4.5</v>
+      </c>
+      <c r="M122">
+        <v>1.615</v>
+      </c>
+      <c r="N122">
+        <v>2.05</v>
+      </c>
+      <c r="O122">
         <v>4</v>
       </c>
-      <c r="M122">
-        <v>1.909</v>
-      </c>
-      <c r="N122">
-        <v>1.533</v>
-      </c>
-      <c r="O122">
-        <v>4.75</v>
-      </c>
       <c r="P122">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q122">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
         <v>1.825</v>
@@ -11395,25 +11395,25 @@
         <v>1.975</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7032372</v>
+        <v>7039936</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11433,40 +11433,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K123">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L123">
         <v>4.1</v>
       </c>
       <c r="M123">
-        <v>2.05</v>
+        <v>1.869</v>
       </c>
       <c r="N123">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O123">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
         <v>1.95</v>
@@ -11475,34 +11475,34 @@
         <v>1.85</v>
       </c>
       <c r="T123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11688,7 +11688,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7032377</v>
+        <v>7032378</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11700,46 +11700,46 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>58</v>
       </c>
       <c r="K126">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L126">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
         <v>3.75</v>
@@ -11751,25 +11751,25 @@
         <v>1.875</v>
       </c>
       <c r="W126">
+        <v>1.5</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
         <v>0.75</v>
       </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.4875</v>
-      </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11777,7 +11777,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7032378</v>
+        <v>7032377</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11789,46 +11789,46 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
         <v>58</v>
       </c>
       <c r="K127">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M127">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N127">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O127">
         <v>4</v>
       </c>
       <c r="P127">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
         <v>3.75</v>
@@ -11840,7 +11840,7 @@
         <v>1.875</v>
       </c>
       <c r="W127">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11849,16 +11849,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11866,7 +11866,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7032501</v>
+        <v>7032380</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11878,55 +11878,55 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J128" t="s">
         <v>57</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
+        <v>4.2</v>
+      </c>
+      <c r="M128">
+        <v>2.375</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128">
         <v>4</v>
       </c>
-      <c r="M128">
-        <v>2.55</v>
-      </c>
-      <c r="N128">
-        <v>1.571</v>
-      </c>
-      <c r="O128">
-        <v>4.5</v>
-      </c>
       <c r="P128">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T128">
         <v>3.75</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11935,16 +11935,16 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB128">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11955,7 +11955,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7032380</v>
+        <v>7032379</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11967,76 +11967,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>58</v>
+      </c>
+      <c r="K129">
+        <v>1.222</v>
+      </c>
+      <c r="L129">
+        <v>6.5</v>
+      </c>
+      <c r="M129">
+        <v>7</v>
+      </c>
+      <c r="N129">
+        <v>1.3</v>
+      </c>
+      <c r="O129">
+        <v>6.5</v>
+      </c>
+      <c r="P129">
         <v>5</v>
       </c>
-      <c r="J129" t="s">
-        <v>57</v>
-      </c>
-      <c r="K129">
-        <v>2.2</v>
-      </c>
-      <c r="L129">
-        <v>4.2</v>
-      </c>
-      <c r="M129">
-        <v>2.375</v>
-      </c>
-      <c r="N129">
-        <v>2</v>
-      </c>
-      <c r="O129">
+      <c r="Q129">
+        <v>-1.75</v>
+      </c>
+      <c r="R129">
+        <v>1.9</v>
+      </c>
+      <c r="S129">
+        <v>1.9</v>
+      </c>
+      <c r="T129">
         <v>4</v>
       </c>
-      <c r="P129">
-        <v>2.75</v>
-      </c>
-      <c r="Q129">
-        <v>-0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.8</v>
-      </c>
-      <c r="S129">
-        <v>2</v>
-      </c>
-      <c r="T129">
-        <v>3.75</v>
-      </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12044,7 +12044,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7032502</v>
+        <v>7032501</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12056,55 +12056,55 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G130" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
         <v>57</v>
       </c>
       <c r="K130">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>2.55</v>
+      </c>
+      <c r="N130">
+        <v>1.571</v>
+      </c>
+      <c r="O130">
         <v>4.5</v>
       </c>
-      <c r="M130">
-        <v>1.5</v>
-      </c>
-      <c r="N130">
-        <v>5</v>
-      </c>
-      <c r="O130">
-        <v>4.75</v>
-      </c>
       <c r="P130">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q130">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>3.75</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12113,16 +12113,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.3999999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="Z130">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12133,7 +12133,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7032379</v>
+        <v>7032502</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12145,76 +12145,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K131">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L131">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N131">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="O131">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q131">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12489,7 +12489,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7032384</v>
+        <v>7032503</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12501,13 +12501,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12516,43 +12516,43 @@
         <v>58</v>
       </c>
       <c r="K135">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L135">
+        <v>4.1</v>
+      </c>
+      <c r="M135">
+        <v>2.3</v>
+      </c>
+      <c r="N135">
+        <v>1.833</v>
+      </c>
+      <c r="O135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>3.75</v>
-      </c>
-      <c r="N135">
-        <v>1.25</v>
-      </c>
-      <c r="O135">
-        <v>5.25</v>
-      </c>
       <c r="P135">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>0.25</v>
+        <v>0.833</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12561,16 +12561,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12578,7 +12578,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7032503</v>
+        <v>7032384</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12590,13 +12590,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12605,43 +12605,43 @@
         <v>58</v>
       </c>
       <c r="K136">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L136">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N136">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
+        <v>1.975</v>
+      </c>
+      <c r="T136">
+        <v>3.75</v>
+      </c>
+      <c r="U136">
+        <v>1.95</v>
+      </c>
+      <c r="V136">
         <v>1.85</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>4</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
       <c r="W136">
-        <v>0.833</v>
+        <v>0.25</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12650,16 +12650,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.875</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13468,7 +13468,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7039947</v>
+        <v>7032394</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13480,55 +13480,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>57</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L146">
         <v>3.9</v>
       </c>
       <c r="M146">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P146">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q146">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13537,19 +13537,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.75</v>
+        <v>1.625</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13557,7 +13557,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7032392</v>
+        <v>7032393</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13569,76 +13569,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N147">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P147">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
         <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y147">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13646,7 +13646,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7032393</v>
+        <v>7032392</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13658,76 +13658,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M148">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N148">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
         <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13735,7 +13735,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7032394</v>
+        <v>7039947</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13747,55 +13747,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G149" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
         <v>57</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L149">
         <v>3.9</v>
       </c>
       <c r="M149">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N149">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13804,19 +13804,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13913,7 +13913,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7032403</v>
+        <v>7032399</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13925,13 +13925,13 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -13940,40 +13940,40 @@
         <v>57</v>
       </c>
       <c r="K151">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L151">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M151">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N151">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="O151">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P151">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R151">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U151">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13982,19 +13982,19 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14002,7 +14002,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7032399</v>
+        <v>7032403</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14014,13 +14014,13 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G152" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -14029,40 +14029,40 @@
         <v>57</v>
       </c>
       <c r="K152">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L152">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N152">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="O152">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
+        <v>3.2</v>
+      </c>
+      <c r="Q152">
+        <v>-0.75</v>
+      </c>
+      <c r="R152">
+        <v>1.95</v>
+      </c>
+      <c r="S152">
+        <v>1.85</v>
+      </c>
+      <c r="T152">
         <v>3.75</v>
       </c>
-      <c r="Q152">
-        <v>-1.25</v>
-      </c>
-      <c r="R152">
-        <v>1.9</v>
-      </c>
-      <c r="S152">
-        <v>1.9</v>
-      </c>
-      <c r="T152">
-        <v>4</v>
-      </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14071,19 +14071,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14536,7 +14536,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7032409</v>
+        <v>7032408</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14548,73 +14548,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K158">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L158">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N158">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O158">
         <v>3.75</v>
       </c>
       <c r="P158">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
         <v>1.8</v>
       </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
       <c r="T158">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X158">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14625,7 +14625,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7032407</v>
+        <v>7032409</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14637,73 +14637,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I159">
+        <v>3</v>
+      </c>
+      <c r="J159" t="s">
+        <v>59</v>
+      </c>
+      <c r="K159">
+        <v>2.3</v>
+      </c>
+      <c r="L159">
+        <v>3.75</v>
+      </c>
+      <c r="M159">
+        <v>2.4</v>
+      </c>
+      <c r="N159">
+        <v>2.25</v>
+      </c>
+      <c r="O159">
+        <v>3.75</v>
+      </c>
+      <c r="P159">
+        <v>2.45</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>1.8</v>
+      </c>
+      <c r="S159">
         <v>2</v>
-      </c>
-      <c r="J159" t="s">
-        <v>58</v>
-      </c>
-      <c r="K159">
-        <v>1.363</v>
-      </c>
-      <c r="L159">
-        <v>5</v>
-      </c>
-      <c r="M159">
-        <v>5.5</v>
-      </c>
-      <c r="N159">
-        <v>1.666</v>
-      </c>
-      <c r="O159">
-        <v>4.5</v>
-      </c>
-      <c r="P159">
-        <v>3.4</v>
-      </c>
-      <c r="Q159">
-        <v>-0.75</v>
-      </c>
-      <c r="R159">
-        <v>1.85</v>
-      </c>
-      <c r="S159">
-        <v>1.95</v>
       </c>
       <c r="T159">
         <v>3.75</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB159">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14714,7 +14714,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032408</v>
+        <v>7032407</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14726,58 +14726,58 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H160">
         <v>4</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>58</v>
       </c>
       <c r="K160">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O160">
+        <v>4.5</v>
+      </c>
+      <c r="P160">
+        <v>3.4</v>
+      </c>
+      <c r="Q160">
+        <v>-0.75</v>
+      </c>
+      <c r="R160">
+        <v>1.85</v>
+      </c>
+      <c r="S160">
+        <v>1.95</v>
+      </c>
+      <c r="T160">
         <v>3.75</v>
       </c>
-      <c r="P160">
-        <v>2.55</v>
-      </c>
-      <c r="Q160">
-        <v>-0.25</v>
-      </c>
-      <c r="R160">
-        <v>2</v>
-      </c>
-      <c r="S160">
-        <v>1.8</v>
-      </c>
-      <c r="T160">
-        <v>3.5</v>
-      </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14786,13 +14786,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -15248,7 +15248,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7039896</v>
+        <v>7032412</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15260,76 +15260,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>3</v>
-      </c>
       <c r="J166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L166">
+        <v>4.75</v>
+      </c>
+      <c r="M166">
         <v>4</v>
       </c>
-      <c r="M166">
-        <v>2.45</v>
-      </c>
       <c r="N166">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O166">
         <v>4.2</v>
       </c>
       <c r="P166">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15337,7 +15337,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7032414</v>
+        <v>7032507</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15349,40 +15349,40 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K167">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L167">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
         <v>2</v>
@@ -15394,31 +15394,31 @@
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X167">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA167">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15426,7 +15426,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032413</v>
+        <v>7039896</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15438,76 +15438,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
         <v>57</v>
       </c>
       <c r="K168">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L168">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N168">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q168">
+        <v>-0.75</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
+        <v>3.75</v>
+      </c>
+      <c r="U168">
+        <v>1.975</v>
+      </c>
+      <c r="V168">
+        <v>1.825</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>2.4</v>
+      </c>
+      <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.825</v>
+      </c>
+      <c r="AB168">
+        <v>0.4875</v>
+      </c>
+      <c r="AC168">
         <v>-0.5</v>
-      </c>
-      <c r="R168">
-        <v>1.9</v>
-      </c>
-      <c r="S168">
-        <v>1.9</v>
-      </c>
-      <c r="T168">
-        <v>3.25</v>
-      </c>
-      <c r="U168">
-        <v>1.825</v>
-      </c>
-      <c r="V168">
-        <v>1.975</v>
-      </c>
-      <c r="W168">
-        <v>-1</v>
-      </c>
-      <c r="X168">
-        <v>-1</v>
-      </c>
-      <c r="Y168">
-        <v>2.25</v>
-      </c>
-      <c r="Z168">
-        <v>-1</v>
-      </c>
-      <c r="AA168">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB168">
-        <v>-0.5</v>
-      </c>
-      <c r="AC168">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15515,7 +15515,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7032507</v>
+        <v>7032414</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15527,40 +15527,40 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
+        <v>59</v>
+      </c>
+      <c r="K169">
         <v>3</v>
       </c>
-      <c r="I169">
+      <c r="L169">
+        <v>4.1</v>
+      </c>
+      <c r="M169">
+        <v>1.85</v>
+      </c>
+      <c r="N169">
+        <v>2.45</v>
+      </c>
+      <c r="O169">
+        <v>4</v>
+      </c>
+      <c r="P169">
+        <v>2.2</v>
+      </c>
+      <c r="Q169">
         <v>0</v>
-      </c>
-      <c r="J169" t="s">
-        <v>58</v>
-      </c>
-      <c r="K169">
-        <v>1.727</v>
-      </c>
-      <c r="L169">
-        <v>4</v>
-      </c>
-      <c r="M169">
-        <v>3.5</v>
-      </c>
-      <c r="N169">
-        <v>1.5</v>
-      </c>
-      <c r="O169">
-        <v>4.333</v>
-      </c>
-      <c r="P169">
-        <v>4.75</v>
-      </c>
-      <c r="Q169">
-        <v>-1.25</v>
       </c>
       <c r="R169">
         <v>2</v>
@@ -15572,31 +15572,31 @@
         <v>3.5</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15604,7 +15604,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7032412</v>
+        <v>7032413</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15616,76 +15616,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
         <v>2</v>
       </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
       <c r="J170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K170">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N170">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P170">
+        <v>3.25</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.9</v>
+      </c>
+      <c r="S170">
+        <v>1.9</v>
+      </c>
+      <c r="T170">
+        <v>3.25</v>
+      </c>
+      <c r="U170">
+        <v>1.825</v>
+      </c>
+      <c r="V170">
+        <v>1.975</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
         <v>2.25</v>
       </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>1.95</v>
-      </c>
-      <c r="S170">
-        <v>1.85</v>
-      </c>
-      <c r="T170">
-        <v>4</v>
-      </c>
-      <c r="U170">
-        <v>1.9</v>
-      </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
-      <c r="W170">
-        <v>1.3</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
       <c r="Z170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15960,7 +15960,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7039905</v>
+        <v>7032422</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15972,55 +15972,55 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
         <v>57</v>
       </c>
       <c r="K174">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L174">
+        <v>5.5</v>
+      </c>
+      <c r="M174">
+        <v>5.5</v>
+      </c>
+      <c r="N174">
+        <v>1.833</v>
+      </c>
+      <c r="O174">
         <v>4.5</v>
       </c>
-      <c r="M174">
-        <v>4.5</v>
-      </c>
-      <c r="N174">
-        <v>2</v>
-      </c>
-      <c r="O174">
-        <v>4</v>
-      </c>
       <c r="P174">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
         <v>3.75</v>
       </c>
       <c r="U174">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -16029,16 +16029,16 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB174">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16049,7 +16049,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7032422</v>
+        <v>7039905</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16061,55 +16061,55 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H175">
         <v>2</v>
       </c>
       <c r="I175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J175" t="s">
         <v>57</v>
       </c>
       <c r="K175">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L175">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M175">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N175">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O175">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T175">
         <v>3.75</v>
       </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -16118,16 +16118,16 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB175">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16939,7 +16939,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7898839</v>
+        <v>7032425</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16951,76 +16951,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185" t="s">
+        <v>57</v>
+      </c>
+      <c r="K185">
+        <v>2.9</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>1.909</v>
+      </c>
+      <c r="N185">
+        <v>2.25</v>
+      </c>
+      <c r="O185">
+        <v>3.8</v>
+      </c>
+      <c r="P185">
+        <v>2.4</v>
+      </c>
+      <c r="Q185">
         <v>0</v>
       </c>
-      <c r="J185" t="s">
-        <v>58</v>
-      </c>
-      <c r="K185">
-        <v>2</v>
-      </c>
-      <c r="L185">
-        <v>3.75</v>
-      </c>
-      <c r="M185">
-        <v>2.9</v>
-      </c>
-      <c r="N185">
-        <v>1.666</v>
-      </c>
-      <c r="O185">
-        <v>4</v>
-      </c>
-      <c r="P185">
-        <v>4</v>
-      </c>
-      <c r="Q185">
-        <v>-0.75</v>
-      </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
         <v>3.75</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W185">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC185">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17028,7 +17028,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7032425</v>
+        <v>7898839</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17040,76 +17040,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>3.75</v>
+      </c>
+      <c r="M186">
         <v>2.9</v>
       </c>
-      <c r="L186">
+      <c r="N186">
+        <v>1.666</v>
+      </c>
+      <c r="O186">
         <v>4</v>
       </c>
-      <c r="M186">
-        <v>1.909</v>
-      </c>
-      <c r="N186">
-        <v>2.25</v>
-      </c>
-      <c r="O186">
-        <v>3.8</v>
-      </c>
       <c r="P186">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T186">
         <v>3.75</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17562,7 +17562,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7032432</v>
+        <v>7032433</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17574,76 +17574,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J192" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K192">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L192">
+        <v>4.333</v>
+      </c>
+      <c r="M192">
+        <v>1.727</v>
+      </c>
+      <c r="N192">
+        <v>5</v>
+      </c>
+      <c r="O192">
         <v>4.5</v>
       </c>
-      <c r="M192">
-        <v>4.333</v>
-      </c>
-      <c r="N192">
-        <v>1.6</v>
-      </c>
-      <c r="O192">
-        <v>4.2</v>
-      </c>
       <c r="P192">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q192">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R192">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z192">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17651,7 +17651,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7032433</v>
+        <v>7032427</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17663,40 +17663,40 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H193">
         <v>1</v>
       </c>
       <c r="I193">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K193">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="L193">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M193">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="N193">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O193">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P193">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="Q193">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R193">
         <v>1.95</v>
@@ -17711,28 +17711,28 @@
         <v>1.925</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y193">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17740,7 +17740,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7032427</v>
+        <v>7032432</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17752,76 +17752,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K194">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M194">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N194">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O194">
+        <v>4.2</v>
+      </c>
+      <c r="P194">
         <v>3.8</v>
       </c>
-      <c r="P194">
-        <v>2.3</v>
-      </c>
       <c r="Q194">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
+        <v>1.75</v>
+      </c>
+      <c r="S194">
         <v>1.95</v>
       </c>
-      <c r="S194">
-        <v>1.85</v>
-      </c>
       <c r="T194">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X194">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA194">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18007,7 +18007,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7032436</v>
+        <v>7032509</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18019,55 +18019,55 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>57</v>
       </c>
       <c r="K197">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L197">
         <v>4</v>
       </c>
       <c r="M197">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N197">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q197">
         <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
         <v>3.5</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18076,19 +18076,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18096,7 +18096,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7032509</v>
+        <v>7905004</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18108,64 +18108,64 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K198">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L198">
+        <v>4.5</v>
+      </c>
+      <c r="M198">
+        <v>2.5</v>
+      </c>
+      <c r="N198">
+        <v>1.5</v>
+      </c>
+      <c r="O198">
+        <v>5</v>
+      </c>
+      <c r="P198">
         <v>4</v>
       </c>
-      <c r="M198">
-        <v>2.15</v>
-      </c>
-      <c r="N198">
-        <v>2.55</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
-      <c r="P198">
-        <v>2.15</v>
-      </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S198">
         <v>1.95</v>
       </c>
       <c r="T198">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y198">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
@@ -18174,10 +18174,10 @@
         <v>0.95</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18185,7 +18185,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7905004</v>
+        <v>7032436</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18197,76 +18197,76 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J199" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K199">
+        <v>1.8</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>3.25</v>
+      </c>
+      <c r="N199">
+        <v>2.75</v>
+      </c>
+      <c r="O199">
+        <v>3.8</v>
+      </c>
+      <c r="P199">
         <v>2.05</v>
       </c>
-      <c r="L199">
-        <v>4.5</v>
-      </c>
-      <c r="M199">
-        <v>2.5</v>
-      </c>
-      <c r="N199">
-        <v>1.5</v>
-      </c>
-      <c r="O199">
-        <v>5</v>
-      </c>
-      <c r="P199">
-        <v>4</v>
-      </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
+        <v>1.925</v>
+      </c>
+      <c r="T199">
+        <v>3.5</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
         <v>1.95</v>
       </c>
-      <c r="T199">
-        <v>4</v>
-      </c>
-      <c r="U199">
-        <v>1.875</v>
-      </c>
-      <c r="V199">
-        <v>1.925</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC199">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -19164,7 +19164,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7032446</v>
+        <v>7039814</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19176,31 +19176,31 @@
         <v>45369.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K210">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L210">
         <v>4</v>
       </c>
       <c r="M210">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O210">
         <v>4.2</v>
@@ -19212,40 +19212,40 @@
         <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
         <v>4</v>
       </c>
       <c r="U210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z210">
-        <v>-1</v>
-      </c>
       <c r="AA210">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19253,7 +19253,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7039814</v>
+        <v>7032446</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19265,31 +19265,31 @@
         <v>45369.66666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J211" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L211">
         <v>4</v>
       </c>
       <c r="M211">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N211">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O211">
         <v>4.2</v>
@@ -19301,40 +19301,40 @@
         <v>0.5</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
         <v>4</v>
       </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W211">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19780,154 +19780,6 @@
       </c>
       <c r="AC216">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:29">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217">
-        <v>7032450</v>
-      </c>
-      <c r="C217" t="s">
-        <v>28</v>
-      </c>
-      <c r="D217" t="s">
-        <v>28</v>
-      </c>
-      <c r="E217" s="2">
-        <v>45388.33333333334</v>
-      </c>
-      <c r="F217" t="s">
-        <v>54</v>
-      </c>
-      <c r="G217" t="s">
-        <v>40</v>
-      </c>
-      <c r="K217">
-        <v>3.2</v>
-      </c>
-      <c r="L217">
-        <v>4.5</v>
-      </c>
-      <c r="M217">
-        <v>1.727</v>
-      </c>
-      <c r="N217">
-        <v>3.5</v>
-      </c>
-      <c r="O217">
-        <v>4.75</v>
-      </c>
-      <c r="P217">
-        <v>1.615</v>
-      </c>
-      <c r="Q217">
-        <v>0.75</v>
-      </c>
-      <c r="R217">
-        <v>2</v>
-      </c>
-      <c r="S217">
-        <v>1.8</v>
-      </c>
-      <c r="T217">
-        <v>3.75</v>
-      </c>
-      <c r="U217">
-        <v>1.925</v>
-      </c>
-      <c r="V217">
-        <v>1.875</v>
-      </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-      <c r="X217">
-        <v>0</v>
-      </c>
-      <c r="Y217">
-        <v>0</v>
-      </c>
-      <c r="Z217">
-        <v>0</v>
-      </c>
-      <c r="AA217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>7032511</v>
-      </c>
-      <c r="C218" t="s">
-        <v>28</v>
-      </c>
-      <c r="D218" t="s">
-        <v>28</v>
-      </c>
-      <c r="E218" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F218" t="s">
-        <v>49</v>
-      </c>
-      <c r="G218" t="s">
-        <v>50</v>
-      </c>
-      <c r="K218">
-        <v>1.333</v>
-      </c>
-      <c r="L218">
-        <v>5.5</v>
-      </c>
-      <c r="M218">
-        <v>5.5</v>
-      </c>
-      <c r="N218">
-        <v>1.5</v>
-      </c>
-      <c r="O218">
-        <v>5.25</v>
-      </c>
-      <c r="P218">
-        <v>4</v>
-      </c>
-      <c r="Q218">
-        <v>-1.25</v>
-      </c>
-      <c r="R218">
-        <v>1.925</v>
-      </c>
-      <c r="S218">
-        <v>1.875</v>
-      </c>
-      <c r="T218">
-        <v>3.75</v>
-      </c>
-      <c r="U218">
-        <v>1.925</v>
-      </c>
-      <c r="V218">
-        <v>1.875</v>
-      </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-      <c r="AA218">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -127,13 +127,13 @@
     <t>Crystal Palace U21</t>
   </si>
   <si>
+    <t>Leicester U21</t>
+  </si>
+  <si>
     <t>Sunderland U21</t>
   </si>
   <si>
     <t>Stoke U21</t>
-  </si>
-  <si>
-    <t>Leicester U21</t>
   </si>
   <si>
     <t>Nottm Forest U21</t>
@@ -148,19 +148,19 @@
     <t>Derby U21</t>
   </si>
   <si>
-    <t>West Ham U21</t>
-  </si>
-  <si>
     <t>Southampton U21</t>
   </si>
   <si>
     <t>Norwich U21</t>
   </si>
   <si>
-    <t>Middlesbrough U21</t>
+    <t>Man Utd U21</t>
   </si>
   <si>
-    <t>Man Utd U21</t>
+    <t>West Ham U21</t>
+  </si>
+  <si>
+    <t>Middlesbrough U21</t>
   </si>
   <si>
     <t>Tottenham U21</t>
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1201,7 +1201,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -1290,7 +1290,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7063025</v>
+        <v>7062765</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1379,31 +1379,31 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N10">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
         <v>3.75</v>
@@ -1421,13 +1421,13 @@
         <v>3.5</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>0.6659999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1436,16 +1436,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7062953</v>
+        <v>7063025</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1468,31 +1468,31 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L11">
         <v>3.75</v>
       </c>
       <c r="M11">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N11">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P11">
         <v>3.75</v>
@@ -1501,40 +1501,40 @@
         <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U11">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7062765</v>
+        <v>7062953</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1557,31 +1557,31 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N12">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
         <v>3.75</v>
@@ -1590,34 +1590,34 @@
         <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
         <v>1.925</v>
       </c>
       <c r="W12">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z12">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1646,7 +1646,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1987,7 +1987,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7032294</v>
+        <v>7032293</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2002,31 +2002,31 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
         <v>2</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>58</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M17">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N17">
         <v>1.55</v>
       </c>
       <c r="O17">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P17">
         <v>4</v>
@@ -2035,19 +2035,19 @@
         <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>0.55</v>
@@ -2059,16 +2059,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7032293</v>
+        <v>7032291</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2091,64 +2091,64 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>2.4</v>
+      </c>
+      <c r="N18">
+        <v>3.25</v>
+      </c>
+      <c r="O18">
         <v>4.2</v>
       </c>
-      <c r="M18">
-        <v>2.875</v>
-      </c>
-      <c r="N18">
-        <v>1.55</v>
-      </c>
-      <c r="O18">
-        <v>4.75</v>
-      </c>
       <c r="P18">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
         <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W18">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032291</v>
+        <v>7032285</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2177,73 +2177,73 @@
         <v>45156.625</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M19">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="O19">
+        <v>4.333</v>
+      </c>
+      <c r="P19">
+        <v>4.75</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>1.75</v>
+      </c>
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
         <v>3.25</v>
       </c>
-      <c r="O19">
-        <v>4.2</v>
-      </c>
-      <c r="P19">
-        <v>1.75</v>
-      </c>
-      <c r="Q19">
+      <c r="U19">
+        <v>1.775</v>
+      </c>
+      <c r="V19">
+        <v>1.925</v>
+      </c>
+      <c r="W19">
         <v>0.5</v>
       </c>
-      <c r="R19">
-        <v>1.925</v>
-      </c>
-      <c r="S19">
-        <v>1.775</v>
-      </c>
-      <c r="T19">
-        <v>3.5</v>
-      </c>
-      <c r="U19">
-        <v>1.925</v>
-      </c>
-      <c r="V19">
-        <v>1.775</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
       <c r="X19">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2254,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032290</v>
+        <v>7032289</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2266,76 +2266,76 @@
         <v>45156.625</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L20">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N20">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z20">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2343,7 +2343,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032286</v>
+        <v>7032294</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2355,76 +2355,76 @@
         <v>45156.625</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L21">
         <v>4.333</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>1.95</v>
       </c>
       <c r="T21">
         <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2432,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7032289</v>
+        <v>7032286</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2444,55 +2444,55 @@
         <v>45156.625</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>57</v>
       </c>
       <c r="K22">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L22">
         <v>4.333</v>
       </c>
       <c r="M22">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
         <v>3.5</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2501,19 +2501,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2521,7 +2521,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7032285</v>
+        <v>7032290</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2533,40 +2533,40 @@
         <v>45156.625</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L23">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P23">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
         <v>1.75</v>
@@ -2575,31 +2575,31 @@
         <v>1.95</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U23">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
         <v>1.925</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2889,7 +2889,7 @@
         <v>45159.625</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -2981,7 +2981,7 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
@@ -3426,7 +3426,7 @@
         <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3601,7 +3601,7 @@
         <v>45163.625</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
@@ -3690,7 +3690,7 @@
         <v>45163.625</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -3779,10 +3779,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -3871,7 +3871,7 @@
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -4138,7 +4138,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4405,7 +4405,7 @@
         <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4580,7 +4580,7 @@
         <v>45170.625</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>52</v>
@@ -4758,10 +4758,10 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5114,10 +5114,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -5206,7 +5206,7 @@
         <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5295,7 +5295,7 @@
         <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5381,10 +5381,10 @@
         <v>45191.625</v>
       </c>
       <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" t="s">
         <v>44</v>
-      </c>
-      <c r="G55" t="s">
-        <v>45</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5458,7 +5458,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7032489</v>
+        <v>7039927</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5470,76 +5470,76 @@
         <v>45191.625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N56">
         <v>2.375</v>
       </c>
       <c r="O56">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5547,7 +5547,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7039927</v>
+        <v>7032489</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5559,76 +5559,76 @@
         <v>45191.625</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K57">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
         <v>2.375</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
         <v>1.375</v>
       </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5737,7 +5737,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -6093,10 +6093,10 @@
         <v>45194.625</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6182,7 +6182,7 @@
         <v>45194.625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
         <v>43</v>
@@ -6360,7 +6360,7 @@
         <v>45194.625</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
         <v>49</v>
@@ -6452,7 +6452,7 @@
         <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6541,7 +6541,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7039928</v>
+        <v>7032338</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6627,40 +6627,40 @@
         <v>45198.625</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K69">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
         <v>4.2</v>
       </c>
       <c r="M69">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="N69">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P69">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
         <v>1.85</v>
@@ -6672,31 +6672,31 @@
         <v>3.75</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>-0.5</v>
+      </c>
+      <c r="AA69">
+        <v>0.475</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.825</v>
-      </c>
-      <c r="AC69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6704,7 +6704,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7039930</v>
+        <v>7039928</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6716,40 +6716,40 @@
         <v>45198.625</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>58</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L70">
         <v>4.2</v>
       </c>
       <c r="M70">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="N70">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6761,13 +6761,13 @@
         <v>3.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>0.8500000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6782,7 +6782,7 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6793,7 +6793,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7032338</v>
+        <v>7039930</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6805,19 +6805,19 @@
         <v>45198.625</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K71">
         <v>2.25</v>
@@ -6829,16 +6829,16 @@
         <v>2.3</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6850,31 +6850,31 @@
         <v>3.75</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X71">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7075,7 +7075,7 @@
         <v>54</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7164,7 +7164,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7250,7 +7250,7 @@
         <v>45200.375</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
         <v>51</v>
@@ -7609,7 +7609,7 @@
         <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7698,7 +7698,7 @@
         <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7784,7 +7784,7 @@
         <v>45226.625</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
         <v>49</v>
@@ -7873,10 +7873,10 @@
         <v>45226.625</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H83">
         <v>5</v>
@@ -8321,7 +8321,7 @@
         <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8585,10 +8585,10 @@
         <v>45233.375</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
         <v>49</v>
@@ -9297,7 +9297,7 @@
         <v>45234.375</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
         <v>52</v>
@@ -9389,7 +9389,7 @@
         <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9478,7 +9478,7 @@
         <v>54</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9564,7 +9564,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9742,7 +9742,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
         <v>54</v>
@@ -9819,7 +9819,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7032360</v>
+        <v>7032359</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9831,58 +9831,58 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>58</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N105">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
         <v>4.5</v>
       </c>
       <c r="P105">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9891,16 +9891,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9908,7 +9908,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7032359</v>
+        <v>7032360</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9920,58 +9920,58 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>58</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N106">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O106">
         <v>4.5</v>
       </c>
       <c r="P106">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9980,16 +9980,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10086,7 +10086,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7032364</v>
+        <v>7032365</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10098,73 +10098,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N108">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O108">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>3.5</v>
+      </c>
+      <c r="U108">
+        <v>1.975</v>
+      </c>
+      <c r="V108">
         <v>1.825</v>
       </c>
-      <c r="S108">
-        <v>1.975</v>
-      </c>
-      <c r="T108">
-        <v>4</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.775</v>
-      </c>
       <c r="W108">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10175,7 +10175,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7039979</v>
+        <v>7032364</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10187,58 +10187,58 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G109" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>58</v>
       </c>
       <c r="K109">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
         <v>4.5</v>
       </c>
       <c r="M109">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N109">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O109">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W109">
-        <v>1.875</v>
+        <v>0.363</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10247,13 +10247,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10264,7 +10264,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7032365</v>
+        <v>7039979</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10276,73 +10276,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="I110">
         <v>1</v>
       </c>
-      <c r="I110">
-        <v>3</v>
-      </c>
       <c r="J110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L110">
+        <v>4.5</v>
+      </c>
+      <c r="M110">
+        <v>1.615</v>
+      </c>
+      <c r="N110">
+        <v>2.875</v>
+      </c>
+      <c r="O110">
         <v>4.333</v>
       </c>
-      <c r="M110">
-        <v>2.15</v>
-      </c>
-      <c r="N110">
-        <v>3.2</v>
-      </c>
-      <c r="O110">
-        <v>4.75</v>
-      </c>
       <c r="P110">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
         <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10365,7 +10365,7 @@
         <v>45275.35416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s">
         <v>43</v>
@@ -10632,7 +10632,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G114" t="s">
         <v>35</v>
@@ -10724,7 +10724,7 @@
         <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10813,7 +10813,7 @@
         <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10976,7 +10976,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7032372</v>
+        <v>7032500</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10988,55 +10988,55 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>57</v>
       </c>
       <c r="K118">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="L118">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N118">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P118">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>4</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11045,19 +11045,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.8</v>
+        <v>6.5</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11065,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7032374</v>
+        <v>7039936</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11077,76 +11077,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119" t="s">
+        <v>59</v>
+      </c>
+      <c r="K119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119" t="s">
-        <v>58</v>
-      </c>
-      <c r="K119">
-        <v>3.6</v>
-      </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M119">
-        <v>1.615</v>
+        <v>1.869</v>
       </c>
       <c r="N119">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
         <v>4</v>
       </c>
       <c r="P119">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q119">
         <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11154,7 +11154,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7032499</v>
+        <v>7032375</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11166,49 +11166,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K120">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>1.909</v>
+      </c>
+      <c r="N120">
+        <v>1.533</v>
+      </c>
+      <c r="O120">
         <v>4.75</v>
       </c>
-      <c r="M120">
-        <v>4.75</v>
-      </c>
-      <c r="N120">
-        <v>1.4</v>
-      </c>
-      <c r="O120">
-        <v>5.25</v>
-      </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
         <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U120">
         <v>1.825</v>
@@ -11217,19 +11217,19 @@
         <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -11243,7 +11243,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7032375</v>
+        <v>7032374</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11255,49 +11255,49 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>2</v>
-      </c>
       <c r="J121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K121">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="L121">
+        <v>4.5</v>
+      </c>
+      <c r="M121">
+        <v>1.615</v>
+      </c>
+      <c r="N121">
+        <v>2.05</v>
+      </c>
+      <c r="O121">
         <v>4</v>
       </c>
-      <c r="M121">
-        <v>1.909</v>
-      </c>
-      <c r="N121">
-        <v>1.533</v>
-      </c>
-      <c r="O121">
-        <v>4.75</v>
-      </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q121">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
         <v>1.825</v>
@@ -11306,25 +11306,25 @@
         <v>1.975</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11332,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7039936</v>
+        <v>7032372</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11344,40 +11344,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K122">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L122">
         <v>4.1</v>
       </c>
       <c r="M122">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="N122">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P122">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
         <v>1.95</v>
@@ -11386,34 +11386,34 @@
         <v>1.85</v>
       </c>
       <c r="T122">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB122">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11421,7 +11421,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7032500</v>
+        <v>7032499</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11433,76 +11433,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K123">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M123">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N123">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O123">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P123">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q123">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U123">
+        <v>1.825</v>
+      </c>
+      <c r="V123">
         <v>1.975</v>
       </c>
-      <c r="V123">
-        <v>1.825</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11522,10 +11522,10 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -11611,7 +11611,7 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -11700,7 +11700,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G126" t="s">
         <v>32</v>
@@ -11792,7 +11792,7 @@
         <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11970,7 +11970,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12056,7 +12056,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
         <v>49</v>
@@ -12148,7 +12148,7 @@
         <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12415,7 +12415,7 @@
         <v>51</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7032503</v>
+        <v>7032384</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12501,13 +12501,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12516,43 +12516,43 @@
         <v>58</v>
       </c>
       <c r="K135">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L135">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O135">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P135">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>1.975</v>
+      </c>
+      <c r="T135">
+        <v>3.75</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
         <v>1.85</v>
       </c>
-      <c r="S135">
-        <v>1.95</v>
-      </c>
-      <c r="T135">
-        <v>4</v>
-      </c>
-      <c r="U135">
-        <v>1.875</v>
-      </c>
-      <c r="V135">
-        <v>1.925</v>
-      </c>
       <c r="W135">
-        <v>0.833</v>
+        <v>0.25</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12561,16 +12561,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0.875</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12578,7 +12578,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7032384</v>
+        <v>7032503</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12590,13 +12590,13 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12605,43 +12605,43 @@
         <v>58</v>
       </c>
       <c r="K136">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L136">
+        <v>4.1</v>
+      </c>
+      <c r="M136">
+        <v>2.3</v>
+      </c>
+      <c r="N136">
+        <v>1.833</v>
+      </c>
+      <c r="O136">
         <v>4.5</v>
       </c>
-      <c r="M136">
-        <v>3.75</v>
-      </c>
-      <c r="N136">
-        <v>1.25</v>
-      </c>
-      <c r="O136">
-        <v>5.25</v>
-      </c>
       <c r="P136">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q136">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0.25</v>
+        <v>0.833</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12650,16 +12650,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12768,10 +12768,10 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12857,7 +12857,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G139" t="s">
         <v>51</v>
@@ -13213,10 +13213,10 @@
         <v>45318.5</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13468,7 +13468,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7039947</v>
+        <v>7032394</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13480,55 +13480,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>57</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L146">
         <v>3.9</v>
       </c>
       <c r="M146">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P146">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q146">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13537,19 +13537,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.75</v>
+        <v>1.625</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13557,7 +13557,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7032393</v>
+        <v>7032392</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13569,76 +13569,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N147">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q147">
         <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13646,7 +13646,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7032392</v>
+        <v>7032393</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13658,76 +13658,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K148">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N148">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q148">
         <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y148">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13735,7 +13735,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7032394</v>
+        <v>7039947</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13747,55 +13747,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
         <v>57</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L149">
         <v>3.9</v>
       </c>
       <c r="M149">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N149">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13804,19 +13804,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13913,7 +13913,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7032397</v>
+        <v>7032403</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13925,40 +13925,40 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G151" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
         <v>2</v>
       </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
       <c r="J151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K151">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L151">
         <v>4.2</v>
       </c>
       <c r="M151">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P151">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R151">
         <v>1.95</v>
@@ -13967,34 +13967,34 @@
         <v>1.85</v>
       </c>
       <c r="T151">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W151">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14002,7 +14002,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7032403</v>
+        <v>7032399</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14014,13 +14014,13 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -14029,40 +14029,40 @@
         <v>57</v>
       </c>
       <c r="K152">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L152">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N152">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="O152">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P152">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14071,19 +14071,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14091,7 +14091,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7032399</v>
+        <v>7032397</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14103,76 +14103,76 @@
         <v>45331.66666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>2</v>
-      </c>
       <c r="J153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K153">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="L153">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M153">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N153">
-        <v>1.45</v>
+        <v>2.375</v>
       </c>
       <c r="O153">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q153">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
         <v>1.975</v>
       </c>
-      <c r="V153">
-        <v>1.825</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14195,7 +14195,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14373,7 +14373,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14536,7 +14536,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7032408</v>
+        <v>7032407</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14548,58 +14548,58 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H158">
         <v>4</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>58</v>
       </c>
       <c r="K158">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M158">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N158">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O158">
+        <v>4.5</v>
+      </c>
+      <c r="P158">
+        <v>3.4</v>
+      </c>
+      <c r="Q158">
+        <v>-0.75</v>
+      </c>
+      <c r="R158">
+        <v>1.85</v>
+      </c>
+      <c r="S158">
+        <v>1.95</v>
+      </c>
+      <c r="T158">
         <v>3.75</v>
       </c>
-      <c r="P158">
-        <v>2.55</v>
-      </c>
-      <c r="Q158">
-        <v>-0.25</v>
-      </c>
-      <c r="R158">
-        <v>2</v>
-      </c>
-      <c r="S158">
-        <v>1.8</v>
-      </c>
-      <c r="T158">
-        <v>3.5</v>
-      </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14608,13 +14608,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14625,7 +14625,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7032409</v>
+        <v>7032408</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14637,73 +14637,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K159">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N159">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O159">
         <v>3.75</v>
       </c>
       <c r="P159">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
         <v>1.8</v>
       </c>
-      <c r="S159">
-        <v>2</v>
-      </c>
       <c r="T159">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X159">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14714,7 +14714,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032407</v>
+        <v>7032409</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14726,73 +14726,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160" t="s">
+        <v>59</v>
+      </c>
+      <c r="K160">
+        <v>2.3</v>
+      </c>
+      <c r="L160">
+        <v>3.75</v>
+      </c>
+      <c r="M160">
+        <v>2.4</v>
+      </c>
+      <c r="N160">
+        <v>2.25</v>
+      </c>
+      <c r="O160">
+        <v>3.75</v>
+      </c>
+      <c r="P160">
+        <v>2.45</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>1.8</v>
+      </c>
+      <c r="S160">
         <v>2</v>
-      </c>
-      <c r="J160" t="s">
-        <v>58</v>
-      </c>
-      <c r="K160">
-        <v>1.363</v>
-      </c>
-      <c r="L160">
-        <v>5</v>
-      </c>
-      <c r="M160">
-        <v>5.5</v>
-      </c>
-      <c r="N160">
-        <v>1.666</v>
-      </c>
-      <c r="O160">
-        <v>4.5</v>
-      </c>
-      <c r="P160">
-        <v>3.4</v>
-      </c>
-      <c r="Q160">
-        <v>-0.75</v>
-      </c>
-      <c r="R160">
-        <v>1.85</v>
-      </c>
-      <c r="S160">
-        <v>1.95</v>
       </c>
       <c r="T160">
         <v>3.75</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14818,7 +14818,7 @@
         <v>49</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14907,7 +14907,7 @@
         <v>50</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15171,7 +15171,7 @@
         <v>45341.45833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -15248,7 +15248,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7032412</v>
+        <v>7039896</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15260,76 +15260,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K166">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N166">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O166">
         <v>4.2</v>
       </c>
       <c r="P166">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15337,7 +15337,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7039896</v>
+        <v>7032507</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15349,76 +15349,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L167">
         <v>4</v>
       </c>
       <c r="M167">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>1.8</v>
+      </c>
+      <c r="T167">
+        <v>3.5</v>
+      </c>
+      <c r="U167">
+        <v>1.825</v>
+      </c>
+      <c r="V167">
         <v>1.975</v>
       </c>
-      <c r="S167">
-        <v>1.825</v>
-      </c>
-      <c r="T167">
-        <v>3.75</v>
-      </c>
-      <c r="U167">
-        <v>1.975</v>
-      </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15426,7 +15426,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032507</v>
+        <v>7032414</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15438,40 +15438,40 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>59</v>
+      </c>
+      <c r="K168">
         <v>3</v>
       </c>
-      <c r="I168">
+      <c r="L168">
+        <v>4.1</v>
+      </c>
+      <c r="M168">
+        <v>1.85</v>
+      </c>
+      <c r="N168">
+        <v>2.45</v>
+      </c>
+      <c r="O168">
+        <v>4</v>
+      </c>
+      <c r="P168">
+        <v>2.2</v>
+      </c>
+      <c r="Q168">
         <v>0</v>
-      </c>
-      <c r="J168" t="s">
-        <v>58</v>
-      </c>
-      <c r="K168">
-        <v>1.727</v>
-      </c>
-      <c r="L168">
-        <v>4</v>
-      </c>
-      <c r="M168">
-        <v>3.5</v>
-      </c>
-      <c r="N168">
-        <v>1.5</v>
-      </c>
-      <c r="O168">
-        <v>4.333</v>
-      </c>
-      <c r="P168">
-        <v>4.75</v>
-      </c>
-      <c r="Q168">
-        <v>-1.25</v>
       </c>
       <c r="R168">
         <v>2</v>
@@ -15483,31 +15483,31 @@
         <v>3.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15515,7 +15515,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7032414</v>
+        <v>7032413</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15527,76 +15527,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K169">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L169">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="M169">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N169">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P169">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T169">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15604,7 +15604,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7032413</v>
+        <v>7032412</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15616,76 +15616,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
         <v>1</v>
       </c>
-      <c r="I170">
-        <v>2</v>
-      </c>
       <c r="J170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K170">
+        <v>1.533</v>
+      </c>
+      <c r="L170">
+        <v>4.75</v>
+      </c>
+      <c r="M170">
+        <v>4</v>
+      </c>
+      <c r="N170">
         <v>2.3</v>
       </c>
-      <c r="L170">
-        <v>3.8</v>
-      </c>
-      <c r="M170">
-        <v>2.375</v>
-      </c>
-      <c r="N170">
-        <v>1.8</v>
-      </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R170">
+        <v>1.95</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>4</v>
+      </c>
+      <c r="U170">
         <v>1.9</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.9</v>
       </c>
-      <c r="T170">
-        <v>3.25</v>
-      </c>
-      <c r="U170">
-        <v>1.825</v>
-      </c>
-      <c r="V170">
-        <v>1.975</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB170">
-        <v>-0.5</v>
-      </c>
-      <c r="AC170">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15705,7 +15705,7 @@
         <v>45345.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -15797,7 +15797,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15972,7 +15972,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -16150,7 +16150,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
         <v>43</v>
@@ -16227,7 +16227,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7032417</v>
+        <v>7039905</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16239,73 +16239,73 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H177">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K177">
+        <v>1.5</v>
+      </c>
+      <c r="L177">
+        <v>4.5</v>
+      </c>
+      <c r="M177">
+        <v>4.5</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177">
+        <v>4</v>
+      </c>
+      <c r="P177">
+        <v>2.8</v>
+      </c>
+      <c r="Q177">
+        <v>-0.25</v>
+      </c>
+      <c r="R177">
         <v>1.8</v>
       </c>
-      <c r="L177">
-        <v>3.75</v>
-      </c>
-      <c r="M177">
-        <v>3.4</v>
-      </c>
-      <c r="N177">
-        <v>1.7</v>
-      </c>
-      <c r="O177">
-        <v>3.8</v>
-      </c>
-      <c r="P177">
-        <v>3.75</v>
-      </c>
-      <c r="Q177">
-        <v>-0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
       <c r="S177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T177">
         <v>3.75</v>
       </c>
       <c r="U177">
+        <v>1.75</v>
+      </c>
+      <c r="V177">
         <v>1.95</v>
       </c>
-      <c r="V177">
-        <v>1.85</v>
-      </c>
       <c r="W177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16316,7 +16316,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7039905</v>
+        <v>7032417</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16328,73 +16328,73 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K178">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N178">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
         <v>3.75</v>
       </c>
       <c r="U178">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16509,7 +16509,7 @@
         <v>54</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16687,7 +16687,7 @@
         <v>51</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16761,7 +16761,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7898839</v>
+        <v>7032424</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16773,10 +16773,10 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -16788,43 +16788,43 @@
         <v>58</v>
       </c>
       <c r="K183">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L183">
         <v>3.75</v>
       </c>
       <c r="M183">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N183">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O183">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
         <v>1.8</v>
       </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
       <c r="T183">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16833,7 +16833,7 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA183">
         <v>-1</v>
@@ -16842,7 +16842,7 @@
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16850,7 +16850,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7032426</v>
+        <v>7898839</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16862,76 +16862,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>2</v>
       </c>
       <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>58</v>
+      </c>
+      <c r="K184">
         <v>2</v>
       </c>
-      <c r="J184" t="s">
-        <v>59</v>
-      </c>
-      <c r="K184">
-        <v>1.727</v>
-      </c>
       <c r="L184">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M184">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N184">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O184">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q184">
         <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
+        <v>2</v>
+      </c>
+      <c r="T184">
+        <v>3.75</v>
+      </c>
+      <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
         <v>1.95</v>
       </c>
-      <c r="S184">
-        <v>1.85</v>
-      </c>
-      <c r="T184">
-        <v>3.5</v>
-      </c>
-      <c r="U184">
-        <v>1.825</v>
-      </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X184">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16939,7 +16939,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7032424</v>
+        <v>7032426</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16951,76 +16951,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K185">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N185">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O185">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
         <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17040,7 +17040,7 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -17129,10 +17129,10 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G187" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17221,7 +17221,7 @@
         <v>52</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H188">
         <v>4</v>
@@ -17396,7 +17396,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G190" t="s">
         <v>42</v>
@@ -17473,7 +17473,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7032432</v>
+        <v>7032433</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17485,76 +17485,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J191" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K191">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L191">
+        <v>4.333</v>
+      </c>
+      <c r="M191">
+        <v>1.727</v>
+      </c>
+      <c r="N191">
+        <v>5</v>
+      </c>
+      <c r="O191">
         <v>4.5</v>
       </c>
-      <c r="M191">
-        <v>4.333</v>
-      </c>
-      <c r="N191">
-        <v>1.6</v>
-      </c>
-      <c r="O191">
-        <v>4.2</v>
-      </c>
       <c r="P191">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q191">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z191">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17562,7 +17562,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7032433</v>
+        <v>7032432</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17574,76 +17574,76 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
         <v>1</v>
       </c>
-      <c r="I192">
-        <v>7</v>
-      </c>
       <c r="J192" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K192">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
         <v>4.333</v>
       </c>
-      <c r="M192">
-        <v>1.727</v>
-      </c>
       <c r="N192">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O192">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P192">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="Q192">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
+        <v>1.75</v>
+      </c>
+      <c r="S192">
         <v>1.95</v>
       </c>
-      <c r="S192">
-        <v>1.85</v>
-      </c>
       <c r="T192">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17666,7 +17666,7 @@
         <v>53</v>
       </c>
       <c r="G193" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17752,10 +17752,10 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H194">
         <v>5</v>
@@ -17933,7 +17933,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18378,7 +18378,7 @@
         <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18553,7 +18553,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G203" t="s">
         <v>36</v>
@@ -18645,7 +18645,7 @@
         <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18823,7 +18823,7 @@
         <v>43</v>
       </c>
       <c r="G206" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18897,7 +18897,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7032510</v>
+        <v>7032444</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18909,76 +18909,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K207">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M207">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N207">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O207">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="Q207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S207">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T207">
         <v>3.5</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18986,7 +18986,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7032444</v>
+        <v>7032510</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18998,76 +18998,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
         <v>2</v>
       </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
       <c r="J208" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K208">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L208">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N208">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O208">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T208">
         <v>3.5</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W208">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z208">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19087,7 +19087,7 @@
         <v>45369.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
         <v>35</v>
@@ -19179,7 +19179,7 @@
         <v>50</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19268,7 +19268,7 @@
         <v>51</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19354,7 +19354,7 @@
         <v>45373.66666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G212" t="s">
         <v>35</v>
@@ -19443,10 +19443,10 @@
         <v>45373.66666666666</v>
       </c>
       <c r="F213" t="s">
+        <v>38</v>
+      </c>
+      <c r="G213" t="s">
         <v>37</v>
-      </c>
-      <c r="G213" t="s">
-        <v>39</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19532,10 +19532,10 @@
         <v>45387.625</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19710,7 +19710,7 @@
         <v>45387.625</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
         <v>43</v>
@@ -20069,7 +20069,7 @@
         <v>42</v>
       </c>
       <c r="G220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20232,7 +20232,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7032454</v>
+        <v>7032456</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20247,73 +20247,73 @@
         <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>59</v>
+      </c>
+      <c r="K222">
+        <v>3.8</v>
+      </c>
+      <c r="L222">
+        <v>4.5</v>
+      </c>
+      <c r="M222">
+        <v>1.6</v>
+      </c>
+      <c r="N222">
+        <v>3.8</v>
+      </c>
+      <c r="O222">
+        <v>4.5</v>
+      </c>
+      <c r="P222">
+        <v>1.6</v>
+      </c>
+      <c r="Q222">
         <v>1</v>
       </c>
-      <c r="I222">
-        <v>3</v>
-      </c>
-      <c r="J222" t="s">
-        <v>57</v>
-      </c>
-      <c r="K222">
-        <v>2.5</v>
-      </c>
-      <c r="L222">
-        <v>3.9</v>
-      </c>
-      <c r="M222">
-        <v>2.2</v>
-      </c>
-      <c r="N222">
-        <v>2.5</v>
-      </c>
-      <c r="O222">
-        <v>4</v>
-      </c>
-      <c r="P222">
-        <v>2.15</v>
-      </c>
-      <c r="Q222">
-        <v>0.25</v>
-      </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y222">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA222">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20321,7 +20321,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7032456</v>
+        <v>7032454</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20333,76 +20333,76 @@
         <v>45390.625</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>3</v>
+      </c>
+      <c r="J223" t="s">
+        <v>57</v>
+      </c>
+      <c r="K223">
+        <v>2.5</v>
+      </c>
+      <c r="L223">
+        <v>3.9</v>
+      </c>
+      <c r="M223">
+        <v>2.2</v>
+      </c>
+      <c r="N223">
+        <v>2.5</v>
+      </c>
+      <c r="O223">
+        <v>4</v>
+      </c>
+      <c r="P223">
+        <v>2.15</v>
+      </c>
+      <c r="Q223">
+        <v>0.25</v>
+      </c>
+      <c r="R223">
+        <v>1.8</v>
+      </c>
+      <c r="S223">
         <v>2</v>
       </c>
-      <c r="I223">
-        <v>2</v>
-      </c>
-      <c r="J223" t="s">
-        <v>59</v>
-      </c>
-      <c r="K223">
-        <v>3.8</v>
-      </c>
-      <c r="L223">
-        <v>4.5</v>
-      </c>
-      <c r="M223">
-        <v>1.6</v>
-      </c>
-      <c r="N223">
-        <v>3.8</v>
-      </c>
-      <c r="O223">
-        <v>4.5</v>
-      </c>
-      <c r="P223">
-        <v>1.6</v>
-      </c>
-      <c r="Q223">
+      <c r="T223">
+        <v>3.25</v>
+      </c>
+      <c r="U223">
+        <v>1.85</v>
+      </c>
+      <c r="V223">
+        <v>1.95</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
+        <v>1.15</v>
+      </c>
+      <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
         <v>1</v>
       </c>
-      <c r="R223">
-        <v>1.85</v>
-      </c>
-      <c r="S223">
-        <v>1.95</v>
-      </c>
-      <c r="T223">
-        <v>4.25</v>
-      </c>
-      <c r="U223">
-        <v>1.9</v>
-      </c>
-      <c r="V223">
-        <v>1.9</v>
-      </c>
-      <c r="W223">
-        <v>-1</v>
-      </c>
-      <c r="X223">
-        <v>3.5</v>
-      </c>
-      <c r="Y223">
-        <v>-1</v>
-      </c>
-      <c r="Z223">
+      <c r="AB223">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA223">
-        <v>-1</v>
-      </c>
-      <c r="AB223">
-        <v>-0.5</v>
-      </c>
       <c r="AC223">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20425,7 +20425,7 @@
         <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20511,7 +20511,7 @@
         <v>45390.625</v>
       </c>
       <c r="F225" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G225" t="s">
         <v>33</v>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -127,19 +127,19 @@
     <t>Crystal Palace U21</t>
   </si>
   <si>
+    <t>Leicester U21</t>
+  </si>
+  <si>
     <t>Nottm Forest U21</t>
   </si>
   <si>
-    <t>Sunderland U21</t>
+    <t>Liverpool U21</t>
   </si>
   <si>
     <t>Stoke U21</t>
   </si>
   <si>
-    <t>Liverpool U21</t>
-  </si>
-  <si>
-    <t>Leicester U21</t>
+    <t>Sunderland U21</t>
   </si>
   <si>
     <t>Southampton U21</t>
@@ -555,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7062776</v>
+        <v>7062765</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1379,73 +1379,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N10">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
         <v>3.5</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X10">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA10">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7063025</v>
+        <v>7062776</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1468,73 +1468,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
         <v>3.5</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7062953</v>
+        <v>7032283</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1557,73 +1557,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R12">
+        <v>1.775</v>
+      </c>
+      <c r="S12">
         <v>1.925</v>
       </c>
-      <c r="S12">
-        <v>1.875</v>
-      </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1631,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7032283</v>
+        <v>7062953</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1646,73 +1646,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N13">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
+        <v>1.925</v>
+      </c>
+      <c r="S13">
+        <v>1.875</v>
+      </c>
+      <c r="T13">
+        <v>3.25</v>
+      </c>
+      <c r="U13">
         <v>1.775</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.925</v>
       </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1720,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7062765</v>
+        <v>7063025</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1735,31 +1735,31 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>58</v>
       </c>
       <c r="K14">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N14">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O14">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P14">
         <v>3.75</v>
@@ -1777,13 +1777,13 @@
         <v>3.5</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.6499999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1792,16 +1792,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2269,7 +2269,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2447,7 +2447,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -2536,7 +2536,7 @@
         <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2889,7 +2889,7 @@
         <v>45159.625</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -2981,7 +2981,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7032486</v>
+        <v>7032485</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3245,10 +3245,10 @@
         <v>45163.625</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3260,43 +3260,43 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L31">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M31">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N31">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>1.9</v>
+      </c>
+      <c r="T31">
+        <v>3.25</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>3.75</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
-      <c r="V31">
-        <v>1.875</v>
-      </c>
       <c r="W31">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3305,13 +3305,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3322,7 +3322,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7032485</v>
+        <v>7032484</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3334,76 +3334,76 @@
         <v>45163.625</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L32">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P32">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U32">
+        <v>1.975</v>
+      </c>
+      <c r="V32">
         <v>1.825</v>
       </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.825</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3411,7 +3411,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7032484</v>
+        <v>7032486</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3423,76 +3423,76 @@
         <v>45163.625</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L33">
         <v>4.5</v>
       </c>
       <c r="M33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="N33">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="O33">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Q33">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>3.75</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3782,7 +3782,7 @@
         <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -3871,7 +3871,7 @@
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -4046,7 +4046,7 @@
         <v>45166.625</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4316,7 +4316,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4758,7 +4758,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5114,7 +5114,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>44</v>
@@ -5203,7 +5203,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5648,7 +5648,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5903,7 +5903,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7032320</v>
+        <v>7032321</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5915,76 +5915,76 @@
         <v>45193.375</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N61">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5992,7 +5992,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7032321</v>
+        <v>7032320</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -6004,76 +6004,76 @@
         <v>45193.375</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K62">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L62">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N62">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U62">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6081,7 +6081,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7032324</v>
+        <v>7032322</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6093,13 +6093,13 @@
         <v>45194.625</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -6108,25 +6108,25 @@
         <v>57</v>
       </c>
       <c r="K63">
+        <v>2.25</v>
+      </c>
+      <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
         <v>2.5</v>
       </c>
-      <c r="L63">
-        <v>3.8</v>
-      </c>
-      <c r="M63">
-        <v>2.2</v>
-      </c>
       <c r="N63">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O63">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
         <v>1.9</v>
@@ -6135,13 +6135,13 @@
         <v>1.9</v>
       </c>
       <c r="T63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6150,7 +6150,7 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z63">
         <v>-1</v>
@@ -6159,10 +6159,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6170,7 +6170,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7032322</v>
+        <v>7032324</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6182,13 +6182,13 @@
         <v>45194.625</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -6197,25 +6197,25 @@
         <v>57</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L64">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N64">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P64">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R64">
         <v>1.9</v>
@@ -6224,13 +6224,13 @@
         <v>1.9</v>
       </c>
       <c r="T64">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6239,7 +6239,7 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="Z64">
         <v>-1</v>
@@ -6248,10 +6248,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6271,7 +6271,7 @@
         <v>45194.625</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
         <v>48</v>
@@ -6360,7 +6360,7 @@
         <v>45194.625</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
         <v>49</v>
@@ -6437,7 +6437,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7032337</v>
+        <v>7039928</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6449,76 +6449,76 @@
         <v>45198.625</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K67">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="L67">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M67">
-        <v>7.5</v>
+        <v>4.3</v>
       </c>
       <c r="N67">
-        <v>1.2</v>
+        <v>1.333</v>
       </c>
       <c r="O67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q67">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6541,7 +6541,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6615,7 +6615,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7039928</v>
+        <v>7032337</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6627,76 +6627,76 @@
         <v>45198.625</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K69">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M69">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="N69">
-        <v>1.333</v>
+        <v>1.2</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P69">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6986,7 +6986,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7609,7 +7609,7 @@
         <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7683,7 +7683,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7032494</v>
+        <v>7032344</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7695,46 +7695,46 @@
         <v>45226.625</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>58</v>
+      </c>
+      <c r="K81">
+        <v>2.25</v>
+      </c>
+      <c r="L81">
+        <v>3.75</v>
+      </c>
+      <c r="M81">
+        <v>2.5</v>
+      </c>
+      <c r="N81">
+        <v>1.8</v>
+      </c>
+      <c r="O81">
         <v>4</v>
       </c>
-      <c r="J81" t="s">
-        <v>57</v>
-      </c>
-      <c r="K81">
-        <v>4.333</v>
-      </c>
-      <c r="L81">
-        <v>4</v>
-      </c>
-      <c r="M81">
-        <v>1.571</v>
-      </c>
-      <c r="N81">
-        <v>4.75</v>
-      </c>
-      <c r="O81">
-        <v>4.333</v>
-      </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T81">
         <v>3.75</v>
@@ -7746,19 +7746,19 @@
         <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>0.95</v>
@@ -7772,7 +7772,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7032343</v>
+        <v>7032494</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7784,76 +7784,76 @@
         <v>45226.625</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K82">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M82">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N82">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P82">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7861,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7032344</v>
+        <v>7032343</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7873,76 +7873,76 @@
         <v>45226.625</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O83">
         <v>4</v>
       </c>
       <c r="P83">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q83">
         <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>1.9</v>
+      </c>
+      <c r="S83">
+        <v>1.9</v>
+      </c>
+      <c r="T83">
+        <v>4.25</v>
+      </c>
+      <c r="U83">
+        <v>1.975</v>
+      </c>
+      <c r="V83">
         <v>1.825</v>
       </c>
-      <c r="S83">
-        <v>1.975</v>
-      </c>
-      <c r="T83">
-        <v>3.75</v>
-      </c>
-      <c r="U83">
-        <v>1.95</v>
-      </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
       <c r="W83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.825</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>0.95</v>
-      </c>
-      <c r="AC83">
-        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8143,7 +8143,7 @@
         <v>52</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7032351</v>
+        <v>7032355</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8674,76 +8674,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K92">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M92">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O92">
         <v>4.2</v>
       </c>
       <c r="P92">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q92">
+        <v>0.25</v>
+      </c>
+      <c r="R92">
+        <v>1.75</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
+        <v>1.825</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
+        <v>3.2</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <v>0.375</v>
+      </c>
+      <c r="AA92">
         <v>-0.5</v>
       </c>
-      <c r="R92">
-        <v>1.925</v>
-      </c>
-      <c r="S92">
-        <v>1.875</v>
-      </c>
-      <c r="T92">
-        <v>4</v>
-      </c>
-      <c r="U92">
-        <v>1.85</v>
-      </c>
-      <c r="V92">
-        <v>1.95</v>
-      </c>
-      <c r="W92">
-        <v>1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>-1</v>
-      </c>
-      <c r="Z92">
-        <v>0.925</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8840,7 +8840,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7032350</v>
+        <v>7032352</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8852,76 +8852,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>59</v>
       </c>
       <c r="K94">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L94">
         <v>4.5</v>
       </c>
       <c r="M94">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N94">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O94">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P94">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8929,7 +8929,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7032352</v>
+        <v>7032351</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8941,76 +8941,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
         <v>4.5</v>
       </c>
       <c r="M95">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X95">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9018,7 +9018,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7032353</v>
+        <v>7032350</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9030,73 +9030,73 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L96">
         <v>4.5</v>
       </c>
       <c r="M96">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N96">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P96">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R96">
+        <v>1.875</v>
+      </c>
+      <c r="S96">
+        <v>1.925</v>
+      </c>
+      <c r="T96">
+        <v>4.25</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
-      <c r="T96">
-        <v>3.75</v>
-      </c>
-      <c r="U96">
-        <v>1.825</v>
-      </c>
-      <c r="V96">
-        <v>1.975</v>
-      </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y96">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
+        <v>0.925</v>
+      </c>
+      <c r="AB96">
         <v>1</v>
-      </c>
-      <c r="AB96">
-        <v>0.825</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9107,7 +9107,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7032355</v>
+        <v>7032353</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9119,73 +9119,73 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M97">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N97">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
         <v>4.2</v>
       </c>
       <c r="P97">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
         <v>1.975</v>
       </c>
-      <c r="V97">
-        <v>1.825</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z97">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9386,7 +9386,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
         <v>47</v>
@@ -9567,7 +9567,7 @@
         <v>54</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9923,7 +9923,7 @@
         <v>47</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10175,7 +10175,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7032365</v>
+        <v>7039979</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10187,73 +10187,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>3</v>
-      </c>
       <c r="J109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L109">
+        <v>4.5</v>
+      </c>
+      <c r="M109">
+        <v>1.615</v>
+      </c>
+      <c r="N109">
+        <v>2.875</v>
+      </c>
+      <c r="O109">
         <v>4.333</v>
       </c>
-      <c r="M109">
-        <v>2.15</v>
-      </c>
-      <c r="N109">
-        <v>3.2</v>
-      </c>
-      <c r="O109">
-        <v>4.75</v>
-      </c>
       <c r="P109">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
         <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10264,7 +10264,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7039979</v>
+        <v>7032365</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10276,73 +10276,73 @@
         <v>45264.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K110">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M110">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="N110">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O110">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P110">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
         <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10724,7 +10724,7 @@
         <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10798,7 +10798,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7032371</v>
+        <v>7032498</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10810,76 +10810,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="J116" t="s">
+        <v>57</v>
+      </c>
+      <c r="K116">
+        <v>1.833</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
+        <v>3.8</v>
+      </c>
+      <c r="O116">
+        <v>4.2</v>
+      </c>
+      <c r="P116">
+        <v>1.615</v>
+      </c>
+      <c r="Q116">
         <v>1</v>
       </c>
-      <c r="J116" t="s">
-        <v>58</v>
-      </c>
-      <c r="K116">
-        <v>2.1</v>
-      </c>
-      <c r="L116">
-        <v>3.6</v>
-      </c>
-      <c r="M116">
-        <v>2.8</v>
-      </c>
-      <c r="N116">
-        <v>2.15</v>
-      </c>
-      <c r="O116">
-        <v>3.6</v>
-      </c>
-      <c r="P116">
-        <v>2.7</v>
-      </c>
-      <c r="Q116">
-        <v>-0.25</v>
-      </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10887,7 +10887,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7032498</v>
+        <v>7032371</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10899,76 +10899,76 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K117">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N117">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>1.8</v>
+      </c>
+      <c r="T117">
+        <v>3.5</v>
+      </c>
+      <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
+        <v>1.825</v>
+      </c>
+      <c r="W117">
+        <v>1.15</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
         <v>1</v>
       </c>
-      <c r="R117">
-        <v>1.775</v>
-      </c>
-      <c r="S117">
-        <v>1.925</v>
-      </c>
-      <c r="T117">
-        <v>3.75</v>
-      </c>
-      <c r="U117">
-        <v>1.85</v>
-      </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>0.615</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11077,7 +11077,7 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
@@ -11166,10 +11166,10 @@
         <v>45278.66666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11522,7 +11522,7 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
         <v>46</v>
@@ -11611,7 +11611,7 @@
         <v>45299.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -12145,10 +12145,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12237,7 +12237,7 @@
         <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12504,7 +12504,7 @@
         <v>50</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12590,7 +12590,7 @@
         <v>45306.66666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
         <v>34</v>
@@ -12845,7 +12845,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7039946</v>
+        <v>7032395</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12857,76 +12857,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K139">
+        <v>1.333</v>
+      </c>
+      <c r="L139">
+        <v>5</v>
+      </c>
+      <c r="M139">
+        <v>6</v>
+      </c>
+      <c r="N139">
+        <v>1.5</v>
+      </c>
+      <c r="O139">
+        <v>4.333</v>
+      </c>
+      <c r="P139">
+        <v>4.5</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
+        <v>1.975</v>
+      </c>
+      <c r="T139">
+        <v>3.75</v>
+      </c>
+      <c r="U139">
         <v>1.8</v>
       </c>
-      <c r="L139">
-        <v>4</v>
-      </c>
-      <c r="M139">
-        <v>3.25</v>
-      </c>
-      <c r="N139">
-        <v>1.7</v>
-      </c>
-      <c r="O139">
-        <v>4</v>
-      </c>
-      <c r="P139">
-        <v>3.75</v>
-      </c>
-      <c r="Q139">
-        <v>-0.75</v>
-      </c>
-      <c r="R139">
-        <v>1.85</v>
-      </c>
-      <c r="S139">
-        <v>1.95</v>
-      </c>
-      <c r="T139">
-        <v>3.5</v>
-      </c>
-      <c r="U139">
-        <v>1.825</v>
-      </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12934,7 +12934,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7032395</v>
+        <v>7039946</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12946,76 +12946,76 @@
         <v>45317.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K140">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N140">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O140">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>1.95</v>
+      </c>
+      <c r="T140">
+        <v>3.5</v>
+      </c>
+      <c r="U140">
         <v>1.825</v>
       </c>
-      <c r="S140">
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="T140">
-        <v>3.75</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13302,7 +13302,7 @@
         <v>45319.375</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
         <v>43</v>
@@ -13480,7 +13480,7 @@
         <v>45320.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
         <v>42</v>
@@ -13661,7 +13661,7 @@
         <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13750,7 +13750,7 @@
         <v>52</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -14370,10 +14370,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F156" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" t="s">
         <v>40</v>
-      </c>
-      <c r="G156" t="s">
-        <v>39</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14536,7 +14536,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7032407</v>
+        <v>7032408</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14548,58 +14548,58 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H158">
         <v>4</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>58</v>
       </c>
       <c r="K158">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="L158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N158">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P158">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>1.8</v>
+      </c>
+      <c r="T158">
+        <v>3.5</v>
+      </c>
+      <c r="U158">
         <v>1.85</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.95</v>
       </c>
-      <c r="T158">
-        <v>3.75</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>1.9</v>
-      </c>
       <c r="W158">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14608,13 +14608,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>1</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14625,7 +14625,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7032408</v>
+        <v>7032407</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14637,58 +14637,58 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H159">
         <v>4</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>58</v>
       </c>
       <c r="K159">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M159">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N159">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O159">
+        <v>4.5</v>
+      </c>
+      <c r="P159">
+        <v>3.4</v>
+      </c>
+      <c r="Q159">
+        <v>-0.75</v>
+      </c>
+      <c r="R159">
+        <v>1.85</v>
+      </c>
+      <c r="S159">
+        <v>1.95</v>
+      </c>
+      <c r="T159">
         <v>3.75</v>
       </c>
-      <c r="P159">
-        <v>2.55</v>
-      </c>
-      <c r="Q159">
-        <v>-0.25</v>
-      </c>
-      <c r="R159">
-        <v>2</v>
-      </c>
-      <c r="S159">
-        <v>1.8</v>
-      </c>
-      <c r="T159">
-        <v>3.5</v>
-      </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14697,13 +14697,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14818,7 +14818,7 @@
         <v>50</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14996,7 +14996,7 @@
         <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15171,7 +15171,7 @@
         <v>45341.45833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
         <v>32</v>
@@ -15248,7 +15248,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7039896</v>
+        <v>7032413</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15260,56 +15260,56 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G166" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>57</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M166">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N166">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
+        <v>1.9</v>
+      </c>
+      <c r="S166">
+        <v>1.9</v>
+      </c>
+      <c r="T166">
+        <v>3.25</v>
+      </c>
+      <c r="U166">
+        <v>1.825</v>
+      </c>
+      <c r="V166">
         <v>1.975</v>
       </c>
-      <c r="S166">
-        <v>1.825</v>
-      </c>
-      <c r="T166">
-        <v>3.75</v>
-      </c>
-      <c r="U166">
-        <v>1.975</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
         <v>-1</v>
       </c>
@@ -15317,19 +15317,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB166">
+        <v>-0.5</v>
+      </c>
+      <c r="AC166">
         <v>0.4875</v>
-      </c>
-      <c r="AC166">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15337,7 +15337,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7032413</v>
+        <v>7039896</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15349,76 +15349,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" t="s">
         <v>57</v>
       </c>
       <c r="K167">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L167">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N167">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q167">
+        <v>-0.75</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
+        <v>3.75</v>
+      </c>
+      <c r="U167">
+        <v>1.975</v>
+      </c>
+      <c r="V167">
+        <v>1.825</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
+        <v>2.4</v>
+      </c>
+      <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
+        <v>0.825</v>
+      </c>
+      <c r="AB167">
+        <v>0.4875</v>
+      </c>
+      <c r="AC167">
         <v>-0.5</v>
-      </c>
-      <c r="R167">
-        <v>1.9</v>
-      </c>
-      <c r="S167">
-        <v>1.9</v>
-      </c>
-      <c r="T167">
-        <v>3.25</v>
-      </c>
-      <c r="U167">
-        <v>1.825</v>
-      </c>
-      <c r="V167">
-        <v>1.975</v>
-      </c>
-      <c r="W167">
-        <v>-1</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>2.25</v>
-      </c>
-      <c r="Z167">
-        <v>-1</v>
-      </c>
-      <c r="AA167">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB167">
-        <v>-0.5</v>
-      </c>
-      <c r="AC167">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15616,7 +15616,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
         <v>36</v>
@@ -15797,7 +15797,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15960,7 +15960,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7039905</v>
+        <v>7032418</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15972,76 +15972,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>59</v>
+      </c>
+      <c r="K174">
+        <v>2.1</v>
+      </c>
+      <c r="L174">
+        <v>3.75</v>
+      </c>
+      <c r="M174">
+        <v>2.7</v>
+      </c>
+      <c r="N174">
         <v>3</v>
       </c>
-      <c r="J174" t="s">
-        <v>57</v>
-      </c>
-      <c r="K174">
-        <v>1.5</v>
-      </c>
-      <c r="L174">
-        <v>4.5</v>
-      </c>
-      <c r="M174">
-        <v>4.5</v>
-      </c>
-      <c r="N174">
-        <v>2</v>
-      </c>
       <c r="O174">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P174">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T174">
         <v>3.75</v>
       </c>
       <c r="U174">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y174">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA174">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16049,7 +16049,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7032417</v>
+        <v>7032422</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16061,40 +16061,40 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H175">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J175" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K175">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M175">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N175">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P175">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
         <v>1.9</v>
@@ -16106,28 +16106,28 @@
         <v>3.75</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W175">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
       <c r="AB175">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16227,7 +16227,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7032422</v>
+        <v>7032417</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16239,40 +16239,40 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K177">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N177">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
         <v>1.9</v>
@@ -16284,28 +16284,28 @@
         <v>3.75</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16316,7 +16316,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7032418</v>
+        <v>7039905</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16328,76 +16328,76 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K178">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M178">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T178">
         <v>3.75</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z178">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16595,7 +16595,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -16776,7 +16776,7 @@
         <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -16951,7 +16951,7 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
         <v>36</v>
@@ -17040,7 +17040,7 @@
         <v>45355.66666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
         <v>52</v>
@@ -17117,7 +17117,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7032432</v>
+        <v>7039908</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17129,13 +17129,13 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G187" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -17144,43 +17144,43 @@
         <v>58</v>
       </c>
       <c r="K187">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L187">
+        <v>4.2</v>
+      </c>
+      <c r="M187">
+        <v>2.45</v>
+      </c>
+      <c r="N187">
+        <v>1.7</v>
+      </c>
+      <c r="O187">
         <v>4.5</v>
       </c>
-      <c r="M187">
-        <v>4.333</v>
-      </c>
-      <c r="N187">
-        <v>1.6</v>
-      </c>
-      <c r="O187">
-        <v>4.2</v>
-      </c>
       <c r="P187">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q187">
         <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>4</v>
+      </c>
+      <c r="U187">
         <v>1.95</v>
       </c>
-      <c r="T187">
-        <v>3.5</v>
-      </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17189,16 +17189,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17310,7 +17310,7 @@
         <v>53</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H189">
         <v>4</v>
@@ -17384,7 +17384,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7032431</v>
+        <v>7032427</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17396,40 +17396,40 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>59</v>
+      </c>
+      <c r="K190">
+        <v>2.9</v>
+      </c>
+      <c r="L190">
+        <v>4</v>
+      </c>
+      <c r="M190">
+        <v>1.909</v>
+      </c>
+      <c r="N190">
+        <v>2.375</v>
+      </c>
+      <c r="O190">
+        <v>3.8</v>
+      </c>
+      <c r="P190">
+        <v>2.3</v>
+      </c>
+      <c r="Q190">
         <v>0</v>
-      </c>
-      <c r="I190">
-        <v>3</v>
-      </c>
-      <c r="J190" t="s">
-        <v>57</v>
-      </c>
-      <c r="K190">
-        <v>2.05</v>
-      </c>
-      <c r="L190">
-        <v>4.333</v>
-      </c>
-      <c r="M190">
-        <v>2.5</v>
-      </c>
-      <c r="N190">
-        <v>1.909</v>
-      </c>
-      <c r="O190">
-        <v>4.333</v>
-      </c>
-      <c r="P190">
-        <v>2.75</v>
-      </c>
-      <c r="Q190">
-        <v>-0.5</v>
       </c>
       <c r="R190">
         <v>1.95</v>
@@ -17441,31 +17441,31 @@
         <v>3.75</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y190">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17473,7 +17473,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7032427</v>
+        <v>7032431</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17485,40 +17485,40 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G191" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K191">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M191">
+        <v>2.5</v>
+      </c>
+      <c r="N191">
         <v>1.909</v>
       </c>
-      <c r="N191">
-        <v>2.375</v>
-      </c>
       <c r="O191">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P191">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
         <v>1.95</v>
@@ -17530,31 +17530,31 @@
         <v>3.75</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17562,7 +17562,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7039908</v>
+        <v>7032432</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17574,13 +17574,13 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H192">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -17589,43 +17589,43 @@
         <v>58</v>
       </c>
       <c r="K192">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
+        <v>4.333</v>
+      </c>
+      <c r="N192">
+        <v>1.6</v>
+      </c>
+      <c r="O192">
         <v>4.2</v>
       </c>
-      <c r="M192">
-        <v>2.45</v>
-      </c>
-      <c r="N192">
-        <v>1.7</v>
-      </c>
-      <c r="O192">
-        <v>4.5</v>
-      </c>
       <c r="P192">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q192">
         <v>-0.75</v>
       </c>
       <c r="R192">
+        <v>1.75</v>
+      </c>
+      <c r="S192">
+        <v>1.95</v>
+      </c>
+      <c r="T192">
+        <v>3.5</v>
+      </c>
+      <c r="U192">
         <v>1.9</v>
       </c>
-      <c r="S192">
+      <c r="V192">
         <v>1.9</v>
       </c>
-      <c r="T192">
-        <v>4</v>
-      </c>
-      <c r="U192">
-        <v>1.95</v>
-      </c>
-      <c r="V192">
-        <v>1.85</v>
-      </c>
       <c r="W192">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17634,16 +17634,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
+        <v>0.375</v>
+      </c>
+      <c r="AA192">
+        <v>-0.5</v>
+      </c>
+      <c r="AB192">
+        <v>-1</v>
+      </c>
+      <c r="AC192">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
-      <c r="AB192">
-        <v>0.95</v>
-      </c>
-      <c r="AC192">
-        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17844,7 +17844,7 @@
         <v>50</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17930,7 +17930,7 @@
         <v>45362.66666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
         <v>54</v>
@@ -18111,7 +18111,7 @@
         <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18363,7 +18363,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7032438</v>
+        <v>7039909</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18375,55 +18375,55 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
         <v>2</v>
-      </c>
-      <c r="I201">
-        <v>3</v>
       </c>
       <c r="J201" t="s">
         <v>57</v>
       </c>
       <c r="K201">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L201">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N201">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O201">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P201">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q201">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T201">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18432,19 +18432,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>4.25</v>
+        <v>1.625</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB201">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18452,7 +18452,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7032437</v>
+        <v>7032438</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18464,76 +18464,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H202">
         <v>2</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J202" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K202">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L202">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M202">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N202">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O202">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P202">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R202">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S202">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U202">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB202">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AC202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18541,7 +18541,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7039909</v>
+        <v>7032437</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18553,76 +18553,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K203">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M203">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N203">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P203">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
         <v>3.75</v>
       </c>
       <c r="U203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y203">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC203">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18630,7 +18630,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7032440</v>
+        <v>7032442</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18642,55 +18642,55 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J204" t="s">
         <v>57</v>
       </c>
       <c r="K204">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M204">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N204">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="O204">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P204">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="Q204">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T204">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18699,16 +18699,16 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0.363</v>
+        <v>1.625</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB204">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18719,7 +18719,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7032441</v>
+        <v>7032440</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18731,76 +18731,76 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J205" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K205">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="N205">
-        <v>1.55</v>
+        <v>5.75</v>
       </c>
       <c r="O205">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P205">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
         <v>3.75</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W205">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z205">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB205">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18808,7 +18808,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7032442</v>
+        <v>7032441</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18820,40 +18820,40 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>58</v>
+      </c>
+      <c r="K206">
+        <v>2.25</v>
+      </c>
+      <c r="L206">
         <v>4</v>
       </c>
-      <c r="J206" t="s">
-        <v>57</v>
-      </c>
-      <c r="K206">
-        <v>2.875</v>
-      </c>
-      <c r="L206">
-        <v>3.75</v>
-      </c>
       <c r="M206">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N206">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P206">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R206">
         <v>1.9</v>
@@ -18862,34 +18862,34 @@
         <v>1.9</v>
       </c>
       <c r="T206">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18909,7 +18909,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
         <v>34</v>
@@ -19087,7 +19087,7 @@
         <v>45369.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
         <v>35</v>
@@ -19164,7 +19164,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7032446</v>
+        <v>7039814</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19176,31 +19176,31 @@
         <v>45369.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K210">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L210">
         <v>4</v>
       </c>
       <c r="M210">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O210">
         <v>4.2</v>
@@ -19212,40 +19212,40 @@
         <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
         <v>4</v>
       </c>
       <c r="U210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z210">
-        <v>-1</v>
-      </c>
       <c r="AA210">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19253,7 +19253,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7039814</v>
+        <v>7032446</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19265,31 +19265,31 @@
         <v>45369.66666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J211" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L211">
         <v>4</v>
       </c>
       <c r="M211">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N211">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O211">
         <v>4.2</v>
@@ -19301,40 +19301,40 @@
         <v>0.5</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
         <v>4</v>
       </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W211">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19354,10 +19354,10 @@
         <v>45373.66666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19609,7 +19609,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7032451</v>
+        <v>7032449</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19621,10 +19621,10 @@
         <v>45387.625</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -19636,34 +19636,34 @@
         <v>58</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L215">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M215">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N215">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O215">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P215">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U215">
         <v>1.9</v>
@@ -19672,7 +19672,7 @@
         <v>1.9</v>
       </c>
       <c r="W215">
-        <v>1.05</v>
+        <v>0.444</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19681,10 +19681,10 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
         <v>0.8999999999999999</v>
@@ -19698,7 +19698,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7032449</v>
+        <v>7032451</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19710,10 +19710,10 @@
         <v>45387.625</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H216">
         <v>3</v>
@@ -19725,34 +19725,34 @@
         <v>58</v>
       </c>
       <c r="K216">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L216">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N216">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O216">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P216">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q216">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T216">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U216">
         <v>1.9</v>
@@ -19761,7 +19761,7 @@
         <v>1.9</v>
       </c>
       <c r="W216">
-        <v>0.444</v>
+        <v>1.05</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19770,10 +19770,10 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
         <v>0.8999999999999999</v>
@@ -19802,7 +19802,7 @@
         <v>54</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19888,7 +19888,7 @@
         <v>45388.375</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
         <v>52</v>
@@ -20232,7 +20232,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7032512</v>
+        <v>7032456</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20244,49 +20244,49 @@
         <v>45390.625</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222">
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K222">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="L222">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M222">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="N222">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="O222">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R222">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U222">
         <v>1.9</v>
@@ -20298,22 +20298,22 @@
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y222">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA222">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20333,7 +20333,7 @@
         <v>45390.625</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G223" t="s">
         <v>34</v>
@@ -20588,7 +20588,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7032456</v>
+        <v>7032512</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20600,49 +20600,49 @@
         <v>45390.625</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K226">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M226">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="N226">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="O226">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P226">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q226">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U226">
         <v>1.9</v>
@@ -20654,22 +20654,22 @@
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20870,7 +20870,7 @@
         <v>42</v>
       </c>
       <c r="G229" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21137,7 +21137,7 @@
         <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21478,7 +21478,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7032463</v>
+        <v>7032468</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21490,40 +21490,40 @@
         <v>45397.625</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H236">
         <v>3</v>
       </c>
       <c r="I236">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K236">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L236">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M236">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N236">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O236">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
         <v>1.85</v>
@@ -21532,34 +21532,34 @@
         <v>1.95</v>
       </c>
       <c r="T236">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U236">
+        <v>1.925</v>
+      </c>
+      <c r="V236">
         <v>1.875</v>
       </c>
-      <c r="V236">
-        <v>1.925</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.875</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21567,7 +21567,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7032468</v>
+        <v>7039815</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21582,46 +21582,46 @@
         <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237" t="s">
+        <v>57</v>
+      </c>
+      <c r="K237">
+        <v>2.25</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>2.4</v>
+      </c>
+      <c r="N237">
+        <v>2.2</v>
+      </c>
+      <c r="O237">
+        <v>4</v>
+      </c>
+      <c r="P237">
+        <v>2.4</v>
+      </c>
+      <c r="Q237">
         <v>0</v>
       </c>
-      <c r="J237" t="s">
-        <v>58</v>
-      </c>
-      <c r="K237">
-        <v>2.3</v>
-      </c>
-      <c r="L237">
-        <v>4.1</v>
-      </c>
-      <c r="M237">
-        <v>2.3</v>
-      </c>
-      <c r="N237">
-        <v>1.833</v>
-      </c>
-      <c r="O237">
-        <v>4.333</v>
-      </c>
-      <c r="P237">
-        <v>3.2</v>
-      </c>
-      <c r="Q237">
-        <v>-0.5</v>
-      </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U237">
         <v>1.925</v>
@@ -21630,19 +21630,19 @@
         <v>1.875</v>
       </c>
       <c r="W237">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z237">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB237">
         <v>-1</v>
@@ -21745,7 +21745,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7039815</v>
+        <v>7032463</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21757,56 +21757,56 @@
         <v>45397.625</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J239" t="s">
         <v>57</v>
       </c>
       <c r="K239">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M239">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O239">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P239">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
         <v>4</v>
       </c>
       <c r="U239">
+        <v>1.875</v>
+      </c>
+      <c r="V239">
         <v>1.925</v>
       </c>
-      <c r="V239">
-        <v>1.875</v>
-      </c>
       <c r="W239">
         <v>-1</v>
       </c>
@@ -21814,19 +21814,19 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC239">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21935,7 +21935,7 @@
         <v>45401.625</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G241" t="s">
         <v>29</v>
@@ -22012,7 +22012,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7735581</v>
+        <v>7927222</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22021,49 +22021,49 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45402.33333333334</v>
+        <v>45404.39583333334</v>
       </c>
       <c r="F242" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G242" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K242">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="L242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M242">
+        <v>2.1</v>
+      </c>
+      <c r="N242">
+        <v>2.75</v>
+      </c>
+      <c r="O242">
         <v>4</v>
       </c>
-      <c r="N242">
-        <v>1.7</v>
-      </c>
-      <c r="O242">
-        <v>4.75</v>
-      </c>
       <c r="P242">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R242">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S242">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T242">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U242">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -22078,6 +22078,228 @@
         <v>0</v>
       </c>
       <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7866244</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45404.625</v>
+      </c>
+      <c r="F243" t="s">
+        <v>38</v>
+      </c>
+      <c r="G243" t="s">
+        <v>50</v>
+      </c>
+      <c r="K243">
+        <v>2.2</v>
+      </c>
+      <c r="L243">
+        <v>4</v>
+      </c>
+      <c r="M243">
+        <v>2.45</v>
+      </c>
+      <c r="N243">
+        <v>2.05</v>
+      </c>
+      <c r="O243">
+        <v>4</v>
+      </c>
+      <c r="P243">
+        <v>2.625</v>
+      </c>
+      <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>2.1</v>
+      </c>
+      <c r="S243">
+        <v>1.7</v>
+      </c>
+      <c r="T243">
+        <v>3.75</v>
+      </c>
+      <c r="U243">
+        <v>1.975</v>
+      </c>
+      <c r="V243">
+        <v>1.825</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7970841</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45404.625</v>
+      </c>
+      <c r="F244" t="s">
+        <v>54</v>
+      </c>
+      <c r="G244" t="s">
+        <v>30</v>
+      </c>
+      <c r="K244">
+        <v>3.2</v>
+      </c>
+      <c r="L244">
+        <v>4.5</v>
+      </c>
+      <c r="M244">
+        <v>1.727</v>
+      </c>
+      <c r="N244">
+        <v>3.1</v>
+      </c>
+      <c r="O244">
+        <v>4.5</v>
+      </c>
+      <c r="P244">
+        <v>1.75</v>
+      </c>
+      <c r="Q244">
+        <v>0.5</v>
+      </c>
+      <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
+        <v>1.8</v>
+      </c>
+      <c r="T244">
+        <v>4</v>
+      </c>
+      <c r="U244">
+        <v>1.925</v>
+      </c>
+      <c r="V244">
+        <v>1.875</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7569964</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45404.625</v>
+      </c>
+      <c r="F245" t="s">
+        <v>41</v>
+      </c>
+      <c r="G245" t="s">
+        <v>39</v>
+      </c>
+      <c r="K245">
+        <v>2.625</v>
+      </c>
+      <c r="L245">
+        <v>4.333</v>
+      </c>
+      <c r="M245">
+        <v>2</v>
+      </c>
+      <c r="N245">
+        <v>2.8</v>
+      </c>
+      <c r="O245">
+        <v>4.333</v>
+      </c>
+      <c r="P245">
+        <v>1.909</v>
+      </c>
+      <c r="Q245">
+        <v>0.5</v>
+      </c>
+      <c r="R245">
+        <v>1.85</v>
+      </c>
+      <c r="S245">
+        <v>1.95</v>
+      </c>
+      <c r="T245">
+        <v>3.5</v>
+      </c>
+      <c r="U245">
+        <v>1.875</v>
+      </c>
+      <c r="V245">
+        <v>1.925</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -124,9 +124,6 @@
     <t>Crystal Palace U21</t>
   </si>
   <si>
-    <t>Sunderland U21</t>
-  </si>
-  <si>
     <t>Stoke U21</t>
   </si>
   <si>
@@ -136,16 +133,19 @@
     <t>Leicester U21</t>
   </si>
   <si>
+    <t>Sunderland U21</t>
+  </si>
+  <si>
     <t>Liverpool U21</t>
   </si>
   <si>
-    <t>Norwich U21</t>
+    <t>Southampton U21</t>
   </si>
   <si>
     <t>West Ham U21</t>
   </si>
   <si>
-    <t>Southampton U21</t>
+    <t>Norwich U21</t>
   </si>
   <si>
     <t>Middlesbrough U21</t>
@@ -1174,7 +1174,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7063025</v>
+        <v>7062953</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1346,31 +1346,31 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>3.75</v>
       </c>
       <c r="L10">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="M10">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O10">
         <v>3.75</v>
@@ -1379,40 +1379,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T10">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7062953</v>
+        <v>7062776</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1432,37 +1432,37 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q11">
         <v>1.925</v>
@@ -1471,22 +1471,22 @@
         <v>1.875</v>
       </c>
       <c r="S11">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1495,10 +1495,10 @@
         <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7062776</v>
+        <v>7062765</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M12">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="N12">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
         <v>3.5</v>
       </c>
       <c r="T12">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W12">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7062765</v>
+        <v>7063025</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1604,31 +1604,31 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
       </c>
       <c r="J13">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="K13">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="M13">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="N13">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O13">
         <v>3.75</v>
@@ -1646,13 +1646,13 @@
         <v>3.5</v>
       </c>
       <c r="T13">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>0.6499999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1661,16 +1661,16 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7032291</v>
+        <v>7032293</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1776,64 +1776,64 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="K15">
+        <v>4.2</v>
+      </c>
+      <c r="L15">
+        <v>2.875</v>
+      </c>
+      <c r="M15">
+        <v>1.55</v>
+      </c>
+      <c r="N15">
+        <v>4.75</v>
+      </c>
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="L15">
-        <v>2.4</v>
-      </c>
-      <c r="M15">
-        <v>3.25</v>
-      </c>
-      <c r="N15">
-        <v>4.2</v>
-      </c>
-      <c r="O15">
-        <v>1.75</v>
-      </c>
       <c r="P15">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T15">
         <v>1.925</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W15">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z15">
         <v>-1</v>
@@ -1862,7 +1862,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1936,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7032293</v>
+        <v>7032291</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1948,64 +1948,64 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17">
+        <v>2.25</v>
+      </c>
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17">
-        <v>1.909</v>
-      </c>
-      <c r="K17">
+      <c r="L17">
+        <v>2.4</v>
+      </c>
+      <c r="M17">
+        <v>3.25</v>
+      </c>
+      <c r="N17">
         <v>4.2</v>
       </c>
-      <c r="L17">
-        <v>2.875</v>
-      </c>
-      <c r="M17">
-        <v>1.55</v>
-      </c>
-      <c r="N17">
-        <v>4.75</v>
-      </c>
       <c r="O17">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q17">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T17">
         <v>1.925</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z17">
         <v>-1</v>
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7032286</v>
+        <v>7032290</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2031,43 +2031,43 @@
         <v>45156.625</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J18">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="K18">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N18">
         <v>4.2</v>
       </c>
       <c r="O18">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="P18">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q18">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R18">
         <v>1.95</v>
@@ -2076,28 +2076,28 @@
         <v>3.5</v>
       </c>
       <c r="T18">
+        <v>1.875</v>
+      </c>
+      <c r="U18">
         <v>1.925</v>
       </c>
-      <c r="U18">
-        <v>1.875</v>
-      </c>
       <c r="V18">
         <v>-1</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X18">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032290</v>
+        <v>7032287</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2117,76 +2117,76 @@
         <v>45156.625</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>58</v>
       </c>
       <c r="J19">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="K19">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="M19">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="O19">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="P19">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T19">
+        <v>1.925</v>
+      </c>
+      <c r="U19">
         <v>1.875</v>
       </c>
-      <c r="U19">
-        <v>1.925</v>
-      </c>
       <c r="V19">
         <v>-1</v>
       </c>
       <c r="W19">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
         <v>0.875</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2194,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032287</v>
+        <v>7032288</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2203,67 +2203,67 @@
         <v>45156.625</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="K20">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="N20">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q20">
+        <v>1.975</v>
+      </c>
+      <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>3.5</v>
+      </c>
+      <c r="T20">
         <v>1.875</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>1.925</v>
       </c>
-      <c r="S20">
-        <v>3.75</v>
-      </c>
-      <c r="T20">
-        <v>1.925</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
       <c r="V20">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W20">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z20">
         <v>-1</v>
@@ -2272,7 +2272,7 @@
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2280,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032288</v>
+        <v>7032289</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2289,76 +2289,76 @@
         <v>45156.625</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="L21">
+        <v>3.3</v>
+      </c>
+      <c r="M21">
         <v>1.8</v>
       </c>
-      <c r="M21">
-        <v>2.15</v>
-      </c>
       <c r="N21">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O21">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q21">
+        <v>1.825</v>
+      </c>
+      <c r="R21">
         <v>1.975</v>
-      </c>
-      <c r="R21">
-        <v>1.825</v>
       </c>
       <c r="S21">
         <v>3.5</v>
       </c>
       <c r="T21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2366,7 +2366,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7032289</v>
+        <v>7032285</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2375,76 +2375,76 @@
         <v>45156.625</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="K22">
         <v>4.333</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N22">
         <v>4.333</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q22">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T22">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2452,7 +2452,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7032285</v>
+        <v>7032286</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2461,73 +2461,73 @@
         <v>45156.625</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="K23">
         <v>4.333</v>
       </c>
       <c r="L23">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O23">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q23">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R23">
         <v>1.95</v>
       </c>
       <c r="S23">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T23">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y23">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2805,7 +2805,7 @@
         <v>45159.625</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
@@ -2894,7 +2894,7 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
         <v>40</v>
@@ -3226,7 +3226,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7032486</v>
+        <v>7032484</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3235,76 +3235,76 @@
         <v>45163.625</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K32">
         <v>4.5</v>
       </c>
       <c r="L32">
+        <v>1.6</v>
+      </c>
+      <c r="M32">
+        <v>5.25</v>
+      </c>
+      <c r="N32">
+        <v>4.75</v>
+      </c>
+      <c r="O32">
+        <v>1.4</v>
+      </c>
+      <c r="P32">
         <v>1.5</v>
       </c>
-      <c r="M32">
-        <v>2.8</v>
-      </c>
-      <c r="N32">
-        <v>4.2</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-      <c r="P32">
-        <v>0.25</v>
-      </c>
       <c r="Q32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S32">
         <v>3.75</v>
       </c>
       <c r="T32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3312,7 +3312,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7032484</v>
+        <v>7032486</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3321,76 +3321,76 @@
         <v>45163.625</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J33">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K33">
         <v>4.5</v>
       </c>
       <c r="L33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M33">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N33">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O33">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="P33">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
         <v>3.75</v>
       </c>
       <c r="T33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3398,7 +3398,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7032485</v>
+        <v>7032299</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3407,58 +3407,58 @@
         <v>45163.625</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
         <v>57</v>
       </c>
       <c r="J34">
+        <v>2.25</v>
+      </c>
+      <c r="K34">
+        <v>4.5</v>
+      </c>
+      <c r="L34">
+        <v>2.25</v>
+      </c>
+      <c r="M34">
         <v>2.3</v>
       </c>
-      <c r="K34">
-        <v>4.1</v>
-      </c>
-      <c r="L34">
-        <v>2.3</v>
-      </c>
-      <c r="M34">
+      <c r="N34">
+        <v>4.5</v>
+      </c>
+      <c r="O34">
         <v>2.2</v>
-      </c>
-      <c r="N34">
-        <v>3.8</v>
-      </c>
-      <c r="O34">
-        <v>2.5</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3467,16 +3467,16 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3570,7 +3570,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7032299</v>
+        <v>7032485</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3579,58 +3579,58 @@
         <v>45163.625</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
         <v>57</v>
       </c>
       <c r="J36">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K36">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L36">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O36">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T36">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3639,16 +3639,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3668,7 +3668,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -3754,7 +3754,7 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3923,7 +3923,7 @@
         <v>45166.625</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
         <v>29</v>
@@ -4012,7 +4012,7 @@
         <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -4184,7 +4184,7 @@
         <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4430,7 +4430,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7032487</v>
+        <v>7039926</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4439,58 +4439,58 @@
         <v>45170.625</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
         <v>57</v>
       </c>
       <c r="J46">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M46">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="N46">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O46">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T46">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4499,16 +4499,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4516,7 +4516,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7039926</v>
+        <v>7032487</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4525,58 +4525,58 @@
         <v>45170.625</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
         <v>57</v>
       </c>
       <c r="J47">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K47">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M47">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="N47">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="O47">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P47">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T47">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>0.6499999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4585,16 +4585,16 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4611,10 +4611,10 @@
         <v>45171.29166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4955,7 +4955,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
         <v>47</v>
@@ -5130,7 +5130,7 @@
         <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5216,7 +5216,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5471,7 +5471,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
         <v>35</v>
@@ -5987,7 +5987,7 @@
         <v>45194.625</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
         <v>44</v>
@@ -6073,7 +6073,7 @@
         <v>45194.625</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
         <v>45</v>
@@ -6159,7 +6159,7 @@
         <v>45194.625</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
         <v>48</v>
@@ -6245,7 +6245,7 @@
         <v>45198.625</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
         <v>49</v>
@@ -6506,7 +6506,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6592,7 +6592,7 @@
         <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6678,7 +6678,7 @@
         <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6764,7 +6764,7 @@
         <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7019,7 +7019,7 @@
         <v>45200.375</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
         <v>50</v>
@@ -7449,7 +7449,7 @@
         <v>45226.625</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
         <v>48</v>
@@ -7526,7 +7526,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7032343</v>
+        <v>7032342</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7535,10 +7535,10 @@
         <v>45226.625</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7550,25 +7550,25 @@
         <v>58</v>
       </c>
       <c r="J82">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="K82">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L82">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M82">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O82">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q82">
         <v>1.9</v>
@@ -7577,19 +7577,19 @@
         <v>1.9</v>
       </c>
       <c r="S82">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T82">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
         <v>-1</v>
       </c>
       <c r="W82">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7604,7 +7604,7 @@
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7612,7 +7612,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7032342</v>
+        <v>7032343</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7621,10 +7621,10 @@
         <v>45226.625</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7636,25 +7636,25 @@
         <v>58</v>
       </c>
       <c r="J83">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="K83">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M83">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="N83">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O83">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P83">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q83">
         <v>1.9</v>
@@ -7663,19 +7663,19 @@
         <v>1.9</v>
       </c>
       <c r="S83">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
         <v>-1</v>
       </c>
       <c r="W83">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7690,7 +7690,7 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -8226,7 +8226,7 @@
         <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8309,10 +8309,10 @@
         <v>45233.375</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8386,7 +8386,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7032353</v>
+        <v>7032351</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8395,19 +8395,19 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
         <v>1</v>
       </c>
-      <c r="H92">
-        <v>7</v>
-      </c>
       <c r="I92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J92">
         <v>1.727</v>
@@ -8419,52 +8419,52 @@
         <v>3.2</v>
       </c>
       <c r="M92">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N92">
         <v>4.2</v>
       </c>
       <c r="O92">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8472,7 +8472,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7032496</v>
+        <v>7032355</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8481,73 +8481,73 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J93">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="K93">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L93">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O93">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="P93">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q93">
+        <v>1.75</v>
+      </c>
+      <c r="R93">
         <v>1.95</v>
       </c>
-      <c r="R93">
-        <v>1.85</v>
-      </c>
       <c r="S93">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
         <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8558,7 +8558,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7032352</v>
+        <v>7032496</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8567,76 +8567,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I94" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K94">
         <v>4.5</v>
       </c>
       <c r="L94">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="M94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N94">
         <v>4.5</v>
       </c>
       <c r="O94">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="P94">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
         <v>3.75</v>
       </c>
       <c r="T94">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
         <v>-1</v>
       </c>
       <c r="W94">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y94">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8644,7 +8644,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7032351</v>
+        <v>7032353</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8653,19 +8653,19 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J95">
         <v>1.727</v>
@@ -8677,52 +8677,52 @@
         <v>3.2</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
         <v>4.2</v>
       </c>
       <c r="O95">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="P95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
+        <v>-1</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>1.4</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
         <v>1</v>
       </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>0.925</v>
-      </c>
-      <c r="Z95">
-        <v>-1</v>
-      </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8816,7 +8816,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7032355</v>
+        <v>7032352</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8825,10 +8825,10 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8843,58 +8843,58 @@
         <v>2</v>
       </c>
       <c r="K97">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L97">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N97">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O97">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="P97">
         <v>0.25</v>
       </c>
       <c r="Q97">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
         <v>-1</v>
       </c>
       <c r="W97">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="Z97">
         <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8902,7 +8902,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7032356</v>
+        <v>7047519</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8911,58 +8911,58 @@
         <v>45234.375</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F98" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>57</v>
       </c>
       <c r="J98">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="K98">
+        <v>4.5</v>
+      </c>
+      <c r="L98">
+        <v>1.444</v>
+      </c>
+      <c r="M98">
+        <v>2.875</v>
+      </c>
+      <c r="N98">
         <v>4</v>
       </c>
-      <c r="L98">
-        <v>3.1</v>
-      </c>
-      <c r="M98">
-        <v>1.6</v>
-      </c>
-      <c r="N98">
-        <v>4.333</v>
-      </c>
       <c r="O98">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="P98">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T98">
+        <v>1.825</v>
+      </c>
+      <c r="U98">
         <v>1.975</v>
       </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
       <c r="V98">
-        <v>0.6000000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -8971,16 +8971,16 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8988,7 +8988,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7047519</v>
+        <v>7032356</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8997,58 +8997,58 @@
         <v>45234.375</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
         <v>1</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
       </c>
       <c r="I99" t="s">
         <v>57</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="K99">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L99">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N99">
+        <v>4.333</v>
+      </c>
+      <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
+        <v>-1</v>
+      </c>
+      <c r="Q99">
+        <v>1.925</v>
+      </c>
+      <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
         <v>4</v>
       </c>
-      <c r="O99">
-        <v>2</v>
-      </c>
-      <c r="P99">
-        <v>0.25</v>
-      </c>
-      <c r="Q99">
+      <c r="T99">
         <v>1.975</v>
       </c>
-      <c r="R99">
+      <c r="U99">
         <v>1.825</v>
       </c>
-      <c r="S99">
-        <v>3.5</v>
-      </c>
-      <c r="T99">
-        <v>1.825</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9057,16 +9057,16 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9258,7 +9258,7 @@
         <v>53</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9418,7 +9418,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7032360</v>
+        <v>7039934</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9427,49 +9427,49 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>57</v>
       </c>
       <c r="J104">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="K104">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="N104">
+        <v>5.75</v>
+      </c>
+      <c r="O104">
+        <v>5.5</v>
+      </c>
+      <c r="P104">
+        <v>-1.75</v>
+      </c>
+      <c r="Q104">
+        <v>1.875</v>
+      </c>
+      <c r="R104">
+        <v>1.925</v>
+      </c>
+      <c r="S104">
         <v>4.5</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>-1</v>
-      </c>
-      <c r="Q104">
-        <v>1.95</v>
-      </c>
-      <c r="R104">
-        <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>3.5</v>
       </c>
       <c r="T104">
         <v>1.9</v>
@@ -9478,7 +9478,7 @@
         <v>1.9</v>
       </c>
       <c r="V104">
-        <v>0.55</v>
+        <v>0.333</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9590,7 +9590,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7039934</v>
+        <v>7032360</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9599,49 +9599,49 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F106" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="s">
         <v>57</v>
       </c>
       <c r="J106">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="K106">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="N106">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="O106">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="Q106">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T106">
         <v>1.9</v>
@@ -9650,7 +9650,7 @@
         <v>1.9</v>
       </c>
       <c r="V106">
-        <v>0.333</v>
+        <v>0.55</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9659,16 +9659,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9771,7 +9771,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
         <v>31</v>
@@ -9860,7 +9860,7 @@
         <v>51</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>5</v>
@@ -10029,7 +10029,7 @@
         <v>45275.35416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
         <v>45</v>
@@ -10376,7 +10376,7 @@
         <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10462,7 +10462,7 @@
         <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10803,7 +10803,7 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
         <v>29</v>
@@ -10880,7 +10880,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7032374</v>
+        <v>7039936</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10889,76 +10889,76 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>58</v>
+      </c>
+      <c r="J121">
         <v>3</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121" t="s">
-        <v>57</v>
-      </c>
-      <c r="J121">
-        <v>3.6</v>
-      </c>
       <c r="K121">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L121">
-        <v>1.615</v>
+        <v>1.869</v>
       </c>
       <c r="M121">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N121">
         <v>4</v>
       </c>
       <c r="O121">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="P121">
         <v>-0.25</v>
       </c>
       <c r="Q121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T121">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10966,7 +10966,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7032372</v>
+        <v>7032374</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10975,73 +10975,73 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
         <v>1</v>
       </c>
-      <c r="H122">
-        <v>5</v>
-      </c>
       <c r="I122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J122">
+        <v>3.6</v>
+      </c>
+      <c r="K122">
+        <v>4.5</v>
+      </c>
+      <c r="L122">
+        <v>1.615</v>
+      </c>
+      <c r="M122">
+        <v>2.05</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122">
         <v>2.625</v>
       </c>
-      <c r="K122">
-        <v>4.1</v>
-      </c>
-      <c r="L122">
-        <v>2.05</v>
-      </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
-      <c r="N122">
-        <v>4.5</v>
-      </c>
-      <c r="O122">
-        <v>1.8</v>
-      </c>
       <c r="P122">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11052,7 +11052,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7039936</v>
+        <v>7032372</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11061,40 +11061,40 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I123" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J123">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="K123">
         <v>4.1</v>
       </c>
       <c r="L123">
-        <v>1.869</v>
+        <v>2.05</v>
       </c>
       <c r="M123">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O123">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="P123">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q123">
         <v>1.95</v>
@@ -11103,34 +11103,34 @@
         <v>1.85</v>
       </c>
       <c r="S123">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T123">
+        <v>1.95</v>
+      </c>
+      <c r="U123">
         <v>1.85</v>
       </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
       <c r="V123">
         <v>-1</v>
       </c>
       <c r="W123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA123">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11147,10 +11147,10 @@
         <v>45299.66666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G124">
         <v>4</v>
@@ -11233,7 +11233,7 @@
         <v>45299.66666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
         <v>34</v>
@@ -11310,7 +11310,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7032378</v>
+        <v>7032377</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11319,46 +11319,46 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="s">
         <v>57</v>
       </c>
       <c r="J126">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="K126">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L126">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="N126">
         <v>4</v>
       </c>
       <c r="O126">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="P126">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q126">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R126">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
         <v>3.75</v>
@@ -11370,7 +11370,7 @@
         <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11379,16 +11379,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11396,7 +11396,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7032377</v>
+        <v>7032378</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11405,46 +11405,46 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="s">
         <v>57</v>
       </c>
       <c r="J127">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="K127">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L127">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="M127">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N127">
         <v>4</v>
       </c>
       <c r="O127">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="P127">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q127">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
         <v>3.75</v>
@@ -11456,25 +11456,25 @@
         <v>1.875</v>
       </c>
       <c r="V127">
+        <v>1.5</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
         <v>0.75</v>
       </c>
-      <c r="W127">
-        <v>-1</v>
-      </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>0.4875</v>
-      </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11482,7 +11482,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7032380</v>
+        <v>7032379</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11491,76 +11491,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>57</v>
+      </c>
+      <c r="J128">
+        <v>1.222</v>
+      </c>
+      <c r="K128">
+        <v>6.5</v>
+      </c>
+      <c r="L128">
+        <v>7</v>
+      </c>
+      <c r="M128">
+        <v>1.3</v>
+      </c>
+      <c r="N128">
+        <v>6.5</v>
+      </c>
+      <c r="O128">
         <v>5</v>
       </c>
-      <c r="I128" t="s">
-        <v>56</v>
-      </c>
-      <c r="J128">
-        <v>2.2</v>
-      </c>
-      <c r="K128">
-        <v>4.2</v>
-      </c>
-      <c r="L128">
-        <v>2.375</v>
-      </c>
-      <c r="M128">
-        <v>2</v>
-      </c>
-      <c r="N128">
+      <c r="P128">
+        <v>-1.75</v>
+      </c>
+      <c r="Q128">
+        <v>1.9</v>
+      </c>
+      <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
         <v>4</v>
       </c>
-      <c r="O128">
-        <v>2.75</v>
-      </c>
-      <c r="P128">
-        <v>-0.25</v>
-      </c>
-      <c r="Q128">
-        <v>1.8</v>
-      </c>
-      <c r="R128">
-        <v>2</v>
-      </c>
-      <c r="S128">
-        <v>3.75</v>
-      </c>
       <c r="T128">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11568,7 +11568,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7032501</v>
+        <v>7032380</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11577,55 +11577,55 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I129" t="s">
         <v>56</v>
       </c>
       <c r="J129">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K129">
+        <v>4.2</v>
+      </c>
+      <c r="L129">
+        <v>2.375</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
         <v>4</v>
       </c>
-      <c r="L129">
-        <v>2.55</v>
-      </c>
-      <c r="M129">
-        <v>1.571</v>
-      </c>
-      <c r="N129">
-        <v>4.5</v>
-      </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P129">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S129">
         <v>3.75</v>
       </c>
       <c r="T129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
         <v>-1</v>
@@ -11634,16 +11634,16 @@
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -11654,7 +11654,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7032502</v>
+        <v>7032501</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -11666,52 +11666,52 @@
         <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I130" t="s">
         <v>56</v>
       </c>
       <c r="J130">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="K130">
+        <v>4</v>
+      </c>
+      <c r="L130">
+        <v>2.55</v>
+      </c>
+      <c r="M130">
+        <v>1.571</v>
+      </c>
+      <c r="N130">
         <v>4.5</v>
       </c>
-      <c r="L130">
-        <v>1.5</v>
-      </c>
-      <c r="M130">
-        <v>5</v>
-      </c>
-      <c r="N130">
-        <v>4.75</v>
-      </c>
       <c r="O130">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
         <v>3.75</v>
       </c>
       <c r="T130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V130">
         <v>-1</v>
@@ -11720,16 +11720,16 @@
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>0.3999999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="Y130">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA130">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -11740,7 +11740,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7032379</v>
+        <v>7032502</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
@@ -11749,76 +11749,76 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G131">
         <v>2</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J131">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="K131">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="M131">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="N131">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O131">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="P131">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T131">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -12093,7 +12093,7 @@
         <v>45306.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
         <v>33</v>
@@ -12182,7 +12182,7 @@
         <v>49</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12526,7 +12526,7 @@
         <v>42</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12784,7 +12784,7 @@
         <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -13030,7 +13030,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7032392</v>
+        <v>7032393</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -13039,76 +13039,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J146">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K146">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L146">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="M146">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="N146">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O146">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P146">
         <v>0.25</v>
       </c>
       <c r="Q146">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R146">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T146">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
         <v>-1</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X146">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z146">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13116,7 +13116,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7032394</v>
+        <v>7039947</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13125,55 +13125,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E147" t="s">
+        <v>52</v>
+      </c>
+      <c r="F147" t="s">
         <v>39</v>
-      </c>
-      <c r="F147" t="s">
-        <v>43</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147" t="s">
         <v>56</v>
       </c>
       <c r="J147">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="K147">
         <v>3.9</v>
       </c>
       <c r="L147">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="M147">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O147">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="P147">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
         <v>-1</v>
@@ -13182,19 +13182,19 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13202,7 +13202,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7039947</v>
+        <v>7032394</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13211,55 +13211,55 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="s">
         <v>56</v>
       </c>
       <c r="J148">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="K148">
         <v>3.9</v>
       </c>
       <c r="L148">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="M148">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O148">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="P148">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
         <v>-1</v>
@@ -13268,19 +13268,19 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>0.75</v>
+        <v>1.625</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13288,7 +13288,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7032393</v>
+        <v>7032392</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13297,76 +13297,76 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J149">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L149">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="M149">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N149">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O149">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P149">
         <v>0.25</v>
       </c>
       <c r="Q149">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S149">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
         <v>-1</v>
       </c>
       <c r="W149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y149">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13546,7 +13546,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7032396</v>
+        <v>7032397</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13555,49 +13555,49 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J152">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="K152">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="M152">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="N152">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T152">
         <v>1.825</v>
@@ -13606,19 +13606,19 @@
         <v>1.975</v>
       </c>
       <c r="V152">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W152">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z152">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -13632,7 +13632,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7032397</v>
+        <v>7032396</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13641,49 +13641,49 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J153">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="K153">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="L153">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O153">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T153">
         <v>1.825</v>
@@ -13692,19 +13692,19 @@
         <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA153">
         <v>-1</v>
@@ -13730,7 +13730,7 @@
         <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13902,7 +13902,7 @@
         <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -14148,7 +14148,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7032409</v>
+        <v>7032407</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14157,73 +14157,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="E159" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" t="s">
         <v>41</v>
       </c>
-      <c r="F159" t="s">
-        <v>46</v>
-      </c>
       <c r="G159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J159">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="K159">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L159">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="M159">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N159">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O159">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
         <v>3.75</v>
       </c>
       <c r="T159">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W159">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB159">
         <v>-1</v>
@@ -14234,7 +14234,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032407</v>
+        <v>7032409</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14243,73 +14243,73 @@
         <v>45338.66666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J160">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="K160">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L160">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M160">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N160">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="P160">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q160">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S160">
         <v>3.75</v>
       </c>
       <c r="T160">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14332,7 +14332,7 @@
         <v>49</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14673,7 +14673,7 @@
         <v>45341.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F165" t="s">
         <v>32</v>
@@ -14750,7 +14750,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7032412</v>
+        <v>7032507</v>
       </c>
       <c r="C166" t="s">
         <v>27</v>
@@ -14759,58 +14759,58 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="s">
         <v>57</v>
       </c>
       <c r="J166">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="K166">
+        <v>4</v>
+      </c>
+      <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>1.5</v>
+      </c>
+      <c r="N166">
+        <v>4.333</v>
+      </c>
+      <c r="O166">
         <v>4.75</v>
       </c>
-      <c r="L166">
-        <v>4</v>
-      </c>
-      <c r="M166">
-        <v>2.3</v>
-      </c>
-      <c r="N166">
-        <v>4.2</v>
-      </c>
-      <c r="O166">
-        <v>2.25</v>
-      </c>
       <c r="P166">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q166">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S166">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T166">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -14819,7 +14819,7 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z166">
         <v>-1</v>
@@ -14828,7 +14828,7 @@
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:28">
@@ -14836,7 +14836,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7039896</v>
+        <v>7032414</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
@@ -14845,76 +14845,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
       <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>58</v>
+      </c>
+      <c r="J167">
         <v>3</v>
       </c>
-      <c r="I167" t="s">
-        <v>56</v>
-      </c>
-      <c r="J167">
+      <c r="K167">
+        <v>4.1</v>
+      </c>
+      <c r="L167">
+        <v>1.85</v>
+      </c>
+      <c r="M167">
+        <v>2.45</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167">
         <v>2.2</v>
       </c>
-      <c r="K167">
-        <v>4</v>
-      </c>
-      <c r="L167">
-        <v>2.45</v>
-      </c>
-      <c r="M167">
-        <v>1.727</v>
-      </c>
-      <c r="N167">
-        <v>4.2</v>
-      </c>
-      <c r="O167">
-        <v>3.4</v>
-      </c>
       <c r="P167">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S167">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
         <v>-1</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14922,7 +14922,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032507</v>
+        <v>7039896</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
@@ -14931,76 +14931,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
         <v>3</v>
       </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
       <c r="I168" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J168">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K168">
         <v>4</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="M168">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="N168">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T168">
+        <v>1.975</v>
+      </c>
+      <c r="U168">
         <v>1.825</v>
       </c>
-      <c r="U168">
-        <v>1.975</v>
-      </c>
       <c r="V168">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB168">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -15020,7 +15020,7 @@
         <v>51</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15094,7 +15094,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7032414</v>
+        <v>7032412</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
@@ -15103,76 +15103,76 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J170">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="K170">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="L170">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N170">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O170">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P170">
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T170">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W170">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15278,7 +15278,7 @@
         <v>28</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15533,7 +15533,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
         <v>32</v>
@@ -15705,7 +15705,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
         <v>44</v>
@@ -16138,7 +16138,7 @@
         <v>50</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16212,7 +16212,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7032424</v>
+        <v>7032425</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16221,76 +16221,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J183">
+        <v>2.9</v>
+      </c>
+      <c r="K183">
+        <v>4</v>
+      </c>
+      <c r="L183">
+        <v>1.909</v>
+      </c>
+      <c r="M183">
         <v>2.25</v>
-      </c>
-      <c r="K183">
-        <v>3.75</v>
-      </c>
-      <c r="L183">
-        <v>2.5</v>
-      </c>
-      <c r="M183">
-        <v>1.909</v>
       </c>
       <c r="N183">
         <v>3.8</v>
       </c>
       <c r="O183">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>1.825</v>
+      </c>
+      <c r="R183">
+        <v>1.975</v>
+      </c>
+      <c r="S183">
+        <v>3.75</v>
+      </c>
+      <c r="T183">
+        <v>1.875</v>
+      </c>
+      <c r="U183">
+        <v>1.925</v>
+      </c>
+      <c r="V183">
+        <v>-1</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>1.4</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA183">
+        <v>0.4375</v>
+      </c>
+      <c r="AB183">
         <v>-0.5</v>
-      </c>
-      <c r="Q183">
-        <v>2</v>
-      </c>
-      <c r="R183">
-        <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>3.5</v>
-      </c>
-      <c r="T183">
-        <v>1.925</v>
-      </c>
-      <c r="U183">
-        <v>1.875</v>
-      </c>
-      <c r="V183">
-        <v>0.909</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
-      <c r="Y183">
-        <v>1</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
-      <c r="AA183">
-        <v>-1</v>
-      </c>
-      <c r="AB183">
-        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16310,7 +16310,7 @@
         <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16470,7 +16470,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7032425</v>
+        <v>7032424</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16479,76 +16479,76 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J186">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="K186">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L186">
+        <v>2.5</v>
+      </c>
+      <c r="M186">
         <v>1.909</v>
-      </c>
-      <c r="M186">
-        <v>2.25</v>
       </c>
       <c r="N186">
         <v>3.8</v>
       </c>
       <c r="O186">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="P186">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q186">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T186">
+        <v>1.925</v>
+      </c>
+      <c r="U186">
         <v>1.875</v>
       </c>
-      <c r="U186">
-        <v>1.925</v>
-      </c>
       <c r="V186">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16654,7 +16654,7 @@
         <v>51</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G188">
         <v>4</v>
@@ -17081,10 +17081,10 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>5</v>
@@ -17170,7 +17170,7 @@
         <v>52</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17416,7 +17416,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7032436</v>
+        <v>7905004</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
@@ -17425,76 +17425,76 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F197" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197" t="s">
+        <v>58</v>
+      </c>
+      <c r="J197">
+        <v>2.05</v>
+      </c>
+      <c r="K197">
+        <v>4.5</v>
+      </c>
+      <c r="L197">
+        <v>2.5</v>
+      </c>
+      <c r="M197">
+        <v>1.5</v>
+      </c>
+      <c r="N197">
         <v>5</v>
       </c>
-      <c r="I197" t="s">
-        <v>56</v>
-      </c>
-      <c r="J197">
-        <v>1.8</v>
-      </c>
-      <c r="K197">
+      <c r="O197">
         <v>4</v>
       </c>
-      <c r="L197">
-        <v>3.25</v>
-      </c>
-      <c r="M197">
-        <v>2.75</v>
-      </c>
-      <c r="N197">
-        <v>3.8</v>
-      </c>
-      <c r="O197">
-        <v>2.05</v>
-      </c>
       <c r="P197">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q197">
+        <v>1.75</v>
+      </c>
+      <c r="R197">
+        <v>1.95</v>
+      </c>
+      <c r="S197">
+        <v>4</v>
+      </c>
+      <c r="T197">
         <v>1.875</v>
       </c>
-      <c r="R197">
+      <c r="U197">
         <v>1.925</v>
       </c>
-      <c r="S197">
-        <v>3.5</v>
-      </c>
-      <c r="T197">
-        <v>1.85</v>
-      </c>
-      <c r="U197">
-        <v>1.95</v>
-      </c>
       <c r="V197">
         <v>-1</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X197">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA197">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17502,7 +17502,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7905004</v>
+        <v>7032436</v>
       </c>
       <c r="C198" t="s">
         <v>27</v>
@@ -17511,76 +17511,76 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I198" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J198">
+        <v>1.8</v>
+      </c>
+      <c r="K198">
+        <v>4</v>
+      </c>
+      <c r="L198">
+        <v>3.25</v>
+      </c>
+      <c r="M198">
+        <v>2.75</v>
+      </c>
+      <c r="N198">
+        <v>3.8</v>
+      </c>
+      <c r="O198">
         <v>2.05</v>
       </c>
-      <c r="K198">
-        <v>4.5</v>
-      </c>
-      <c r="L198">
-        <v>2.5</v>
-      </c>
-      <c r="M198">
-        <v>1.5</v>
-      </c>
-      <c r="N198">
-        <v>5</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
       <c r="P198">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q198">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
+        <v>3.5</v>
+      </c>
+      <c r="T198">
+        <v>1.85</v>
+      </c>
+      <c r="U198">
         <v>1.95</v>
       </c>
-      <c r="S198">
-        <v>4</v>
-      </c>
-      <c r="T198">
-        <v>1.875</v>
-      </c>
-      <c r="U198">
-        <v>1.925</v>
-      </c>
       <c r="V198">
         <v>-1</v>
       </c>
       <c r="W198">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17772,7 +17772,7 @@
         <v>30</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17858,7 +17858,7 @@
         <v>28</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -17944,7 +17944,7 @@
         <v>45</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -18113,7 +18113,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
         <v>35</v>
@@ -18276,7 +18276,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7032510</v>
+        <v>7032444</v>
       </c>
       <c r="C207" t="s">
         <v>27</v>
@@ -18285,76 +18285,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F207" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J207">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="K207">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L207">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="M207">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N207">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O207">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="P207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q207">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S207">
         <v>3.5</v>
       </c>
       <c r="T207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V207">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18362,7 +18362,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7032444</v>
+        <v>7032510</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
@@ -18371,76 +18371,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J208">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="K208">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L208">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="M208">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O208">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="P208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q208">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R208">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
         <v>3.5</v>
       </c>
       <c r="T208">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U208">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y208">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18457,7 +18457,7 @@
         <v>45369.41666666666</v>
       </c>
       <c r="E209" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F209" t="s">
         <v>34</v>
@@ -18534,7 +18534,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7039814</v>
+        <v>7032446</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18543,31 +18543,31 @@
         <v>45369.66666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J210">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="K210">
         <v>4</v>
       </c>
       <c r="L210">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="M210">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N210">
         <v>4.2</v>
@@ -18579,40 +18579,40 @@
         <v>0.5</v>
       </c>
       <c r="Q210">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
         <v>4</v>
       </c>
       <c r="T210">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18620,7 +18620,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7032446</v>
+        <v>7039814</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18629,31 +18629,31 @@
         <v>45369.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F211" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J211">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K211">
         <v>4</v>
       </c>
       <c r="L211">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N211">
         <v>4.2</v>
@@ -18665,40 +18665,40 @@
         <v>0.5</v>
       </c>
       <c r="Q211">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
         <v>4</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U211">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Y211">
-        <v>-1</v>
-      </c>
       <c r="Z211">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18801,10 +18801,10 @@
         <v>45373.66666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G213">
         <v>4</v>
@@ -18887,10 +18887,10 @@
         <v>45387.625</v>
       </c>
       <c r="E214" t="s">
+        <v>43</v>
+      </c>
+      <c r="F214" t="s">
         <v>41</v>
-      </c>
-      <c r="F214" t="s">
-        <v>43</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -19317,7 +19317,7 @@
         <v>45388.375</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
         <v>52</v>
@@ -19578,7 +19578,7 @@
         <v>31</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19652,7 +19652,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7032454</v>
+        <v>7032452</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -19661,76 +19661,76 @@
         <v>45390.625</v>
       </c>
       <c r="E223" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G223">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J223">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K223">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="L223">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="M223">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O223">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P223">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q223">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S223">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="T223">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V223">
         <v>-1</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X223">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -19738,7 +19738,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7032456</v>
+        <v>7032453</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -19747,76 +19747,76 @@
         <v>45390.625</v>
       </c>
       <c r="E224" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="s">
         <v>58</v>
       </c>
       <c r="J224">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="K224">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L224">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="M224">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N224">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O224">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="P224">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q224">
+        <v>1.975</v>
+      </c>
+      <c r="R224">
+        <v>1.825</v>
+      </c>
+      <c r="S224">
+        <v>3.5</v>
+      </c>
+      <c r="T224">
+        <v>1.95</v>
+      </c>
+      <c r="U224">
         <v>1.85</v>
       </c>
-      <c r="R224">
-        <v>1.95</v>
-      </c>
-      <c r="S224">
-        <v>4.25</v>
-      </c>
-      <c r="T224">
-        <v>1.9</v>
-      </c>
-      <c r="U224">
-        <v>1.9</v>
-      </c>
       <c r="V224">
         <v>-1</v>
       </c>
       <c r="W224">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
+        <v>0.4875</v>
+      </c>
+      <c r="Z224">
+        <v>-0.5</v>
+      </c>
+      <c r="AA224">
+        <v>-1</v>
+      </c>
+      <c r="AB224">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z224">
-        <v>-1</v>
-      </c>
-      <c r="AA224">
-        <v>-0.5</v>
-      </c>
-      <c r="AB224">
-        <v>0.45</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19824,7 +19824,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7032453</v>
+        <v>7032456</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19833,76 +19833,76 @@
         <v>45390.625</v>
       </c>
       <c r="E225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="s">
         <v>58</v>
       </c>
       <c r="J225">
+        <v>3.8</v>
+      </c>
+      <c r="K225">
+        <v>4.5</v>
+      </c>
+      <c r="L225">
         <v>1.6</v>
       </c>
-      <c r="K225">
-        <v>4.333</v>
-      </c>
-      <c r="L225">
-        <v>3.9</v>
-      </c>
       <c r="M225">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N225">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O225">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="P225">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q225">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R225">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
+        <v>4.25</v>
+      </c>
+      <c r="T225">
+        <v>1.9</v>
+      </c>
+      <c r="U225">
+        <v>1.9</v>
+      </c>
+      <c r="V225">
+        <v>-1</v>
+      </c>
+      <c r="W225">
         <v>3.5</v>
       </c>
-      <c r="T225">
-        <v>1.95</v>
-      </c>
-      <c r="U225">
-        <v>1.85</v>
-      </c>
-      <c r="V225">
-        <v>-1</v>
-      </c>
-      <c r="W225">
-        <v>3</v>
-      </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
         <v>-0.5</v>
       </c>
-      <c r="AA225">
-        <v>-1</v>
-      </c>
       <c r="AB225">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19910,7 +19910,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7032452</v>
+        <v>7032454</v>
       </c>
       <c r="C226" t="s">
         <v>27</v>
@@ -19919,76 +19919,76 @@
         <v>45390.625</v>
       </c>
       <c r="E226" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G226">
         <v>1</v>
       </c>
       <c r="H226">
+        <v>3</v>
+      </c>
+      <c r="I226" t="s">
+        <v>56</v>
+      </c>
+      <c r="J226">
+        <v>2.5</v>
+      </c>
+      <c r="K226">
+        <v>3.9</v>
+      </c>
+      <c r="L226">
+        <v>2.2</v>
+      </c>
+      <c r="M226">
+        <v>2.5</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226">
+        <v>2.15</v>
+      </c>
+      <c r="P226">
+        <v>0.25</v>
+      </c>
+      <c r="Q226">
+        <v>1.8</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>3.25</v>
+      </c>
+      <c r="T226">
+        <v>1.85</v>
+      </c>
+      <c r="U226">
+        <v>1.95</v>
+      </c>
+      <c r="V226">
+        <v>-1</v>
+      </c>
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
+        <v>1.15</v>
+      </c>
+      <c r="Y226">
+        <v>-1</v>
+      </c>
+      <c r="Z226">
         <v>1</v>
       </c>
-      <c r="I226" t="s">
-        <v>58</v>
-      </c>
-      <c r="J226">
-        <v>2.1</v>
-      </c>
-      <c r="K226">
-        <v>4.75</v>
-      </c>
-      <c r="L226">
-        <v>2.35</v>
-      </c>
-      <c r="M226">
-        <v>2.15</v>
-      </c>
-      <c r="N226">
-        <v>4.5</v>
-      </c>
-      <c r="O226">
-        <v>2.3</v>
-      </c>
-      <c r="P226">
-        <v>0</v>
-      </c>
-      <c r="Q226">
-        <v>1.875</v>
-      </c>
-      <c r="R226">
-        <v>1.925</v>
-      </c>
-      <c r="S226">
-        <v>4.25</v>
-      </c>
-      <c r="T226">
-        <v>1.925</v>
-      </c>
-      <c r="U226">
-        <v>1.875</v>
-      </c>
-      <c r="V226">
-        <v>-1</v>
-      </c>
-      <c r="W226">
-        <v>3.5</v>
-      </c>
-      <c r="X226">
-        <v>-1</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -19996,7 +19996,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7032458</v>
+        <v>7032513</v>
       </c>
       <c r="C227" t="s">
         <v>27</v>
@@ -20005,76 +20005,76 @@
         <v>45394.625</v>
       </c>
       <c r="E227" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G227">
+        <v>2</v>
+      </c>
+      <c r="H227">
         <v>0</v>
       </c>
-      <c r="H227">
-        <v>2</v>
-      </c>
       <c r="I227" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J227">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="K227">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L227">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="M227">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="N227">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O227">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="P227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q227">
+        <v>1.95</v>
+      </c>
+      <c r="R227">
         <v>1.85</v>
       </c>
-      <c r="R227">
+      <c r="S227">
+        <v>3.75</v>
+      </c>
+      <c r="T227">
+        <v>1.85</v>
+      </c>
+      <c r="U227">
         <v>1.95</v>
       </c>
-      <c r="S227">
-        <v>4</v>
-      </c>
-      <c r="T227">
-        <v>1.975</v>
-      </c>
-      <c r="U227">
-        <v>1.825</v>
-      </c>
       <c r="V227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>-1</v>
+      </c>
+      <c r="AB227">
         <v>0.95</v>
-      </c>
-      <c r="AA227">
-        <v>-1</v>
-      </c>
-      <c r="AB227">
-        <v>0.825</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20082,7 +20082,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7032457</v>
+        <v>7032458</v>
       </c>
       <c r="C228" t="s">
         <v>27</v>
@@ -20091,19 +20091,19 @@
         <v>45394.625</v>
       </c>
       <c r="E228" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J228">
         <v>3.2</v>
@@ -20115,52 +20115,52 @@
         <v>1.75</v>
       </c>
       <c r="M228">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N228">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O228">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="P228">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S228">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T228">
+        <v>1.975</v>
+      </c>
+      <c r="U228">
         <v>1.825</v>
       </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
       <c r="V228">
         <v>-1</v>
       </c>
       <c r="W228">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y228">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA228">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="229" spans="1:28">
@@ -20168,7 +20168,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7032513</v>
+        <v>7032457</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -20177,76 +20177,76 @@
         <v>45394.625</v>
       </c>
       <c r="E229" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F229" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G229">
         <v>2</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J229">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="K229">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L229">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="M229">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="N229">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O229">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="P229">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q229">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R229">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S229">
         <v>3.75</v>
       </c>
       <c r="T229">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB229">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20263,10 +20263,10 @@
         <v>45394.625</v>
       </c>
       <c r="E230" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20779,10 +20779,10 @@
         <v>45397.625</v>
       </c>
       <c r="E236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -21037,7 +21037,7 @@
         <v>45397.625</v>
       </c>
       <c r="E239" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F239" t="s">
         <v>44</v>
@@ -21123,7 +21123,7 @@
         <v>45401.625</v>
       </c>
       <c r="E240" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F240" t="s">
         <v>28</v>
@@ -21467,7 +21467,7 @@
         <v>45404.625</v>
       </c>
       <c r="E244" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F244" t="s">
         <v>40</v>
@@ -21728,7 +21728,7 @@
         <v>42</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -21814,7 +21814,7 @@
         <v>30</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21897,7 +21897,7 @@
         <v>45408.625</v>
       </c>
       <c r="E249" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F249" t="s">
         <v>34</v>
@@ -21983,7 +21983,7 @@
         <v>45408.625</v>
       </c>
       <c r="E250" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F250" t="s">
         <v>47</v>
@@ -22072,7 +22072,7 @@
         <v>28</v>
       </c>
       <c r="F251" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22416,7 +22416,7 @@
         <v>53</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -22499,7 +22499,7 @@
         <v>45411.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
         <v>47</v>
@@ -23531,7 +23531,7 @@
         <v>45418.41666666666</v>
       </c>
       <c r="E268" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F268" t="s">
         <v>31</v>
@@ -23620,7 +23620,7 @@
         <v>46</v>
       </c>
       <c r="F269" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>49</v>
       </c>
       <c r="F271" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G271">
         <v>3</v>
@@ -23961,7 +23961,7 @@
         <v>45425.625</v>
       </c>
       <c r="E273" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F273" t="s">
         <v>42</v>
@@ -24136,7 +24136,7 @@
         <v>49</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G275">
         <v>3</v>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -154,16 +154,16 @@
     <t>Middlesbrough U21</t>
   </si>
   <si>
-    <t>Southampton U21</t>
+    <t>West Ham U21</t>
   </si>
   <si>
-    <t>West Ham U21</t>
+    <t>Derby U21</t>
   </si>
   <si>
     <t>Fulham U21</t>
   </si>
   <si>
-    <t>Derby U21</t>
+    <t>Southampton U21</t>
   </si>
   <si>
     <t>Tottenham U21</t>
@@ -762,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1222,7 +1222,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1682,7 +1682,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2130,7 +2130,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7032285</v>
+        <v>7032294</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2139,64 +2139,64 @@
         <v>45156.625</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>59</v>
       </c>
       <c r="L18">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="M18">
         <v>4.333</v>
       </c>
       <c r="N18">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O18">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P18">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>-1</v>
       </c>
       <c r="S18">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V18">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X18">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="Y18">
         <v>-1</v>
@@ -2205,16 +2205,16 @@
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2222,7 +2222,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032286</v>
+        <v>7032285</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2231,79 +2231,79 @@
         <v>45156.625</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L19">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="M19">
         <v>4.333</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P19">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="R19">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T19">
         <v>1.95</v>
       </c>
       <c r="U19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V19">
+        <v>1.775</v>
+      </c>
+      <c r="W19">
         <v>1.925</v>
       </c>
-      <c r="W19">
-        <v>1.875</v>
-      </c>
       <c r="X19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD19">
         <v>-1</v>
@@ -2314,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032293</v>
+        <v>7032286</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2323,55 +2323,55 @@
         <v>45156.625</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20">
+        <v>1.833</v>
+      </c>
+      <c r="M20">
+        <v>4.333</v>
+      </c>
+      <c r="N20">
         <v>3</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20">
-        <v>1.909</v>
-      </c>
-      <c r="M20">
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
         <v>4.2</v>
       </c>
-      <c r="N20">
-        <v>2.875</v>
-      </c>
-      <c r="O20">
-        <v>1.55</v>
-      </c>
-      <c r="P20">
-        <v>4.75</v>
-      </c>
       <c r="Q20">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V20">
         <v>1.925</v>
@@ -2380,19 +2380,19 @@
         <v>1.875</v>
       </c>
       <c r="X20">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>0.925</v>
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032294</v>
+        <v>7032287</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2418,70 +2418,70 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21">
-        <v>1.727</v>
+        <v>7.5</v>
       </c>
       <c r="M21">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O21">
-        <v>1.55</v>
+        <v>8</v>
       </c>
       <c r="P21">
+        <v>5.5</v>
+      </c>
+      <c r="Q21">
+        <v>1.25</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.875</v>
+      </c>
+      <c r="T21">
+        <v>1.925</v>
+      </c>
+      <c r="U21">
+        <v>3.75</v>
+      </c>
+      <c r="V21">
+        <v>1.925</v>
+      </c>
+      <c r="W21">
+        <v>1.875</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
         <v>4.5</v>
       </c>
-      <c r="Q21">
-        <v>4</v>
-      </c>
-      <c r="R21">
-        <v>-1</v>
-      </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
-      <c r="T21">
-        <v>1.85</v>
-      </c>
-      <c r="U21">
-        <v>3.5</v>
-      </c>
-      <c r="V21">
-        <v>1.975</v>
-      </c>
-      <c r="W21">
-        <v>1.825</v>
-      </c>
-      <c r="X21">
-        <v>0.55</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2490,7 +2490,7 @@
         <v>-1</v>
       </c>
       <c r="AD21">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2590,7 +2590,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7032287</v>
+        <v>7032293</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2602,49 +2602,49 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="M23">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N23">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="O23">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="P23">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U23">
         <v>3.75</v>
@@ -2656,25 +2656,25 @@
         <v>1.875</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y23">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -3059,7 +3059,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
         <v>40</v>
@@ -3326,7 +3326,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7032299</v>
+        <v>7032485</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3335,64 +3335,64 @@
         <v>45163.625</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" t="s">
         <v>59</v>
       </c>
       <c r="L31">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M31">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O31">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q31">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X31">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3401,16 +3401,16 @@
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3418,7 +3418,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7032484</v>
+        <v>7032299</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3427,82 +3427,82 @@
         <v>45163.625</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M32">
         <v>4.5</v>
       </c>
       <c r="N32">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O32">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="P32">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="R32">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
       </c>
       <c r="AD32">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3510,7 +3510,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7032485</v>
+        <v>7032484</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3519,82 +3519,82 @@
         <v>45163.625</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O33">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="P33">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q33">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V33">
+        <v>1.975</v>
+      </c>
+      <c r="W33">
         <v>1.825</v>
       </c>
-      <c r="W33">
-        <v>1.975</v>
-      </c>
       <c r="X33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC33">
+        <v>-1</v>
+      </c>
+      <c r="AD33">
         <v>0.825</v>
-      </c>
-      <c r="AD33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3706,7 +3706,7 @@
         <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -4258,7 +4258,7 @@
         <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -4350,7 +4350,7 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4807,7 +4807,7 @@
         <v>45170.625</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
         <v>53</v>
@@ -5543,10 +5543,10 @@
         <v>45191.625</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5626,7 +5626,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7032489</v>
+        <v>7039927</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5635,82 +5635,82 @@
         <v>45191.625</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L56">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N56">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O56">
         <v>2.375</v>
       </c>
       <c r="P56">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q56">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U56">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD56">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5718,7 +5718,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7039927</v>
+        <v>7032489</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5727,82 +5727,82 @@
         <v>45191.625</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L57">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O57">
         <v>2.375</v>
       </c>
       <c r="P57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q57">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U57">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
         <v>1.375</v>
       </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
-      </c>
       <c r="AA57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD57">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -6270,7 +6270,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7039939</v>
+        <v>7032322</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6279,82 +6279,82 @@
         <v>45194.625</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
         <v>3</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L63">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N63">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O63">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="R63">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V63">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X63">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AD63">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6362,7 +6362,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7032322</v>
+        <v>7032324</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6371,13 +6371,13 @@
         <v>45194.625</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6392,25 +6392,25 @@
         <v>58</v>
       </c>
       <c r="L64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M64">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N64">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q64">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="R64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S64">
         <v>1.9</v>
@@ -6419,13 +6419,13 @@
         <v>1.9</v>
       </c>
       <c r="U64">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6434,7 +6434,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6443,10 +6443,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6454,7 +6454,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7032324</v>
+        <v>7039939</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6463,82 +6463,82 @@
         <v>45194.625</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L65">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="M65">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="P65">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q65">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U65">
         <v>3.75</v>
       </c>
       <c r="V65">
+        <v>1.75</v>
+      </c>
+      <c r="W65">
         <v>1.95</v>
       </c>
-      <c r="W65">
-        <v>1.85</v>
-      </c>
       <c r="X65">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AD65">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6638,7 +6638,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7032325</v>
+        <v>7039928</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6647,79 +6647,79 @@
         <v>45198.625</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>3</v>
       </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>2.75</v>
+        <v>4.3</v>
       </c>
       <c r="O67">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="P67">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q67">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="R67">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U67">
         <v>3.75</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD67">
         <v>-1</v>
@@ -6730,7 +6730,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7039928</v>
+        <v>7032325</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6739,79 +6739,79 @@
         <v>45198.625</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
         <v>4</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>59</v>
-      </c>
-      <c r="L68">
-        <v>1.55</v>
-      </c>
-      <c r="M68">
-        <v>4.2</v>
-      </c>
       <c r="N68">
-        <v>4.3</v>
+        <v>2.75</v>
       </c>
       <c r="O68">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="R68">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U68">
         <v>3.75</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X68">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA68">
+        <v>-1</v>
+      </c>
+      <c r="AB68">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC68">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>0.825</v>
       </c>
       <c r="AD68">
         <v>-1</v>
@@ -7107,7 +7107,7 @@
         <v>45198.625</v>
       </c>
       <c r="E72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
         <v>32</v>
@@ -7199,7 +7199,7 @@
         <v>45198.625</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s">
         <v>51</v>
@@ -7386,7 +7386,7 @@
         <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7935,7 +7935,7 @@
         <v>45226.625</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
         <v>45</v>
@@ -8211,7 +8211,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
         <v>35</v>
@@ -8766,7 +8766,7 @@
         <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8855,7 +8855,7 @@
         <v>45233.375</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
         <v>38</v>
@@ -9122,7 +9122,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7032351</v>
+        <v>7032352</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9131,82 +9131,82 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G94">
         <v>2</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>2</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L94">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M94">
         <v>4.5</v>
       </c>
       <c r="N94">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O94">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="P94">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="R94">
+        <v>0.25</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
+        <v>1.825</v>
+      </c>
+      <c r="U94">
+        <v>3.75</v>
+      </c>
+      <c r="V94">
+        <v>1.9</v>
+      </c>
+      <c r="W94">
+        <v>1.9</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>3.5</v>
+      </c>
+      <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.4875</v>
+      </c>
+      <c r="AB94">
         <v>-0.5</v>
       </c>
-      <c r="S94">
-        <v>1.925</v>
-      </c>
-      <c r="T94">
-        <v>1.875</v>
-      </c>
-      <c r="U94">
-        <v>4</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
-      <c r="W94">
-        <v>1.95</v>
-      </c>
-      <c r="X94">
-        <v>1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>-1</v>
-      </c>
-      <c r="AA94">
-        <v>0.925</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AD94">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9306,7 +9306,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7032353</v>
+        <v>7032351</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9315,25 +9315,25 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L96">
         <v>1.727</v>
@@ -9345,52 +9345,52 @@
         <v>3.2</v>
       </c>
       <c r="O96">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P96">
         <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U96">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9398,7 +9398,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7032352</v>
+        <v>7032353</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9407,82 +9407,82 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F97" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M97">
         <v>4.5</v>
       </c>
       <c r="N97">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O97">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="P97">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="R97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U97">
         <v>3.75</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA97">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AD97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9686,7 +9686,7 @@
         <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -10042,7 +10042,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7032360</v>
+        <v>7032359</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10051,16 +10051,16 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>3</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>2</v>
@@ -10072,43 +10072,43 @@
         <v>59</v>
       </c>
       <c r="L104">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O104">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P104">
         <v>4.5</v>
       </c>
       <c r="Q104">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R104">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U104">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X104">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -10117,16 +10117,16 @@
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10134,7 +10134,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7032359</v>
+        <v>7032360</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10143,16 +10143,16 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -10164,43 +10164,43 @@
         <v>59</v>
       </c>
       <c r="L105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N105">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O105">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P105">
         <v>4.5</v>
       </c>
       <c r="Q105">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R105">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U105">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X105">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -10209,16 +10209,16 @@
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10410,7 +10410,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7039979</v>
+        <v>7032365</v>
       </c>
       <c r="C108" t="s">
         <v>29</v>
@@ -10419,79 +10419,79 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N108">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O108">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q108">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="R108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U108">
         <v>3.5</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X108">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD108">
         <v>-1</v>
@@ -10502,7 +10502,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7032365</v>
+        <v>7039979</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
@@ -10511,79 +10511,79 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L109">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
+        <v>4.5</v>
+      </c>
+      <c r="N109">
+        <v>1.615</v>
+      </c>
+      <c r="O109">
+        <v>2.875</v>
+      </c>
+      <c r="P109">
         <v>4.333</v>
       </c>
-      <c r="N109">
-        <v>2.15</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
-      <c r="P109">
-        <v>4.75</v>
-      </c>
       <c r="Q109">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R109">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U109">
         <v>3.5</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD109">
         <v>-1</v>
@@ -10606,7 +10606,7 @@
         <v>53</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -10695,10 +10695,10 @@
         <v>45275.35416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -11434,7 +11434,7 @@
         <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -12167,7 +12167,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F127" t="s">
         <v>50</v>
@@ -12354,7 +12354,7 @@
         <v>48</v>
       </c>
       <c r="F129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -12814,7 +12814,7 @@
         <v>52</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -13363,7 +13363,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F140" t="s">
         <v>39</v>
@@ -13918,7 +13918,7 @@
         <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -14099,7 +14099,7 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
         <v>42</v>
@@ -14283,7 +14283,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
         <v>33</v>
@@ -14930,7 +14930,7 @@
         <v>52</v>
       </c>
       <c r="F157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -15206,7 +15206,7 @@
         <v>31</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -15286,7 +15286,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7039895</v>
+        <v>7032410</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15295,46 +15295,46 @@
         <v>45339.375</v>
       </c>
       <c r="E161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L161">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M161">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N161">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O161">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="P161">
         <v>4.2</v>
       </c>
       <c r="Q161">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="R161">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S161">
         <v>1.9</v>
@@ -15346,31 +15346,31 @@
         <v>3.75</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X161">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
         <v>-1</v>
       </c>
       <c r="AD161">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15378,7 +15378,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7032410</v>
+        <v>7039895</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15387,46 +15387,46 @@
         <v>45339.375</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L162">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M162">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N162">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O162">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="P162">
         <v>4.2</v>
       </c>
       <c r="Q162">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="R162">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S162">
         <v>1.9</v>
@@ -15438,31 +15438,31 @@
         <v>3.75</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y162">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC162">
         <v>-1</v>
       </c>
       <c r="AD162">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15746,7 +15746,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7032414</v>
+        <v>7032507</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15755,46 +15755,46 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L166">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="M166">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="O166">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="P166">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="R166">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S166">
         <v>2</v>
@@ -15806,31 +15806,31 @@
         <v>3.5</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y166">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
         <v>-1</v>
       </c>
       <c r="AD166">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15838,7 +15838,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7032412</v>
+        <v>7039896</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15847,82 +15847,82 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K167" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L167">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="M167">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O167">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="P167">
         <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="R167">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U167">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X167">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AD167">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15930,7 +15930,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7039896</v>
+        <v>7032412</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15939,82 +15939,82 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F168" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L168">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="M168">
+        <v>4.75</v>
+      </c>
+      <c r="N168">
         <v>4</v>
       </c>
-      <c r="N168">
-        <v>2.45</v>
-      </c>
       <c r="O168">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="P168">
         <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="R168">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U168">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AD168">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16022,7 +16022,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7032413</v>
+        <v>7032414</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -16031,82 +16031,82 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G169">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L169">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N169">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O169">
+        <v>2.45</v>
+      </c>
+      <c r="P169">
+        <v>4</v>
+      </c>
+      <c r="Q169">
+        <v>2.2</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>2</v>
+      </c>
+      <c r="T169">
         <v>1.8</v>
       </c>
-      <c r="P169">
-        <v>3.8</v>
-      </c>
-      <c r="Q169">
-        <v>3.25</v>
-      </c>
-      <c r="R169">
-        <v>-0.5</v>
-      </c>
-      <c r="S169">
-        <v>1.9</v>
-      </c>
-      <c r="T169">
-        <v>1.9</v>
-      </c>
       <c r="U169">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z169">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB169">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD169">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16114,7 +16114,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7032507</v>
+        <v>7032413</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16123,55 +16123,55 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F170" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K170" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L170">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N170">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O170">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="P170">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q170">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="R170">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U170">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V170">
         <v>1.825</v>
@@ -16180,25 +16180,25 @@
         <v>1.975</v>
       </c>
       <c r="X170">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD170">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16482,7 +16482,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7032416</v>
+        <v>7032422</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16491,10 +16491,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -16506,47 +16506,47 @@
         <v>1</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K174" t="s">
         <v>58</v>
       </c>
       <c r="L174">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="M174">
+        <v>5.5</v>
+      </c>
+      <c r="N174">
+        <v>5.5</v>
+      </c>
+      <c r="O174">
+        <v>1.833</v>
+      </c>
+      <c r="P174">
+        <v>4.5</v>
+      </c>
+      <c r="Q174">
+        <v>2.875</v>
+      </c>
+      <c r="R174">
+        <v>-0.5</v>
+      </c>
+      <c r="S174">
+        <v>1.9</v>
+      </c>
+      <c r="T174">
+        <v>1.9</v>
+      </c>
+      <c r="U174">
         <v>3.75</v>
       </c>
-      <c r="N174">
-        <v>2.9</v>
-      </c>
-      <c r="O174">
-        <v>1.666</v>
-      </c>
-      <c r="P174">
-        <v>4</v>
-      </c>
-      <c r="Q174">
-        <v>3.8</v>
-      </c>
-      <c r="R174">
-        <v>-0.75</v>
-      </c>
-      <c r="S174">
+      <c r="V174">
+        <v>1.925</v>
+      </c>
+      <c r="W174">
         <v>1.875</v>
       </c>
-      <c r="T174">
-        <v>1.925</v>
-      </c>
-      <c r="U174">
-        <v>3.5</v>
-      </c>
-      <c r="V174">
-        <v>1.95</v>
-      </c>
-      <c r="W174">
-        <v>1.85</v>
-      </c>
       <c r="X174">
         <v>-1</v>
       </c>
@@ -16554,16 +16554,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>2.8</v>
+        <v>1.875</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC174">
         <v>0.925</v>
-      </c>
-      <c r="AC174">
-        <v>0.95</v>
       </c>
       <c r="AD174">
         <v>-1</v>
@@ -16574,7 +16574,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7032422</v>
+        <v>7032416</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16583,10 +16583,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -16598,46 +16598,46 @@
         <v>1</v>
       </c>
       <c r="J175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K175" t="s">
         <v>58</v>
       </c>
       <c r="L175">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="M175">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N175">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="O175">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="P175">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="R175">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U175">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16646,16 +16646,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.875</v>
+        <v>2.8</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD175">
         <v>-1</v>
@@ -16666,7 +16666,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7032417</v>
+        <v>7032418</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16675,82 +16675,82 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G176">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L176">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M176">
         <v>3.75</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O176">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q176">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="R176">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U176">
         <v>3.75</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X176">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16758,7 +16758,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7032418</v>
+        <v>7039905</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16767,82 +16767,82 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K177" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L177">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N177">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P177">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="R177">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U177">
         <v>3.75</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W177">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA177">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16850,7 +16850,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7039905</v>
+        <v>7032417</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16859,79 +16859,79 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L178">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M178">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N178">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O178">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q178">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="R178">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U178">
         <v>3.75</v>
       </c>
       <c r="V178">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD178">
         <v>-1</v>
@@ -17046,7 +17046,7 @@
         <v>55</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17230,7 +17230,7 @@
         <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -17678,7 +17678,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7032429</v>
+        <v>7039908</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17687,19 +17687,19 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G187">
+        <v>5</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
         <v>4</v>
-      </c>
-      <c r="H187">
-        <v>3</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -17708,34 +17708,34 @@
         <v>59</v>
       </c>
       <c r="L187">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="M187">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="O187">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="P187">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q187">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R187">
         <v>-0.75</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T187">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U187">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V187">
         <v>1.95</v>
@@ -17744,7 +17744,7 @@
         <v>1.85</v>
       </c>
       <c r="X187">
-        <v>0.7270000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="Y187">
         <v>-1</v>
@@ -17753,10 +17753,10 @@
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
         <v>0.95</v>
@@ -17770,7 +17770,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7039908</v>
+        <v>7032429</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17779,19 +17779,19 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G188">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -17800,34 +17800,34 @@
         <v>59</v>
       </c>
       <c r="L188">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="M188">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N188">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="O188">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="P188">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q188">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R188">
         <v>-0.75</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U188">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V188">
         <v>1.95</v>
@@ -17836,7 +17836,7 @@
         <v>1.85</v>
       </c>
       <c r="X188">
-        <v>0.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y188">
         <v>-1</v>
@@ -17845,10 +17845,10 @@
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
         <v>0.95</v>
@@ -18046,7 +18046,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7032431</v>
+        <v>7032433</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18055,19 +18055,19 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>2</v>
@@ -18076,25 +18076,25 @@
         <v>58</v>
       </c>
       <c r="L191">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="M191">
         <v>4.333</v>
       </c>
       <c r="N191">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O191">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="P191">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q191">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="R191">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S191">
         <v>1.95</v>
@@ -18106,10 +18106,10 @@
         <v>3.75</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -18118,7 +18118,7 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>1.75</v>
+        <v>0.444</v>
       </c>
       <c r="AA191">
         <v>-1</v>
@@ -18127,10 +18127,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18138,7 +18138,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7032432</v>
+        <v>7032431</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18147,55 +18147,55 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K192" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L192">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="M192">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N192">
+        <v>2.5</v>
+      </c>
+      <c r="O192">
+        <v>1.909</v>
+      </c>
+      <c r="P192">
         <v>4.333</v>
       </c>
-      <c r="O192">
-        <v>1.6</v>
-      </c>
-      <c r="P192">
-        <v>4.2</v>
-      </c>
       <c r="Q192">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="R192">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S192">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V192">
         <v>1.9</v>
@@ -18204,19 +18204,19 @@
         <v>1.9</v>
       </c>
       <c r="X192">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA192">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -18230,7 +18230,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7032433</v>
+        <v>7032432</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18239,82 +18239,82 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="M193">
+        <v>4.5</v>
+      </c>
+      <c r="N193">
         <v>4.333</v>
       </c>
-      <c r="N193">
-        <v>1.727</v>
-      </c>
       <c r="O193">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="P193">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q193">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="R193">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S193">
+        <v>1.75</v>
+      </c>
+      <c r="T193">
         <v>1.95</v>
       </c>
-      <c r="T193">
-        <v>1.85</v>
-      </c>
       <c r="U193">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB193">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18699,7 +18699,7 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F198" t="s">
         <v>34</v>
@@ -18975,7 +18975,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F201" t="s">
         <v>37</v>
@@ -19159,7 +19159,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F203" t="s">
         <v>39</v>
@@ -19346,7 +19346,7 @@
         <v>32</v>
       </c>
       <c r="F205" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19794,7 +19794,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7039814</v>
+        <v>7032446</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -19803,37 +19803,37 @@
         <v>45369.66666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F210" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K210" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L210">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M210">
         <v>4</v>
       </c>
       <c r="N210">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O210">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P210">
         <v>4.2</v>
@@ -19845,40 +19845,40 @@
         <v>0.5</v>
       </c>
       <c r="S210">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U210">
         <v>4</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X210">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC210">
         <v>-1</v>
       </c>
       <c r="AD210">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -19886,7 +19886,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7032446</v>
+        <v>7039814</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19895,37 +19895,37 @@
         <v>45369.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L211">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="M211">
         <v>4</v>
       </c>
       <c r="N211">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P211">
         <v>4.2</v>
@@ -19937,40 +19937,40 @@
         <v>0.5</v>
       </c>
       <c r="S211">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U211">
         <v>4</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA211">
-        <v>-1</v>
-      </c>
       <c r="AB211">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
         <v>-1</v>
       </c>
       <c r="AD211">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -19978,7 +19978,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7840636</v>
+        <v>7925709</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19987,52 +19987,52 @@
         <v>45373.66666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H212">
         <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K212" t="s">
         <v>59</v>
       </c>
       <c r="L212">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="M212">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N212">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O212">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="P212">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q212">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="R212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S212">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U212">
         <v>3.75</v>
@@ -20044,7 +20044,7 @@
         <v>1.875</v>
       </c>
       <c r="X212">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -20053,7 +20053,7 @@
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB212">
         <v>-1</v>
@@ -20070,7 +20070,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7925709</v>
+        <v>7840636</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20079,52 +20079,52 @@
         <v>45373.66666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K213" t="s">
         <v>59</v>
       </c>
       <c r="L213">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="M213">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N213">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O213">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="P213">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q213">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="R213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U213">
         <v>3.75</v>
@@ -20136,7 +20136,7 @@
         <v>1.875</v>
       </c>
       <c r="X213">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -20145,7 +20145,7 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
         <v>-1</v>
@@ -20171,10 +20171,10 @@
         <v>45387.625</v>
       </c>
       <c r="E214" t="s">
+        <v>46</v>
+      </c>
+      <c r="F214" t="s">
         <v>47</v>
-      </c>
-      <c r="F214" t="s">
-        <v>49</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -20358,7 +20358,7 @@
         <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -20898,7 +20898,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7032454</v>
+        <v>7032512</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
@@ -20907,19 +20907,19 @@
         <v>45390.625</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G222">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222">
         <v>1</v>
@@ -20928,40 +20928,40 @@
         <v>58</v>
       </c>
       <c r="L222">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M222">
         <v>3.9</v>
       </c>
       <c r="N222">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O222">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="P222">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q222">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="R222">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U222">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20970,19 +20970,19 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>1.15</v>
+        <v>2.75</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD222">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:30">
@@ -20990,7 +20990,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7032512</v>
+        <v>7032454</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20999,19 +20999,19 @@
         <v>45390.625</v>
       </c>
       <c r="E223" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G223">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223">
         <v>1</v>
@@ -21020,40 +21020,40 @@
         <v>58</v>
       </c>
       <c r="L223">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M223">
         <v>3.9</v>
       </c>
       <c r="N223">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O223">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="P223">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q223">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="R223">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S223">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -21062,19 +21062,19 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>2.75</v>
+        <v>1.15</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD223">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21462,7 +21462,7 @@
         <v>43</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -21542,7 +21542,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7032464</v>
+        <v>7032459</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -21551,82 +21551,82 @@
         <v>45394.625</v>
       </c>
       <c r="E229" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F229" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L229">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="M229">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="N229">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O229">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="P229">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q229">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R229">
         <v>-1</v>
       </c>
       <c r="S229">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U229">
         <v>3.75</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z229">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD229">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -21634,7 +21634,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7032459</v>
+        <v>7032464</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -21643,82 +21643,82 @@
         <v>45394.625</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K230" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L230">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="M230">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="N230">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O230">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="P230">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q230">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R230">
         <v>-1</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U230">
         <v>3.75</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W230">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD230">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -22106,7 +22106,7 @@
         <v>54</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G235">
         <v>3</v>
@@ -22186,7 +22186,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7032468</v>
+        <v>7032514</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22195,64 +22195,64 @@
         <v>45397.625</v>
       </c>
       <c r="E236" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236" t="s">
         <v>59</v>
       </c>
       <c r="L236">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="M236">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="N236">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O236">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="P236">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q236">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R236">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S236">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U236">
         <v>3.75</v>
       </c>
       <c r="V236">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X236">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="Y236">
         <v>-1</v>
@@ -22261,16 +22261,16 @@
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD236">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22370,7 +22370,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7032514</v>
+        <v>7032463</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22379,79 +22379,79 @@
         <v>45397.625</v>
       </c>
       <c r="E238" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G238">
+        <v>3</v>
+      </c>
+      <c r="H238">
         <v>5</v>
       </c>
-      <c r="H238">
-        <v>1</v>
-      </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K238" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L238">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M238">
         <v>4.5</v>
       </c>
       <c r="N238">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O238">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="P238">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
       </c>
       <c r="R238">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U238">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X238">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AD238">
         <v>-1</v>
@@ -22462,7 +22462,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7032463</v>
+        <v>7032468</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22471,46 +22471,46 @@
         <v>45397.625</v>
       </c>
       <c r="E239" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G239">
         <v>3</v>
       </c>
       <c r="H239">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K239" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L239">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="N239">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O239">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="P239">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q239">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="R239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S239">
         <v>1.85</v>
@@ -22519,34 +22519,34 @@
         <v>1.95</v>
       </c>
       <c r="U239">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V239">
+        <v>1.925</v>
+      </c>
+      <c r="W239">
         <v>1.875</v>
       </c>
-      <c r="W239">
-        <v>1.925</v>
-      </c>
       <c r="X239">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
+        <v>-1</v>
+      </c>
+      <c r="AD239">
         <v>0.875</v>
-      </c>
-      <c r="AD239">
-        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22922,7 +22922,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7970841</v>
+        <v>7569964</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -22931,46 +22931,46 @@
         <v>45404.625</v>
       </c>
       <c r="E244" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G244">
         <v>2</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M244">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N244">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O244">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P244">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q244">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="R244">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S244">
         <v>2</v>
@@ -22979,19 +22979,19 @@
         <v>1.8</v>
       </c>
       <c r="U244">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V244">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W244">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y244">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
@@ -23003,10 +23003,10 @@
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD244">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23014,7 +23014,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7569964</v>
+        <v>7970841</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23023,46 +23023,46 @@
         <v>45404.625</v>
       </c>
       <c r="E245" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G245">
         <v>2</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K245" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L245">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M245">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N245">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P245">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="R245">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S245">
         <v>2</v>
@@ -23071,19 +23071,19 @@
         <v>1.8</v>
       </c>
       <c r="U245">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W245">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X245">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z245">
         <v>-1</v>
@@ -23095,10 +23095,10 @@
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD245">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -23198,7 +23198,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7032475</v>
+        <v>7032469</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23207,22 +23207,22 @@
         <v>45408.625</v>
       </c>
       <c r="E247" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K247" t="s">
         <v>58</v>
@@ -23231,37 +23231,37 @@
         <v>1.909</v>
       </c>
       <c r="M247">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N247">
         <v>2.75</v>
       </c>
       <c r="O247">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="P247">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q247">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="R247">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T247">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U247">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V247">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W247">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -23270,16 +23270,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC247">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AD247">
         <v>-1</v>
@@ -23483,7 +23483,7 @@
         <v>45408.625</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F250" t="s">
         <v>41</v>
@@ -23566,7 +23566,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7032469</v>
+        <v>7032475</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23575,22 +23575,22 @@
         <v>45408.625</v>
       </c>
       <c r="E251" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K251" t="s">
         <v>58</v>
@@ -23599,37 +23599,37 @@
         <v>1.909</v>
       </c>
       <c r="M251">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N251">
         <v>2.75</v>
       </c>
       <c r="O251">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="P251">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q251">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="R251">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S251">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T251">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U251">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W251">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X251">
         <v>-1</v>
@@ -23638,16 +23638,16 @@
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AA251">
         <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AD251">
         <v>-1</v>
@@ -23670,7 +23670,7 @@
         <v>33</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -23842,7 +23842,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7032474</v>
+        <v>7039912</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -23851,62 +23851,62 @@
         <v>45410.375</v>
       </c>
       <c r="E254" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F254" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G254">
         <v>0</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I254">
         <v>0</v>
       </c>
       <c r="J254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K254" t="s">
         <v>58</v>
       </c>
       <c r="L254">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M254">
         <v>4</v>
       </c>
       <c r="N254">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P254">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q254">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="R254">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S254">
+        <v>1.9</v>
+      </c>
+      <c r="T254">
+        <v>1.9</v>
+      </c>
+      <c r="U254">
+        <v>4</v>
+      </c>
+      <c r="V254">
         <v>1.85</v>
       </c>
-      <c r="T254">
+      <c r="W254">
         <v>1.95</v>
       </c>
-      <c r="U254">
-        <v>3.5</v>
-      </c>
-      <c r="V254">
-        <v>1.925</v>
-      </c>
-      <c r="W254">
-        <v>1.875</v>
-      </c>
       <c r="X254">
         <v>-1</v>
       </c>
@@ -23914,19 +23914,19 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD254">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -23934,7 +23934,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7039912</v>
+        <v>7032474</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23943,61 +23943,61 @@
         <v>45410.375</v>
       </c>
       <c r="E255" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I255">
         <v>0</v>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K255" t="s">
         <v>58</v>
       </c>
       <c r="L255">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M255">
         <v>4</v>
       </c>
       <c r="N255">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P255">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q255">
+        <v>2.75</v>
+      </c>
+      <c r="R255">
+        <v>-0.25</v>
+      </c>
+      <c r="S255">
         <v>1.85</v>
       </c>
-      <c r="R255">
-        <v>0.5</v>
-      </c>
-      <c r="S255">
-        <v>1.9</v>
-      </c>
       <c r="T255">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U255">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V255">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W255">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -24006,19 +24006,19 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD255">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -24035,7 +24035,7 @@
         <v>45411.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F256" t="s">
         <v>44</v>
@@ -24118,7 +24118,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7032477</v>
+        <v>8101471</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24127,46 +24127,46 @@
         <v>45411.625</v>
       </c>
       <c r="E257" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J257">
         <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L257">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="M257">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="N257">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="O257">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="P257">
         <v>4</v>
       </c>
       <c r="Q257">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="R257">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S257">
         <v>1.9</v>
@@ -24175,34 +24175,34 @@
         <v>1.9</v>
       </c>
       <c r="U257">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V257">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W257">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y257">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD257">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24210,7 +24210,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>8101471</v>
+        <v>7999185</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24219,82 +24219,82 @@
         <v>45411.625</v>
       </c>
       <c r="E258" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F258" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G258">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K258" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L258">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="M258">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="N258">
-        <v>1.444</v>
+        <v>1.952</v>
       </c>
       <c r="O258">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="P258">
+        <v>4.2</v>
+      </c>
+      <c r="Q258">
+        <v>2.1</v>
+      </c>
+      <c r="R258">
+        <v>0.25</v>
+      </c>
+      <c r="S258">
+        <v>1.825</v>
+      </c>
+      <c r="T258">
+        <v>1.975</v>
+      </c>
+      <c r="U258">
         <v>4</v>
       </c>
-      <c r="Q258">
-        <v>3.1</v>
-      </c>
-      <c r="R258">
-        <v>-0.5</v>
-      </c>
-      <c r="S258">
-        <v>1.9</v>
-      </c>
-      <c r="T258">
-        <v>1.9</v>
-      </c>
-      <c r="U258">
-        <v>3.75</v>
-      </c>
       <c r="V258">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W258">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X258">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC258">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD258">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24302,7 +24302,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7999185</v>
+        <v>7032477</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24311,13 +24311,13 @@
         <v>45411.625</v>
       </c>
       <c r="E259" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F259" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
         <v>1</v>
@@ -24326,67 +24326,67 @@
         <v>0</v>
       </c>
       <c r="J259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K259" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L259">
+        <v>2.2</v>
+      </c>
+      <c r="M259">
+        <v>3.9</v>
+      </c>
+      <c r="N259">
+        <v>2.5</v>
+      </c>
+      <c r="O259">
         <v>2.8</v>
       </c>
-      <c r="M259">
-        <v>4.1</v>
-      </c>
-      <c r="N259">
-        <v>1.952</v>
-      </c>
-      <c r="O259">
-        <v>2.55</v>
-      </c>
       <c r="P259">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q259">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R259">
         <v>0.25</v>
       </c>
       <c r="S259">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T259">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U259">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V259">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W259">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z259">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB259">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC259">
         <v>-1</v>
       </c>
       <c r="AD259">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24495,7 +24495,7 @@
         <v>45411.625</v>
       </c>
       <c r="E261" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F261" t="s">
         <v>53</v>
@@ -24670,7 +24670,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>8166208</v>
+        <v>8166213</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -24679,19 +24679,19 @@
         <v>45415.625</v>
       </c>
       <c r="E263" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G263">
+        <v>6</v>
+      </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="I263">
         <v>4</v>
-      </c>
-      <c r="H263">
-        <v>1</v>
-      </c>
-      <c r="I263">
-        <v>1</v>
       </c>
       <c r="J263">
         <v>0</v>
@@ -24700,31 +24700,31 @@
         <v>59</v>
       </c>
       <c r="L263">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="M263">
         <v>5</v>
       </c>
       <c r="N263">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O263">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="P263">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q263">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="R263">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S263">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T263">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U263">
         <v>4.25</v>
@@ -24733,10 +24733,10 @@
         <v>1.925</v>
       </c>
       <c r="W263">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X263">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y263">
         <v>-1</v>
@@ -24745,7 +24745,7 @@
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB263">
         <v>-1</v>
@@ -24762,7 +24762,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>8166213</v>
+        <v>8166208</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -24771,19 +24771,19 @@
         <v>45415.625</v>
       </c>
       <c r="E264" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F264" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G264">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J264">
         <v>0</v>
@@ -24792,31 +24792,31 @@
         <v>59</v>
       </c>
       <c r="L264">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="M264">
         <v>5</v>
       </c>
       <c r="N264">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O264">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="P264">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q264">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="R264">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S264">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T264">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U264">
         <v>4.25</v>
@@ -24825,10 +24825,10 @@
         <v>1.925</v>
       </c>
       <c r="W264">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X264">
-        <v>0.6499999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y264">
         <v>-1</v>
@@ -24837,7 +24837,7 @@
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB264">
         <v>-1</v>
@@ -25602,7 +25602,7 @@
         <v>38</v>
       </c>
       <c r="F273" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G273">
         <v>8</v>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -115,10 +115,10 @@
     <t>Wolverhampton U21</t>
   </si>
   <si>
-    <t>Brighton U21</t>
+    <t>Arsenal U21</t>
   </si>
   <si>
-    <t>Arsenal U21</t>
+    <t>Brighton U21</t>
   </si>
   <si>
     <t>Man City U21</t>
@@ -136,19 +136,19 @@
     <t>Sunderland U21</t>
   </si>
   <si>
-    <t>Nottm Forest U21</t>
-  </si>
-  <si>
     <t>Stoke U21</t>
   </si>
   <si>
     <t>Leicester U21</t>
   </si>
   <si>
-    <t>West Ham U21</t>
+    <t>Nottm Forest U21</t>
   </si>
   <si>
-    <t>Southampton U21</t>
+    <t>Middlesbrough U21</t>
+  </si>
+  <si>
+    <t>West Ham U21</t>
   </si>
   <si>
     <t>Norwich U21</t>
@@ -157,13 +157,13 @@
     <t>Man Utd U21</t>
   </si>
   <si>
+    <t>Southampton U21</t>
+  </si>
+  <si>
     <t>Fulham U21</t>
   </si>
   <si>
     <t>Derby U21</t>
-  </si>
-  <si>
-    <t>Middlesbrough U21</t>
   </si>
   <si>
     <t>Tottenham U21</t>
@@ -175,10 +175,10 @@
     <t>West Brom U21</t>
   </si>
   <si>
-    <t>Everton U21</t>
+    <t>Leeds U21</t>
   </si>
   <si>
-    <t>Leeds U21</t>
+    <t>Everton U21</t>
   </si>
   <si>
     <t>Blackburn U21</t>
@@ -854,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7046788</v>
+        <v>7032276</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -946,52 +946,52 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5">
+        <v>2.15</v>
+      </c>
+      <c r="M5">
+        <v>3.75</v>
+      </c>
+      <c r="N5">
+        <v>2.6</v>
+      </c>
+      <c r="O5">
+        <v>1.833</v>
+      </c>
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5">
-        <v>2.75</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>1.6</v>
-      </c>
-      <c r="P5">
-        <v>4.333</v>
-      </c>
       <c r="Q5">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="R5">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V5">
         <v>1.85</v>
@@ -1000,25 +1000,25 @@
         <v>1.95</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7032276</v>
+        <v>7046788</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1038,52 +1038,52 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q6">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="R6">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V6">
         <v>1.85</v>
@@ -1092,25 +1092,25 @@
         <v>1.95</v>
       </c>
       <c r="X6">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1222,7 +1222,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1406,7 +1406,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1578,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7062776</v>
+        <v>7062953</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1590,43 +1590,43 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L12">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O12">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="P12">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q12">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S12">
         <v>1.925</v>
@@ -1635,22 +1635,22 @@
         <v>1.875</v>
       </c>
       <c r="U12">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1659,10 +1659,10 @@
         <v>0.875</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1670,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7062953</v>
+        <v>7062765</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1682,37 +1682,37 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="M13">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N13">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O13">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P13">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q13">
         <v>3.75</v>
@@ -1721,34 +1721,34 @@
         <v>-0.75</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
+        <v>1.975</v>
+      </c>
+      <c r="U13">
+        <v>3.5</v>
+      </c>
+      <c r="V13">
         <v>1.875</v>
-      </c>
-      <c r="U13">
-        <v>3.25</v>
-      </c>
-      <c r="V13">
-        <v>1.775</v>
       </c>
       <c r="W13">
         <v>1.925</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1762,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7062765</v>
+        <v>7062776</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1774,79 +1774,79 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L14">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>3.5</v>
+      </c>
+      <c r="O14">
+        <v>1.571</v>
+      </c>
+      <c r="P14">
         <v>4.333</v>
       </c>
-      <c r="N14">
-        <v>4.333</v>
-      </c>
-      <c r="O14">
-        <v>1.65</v>
-      </c>
-      <c r="P14">
+      <c r="Q14">
         <v>4.2</v>
       </c>
-      <c r="Q14">
-        <v>3.75</v>
-      </c>
       <c r="R14">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U14">
         <v>3.5</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X14">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1866,7 +1866,7 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7032294</v>
+        <v>7032290</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1958,13 +1958,13 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1973,64 +1973,64 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L16">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="P16">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S16">
+        <v>1.75</v>
+      </c>
+      <c r="T16">
         <v>1.95</v>
-      </c>
-      <c r="T16">
-        <v>1.85</v>
       </c>
       <c r="U16">
         <v>3.5</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X16">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2038,7 +2038,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7032293</v>
+        <v>7032294</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2050,37 +2050,37 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>59</v>
       </c>
       <c r="L17">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N17">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O17">
         <v>1.55</v>
       </c>
       <c r="P17">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -2089,19 +2089,19 @@
         <v>-1</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X17">
         <v>0.55</v>
@@ -2113,16 +2113,16 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2142,7 +2142,7 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2231,10 +2231,10 @@
         <v>45156.625</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2326,7 +2326,7 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032288</v>
+        <v>7032293</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2418,61 +2418,61 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="s">
         <v>59</v>
       </c>
       <c r="L21">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="M21">
         <v>4.2</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O21">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="P21">
+        <v>4.75</v>
+      </c>
+      <c r="Q21">
         <v>4</v>
       </c>
-      <c r="Q21">
-        <v>2.55</v>
-      </c>
       <c r="R21">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V21">
+        <v>1.925</v>
+      </c>
+      <c r="W21">
         <v>1.875</v>
       </c>
-      <c r="W21">
-        <v>1.925</v>
-      </c>
       <c r="X21">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2481,16 +2481,16 @@
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2498,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7032287</v>
+        <v>7032288</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2510,70 +2510,70 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L22">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N22">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="P22">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="S22">
+        <v>1.975</v>
+      </c>
+      <c r="T22">
+        <v>1.825</v>
+      </c>
+      <c r="U22">
+        <v>3.5</v>
+      </c>
+      <c r="V22">
         <v>1.875</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>1.925</v>
       </c>
-      <c r="U22">
-        <v>3.75</v>
-      </c>
-      <c r="V22">
-        <v>1.925</v>
-      </c>
-      <c r="W22">
-        <v>1.875</v>
-      </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y22">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -2582,7 +2582,7 @@
         <v>-1</v>
       </c>
       <c r="AD22">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2590,7 +2590,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7032290</v>
+        <v>7032287</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2602,16 +2602,16 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2620,61 +2620,61 @@
         <v>60</v>
       </c>
       <c r="L23">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="M23">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="O23">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="P23">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q23">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V23">
+        <v>1.925</v>
+      </c>
+      <c r="W23">
         <v>1.875</v>
       </c>
-      <c r="W23">
-        <v>1.925</v>
-      </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
+        <v>-1</v>
+      </c>
+      <c r="AD23">
         <v>0.875</v>
-      </c>
-      <c r="AD23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2967,7 +2967,7 @@
         <v>45159.625</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>32</v>
@@ -3059,7 +3059,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
@@ -3326,7 +3326,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7032297</v>
+        <v>7032484</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3335,62 +3335,62 @@
         <v>45163.625</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>58</v>
       </c>
       <c r="L31">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O31">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q31">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S31">
+        <v>1.8</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>3.75</v>
+      </c>
+      <c r="V31">
+        <v>1.975</v>
+      </c>
+      <c r="W31">
         <v>1.825</v>
       </c>
-      <c r="T31">
-        <v>1.975</v>
-      </c>
-      <c r="U31">
-        <v>3.5</v>
-      </c>
-      <c r="V31">
-        <v>1.9</v>
-      </c>
-      <c r="W31">
-        <v>1.9</v>
-      </c>
       <c r="X31">
         <v>-1</v>
       </c>
@@ -3398,19 +3398,19 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3418,7 +3418,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7032298</v>
+        <v>7032299</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3427,25 +3427,25 @@
         <v>45163.625</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L32">
         <v>2.25</v>
@@ -3457,52 +3457,52 @@
         <v>2.25</v>
       </c>
       <c r="O32">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P32">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U32">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3510,7 +3510,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7032484</v>
+        <v>7032298</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3519,62 +3519,62 @@
         <v>45163.625</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
         <v>58</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M33">
         <v>4.5</v>
       </c>
       <c r="N33">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O33">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q33">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="R33">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U33">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V33">
+        <v>1.825</v>
+      </c>
+      <c r="W33">
         <v>1.975</v>
       </c>
-      <c r="W33">
-        <v>1.825</v>
-      </c>
       <c r="X33">
         <v>-1</v>
       </c>
@@ -3582,19 +3582,19 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3602,7 +3602,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7032299</v>
+        <v>7032297</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3611,82 +3611,82 @@
         <v>45163.625</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L34">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M34">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N34">
         <v>2.25</v>
       </c>
       <c r="O34">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P34">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U34">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3795,7 +3795,7 @@
         <v>45163.625</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>32</v>
@@ -3890,7 +3890,7 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -3982,7 +3982,7 @@
         <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -4074,7 +4074,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4163,10 +4163,10 @@
         <v>45166.625</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4255,10 +4255,10 @@
         <v>45170.45833333334</v>
       </c>
       <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
         <v>47</v>
-      </c>
-      <c r="F41" t="s">
-        <v>44</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -4350,7 +4350,7 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4439,10 +4439,10 @@
         <v>45170.625</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4531,10 +4531,10 @@
         <v>45170.625</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4715,10 +4715,10 @@
         <v>45170.625</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4899,7 +4899,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
         <v>45</v>
@@ -5175,7 +5175,7 @@
         <v>45172.33333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
         <v>51</v>
@@ -5270,7 +5270,7 @@
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5454,7 +5454,7 @@
         <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5635,7 +5635,7 @@
         <v>45191.625</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s">
         <v>45</v>
@@ -5727,10 +5727,10 @@
         <v>45191.625</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5819,7 +5819,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -5914,7 +5914,7 @@
         <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -6003,7 +6003,7 @@
         <v>45192.5</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
         <v>36</v>
@@ -6282,7 +6282,7 @@
         <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -6371,7 +6371,7 @@
         <v>45194.625</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
         <v>50</v>
@@ -6466,7 +6466,7 @@
         <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6555,10 +6555,10 @@
         <v>45194.625</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6647,10 +6647,10 @@
         <v>45198.625</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6739,7 +6739,7 @@
         <v>45198.625</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
         <v>51</v>
@@ -6831,10 +6831,10 @@
         <v>45198.625</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -6926,7 +6926,7 @@
         <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -7015,10 +7015,10 @@
         <v>45198.625</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -7107,10 +7107,10 @@
         <v>45198.625</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -7386,7 +7386,7 @@
         <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7754,7 +7754,7 @@
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7938,7 +7938,7 @@
         <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -8027,10 +8027,10 @@
         <v>45226.625</v>
       </c>
       <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
         <v>43</v>
-      </c>
-      <c r="F82" t="s">
-        <v>49</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -8119,7 +8119,7 @@
         <v>45226.625</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
         <v>46</v>
@@ -8211,7 +8211,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F84" t="s">
         <v>35</v>
@@ -8303,7 +8303,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
@@ -8398,7 +8398,7 @@
         <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -8487,10 +8487,10 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" t="s">
         <v>34</v>
-      </c>
-      <c r="F87" t="s">
-        <v>33</v>
       </c>
       <c r="G87">
         <v>6</v>
@@ -8674,7 +8674,7 @@
         <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8855,7 +8855,7 @@
         <v>45233.375</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s">
         <v>39</v>
@@ -8938,7 +8938,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7032355</v>
+        <v>7032496</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8947,79 +8947,79 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O92">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="R92">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S92">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U92">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AD92">
         <v>-1</v>
@@ -9030,7 +9030,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7032496</v>
+        <v>7032352</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9039,82 +9039,82 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="M93">
         <v>4.5</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P93">
         <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="R93">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U93">
         <v>3.75</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AD93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9122,7 +9122,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7032353</v>
+        <v>7032351</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9131,25 +9131,25 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L94">
         <v>1.727</v>
@@ -9161,52 +9161,52 @@
         <v>3.2</v>
       </c>
       <c r="O94">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P94">
         <v>4.2</v>
       </c>
       <c r="Q94">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U94">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9223,7 +9223,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
         <v>35</v>
@@ -9306,7 +9306,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7032352</v>
+        <v>7032353</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9315,82 +9315,82 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K96" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M96">
         <v>4.5</v>
       </c>
       <c r="N96">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="P96">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="R96">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U96">
         <v>3.75</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA96">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC96">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AD96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9398,7 +9398,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7032351</v>
+        <v>7032355</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9407,82 +9407,82 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L97">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M97">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N97">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P97">
         <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="R97">
+        <v>0.25</v>
+      </c>
+      <c r="S97">
+        <v>1.75</v>
+      </c>
+      <c r="T97">
+        <v>1.95</v>
+      </c>
+      <c r="U97">
+        <v>3.25</v>
+      </c>
+      <c r="V97">
+        <v>1.975</v>
+      </c>
+      <c r="W97">
+        <v>1.825</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>3.2</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.375</v>
+      </c>
+      <c r="AB97">
         <v>-0.5</v>
       </c>
-      <c r="S97">
-        <v>1.925</v>
-      </c>
-      <c r="T97">
-        <v>1.875</v>
-      </c>
-      <c r="U97">
-        <v>4</v>
-      </c>
-      <c r="V97">
-        <v>1.85</v>
-      </c>
-      <c r="W97">
-        <v>1.95</v>
-      </c>
-      <c r="X97">
-        <v>1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.925</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9594,7 +9594,7 @@
         <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -9686,7 +9686,7 @@
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>55</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9867,10 +9867,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
         <v>49</v>
-      </c>
-      <c r="F102" t="s">
-        <v>48</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -10134,7 +10134,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7032359</v>
+        <v>7032360</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10143,16 +10143,16 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -10164,43 +10164,43 @@
         <v>59</v>
       </c>
       <c r="L105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N105">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O105">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P105">
         <v>4.5</v>
       </c>
       <c r="Q105">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R105">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U105">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X105">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -10209,16 +10209,16 @@
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10226,7 +10226,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7032360</v>
+        <v>7032359</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -10235,16 +10235,16 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -10256,43 +10256,43 @@
         <v>59</v>
       </c>
       <c r="L106">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M106">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N106">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O106">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P106">
         <v>4.5</v>
       </c>
       <c r="Q106">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R106">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U106">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X106">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
@@ -10301,16 +10301,16 @@
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10419,7 +10419,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
         <v>32</v>
@@ -10511,10 +10511,10 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G109">
         <v>5</v>
@@ -10603,7 +10603,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
         <v>51</v>
@@ -10695,10 +10695,10 @@
         <v>45275.35416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10790,7 +10790,7 @@
         <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10879,7 +10879,7 @@
         <v>45275.66666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F113" t="s">
         <v>52</v>
@@ -11063,10 +11063,10 @@
         <v>45276.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>51</v>
       </c>
       <c r="F118" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -11434,7 +11434,7 @@
         <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -11526,7 +11526,7 @@
         <v>50</v>
       </c>
       <c r="F120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -11618,7 +11618,7 @@
         <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -11799,10 +11799,10 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -11891,7 +11891,7 @@
         <v>45299.66666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
         <v>36</v>
@@ -11983,7 +11983,7 @@
         <v>45299.66666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
         <v>45</v>
@@ -12075,7 +12075,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
         <v>39</v>
@@ -12158,7 +12158,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7032379</v>
+        <v>7032378</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12167,19 +12167,19 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -12188,43 +12188,43 @@
         <v>59</v>
       </c>
       <c r="L127">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="M127">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="O127">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q127">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="R127">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T127">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U127">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X127">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="Y127">
         <v>-1</v>
@@ -12233,16 +12233,16 @@
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12250,7 +12250,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7032377</v>
+        <v>7032379</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12259,16 +12259,16 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F128" t="s">
         <v>49</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -12280,43 +12280,43 @@
         <v>59</v>
       </c>
       <c r="L128">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="M128">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="O128">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="P128">
+        <v>6.5</v>
+      </c>
+      <c r="Q128">
+        <v>5</v>
+      </c>
+      <c r="R128">
+        <v>-1.75</v>
+      </c>
+      <c r="S128">
+        <v>1.9</v>
+      </c>
+      <c r="T128">
+        <v>1.9</v>
+      </c>
+      <c r="U128">
         <v>4</v>
       </c>
-      <c r="Q128">
-        <v>3.3</v>
-      </c>
-      <c r="R128">
-        <v>-0.75</v>
-      </c>
-      <c r="S128">
-        <v>1.975</v>
-      </c>
-      <c r="T128">
-        <v>1.825</v>
-      </c>
-      <c r="U128">
-        <v>3.75</v>
-      </c>
       <c r="V128">
+        <v>1.775</v>
+      </c>
+      <c r="W128">
         <v>1.925</v>
       </c>
-      <c r="W128">
-        <v>1.875</v>
-      </c>
       <c r="X128">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="Y128">
         <v>-1</v>
@@ -12325,16 +12325,16 @@
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
         <v>-1</v>
       </c>
       <c r="AD128">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12342,7 +12342,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7032378</v>
+        <v>7032377</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12351,19 +12351,19 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -12372,31 +12372,31 @@
         <v>59</v>
       </c>
       <c r="L129">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="M129">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N129">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="O129">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="P129">
         <v>4</v>
       </c>
       <c r="Q129">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="R129">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S129">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U129">
         <v>3.75</v>
@@ -12408,7 +12408,7 @@
         <v>1.875</v>
       </c>
       <c r="X129">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Y129">
         <v>-1</v>
@@ -12417,16 +12417,16 @@
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12443,7 +12443,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F130" t="s">
         <v>50</v>
@@ -12627,7 +12627,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
         <v>38</v>
@@ -12814,7 +12814,7 @@
         <v>52</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12903,7 +12903,7 @@
         <v>45306.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
         <v>35</v>
@@ -12998,7 +12998,7 @@
         <v>51</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -13090,7 +13090,7 @@
         <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -13179,10 +13179,10 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -13262,7 +13262,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7039946</v>
+        <v>7032386</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13271,52 +13271,52 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L139">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M139">
         <v>4</v>
       </c>
       <c r="N139">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="P139">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="R139">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U139">
         <v>3.5</v>
@@ -13328,19 +13328,19 @@
         <v>1.975</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -13354,7 +13354,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7032386</v>
+        <v>7039946</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13363,52 +13363,52 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L140">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M140">
         <v>4</v>
       </c>
       <c r="N140">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q140">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="R140">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U140">
         <v>3.5</v>
@@ -13420,19 +13420,19 @@
         <v>1.975</v>
       </c>
       <c r="X140">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13734,7 +13734,7 @@
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -13915,7 +13915,7 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F146" t="s">
         <v>39</v>
@@ -14007,10 +14007,10 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -14099,7 +14099,7 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F148" t="s">
         <v>35</v>
@@ -14191,10 +14191,10 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -14286,7 +14286,7 @@
         <v>30</v>
       </c>
       <c r="F150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -14366,7 +14366,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7032399</v>
+        <v>7032403</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -14375,13 +14375,13 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14390,46 +14390,46 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" t="s">
         <v>58</v>
       </c>
       <c r="L151">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="M151">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N151">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="P151">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
+        <v>3.2</v>
+      </c>
+      <c r="R151">
+        <v>-0.75</v>
+      </c>
+      <c r="S151">
+        <v>1.95</v>
+      </c>
+      <c r="T151">
+        <v>1.85</v>
+      </c>
+      <c r="U151">
         <v>3.75</v>
       </c>
-      <c r="R151">
-        <v>-1.25</v>
-      </c>
-      <c r="S151">
-        <v>1.9</v>
-      </c>
-      <c r="T151">
-        <v>1.9</v>
-      </c>
-      <c r="U151">
-        <v>4</v>
-      </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -14438,19 +14438,19 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC151">
         <v>-1</v>
       </c>
       <c r="AD151">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -14458,7 +14458,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7032403</v>
+        <v>7032399</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14467,13 +14467,13 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14482,46 +14482,46 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" t="s">
         <v>58</v>
       </c>
       <c r="L152">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="M152">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N152">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O152">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q152">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="R152">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U152">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14530,19 +14530,19 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
         <v>-1</v>
       </c>
       <c r="AD152">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14559,10 +14559,10 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14651,7 +14651,7 @@
         <v>45331.6875</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
         <v>45</v>
@@ -14838,7 +14838,7 @@
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -14930,7 +14930,7 @@
         <v>52</v>
       </c>
       <c r="F157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -15019,10 +15019,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -15114,7 +15114,7 @@
         <v>30</v>
       </c>
       <c r="F159" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -15206,7 +15206,7 @@
         <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -15390,7 +15390,7 @@
         <v>50</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -15571,7 +15571,7 @@
         <v>45341.375</v>
       </c>
       <c r="E164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F164" t="s">
         <v>31</v>
@@ -15663,10 +15663,10 @@
         <v>45341.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G165">
         <v>4</v>
@@ -15746,7 +15746,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7032414</v>
+        <v>7032507</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15755,46 +15755,46 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L166">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="M166">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="O166">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="P166">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="R166">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S166">
         <v>2</v>
@@ -15806,31 +15806,31 @@
         <v>3.5</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y166">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
         <v>-1</v>
       </c>
       <c r="AD166">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15847,10 +15847,10 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -15930,7 +15930,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032507</v>
+        <v>7032412</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15939,19 +15939,19 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F168" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -15960,43 +15960,43 @@
         <v>59</v>
       </c>
       <c r="L168">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="M168">
+        <v>4.75</v>
+      </c>
+      <c r="N168">
         <v>4</v>
       </c>
-      <c r="N168">
-        <v>3.5</v>
-      </c>
       <c r="O168">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="P168">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="R168">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S168">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U168">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X168">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -16005,7 +16005,7 @@
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -16014,7 +16014,7 @@
         <v>-1</v>
       </c>
       <c r="AD168">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16022,7 +16022,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7032412</v>
+        <v>7032414</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -16031,13 +16031,13 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -16046,67 +16046,67 @@
         <v>1</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L169">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="N169">
+        <v>1.85</v>
+      </c>
+      <c r="O169">
+        <v>2.45</v>
+      </c>
+      <c r="P169">
         <v>4</v>
       </c>
-      <c r="O169">
-        <v>2.3</v>
-      </c>
-      <c r="P169">
-        <v>4.2</v>
-      </c>
       <c r="Q169">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R169">
         <v>0</v>
       </c>
       <c r="S169">
+        <v>2</v>
+      </c>
+      <c r="T169">
+        <v>1.8</v>
+      </c>
+      <c r="U169">
+        <v>3.5</v>
+      </c>
+      <c r="V169">
+        <v>1.85</v>
+      </c>
+      <c r="W169">
         <v>1.95</v>
       </c>
-      <c r="T169">
-        <v>1.85</v>
-      </c>
-      <c r="U169">
-        <v>4</v>
-      </c>
-      <c r="V169">
-        <v>1.9</v>
-      </c>
-      <c r="W169">
-        <v>1.9</v>
-      </c>
       <c r="X169">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+      <c r="AC169">
+        <v>-1</v>
+      </c>
+      <c r="AD169">
         <v>0.95</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
-      <c r="AC169">
-        <v>-1</v>
-      </c>
-      <c r="AD169">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16123,7 +16123,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F170" t="s">
         <v>55</v>
@@ -16215,7 +16215,7 @@
         <v>45345.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
         <v>31</v>
@@ -16310,7 +16310,7 @@
         <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -16402,7 +16402,7 @@
         <v>52</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -16482,7 +16482,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7032418</v>
+        <v>7032416</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16491,82 +16491,82 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
         <v>33</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L174">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M174">
         <v>3.75</v>
       </c>
       <c r="N174">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O174">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="P174">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q174">
+        <v>3.8</v>
+      </c>
+      <c r="R174">
+        <v>-0.75</v>
+      </c>
+      <c r="S174">
+        <v>1.875</v>
+      </c>
+      <c r="T174">
+        <v>1.925</v>
+      </c>
+      <c r="U174">
+        <v>3.5</v>
+      </c>
+      <c r="V174">
         <v>1.95</v>
       </c>
-      <c r="R174">
-        <v>0.25</v>
-      </c>
-      <c r="S174">
-        <v>2.025</v>
-      </c>
-      <c r="T174">
-        <v>1.775</v>
-      </c>
-      <c r="U174">
-        <v>3.75</v>
-      </c>
-      <c r="V174">
-        <v>1.975</v>
-      </c>
       <c r="W174">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA174">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16574,7 +16574,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7032422</v>
+        <v>7032418</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16583,82 +16583,82 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L175">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M175">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N175">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O175">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q175">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="R175">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T175">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U175">
         <v>3.75</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z175">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB175">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16666,7 +16666,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7032416</v>
+        <v>7032422</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16675,10 +16675,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -16690,47 +16690,47 @@
         <v>1</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K176" t="s">
         <v>58</v>
       </c>
       <c r="L176">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="M176">
+        <v>5.5</v>
+      </c>
+      <c r="N176">
+        <v>5.5</v>
+      </c>
+      <c r="O176">
+        <v>1.833</v>
+      </c>
+      <c r="P176">
+        <v>4.5</v>
+      </c>
+      <c r="Q176">
+        <v>2.875</v>
+      </c>
+      <c r="R176">
+        <v>-0.5</v>
+      </c>
+      <c r="S176">
+        <v>1.9</v>
+      </c>
+      <c r="T176">
+        <v>1.9</v>
+      </c>
+      <c r="U176">
         <v>3.75</v>
       </c>
-      <c r="N176">
-        <v>2.9</v>
-      </c>
-      <c r="O176">
-        <v>1.666</v>
-      </c>
-      <c r="P176">
-        <v>4</v>
-      </c>
-      <c r="Q176">
-        <v>3.8</v>
-      </c>
-      <c r="R176">
-        <v>-0.75</v>
-      </c>
-      <c r="S176">
+      <c r="V176">
+        <v>1.925</v>
+      </c>
+      <c r="W176">
         <v>1.875</v>
       </c>
-      <c r="T176">
-        <v>1.925</v>
-      </c>
-      <c r="U176">
-        <v>3.5</v>
-      </c>
-      <c r="V176">
-        <v>1.95</v>
-      </c>
-      <c r="W176">
-        <v>1.85</v>
-      </c>
       <c r="X176">
         <v>-1</v>
       </c>
@@ -16738,16 +16738,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>2.8</v>
+        <v>1.875</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC176">
         <v>0.925</v>
-      </c>
-      <c r="AC176">
-        <v>0.95</v>
       </c>
       <c r="AD176">
         <v>-1</v>
@@ -16758,7 +16758,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7032417</v>
+        <v>7039905</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16767,79 +16767,79 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F177" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G177">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L177">
+        <v>1.5</v>
+      </c>
+      <c r="M177">
+        <v>4.5</v>
+      </c>
+      <c r="N177">
+        <v>4.5</v>
+      </c>
+      <c r="O177">
+        <v>2</v>
+      </c>
+      <c r="P177">
+        <v>4</v>
+      </c>
+      <c r="Q177">
+        <v>2.8</v>
+      </c>
+      <c r="R177">
+        <v>-0.25</v>
+      </c>
+      <c r="S177">
         <v>1.8</v>
       </c>
-      <c r="M177">
-        <v>3.75</v>
-      </c>
-      <c r="N177">
-        <v>3.4</v>
-      </c>
-      <c r="O177">
-        <v>1.7</v>
-      </c>
-      <c r="P177">
-        <v>3.8</v>
-      </c>
-      <c r="Q177">
-        <v>3.75</v>
-      </c>
-      <c r="R177">
-        <v>-0.75</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
       <c r="T177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U177">
         <v>3.75</v>
       </c>
       <c r="V177">
+        <v>1.75</v>
+      </c>
+      <c r="W177">
         <v>1.95</v>
       </c>
-      <c r="W177">
-        <v>1.85</v>
-      </c>
       <c r="X177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AD177">
         <v>-1</v>
@@ -16850,7 +16850,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7039905</v>
+        <v>7032417</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16859,79 +16859,79 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L178">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M178">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N178">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O178">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q178">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="R178">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U178">
         <v>3.75</v>
       </c>
       <c r="V178">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD178">
         <v>-1</v>
@@ -16954,7 +16954,7 @@
         <v>55</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -17046,7 +17046,7 @@
         <v>50</v>
       </c>
       <c r="F180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17230,7 +17230,7 @@
         <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7898839</v>
+        <v>7032424</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17319,10 +17319,10 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -17331,7 +17331,7 @@
         <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -17340,43 +17340,43 @@
         <v>59</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M183">
         <v>3.75</v>
       </c>
       <c r="N183">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O183">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="P183">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S183">
+        <v>2</v>
+      </c>
+      <c r="T183">
         <v>1.8</v>
       </c>
-      <c r="T183">
-        <v>2</v>
-      </c>
       <c r="U183">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X183">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="Y183">
         <v>-1</v>
@@ -17385,7 +17385,7 @@
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
@@ -17394,7 +17394,7 @@
         <v>-1</v>
       </c>
       <c r="AD183">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17402,7 +17402,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7032424</v>
+        <v>7898839</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17411,11 +17411,11 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E184" t="s">
+        <v>35</v>
+      </c>
+      <c r="F184" t="s">
         <v>42</v>
       </c>
-      <c r="F184" t="s">
-        <v>54</v>
-      </c>
       <c r="G184">
         <v>2</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -17432,43 +17432,43 @@
         <v>59</v>
       </c>
       <c r="L184">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M184">
         <v>3.75</v>
       </c>
       <c r="N184">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O184">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="P184">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R184">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X184">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y184">
         <v>-1</v>
@@ -17477,7 +17477,7 @@
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
         <v>-1</v>
@@ -17486,7 +17486,7 @@
         <v>-1</v>
       </c>
       <c r="AD184">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17503,7 +17503,7 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
         <v>37</v>
@@ -17678,7 +17678,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7032433</v>
+        <v>7032431</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17687,19 +17687,19 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>2</v>
@@ -17708,25 +17708,25 @@
         <v>58</v>
       </c>
       <c r="L187">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="M187">
         <v>4.333</v>
       </c>
       <c r="N187">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O187">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="P187">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q187">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="R187">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S187">
         <v>1.95</v>
@@ -17738,10 +17738,10 @@
         <v>3.75</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17750,7 +17750,7 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.444</v>
+        <v>1.75</v>
       </c>
       <c r="AA187">
         <v>-1</v>
@@ -17759,10 +17759,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC187">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD187">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17779,7 +17779,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F188" t="s">
         <v>46</v>
@@ -17862,7 +17862,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7032429</v>
+        <v>7032433</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -17871,46 +17871,46 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K189" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L189">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="M189">
         <v>4.333</v>
       </c>
       <c r="N189">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O189">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="P189">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q189">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="R189">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S189">
         <v>1.95</v>
@@ -17919,31 +17919,31 @@
         <v>1.85</v>
       </c>
       <c r="U189">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X189">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="AA189">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD189">
         <v>-1</v>
@@ -17954,7 +17954,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7032431</v>
+        <v>7039907</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17963,61 +17963,61 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G190">
         <v>0</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K190" t="s">
         <v>58</v>
       </c>
       <c r="L190">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N190">
+        <v>2.1</v>
+      </c>
+      <c r="O190">
         <v>2.5</v>
       </c>
-      <c r="O190">
-        <v>1.909</v>
-      </c>
       <c r="P190">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q190">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="R190">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U190">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -18026,19 +18026,19 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
       </c>
       <c r="AD190">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18046,7 +18046,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7039907</v>
+        <v>7032432</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18055,82 +18055,82 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191">
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L191">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M191">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N191">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O191">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="P191">
         <v>4.2</v>
       </c>
       <c r="Q191">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="R191">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T191">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U191">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB191">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC191">
         <v>-1</v>
       </c>
       <c r="AD191">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18138,7 +18138,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7032432</v>
+        <v>7032429</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18147,16 +18147,16 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -18168,43 +18168,43 @@
         <v>59</v>
       </c>
       <c r="L192">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="M192">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N192">
+        <v>3.2</v>
+      </c>
+      <c r="O192">
+        <v>1.727</v>
+      </c>
+      <c r="P192">
         <v>4.333</v>
       </c>
-      <c r="O192">
-        <v>1.6</v>
-      </c>
-      <c r="P192">
-        <v>4.2</v>
-      </c>
       <c r="Q192">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="R192">
         <v>-0.75</v>
       </c>
       <c r="S192">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U192">
         <v>3.5</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X192">
-        <v>0.6000000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y192">
         <v>-1</v>
@@ -18213,16 +18213,16 @@
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AB192">
         <v>-0.5</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18239,10 +18239,10 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G193">
         <v>5</v>
@@ -18331,7 +18331,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F194" t="s">
         <v>50</v>
@@ -18506,7 +18506,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7905004</v>
+        <v>7032435</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18515,55 +18515,55 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L196">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="M196">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N196">
+        <v>2.375</v>
+      </c>
+      <c r="O196">
         <v>2.5</v>
       </c>
-      <c r="O196">
-        <v>1.5</v>
-      </c>
       <c r="P196">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q196">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="R196">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S196">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T196">
         <v>1.95</v>
       </c>
       <c r="U196">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V196">
         <v>1.875</v>
@@ -18572,25 +18572,25 @@
         <v>1.925</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y196">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD196">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18598,7 +18598,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7032435</v>
+        <v>7032436</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18607,79 +18607,79 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>5</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
         <v>4</v>
       </c>
-      <c r="H197">
-        <v>2</v>
-      </c>
-      <c r="I197">
-        <v>3</v>
-      </c>
-      <c r="J197">
-        <v>0</v>
-      </c>
       <c r="K197" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L197">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M197">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N197">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O197">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="P197">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q197">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R197">
         <v>0.25</v>
       </c>
       <c r="S197">
+        <v>1.875</v>
+      </c>
+      <c r="T197">
+        <v>1.925</v>
+      </c>
+      <c r="U197">
+        <v>3.5</v>
+      </c>
+      <c r="V197">
         <v>1.85</v>
       </c>
-      <c r="T197">
+      <c r="W197">
         <v>1.95</v>
       </c>
-      <c r="U197">
-        <v>3.75</v>
-      </c>
-      <c r="V197">
-        <v>1.875</v>
-      </c>
-      <c r="W197">
-        <v>1.925</v>
-      </c>
       <c r="X197">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>0.925</v>
+      </c>
+      <c r="AC197">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
-      </c>
-      <c r="AC197">
-        <v>0.875</v>
       </c>
       <c r="AD197">
         <v>-1</v>
@@ -18690,7 +18690,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7032436</v>
+        <v>7905004</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18699,82 +18699,82 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198" t="s">
+        <v>60</v>
+      </c>
+      <c r="L198">
+        <v>2.05</v>
+      </c>
+      <c r="M198">
+        <v>4.5</v>
+      </c>
+      <c r="N198">
+        <v>2.5</v>
+      </c>
+      <c r="O198">
+        <v>1.5</v>
+      </c>
+      <c r="P198">
         <v>5</v>
       </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="J198">
+      <c r="Q198">
         <v>4</v>
       </c>
-      <c r="K198" t="s">
-        <v>58</v>
-      </c>
-      <c r="L198">
-        <v>1.8</v>
-      </c>
-      <c r="M198">
+      <c r="R198">
+        <v>-1</v>
+      </c>
+      <c r="S198">
+        <v>1.75</v>
+      </c>
+      <c r="T198">
+        <v>1.95</v>
+      </c>
+      <c r="U198">
         <v>4</v>
       </c>
-      <c r="N198">
-        <v>3.25</v>
-      </c>
-      <c r="O198">
-        <v>2.75</v>
-      </c>
-      <c r="P198">
-        <v>3.8</v>
-      </c>
-      <c r="Q198">
-        <v>2.05</v>
-      </c>
-      <c r="R198">
-        <v>0.25</v>
-      </c>
-      <c r="S198">
+      <c r="V198">
         <v>1.875</v>
       </c>
-      <c r="T198">
+      <c r="W198">
         <v>1.925</v>
       </c>
-      <c r="U198">
-        <v>3.5</v>
-      </c>
-      <c r="V198">
-        <v>1.85</v>
-      </c>
-      <c r="W198">
-        <v>1.95</v>
-      </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z198">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC198">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD198">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18791,7 +18791,7 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F199" t="s">
         <v>32</v>
@@ -18883,7 +18883,7 @@
         <v>45366.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F200" t="s">
         <v>32</v>
@@ -18978,7 +18978,7 @@
         <v>30</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -19070,7 +19070,7 @@
         <v>31</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -19159,10 +19159,10 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -19242,7 +19242,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7032442</v>
+        <v>7032441</v>
       </c>
       <c r="C204" t="s">
         <v>29</v>
@@ -19251,46 +19251,46 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E204" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204" t="s">
+        <v>59</v>
+      </c>
+      <c r="L204">
+        <v>2.25</v>
+      </c>
+      <c r="M204">
         <v>4</v>
       </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204">
-        <v>1</v>
-      </c>
-      <c r="K204" t="s">
-        <v>58</v>
-      </c>
-      <c r="L204">
-        <v>2.875</v>
-      </c>
-      <c r="M204">
-        <v>3.75</v>
-      </c>
       <c r="N204">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O204">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="P204">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q204">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="R204">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S204">
         <v>1.9</v>
@@ -19299,34 +19299,34 @@
         <v>1.9</v>
       </c>
       <c r="U204">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB204">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -19334,7 +19334,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7039909</v>
+        <v>7032442</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
@@ -19343,40 +19343,40 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G205">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K205" t="s">
         <v>58</v>
       </c>
       <c r="L205">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="M205">
         <v>3.75</v>
       </c>
       <c r="N205">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O205">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P205">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q205">
         <v>2.625</v>
@@ -19385,19 +19385,19 @@
         <v>-0.25</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U205">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -19412,13 +19412,13 @@
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19426,7 +19426,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7032441</v>
+        <v>7039909</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
@@ -19435,82 +19435,82 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K206" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L206">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M206">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N206">
         <v>2.4</v>
       </c>
       <c r="O206">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="P206">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q206">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="R206">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S206">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U206">
         <v>3.75</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X206">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC206">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD206">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -19527,7 +19527,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
         <v>50</v>
@@ -19987,7 +19987,7 @@
         <v>45373.66666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F212" t="s">
         <v>36</v>
@@ -20082,7 +20082,7 @@
         <v>39</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G213">
         <v>4</v>
@@ -20174,7 +20174,7 @@
         <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -20263,10 +20263,10 @@
         <v>45387.625</v>
       </c>
       <c r="E215" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -20631,10 +20631,10 @@
         <v>45388.375</v>
       </c>
       <c r="E219" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F219" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G219">
         <v>4</v>
@@ -20723,10 +20723,10 @@
         <v>45390.33333333334</v>
       </c>
       <c r="E220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F220" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -20907,10 +20907,10 @@
         <v>45390.625</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -21091,7 +21091,7 @@
         <v>45390.625</v>
       </c>
       <c r="E224" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
         <v>35</v>
@@ -21186,7 +21186,7 @@
         <v>46</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -21278,7 +21278,7 @@
         <v>37</v>
       </c>
       <c r="F226" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -21370,7 +21370,7 @@
         <v>45</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -21551,10 +21551,10 @@
         <v>45394.625</v>
       </c>
       <c r="E229" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -21643,7 +21643,7 @@
         <v>45394.625</v>
       </c>
       <c r="E230" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F230" t="s">
         <v>55</v>
@@ -21922,7 +21922,7 @@
         <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -22011,7 +22011,7 @@
         <v>45395.5</v>
       </c>
       <c r="E234" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
         <v>51</v>
@@ -22103,10 +22103,10 @@
         <v>45397.375</v>
       </c>
       <c r="E235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G235">
         <v>3</v>
@@ -22287,7 +22287,7 @@
         <v>45397.625</v>
       </c>
       <c r="E237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F237" t="s">
         <v>30</v>
@@ -22382,7 +22382,7 @@
         <v>39</v>
       </c>
       <c r="F238" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -22471,10 +22471,10 @@
         <v>45397.625</v>
       </c>
       <c r="E239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G239">
         <v>3</v>
@@ -22563,7 +22563,7 @@
         <v>45401.625</v>
       </c>
       <c r="E240" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F240" t="s">
         <v>30</v>
@@ -22658,7 +22658,7 @@
         <v>36</v>
       </c>
       <c r="F241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -22839,10 +22839,10 @@
         <v>45404.39583333334</v>
       </c>
       <c r="E243" t="s">
+        <v>53</v>
+      </c>
+      <c r="F243" t="s">
         <v>54</v>
-      </c>
-      <c r="F243" t="s">
-        <v>53</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -22934,7 +22934,7 @@
         <v>55</v>
       </c>
       <c r="F244" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -23198,7 +23198,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7032515</v>
+        <v>7032469</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23207,25 +23207,25 @@
         <v>45408.625</v>
       </c>
       <c r="E247" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L247">
         <v>1.909</v>
@@ -23237,52 +23237,52 @@
         <v>2.75</v>
       </c>
       <c r="O247">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="P247">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q247">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="R247">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S247">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T247">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U247">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="V247">
+        <v>1.875</v>
+      </c>
+      <c r="W247">
         <v>1.925</v>
       </c>
-      <c r="W247">
-        <v>1.775</v>
-      </c>
       <c r="X247">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA247">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD247">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23290,7 +23290,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7032473</v>
+        <v>7032515</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23299,82 +23299,82 @@
         <v>45408.625</v>
       </c>
       <c r="E248" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J248">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K248" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L248">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="M248">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N248">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O248">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="P248">
         <v>4.5</v>
       </c>
       <c r="Q248">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="R248">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S248">
+        <v>1.75</v>
+      </c>
+      <c r="T248">
+        <v>1.95</v>
+      </c>
+      <c r="U248">
+        <v>4.25</v>
+      </c>
+      <c r="V248">
         <v>1.925</v>
       </c>
-      <c r="T248">
-        <v>1.875</v>
-      </c>
-      <c r="U248">
-        <v>3.75</v>
-      </c>
-      <c r="V248">
-        <v>1.875</v>
-      </c>
       <c r="W248">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB248">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD248">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23391,7 +23391,7 @@
         <v>45408.625</v>
       </c>
       <c r="E249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F249" t="s">
         <v>36</v>
@@ -23474,7 +23474,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7032469</v>
+        <v>7032471</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23483,82 +23483,82 @@
         <v>45408.625</v>
       </c>
       <c r="E250" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250" t="s">
+        <v>60</v>
+      </c>
+      <c r="L250">
+        <v>2.375</v>
+      </c>
+      <c r="M250">
         <v>4</v>
       </c>
-      <c r="I250">
-        <v>1</v>
-      </c>
-      <c r="J250">
-        <v>1</v>
-      </c>
-      <c r="K250" t="s">
-        <v>58</v>
-      </c>
-      <c r="L250">
-        <v>1.909</v>
-      </c>
-      <c r="M250">
-        <v>4.5</v>
-      </c>
       <c r="N250">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O250">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="P250">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q250">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="R250">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S250">
+        <v>1.975</v>
+      </c>
+      <c r="T250">
         <v>1.825</v>
       </c>
-      <c r="T250">
-        <v>1.975</v>
-      </c>
       <c r="U250">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V250">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z250">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB250">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC250">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD250">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23575,7 +23575,7 @@
         <v>45408.625</v>
       </c>
       <c r="E251" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F251" t="s">
         <v>37</v>
@@ -23658,7 +23658,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7032471</v>
+        <v>7032473</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23667,82 +23667,82 @@
         <v>45408.625</v>
       </c>
       <c r="E252" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I252">
         <v>0</v>
       </c>
       <c r="J252">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K252" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L252">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="M252">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N252">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O252">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="P252">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q252">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="R252">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T252">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U252">
         <v>3.75</v>
       </c>
       <c r="V252">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W252">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA252">
+        <v>-1</v>
+      </c>
+      <c r="AB252">
+        <v>0.875</v>
+      </c>
+      <c r="AC252">
+        <v>0.4375</v>
+      </c>
+      <c r="AD252">
         <v>-0.5</v>
-      </c>
-      <c r="AB252">
-        <v>0.4125</v>
-      </c>
-      <c r="AC252">
-        <v>-1</v>
-      </c>
-      <c r="AD252">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23759,7 +23759,7 @@
         <v>45408.64583333334</v>
       </c>
       <c r="E253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F253" t="s">
         <v>50</v>
@@ -23842,7 +23842,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7039912</v>
+        <v>7032474</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -23851,61 +23851,61 @@
         <v>45410.375</v>
       </c>
       <c r="E254" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F254" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G254">
         <v>0</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I254">
         <v>0</v>
       </c>
       <c r="J254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K254" t="s">
         <v>58</v>
       </c>
       <c r="L254">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M254">
         <v>4</v>
       </c>
       <c r="N254">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P254">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q254">
+        <v>2.75</v>
+      </c>
+      <c r="R254">
+        <v>-0.25</v>
+      </c>
+      <c r="S254">
         <v>1.85</v>
       </c>
-      <c r="R254">
-        <v>0.5</v>
-      </c>
-      <c r="S254">
-        <v>1.9</v>
-      </c>
       <c r="T254">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U254">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V254">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W254">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23914,19 +23914,19 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD254">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -23934,7 +23934,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7032474</v>
+        <v>7039912</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23943,62 +23943,62 @@
         <v>45410.375</v>
       </c>
       <c r="E255" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F255" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I255">
         <v>0</v>
       </c>
       <c r="J255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K255" t="s">
         <v>58</v>
       </c>
       <c r="L255">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M255">
         <v>4</v>
       </c>
       <c r="N255">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P255">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q255">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="R255">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S255">
+        <v>1.9</v>
+      </c>
+      <c r="T255">
+        <v>1.9</v>
+      </c>
+      <c r="U255">
+        <v>4</v>
+      </c>
+      <c r="V255">
         <v>1.85</v>
       </c>
-      <c r="T255">
+      <c r="W255">
         <v>1.95</v>
       </c>
-      <c r="U255">
-        <v>3.5</v>
-      </c>
-      <c r="V255">
-        <v>1.925</v>
-      </c>
-      <c r="W255">
-        <v>1.875</v>
-      </c>
       <c r="X255">
         <v>-1</v>
       </c>
@@ -24006,19 +24006,19 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD255">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -24035,7 +24035,7 @@
         <v>45411.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F256" t="s">
         <v>46</v>
@@ -24130,7 +24130,7 @@
         <v>32</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -24222,7 +24222,7 @@
         <v>52</v>
       </c>
       <c r="F258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G258">
         <v>4</v>
@@ -24311,10 +24311,10 @@
         <v>45411.625</v>
       </c>
       <c r="E259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F259" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G259">
         <v>3</v>
@@ -24587,7 +24587,7 @@
         <v>45415.625</v>
       </c>
       <c r="E262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F262" t="s">
         <v>55</v>
@@ -24679,7 +24679,7 @@
         <v>45415.625</v>
       </c>
       <c r="E263" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F263" t="s">
         <v>46</v>
@@ -24774,7 +24774,7 @@
         <v>31</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G264">
         <v>5</v>
@@ -24866,7 +24866,7 @@
         <v>51</v>
       </c>
       <c r="F265" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -25231,10 +25231,10 @@
         <v>45418.625</v>
       </c>
       <c r="E269" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F269" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>45423.375</v>
       </c>
       <c r="E270" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F270" t="s">
         <v>31</v>
@@ -25418,7 +25418,7 @@
         <v>51</v>
       </c>
       <c r="F271" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G271">
         <v>3</v>
@@ -25602,7 +25602,7 @@
         <v>39</v>
       </c>
       <c r="F273" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G273">
         <v>8</v>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -151,6 +151,9 @@
     <t>Derby U21</t>
   </si>
   <si>
+    <t>Man Utd U21</t>
+  </si>
+  <si>
     <t>Southampton U21</t>
   </si>
   <si>
@@ -161,9 +164,6 @@
   </si>
   <si>
     <t>Norwich U21</t>
-  </si>
-  <si>
-    <t>Man Utd U21</t>
   </si>
   <si>
     <t>Tottenham U21</t>
@@ -946,7 +946,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1222,7 +1222,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1314,7 +1314,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1590,7 +1590,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2222,7 +2222,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032293</v>
+        <v>7032289</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2234,79 +2234,79 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M19">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N19">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O19">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S19">
+        <v>1.825</v>
+      </c>
+      <c r="T19">
+        <v>1.975</v>
+      </c>
+      <c r="U19">
+        <v>3.5</v>
+      </c>
+      <c r="V19">
         <v>1.9</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>1.9</v>
       </c>
-      <c r="U19">
-        <v>3.75</v>
-      </c>
-      <c r="V19">
-        <v>1.925</v>
-      </c>
-      <c r="W19">
-        <v>1.875</v>
-      </c>
       <c r="X19">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC19">
+        <v>-1</v>
+      </c>
+      <c r="AD19">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.925</v>
-      </c>
-      <c r="AD19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2314,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032288</v>
+        <v>7032293</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2326,61 +2326,61 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>59</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="M20">
         <v>4.2</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O20">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="P20">
+        <v>4.75</v>
+      </c>
+      <c r="Q20">
         <v>4</v>
       </c>
-      <c r="Q20">
-        <v>2.55</v>
-      </c>
       <c r="R20">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U20">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V20">
+        <v>1.925</v>
+      </c>
+      <c r="W20">
         <v>1.875</v>
       </c>
-      <c r="W20">
-        <v>1.925</v>
-      </c>
       <c r="X20">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2389,16 +2389,16 @@
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032290</v>
+        <v>7032288</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2418,49 +2418,49 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
         <v>4.2</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="R21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U21">
         <v>3.5</v>
@@ -2472,25 +2472,25 @@
         <v>1.925</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y21">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2498,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7032291</v>
+        <v>7032290</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2510,7 +2510,7 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2519,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2528,40 +2528,40 @@
         <v>60</v>
       </c>
       <c r="L22">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N22">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="P22">
         <v>4.2</v>
       </c>
       <c r="Q22">
+        <v>2.2</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
         <v>1.75</v>
       </c>
-      <c r="R22">
-        <v>0.5</v>
-      </c>
-      <c r="S22">
-        <v>1.925</v>
-      </c>
       <c r="T22">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U22">
         <v>3.5</v>
       </c>
       <c r="V22">
+        <v>1.875</v>
+      </c>
+      <c r="W22">
         <v>1.925</v>
-      </c>
-      <c r="W22">
-        <v>1.775</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2573,13 +2573,13 @@
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2590,7 +2590,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7032289</v>
+        <v>7032291</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2602,10 +2602,10 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2614,67 +2614,67 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L23">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O23">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="R23">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U23">
         <v>3.5</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -3059,7 +3059,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -3326,7 +3326,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7032299</v>
+        <v>7032484</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3335,82 +3335,82 @@
         <v>45163.625</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L31">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
         <v>4.5</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O31">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q31">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X31">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
       </c>
       <c r="AD31">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3602,7 +3602,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7032484</v>
+        <v>7032299</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3611,82 +3611,82 @@
         <v>45163.625</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M34">
         <v>4.5</v>
       </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O34">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="P34">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="R34">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U34">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
         <v>-1</v>
       </c>
       <c r="AD34">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3694,7 +3694,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7032486</v>
+        <v>7032485</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3706,7 +3706,7 @@
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3715,52 +3715,52 @@
         <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
         <v>59</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="N35">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="R35">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S35">
+        <v>1.9</v>
+      </c>
+      <c r="T35">
+        <v>1.9</v>
+      </c>
+      <c r="U35">
+        <v>3.25</v>
+      </c>
+      <c r="V35">
+        <v>1.825</v>
+      </c>
+      <c r="W35">
         <v>1.975</v>
       </c>
-      <c r="T35">
-        <v>1.825</v>
-      </c>
-      <c r="U35">
-        <v>3.75</v>
-      </c>
-      <c r="V35">
-        <v>1.925</v>
-      </c>
-      <c r="W35">
-        <v>1.875</v>
-      </c>
       <c r="X35">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
@@ -3769,13 +3769,13 @@
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD35">
         <v>-1</v>
@@ -3786,7 +3786,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7032485</v>
+        <v>7032486</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3795,10 +3795,10 @@
         <v>45163.625</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3807,52 +3807,52 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
         <v>59</v>
       </c>
       <c r="L36">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="N36">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O36">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="P36">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U36">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X36">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -3861,13 +3861,13 @@
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AD36">
         <v>-1</v>
@@ -3887,7 +3887,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
@@ -4074,7 +4074,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4255,10 +4255,10 @@
         <v>45170.45833333334</v>
       </c>
       <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
         <v>46</v>
-      </c>
-      <c r="F41" t="s">
-        <v>45</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -4902,7 +4902,7 @@
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -5270,7 +5270,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5362,7 +5362,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -5546,7 +5546,7 @@
         <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5638,7 +5638,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -5911,7 +5911,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
@@ -6270,7 +6270,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7032324</v>
+        <v>7032490</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6279,40 +6279,40 @@
         <v>45194.625</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" t="s">
         <v>58</v>
       </c>
       <c r="L63">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M63">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q63">
         <v>1.55</v>
@@ -6321,19 +6321,19 @@
         <v>1</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U63">
         <v>3.75</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6348,13 +6348,13 @@
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
       </c>
       <c r="AD63">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6362,7 +6362,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7032490</v>
+        <v>7032324</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6371,40 +6371,40 @@
         <v>45194.625</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
         <v>58</v>
       </c>
       <c r="L64">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q64">
         <v>1.55</v>
@@ -6413,19 +6413,19 @@
         <v>1</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U64">
         <v>3.75</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6440,13 +6440,13 @@
         <v>-1</v>
       </c>
       <c r="AB64">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC64">
+        <v>-1</v>
+      </c>
+      <c r="AD64">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
-      </c>
-      <c r="AD64">
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6466,7 +6466,7 @@
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6647,7 +6647,7 @@
         <v>45198.625</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
         <v>38</v>
@@ -6831,7 +6831,7 @@
         <v>45198.625</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
         <v>39</v>
@@ -6923,7 +6923,7 @@
         <v>45198.625</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
         <v>51</v>
@@ -7294,7 +7294,7 @@
         <v>55</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7475,7 +7475,7 @@
         <v>45200.375</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
         <v>52</v>
@@ -7834,7 +7834,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7032342</v>
+        <v>7032343</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7843,10 +7843,10 @@
         <v>45226.625</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7864,25 +7864,25 @@
         <v>60</v>
       </c>
       <c r="L80">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="M80">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N80">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O80">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="P80">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q80">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="R80">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S80">
         <v>1.9</v>
@@ -7891,19 +7891,19 @@
         <v>1.9</v>
       </c>
       <c r="U80">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z80">
         <v>-1</v>
@@ -7918,7 +7918,7 @@
         <v>-1</v>
       </c>
       <c r="AD80">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -7926,7 +7926,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7032343</v>
+        <v>7032342</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7935,10 +7935,10 @@
         <v>45226.625</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7956,25 +7956,25 @@
         <v>60</v>
       </c>
       <c r="L81">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="M81">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N81">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O81">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="P81">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q81">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="R81">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S81">
         <v>1.9</v>
@@ -7983,19 +7983,19 @@
         <v>1.9</v>
       </c>
       <c r="U81">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z81">
         <v>-1</v>
@@ -8010,7 +8010,7 @@
         <v>-1</v>
       </c>
       <c r="AD81">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -8122,7 +8122,7 @@
         <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -8570,7 +8570,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7039940</v>
+        <v>7032348</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8579,19 +8579,19 @@
         <v>45229.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G88">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -8600,43 +8600,43 @@
         <v>59</v>
       </c>
       <c r="L88">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="M88">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O88">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="P88">
         <v>4.75</v>
       </c>
       <c r="Q88">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="R88">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V88">
-        <v>1.675</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="X88">
-        <v>0.6000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="Y88">
         <v>-1</v>
@@ -8645,16 +8645,16 @@
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.675</v>
+        <v>-1</v>
       </c>
       <c r="AD88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8662,7 +8662,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7032348</v>
+        <v>7039940</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8671,19 +8671,19 @@
         <v>45229.66666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -8692,43 +8692,43 @@
         <v>59</v>
       </c>
       <c r="L89">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N89">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="P89">
         <v>4.75</v>
       </c>
       <c r="Q89">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="R89">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S89">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U89">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.675</v>
       </c>
       <c r="W89">
-        <v>1.975</v>
+        <v>2.15</v>
       </c>
       <c r="X89">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8737,16 +8737,16 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.675</v>
       </c>
       <c r="AD89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8766,7 +8766,7 @@
         <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8855,7 +8855,7 @@
         <v>45233.375</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
         <v>40</v>
@@ -8938,7 +8938,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7032350</v>
+        <v>7032351</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8947,82 +8947,82 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L92">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M92">
         <v>4.5</v>
       </c>
       <c r="N92">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O92">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="P92">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="R92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S92">
+        <v>1.925</v>
+      </c>
+      <c r="T92">
         <v>1.875</v>
       </c>
-      <c r="T92">
-        <v>1.925</v>
-      </c>
       <c r="U92">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y92">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9030,7 +9030,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7032496</v>
+        <v>7032350</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9039,79 +9039,79 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="M93">
         <v>4.5</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q93">
+        <v>3.6</v>
+      </c>
+      <c r="R93">
+        <v>-1</v>
+      </c>
+      <c r="S93">
+        <v>1.875</v>
+      </c>
+      <c r="T93">
+        <v>1.925</v>
+      </c>
+      <c r="U93">
+        <v>4.25</v>
+      </c>
+      <c r="V93">
+        <v>2</v>
+      </c>
+      <c r="W93">
         <v>1.8</v>
       </c>
-      <c r="R93">
-        <v>0.5</v>
-      </c>
-      <c r="S93">
-        <v>1.95</v>
-      </c>
-      <c r="T93">
-        <v>1.85</v>
-      </c>
-      <c r="U93">
-        <v>3.75</v>
-      </c>
-      <c r="V93">
-        <v>1.925</v>
-      </c>
-      <c r="W93">
-        <v>1.875</v>
-      </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AD93">
         <v>-1</v>
@@ -9122,7 +9122,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7032353</v>
+        <v>7032355</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9131,79 +9131,79 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L94">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M94">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="P94">
         <v>4.2</v>
       </c>
       <c r="Q94">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U94">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V94">
+        <v>1.975</v>
+      </c>
+      <c r="W94">
         <v>1.825</v>
       </c>
-      <c r="W94">
-        <v>1.975</v>
-      </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z94">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD94">
         <v>-1</v>
@@ -9214,7 +9214,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7032352</v>
+        <v>7032353</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9223,82 +9223,82 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M95">
         <v>4.5</v>
       </c>
       <c r="N95">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O95">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q95">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="R95">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U95">
         <v>3.75</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AD95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9306,7 +9306,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7032351</v>
+        <v>7032496</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9315,82 +9315,82 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L96">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
         <v>4.5</v>
       </c>
       <c r="N96">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q96">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="R96">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S96">
+        <v>1.95</v>
+      </c>
+      <c r="T96">
+        <v>1.85</v>
+      </c>
+      <c r="U96">
+        <v>3.75</v>
+      </c>
+      <c r="V96">
         <v>1.925</v>
       </c>
-      <c r="T96">
+      <c r="W96">
         <v>1.875</v>
       </c>
-      <c r="U96">
-        <v>4</v>
-      </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
-      <c r="W96">
-        <v>1.95</v>
-      </c>
       <c r="X96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC96">
         <v>0.925</v>
       </c>
-      <c r="AB96">
-        <v>-1</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
-      </c>
       <c r="AD96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9398,7 +9398,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7032355</v>
+        <v>7032352</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9407,10 +9407,10 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -9431,58 +9431,58 @@
         <v>2</v>
       </c>
       <c r="M97">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O97">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q97">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="R97">
         <v>0.25</v>
       </c>
       <c r="S97">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AB97">
         <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AD97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9591,7 +9591,7 @@
         <v>45234.375</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
         <v>53</v>
@@ -9867,7 +9867,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
         <v>44</v>
@@ -10051,7 +10051,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F104" t="s">
         <v>31</v>
@@ -10235,7 +10235,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F106" t="s">
         <v>55</v>
@@ -10514,7 +10514,7 @@
         <v>53</v>
       </c>
       <c r="F109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G109">
         <v>5</v>
@@ -10695,7 +10695,7 @@
         <v>45275.35416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F111" t="s">
         <v>44</v>
@@ -10790,7 +10790,7 @@
         <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10971,7 +10971,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E114" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
         <v>36</v>
@@ -11250,7 +11250,7 @@
         <v>35</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7032372</v>
+        <v>7032499</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11339,16 +11339,16 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -11357,64 +11357,64 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L118">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="M118">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="N118">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="P118">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q118">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="R118">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U118">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11422,7 +11422,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7039936</v>
+        <v>7032375</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11431,82 +11431,82 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M119">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N119">
-        <v>1.869</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="R119">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
         <v>1.95</v>
       </c>
-      <c r="T119">
-        <v>1.85</v>
-      </c>
       <c r="U119">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC119">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD119">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11514,7 +11514,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7032374</v>
+        <v>7032372</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11523,79 +11523,79 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>5</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>58</v>
+      </c>
+      <c r="L120">
+        <v>2.625</v>
+      </c>
+      <c r="M120">
+        <v>4.1</v>
+      </c>
+      <c r="N120">
+        <v>2.05</v>
+      </c>
+      <c r="O120">
         <v>3</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120" t="s">
-        <v>59</v>
-      </c>
-      <c r="L120">
-        <v>3.6</v>
-      </c>
-      <c r="M120">
+      <c r="P120">
         <v>4.5</v>
       </c>
-      <c r="N120">
-        <v>1.615</v>
-      </c>
-      <c r="O120">
-        <v>2.05</v>
-      </c>
-      <c r="P120">
+      <c r="Q120">
+        <v>1.8</v>
+      </c>
+      <c r="R120">
+        <v>0.5</v>
+      </c>
+      <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
+        <v>1.85</v>
+      </c>
+      <c r="U120">
         <v>4</v>
       </c>
-      <c r="Q120">
-        <v>2.625</v>
-      </c>
-      <c r="R120">
-        <v>-0.25</v>
-      </c>
-      <c r="S120">
-        <v>1.925</v>
-      </c>
-      <c r="T120">
-        <v>1.875</v>
-      </c>
-      <c r="U120">
-        <v>3.25</v>
-      </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X120">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD120">
         <v>-1</v>
@@ -11606,7 +11606,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7032500</v>
+        <v>7032374</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11615,82 +11615,82 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L121">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N121">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="O121">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="P121">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q121">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="R121">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="S121">
+        <v>1.925</v>
+      </c>
+      <c r="T121">
         <v>1.875</v>
       </c>
-      <c r="T121">
-        <v>1.925</v>
-      </c>
       <c r="U121">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="V121">
+        <v>1.825</v>
+      </c>
+      <c r="W121">
         <v>1.975</v>
       </c>
-      <c r="W121">
-        <v>1.825</v>
-      </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11698,7 +11698,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7032375</v>
+        <v>7039936</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11707,82 +11707,82 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K122" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L122">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M122">
+        <v>4.1</v>
+      </c>
+      <c r="N122">
+        <v>1.869</v>
+      </c>
+      <c r="O122">
+        <v>2.15</v>
+      </c>
+      <c r="P122">
         <v>4</v>
       </c>
-      <c r="N122">
-        <v>1.909</v>
-      </c>
-      <c r="O122">
-        <v>1.533</v>
-      </c>
-      <c r="P122">
-        <v>4.75</v>
-      </c>
       <c r="Q122">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="R122">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
         <v>1.85</v>
       </c>
-      <c r="T122">
+      <c r="U122">
+        <v>3.75</v>
+      </c>
+      <c r="V122">
+        <v>1.85</v>
+      </c>
+      <c r="W122">
         <v>1.95</v>
       </c>
-      <c r="U122">
-        <v>4.25</v>
-      </c>
-      <c r="V122">
-        <v>1.825</v>
-      </c>
-      <c r="W122">
-        <v>1.975</v>
-      </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z122">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD122">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11790,7 +11790,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7032499</v>
+        <v>7032500</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11799,82 +11799,82 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L123">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="M123">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N123">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O123">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q123">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="R123">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="S123">
+        <v>1.875</v>
+      </c>
+      <c r="T123">
+        <v>1.925</v>
+      </c>
+      <c r="U123">
+        <v>4</v>
+      </c>
+      <c r="V123">
         <v>1.975</v>
       </c>
-      <c r="T123">
+      <c r="W123">
         <v>1.825</v>
       </c>
-      <c r="U123">
-        <v>3.75</v>
-      </c>
-      <c r="V123">
-        <v>1.825</v>
-      </c>
-      <c r="W123">
-        <v>1.975</v>
-      </c>
       <c r="X123">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
+        <v>0.925</v>
+      </c>
+      <c r="AC123">
+        <v>-1</v>
+      </c>
+      <c r="AD123">
         <v>0.825</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
-      </c>
-      <c r="AD123">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11986,7 +11986,7 @@
         <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G125">
         <v>4</v>
@@ -12066,7 +12066,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7032378</v>
+        <v>7032502</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12075,79 +12075,79 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
         <v>3</v>
       </c>
-      <c r="H126">
-        <v>2</v>
-      </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L126">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O126">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q126">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="R126">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U126">
         <v>3.75</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X126">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.75</v>
+        <v>0.4625</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD126">
         <v>-1</v>
@@ -12158,7 +12158,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7032501</v>
+        <v>7032378</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12167,79 +12167,79 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G127">
         <v>3</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L127">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M127">
         <v>4</v>
       </c>
       <c r="N127">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O127">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="P127">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q127">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="R127">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T127">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U127">
         <v>3.75</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AD127">
         <v>-1</v>
@@ -12250,7 +12250,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7032379</v>
+        <v>7032501</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12259,46 +12259,46 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L128">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="M128">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N128">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="O128">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="P128">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q128">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="R128">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="S128">
         <v>1.9</v>
@@ -12307,22 +12307,22 @@
         <v>1.9</v>
       </c>
       <c r="U128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V128">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X128">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
@@ -12331,10 +12331,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12342,7 +12342,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7032380</v>
+        <v>7032379</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12351,82 +12351,82 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129" t="s">
+        <v>59</v>
+      </c>
+      <c r="L129">
+        <v>1.222</v>
+      </c>
+      <c r="M129">
+        <v>6.5</v>
+      </c>
+      <c r="N129">
+        <v>7</v>
+      </c>
+      <c r="O129">
+        <v>1.3</v>
+      </c>
+      <c r="P129">
+        <v>6.5</v>
+      </c>
+      <c r="Q129">
         <v>5</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
+      <c r="R129">
+        <v>-1.75</v>
+      </c>
+      <c r="S129">
+        <v>1.9</v>
+      </c>
+      <c r="T129">
+        <v>1.9</v>
+      </c>
+      <c r="U129">
         <v>4</v>
       </c>
-      <c r="K129" t="s">
-        <v>58</v>
-      </c>
-      <c r="L129">
-        <v>2.2</v>
-      </c>
-      <c r="M129">
-        <v>4.2</v>
-      </c>
-      <c r="N129">
-        <v>2.375</v>
-      </c>
-      <c r="O129">
-        <v>2</v>
-      </c>
-      <c r="P129">
-        <v>4</v>
-      </c>
-      <c r="Q129">
-        <v>2.75</v>
-      </c>
-      <c r="R129">
-        <v>-0.25</v>
-      </c>
-      <c r="S129">
-        <v>1.8</v>
-      </c>
-      <c r="T129">
-        <v>2</v>
-      </c>
-      <c r="U129">
-        <v>3.75</v>
-      </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12434,7 +12434,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7032502</v>
+        <v>7032380</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12443,61 +12443,61 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K130" t="s">
         <v>58</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="M130">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P130">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="R130">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U130">
         <v>3.75</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12506,16 +12506,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="AA130">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC130">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD130">
         <v>-1</v>
@@ -12538,7 +12538,7 @@
         <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -13179,7 +13179,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F138" t="s">
         <v>52</v>
@@ -13639,10 +13639,10 @@
         <v>45318.5</v>
       </c>
       <c r="E143" t="s">
+        <v>45</v>
+      </c>
+      <c r="F143" t="s">
         <v>49</v>
-      </c>
-      <c r="F143" t="s">
-        <v>48</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -13734,7 +13734,7 @@
         <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -13906,7 +13906,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7032392</v>
+        <v>7039947</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13915,61 +13915,61 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K146" t="s">
         <v>58</v>
       </c>
       <c r="L146">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M146">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N146">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O146">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q146">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="R146">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S146">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U146">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13978,19 +13978,19 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD146">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -13998,7 +13998,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7032393</v>
+        <v>7032394</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -14007,16 +14007,16 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -14025,37 +14025,37 @@
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L147">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N147">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O147">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="P147">
         <v>4</v>
       </c>
       <c r="Q147">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="R147">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S147">
+        <v>1.975</v>
+      </c>
+      <c r="T147">
         <v>1.825</v>
       </c>
-      <c r="T147">
-        <v>1.975</v>
-      </c>
       <c r="U147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V147">
         <v>1.9</v>
@@ -14067,16 +14067,16 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -14090,7 +14090,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7032394</v>
+        <v>7032393</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14099,16 +14099,16 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -14117,37 +14117,37 @@
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L148">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M148">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N148">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O148">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="P148">
         <v>4</v>
       </c>
       <c r="Q148">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="R148">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
         <v>1.975</v>
       </c>
-      <c r="T148">
-        <v>1.825</v>
-      </c>
       <c r="U148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V148">
         <v>1.9</v>
@@ -14159,16 +14159,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z148">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -14182,7 +14182,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7039947</v>
+        <v>7032392</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14191,61 +14191,61 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K149" t="s">
         <v>58</v>
       </c>
       <c r="L149">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M149">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N149">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O149">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q149">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R149">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U149">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -14254,19 +14254,19 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD149">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14559,7 +14559,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F153" t="s">
         <v>55</v>
@@ -14654,7 +14654,7 @@
         <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -15019,10 +15019,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -15114,7 +15114,7 @@
         <v>30</v>
       </c>
       <c r="F159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -15206,7 +15206,7 @@
         <v>34</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -15930,7 +15930,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032414</v>
+        <v>7032412</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15939,13 +15939,13 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15954,67 +15954,67 @@
         <v>1</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="M168">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168">
+        <v>2.3</v>
+      </c>
+      <c r="P168">
+        <v>4.2</v>
+      </c>
+      <c r="Q168">
+        <v>2.25</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>1.95</v>
+      </c>
+      <c r="T168">
         <v>1.85</v>
       </c>
-      <c r="O168">
-        <v>2.45</v>
-      </c>
-      <c r="P168">
+      <c r="U168">
         <v>4</v>
       </c>
-      <c r="Q168">
-        <v>2.2</v>
-      </c>
-      <c r="R168">
-        <v>0</v>
-      </c>
-      <c r="S168">
-        <v>2</v>
-      </c>
-      <c r="T168">
-        <v>1.8</v>
-      </c>
-      <c r="U168">
-        <v>3.5</v>
-      </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y168">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
         <v>-1</v>
       </c>
       <c r="AD168">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16114,7 +16114,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7032412</v>
+        <v>7032414</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16123,13 +16123,13 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -16138,67 +16138,67 @@
         <v>1</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L170">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="N170">
+        <v>1.85</v>
+      </c>
+      <c r="O170">
+        <v>2.45</v>
+      </c>
+      <c r="P170">
         <v>4</v>
       </c>
-      <c r="O170">
-        <v>2.3</v>
-      </c>
-      <c r="P170">
-        <v>4.2</v>
-      </c>
       <c r="Q170">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R170">
         <v>0</v>
       </c>
       <c r="S170">
+        <v>2</v>
+      </c>
+      <c r="T170">
+        <v>1.8</v>
+      </c>
+      <c r="U170">
+        <v>3.5</v>
+      </c>
+      <c r="V170">
+        <v>1.85</v>
+      </c>
+      <c r="W170">
         <v>1.95</v>
       </c>
-      <c r="T170">
-        <v>1.85</v>
-      </c>
-      <c r="U170">
-        <v>4</v>
-      </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
-      <c r="W170">
-        <v>1.9</v>
-      </c>
       <c r="X170">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+      <c r="AC170">
+        <v>-1</v>
+      </c>
+      <c r="AD170">
         <v>0.95</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
-      </c>
-      <c r="AD170">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16215,7 +16215,7 @@
         <v>45345.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F171" t="s">
         <v>32</v>
@@ -16482,7 +16482,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7039905</v>
+        <v>7032422</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16491,61 +16491,61 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F174" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G174">
         <v>2</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K174" t="s">
         <v>58</v>
       </c>
       <c r="L174">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="M174">
+        <v>5.5</v>
+      </c>
+      <c r="N174">
+        <v>5.5</v>
+      </c>
+      <c r="O174">
+        <v>1.833</v>
+      </c>
+      <c r="P174">
         <v>4.5</v>
       </c>
-      <c r="N174">
-        <v>4.5</v>
-      </c>
-      <c r="O174">
-        <v>2</v>
-      </c>
-      <c r="P174">
-        <v>4</v>
-      </c>
       <c r="Q174">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="R174">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S174">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U174">
         <v>3.75</v>
       </c>
       <c r="V174">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16554,16 +16554,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC174">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AD174">
         <v>-1</v>
@@ -16574,7 +16574,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7032422</v>
+        <v>7039905</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16586,58 +16586,58 @@
         <v>49</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G175">
         <v>2</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K175" t="s">
         <v>58</v>
       </c>
       <c r="L175">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="M175">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N175">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O175">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="P175">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="R175">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T175">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U175">
         <v>3.75</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16646,16 +16646,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC175">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AD175">
         <v>-1</v>
@@ -16859,7 +16859,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F178" t="s">
         <v>51</v>
@@ -17230,7 +17230,7 @@
         <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -17402,7 +17402,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7032426</v>
+        <v>7032425</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17411,16 +17411,16 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -17429,64 +17429,64 @@
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L184">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="M184">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N184">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O184">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="P184">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q184">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="R184">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U184">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AD184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17494,7 +17494,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7032425</v>
+        <v>7032426</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17503,16 +17503,16 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -17521,64 +17521,64 @@
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L185">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="M185">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N185">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O185">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="P185">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q185">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="R185">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S185">
+        <v>1.95</v>
+      </c>
+      <c r="T185">
+        <v>1.85</v>
+      </c>
+      <c r="U185">
+        <v>3.5</v>
+      </c>
+      <c r="V185">
         <v>1.825</v>
       </c>
-      <c r="T185">
+      <c r="W185">
         <v>1.975</v>
       </c>
-      <c r="U185">
-        <v>3.75</v>
-      </c>
-      <c r="V185">
-        <v>1.875</v>
-      </c>
-      <c r="W185">
-        <v>1.925</v>
-      </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z185">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AD185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17779,7 +17779,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F188" t="s">
         <v>39</v>
@@ -17874,7 +17874,7 @@
         <v>54</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -17966,7 +17966,7 @@
         <v>43</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -18147,10 +18147,10 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F192" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G192">
         <v>3</v>
@@ -18230,7 +18230,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7032429</v>
+        <v>7032433</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18239,46 +18239,46 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K193" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L193">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
         <v>4.333</v>
       </c>
       <c r="N193">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O193">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="P193">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q193">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="R193">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S193">
         <v>1.95</v>
@@ -18287,31 +18287,31 @@
         <v>1.85</v>
       </c>
       <c r="U193">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W193">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X193">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="AA193">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC193">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD193">
         <v>-1</v>
@@ -18322,7 +18322,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7032433</v>
+        <v>7032429</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18331,46 +18331,46 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H194">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L194">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="M194">
         <v>4.333</v>
       </c>
       <c r="N194">
+        <v>3.2</v>
+      </c>
+      <c r="O194">
         <v>1.727</v>
       </c>
-      <c r="O194">
-        <v>5</v>
-      </c>
       <c r="P194">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q194">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="R194">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S194">
         <v>1.95</v>
@@ -18379,31 +18379,31 @@
         <v>1.85</v>
       </c>
       <c r="U194">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB194">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC194">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD194">
         <v>-1</v>
@@ -18690,7 +18690,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7905004</v>
+        <v>7032509</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18699,70 +18699,70 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>2</v>
       </c>
       <c r="K198" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L198">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="M198">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O198">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="P198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q198">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="R198">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S198">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
         <v>1.95</v>
       </c>
       <c r="U198">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA198">
         <v>-1</v>
@@ -18771,10 +18771,10 @@
         <v>0.95</v>
       </c>
       <c r="AC198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD198">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18782,7 +18782,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7032509</v>
+        <v>7905004</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18791,70 +18791,70 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199">
         <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199">
         <v>2</v>
       </c>
       <c r="K199" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L199">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="M199">
+        <v>4.5</v>
+      </c>
+      <c r="N199">
+        <v>2.5</v>
+      </c>
+      <c r="O199">
+        <v>1.5</v>
+      </c>
+      <c r="P199">
+        <v>5</v>
+      </c>
+      <c r="Q199">
         <v>4</v>
       </c>
-      <c r="N199">
-        <v>2.15</v>
-      </c>
-      <c r="O199">
-        <v>2.55</v>
-      </c>
-      <c r="P199">
-        <v>4</v>
-      </c>
-      <c r="Q199">
-        <v>2.15</v>
-      </c>
       <c r="R199">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T199">
         <v>1.95</v>
       </c>
       <c r="U199">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z199">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
         <v>-1</v>
@@ -18863,10 +18863,10 @@
         <v>0.95</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD199">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -18975,7 +18975,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F201" t="s">
         <v>37</v>
@@ -19058,7 +19058,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7032438</v>
+        <v>7032437</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19067,82 +19067,82 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G202">
         <v>2</v>
       </c>
       <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="K202" t="s">
+        <v>60</v>
+      </c>
+      <c r="L202">
+        <v>1.909</v>
+      </c>
+      <c r="M202">
+        <v>3.6</v>
+      </c>
+      <c r="N202">
+        <v>3.2</v>
+      </c>
+      <c r="O202">
+        <v>1.6</v>
+      </c>
+      <c r="P202">
+        <v>4</v>
+      </c>
+      <c r="Q202">
+        <v>4</v>
+      </c>
+      <c r="R202">
+        <v>-0.75</v>
+      </c>
+      <c r="S202">
+        <v>1.75</v>
+      </c>
+      <c r="T202">
+        <v>1.95</v>
+      </c>
+      <c r="U202">
+        <v>3.75</v>
+      </c>
+      <c r="V202">
+        <v>1.975</v>
+      </c>
+      <c r="W202">
+        <v>1.825</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
         <v>3</v>
       </c>
-      <c r="I202">
-        <v>1</v>
-      </c>
-      <c r="J202">
-        <v>2</v>
-      </c>
-      <c r="K202" t="s">
-        <v>58</v>
-      </c>
-      <c r="L202">
-        <v>1.444</v>
-      </c>
-      <c r="M202">
-        <v>4.5</v>
-      </c>
-      <c r="N202">
-        <v>5</v>
-      </c>
-      <c r="O202">
-        <v>1.4</v>
-      </c>
-      <c r="P202">
-        <v>4.75</v>
-      </c>
-      <c r="Q202">
-        <v>5.25</v>
-      </c>
-      <c r="R202">
-        <v>-1.25</v>
-      </c>
-      <c r="S202">
-        <v>1.825</v>
-      </c>
-      <c r="T202">
-        <v>1.975</v>
-      </c>
-      <c r="U202">
-        <v>3.5</v>
-      </c>
-      <c r="V202">
-        <v>1.925</v>
-      </c>
-      <c r="W202">
-        <v>1.875</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>-1</v>
-      </c>
       <c r="Z202">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC202">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AD202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19150,7 +19150,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7032437</v>
+        <v>7032438</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -19159,16 +19159,16 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G203">
         <v>2</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -19177,64 +19177,64 @@
         <v>2</v>
       </c>
       <c r="K203" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L203">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="M203">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N203">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O203">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q203">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="R203">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S203">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U203">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V203">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W203">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC203">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AD203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -19346,7 +19346,7 @@
         <v>54</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -19619,7 +19619,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F208" t="s">
         <v>50</v>
@@ -19806,7 +19806,7 @@
         <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -19898,7 +19898,7 @@
         <v>52</v>
       </c>
       <c r="F211" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -19987,7 +19987,7 @@
         <v>45373.66666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F212" t="s">
         <v>36</v>
@@ -20355,10 +20355,10 @@
         <v>45387.625</v>
       </c>
       <c r="E216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -20723,10 +20723,10 @@
         <v>45390.33333333334</v>
       </c>
       <c r="E220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -20898,7 +20898,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7032454</v>
+        <v>7032512</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
@@ -20907,19 +20907,19 @@
         <v>45390.625</v>
       </c>
       <c r="E222" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G222">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222">
         <v>1</v>
@@ -20928,40 +20928,40 @@
         <v>58</v>
       </c>
       <c r="L222">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M222">
         <v>3.9</v>
       </c>
       <c r="N222">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O222">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="P222">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q222">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="R222">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U222">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20970,19 +20970,19 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>1.15</v>
+        <v>2.75</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD222">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:30">
@@ -21082,7 +21082,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7032512</v>
+        <v>7032454</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21091,19 +21091,19 @@
         <v>45390.625</v>
       </c>
       <c r="E224" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G224">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224">
         <v>1</v>
@@ -21112,40 +21112,40 @@
         <v>58</v>
       </c>
       <c r="L224">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M224">
         <v>3.9</v>
       </c>
       <c r="N224">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O224">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="P224">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q224">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="R224">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S224">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W224">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -21154,19 +21154,19 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>2.75</v>
+        <v>1.15</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD224">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21174,7 +21174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7032453</v>
+        <v>7032452</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -21183,19 +21183,19 @@
         <v>45390.625</v>
       </c>
       <c r="E225" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F225" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -21204,61 +21204,61 @@
         <v>60</v>
       </c>
       <c r="L225">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="M225">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N225">
-        <v>3.9</v>
+        <v>2.35</v>
       </c>
       <c r="O225">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="P225">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q225">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R225">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T225">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U225">
+        <v>4.25</v>
+      </c>
+      <c r="V225">
+        <v>1.925</v>
+      </c>
+      <c r="W225">
+        <v>1.875</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
         <v>3.5</v>
       </c>
-      <c r="V225">
-        <v>1.95</v>
-      </c>
-      <c r="W225">
-        <v>1.85</v>
-      </c>
-      <c r="X225">
-        <v>-1</v>
-      </c>
-      <c r="Y225">
-        <v>3</v>
-      </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB225">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC225">
         <v>-1</v>
       </c>
       <c r="AD225">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -21266,7 +21266,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7032452</v>
+        <v>7032453</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21275,19 +21275,19 @@
         <v>45390.625</v>
       </c>
       <c r="E226" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -21296,61 +21296,61 @@
         <v>60</v>
       </c>
       <c r="L226">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="M226">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N226">
-        <v>2.35</v>
+        <v>3.9</v>
       </c>
       <c r="O226">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="P226">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R226">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S226">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U226">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="V226">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC226">
         <v>-1</v>
       </c>
       <c r="AD226">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21459,7 +21459,7 @@
         <v>45394.625</v>
       </c>
       <c r="E228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F228" t="s">
         <v>43</v>
@@ -21551,7 +21551,7 @@
         <v>45394.625</v>
       </c>
       <c r="E229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F229" t="s">
         <v>41</v>
@@ -21827,7 +21827,7 @@
         <v>45394.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F232" t="s">
         <v>42</v>
@@ -21922,7 +21922,7 @@
         <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -22290,7 +22290,7 @@
         <v>40</v>
       </c>
       <c r="F237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -22750,7 +22750,7 @@
         <v>50</v>
       </c>
       <c r="F242" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -22922,7 +22922,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7970841</v>
+        <v>7569964</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -22931,46 +22931,46 @@
         <v>45404.625</v>
       </c>
       <c r="E244" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F244" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G244">
         <v>2</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M244">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N244">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O244">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P244">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q244">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="R244">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S244">
         <v>2</v>
@@ -22979,19 +22979,19 @@
         <v>1.8</v>
       </c>
       <c r="U244">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V244">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W244">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y244">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
@@ -23003,10 +23003,10 @@
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD244">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23014,7 +23014,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7569964</v>
+        <v>7970841</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23023,46 +23023,46 @@
         <v>45404.625</v>
       </c>
       <c r="E245" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G245">
         <v>2</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K245" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L245">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M245">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N245">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P245">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="R245">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S245">
         <v>2</v>
@@ -23071,19 +23071,19 @@
         <v>1.8</v>
       </c>
       <c r="U245">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W245">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X245">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z245">
         <v>-1</v>
@@ -23095,10 +23095,10 @@
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD245">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -23210,7 +23210,7 @@
         <v>32</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -23299,7 +23299,7 @@
         <v>45408.625</v>
       </c>
       <c r="E248" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F248" t="s">
         <v>37</v>
@@ -23486,7 +23486,7 @@
         <v>30</v>
       </c>
       <c r="F250" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -23670,7 +23670,7 @@
         <v>41</v>
       </c>
       <c r="F252" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -23759,7 +23759,7 @@
         <v>45408.64583333334</v>
       </c>
       <c r="E253" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F253" t="s">
         <v>50</v>
@@ -24035,10 +24035,10 @@
         <v>45411.33333333334</v>
       </c>
       <c r="E256" t="s">
+        <v>46</v>
+      </c>
+      <c r="F256" t="s">
         <v>45</v>
-      </c>
-      <c r="F256" t="s">
-        <v>49</v>
       </c>
       <c r="G256">
         <v>3</v>
@@ -24578,7 +24578,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>8166208</v>
+        <v>8166213</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24587,19 +24587,19 @@
         <v>45415.625</v>
       </c>
       <c r="E262" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F262" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G262">
+        <v>6</v>
+      </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262">
         <v>4</v>
-      </c>
-      <c r="H262">
-        <v>1</v>
-      </c>
-      <c r="I262">
-        <v>1</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -24608,31 +24608,31 @@
         <v>59</v>
       </c>
       <c r="L262">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="M262">
         <v>5</v>
       </c>
       <c r="N262">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O262">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="P262">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q262">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="R262">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S262">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T262">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U262">
         <v>4.25</v>
@@ -24641,10 +24641,10 @@
         <v>1.925</v>
       </c>
       <c r="W262">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X262">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y262">
         <v>-1</v>
@@ -24653,7 +24653,7 @@
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB262">
         <v>-1</v>
@@ -24762,7 +24762,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>8166213</v>
+        <v>8166208</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -24771,19 +24771,19 @@
         <v>45415.625</v>
       </c>
       <c r="E264" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F264" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G264">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J264">
         <v>0</v>
@@ -24792,31 +24792,31 @@
         <v>59</v>
       </c>
       <c r="L264">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="M264">
         <v>5</v>
       </c>
       <c r="N264">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O264">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="P264">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q264">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="R264">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S264">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T264">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U264">
         <v>4.25</v>
@@ -24825,10 +24825,10 @@
         <v>1.925</v>
       </c>
       <c r="W264">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X264">
-        <v>0.6499999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y264">
         <v>-1</v>
@@ -24837,7 +24837,7 @@
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB264">
         <v>-1</v>
@@ -24866,7 +24866,7 @@
         <v>51</v>
       </c>
       <c r="F265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -25231,7 +25231,7 @@
         <v>45418.625</v>
       </c>
       <c r="E269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F269" t="s">
         <v>41</v>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -109,13 +109,13 @@
     <t>Aston Villa U21</t>
   </si>
   <si>
-    <t>Chelsea U21</t>
+    <t>Arsenal U21</t>
   </si>
   <si>
     <t>Wolverhampton U21</t>
   </si>
   <si>
-    <t>Arsenal U21</t>
+    <t>Chelsea U21</t>
   </si>
   <si>
     <t>Brighton U21</t>
@@ -133,19 +133,25 @@
     <t>Nottm Forest U21</t>
   </si>
   <si>
-    <t>Stoke U21</t>
+    <t>Liverpool U21</t>
   </si>
   <si>
     <t>Sunderland U21</t>
   </si>
   <si>
-    <t>Liverpool U21</t>
+    <t>Stoke U21</t>
   </si>
   <si>
     <t>Leicester U21</t>
   </si>
   <si>
     <t>Fulham U21</t>
+  </si>
+  <si>
+    <t>Derby U21</t>
+  </si>
+  <si>
+    <t>Man Utd U21</t>
   </si>
   <si>
     <t>West Ham U21</t>
@@ -158,12 +164,6 @@
   </si>
   <si>
     <t>Middlesbrough U21</t>
-  </si>
-  <si>
-    <t>Man Utd U21</t>
-  </si>
-  <si>
-    <t>Derby U21</t>
   </si>
   <si>
     <t>Tottenham U21</t>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7032481</v>
+        <v>7032276</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -762,16 +762,16 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -780,43 +780,43 @@
         <v>59</v>
       </c>
       <c r="L3">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="M3">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O3">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R3">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S3">
+        <v>1.925</v>
+      </c>
+      <c r="T3">
+        <v>1.875</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
         <v>1.85</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>1.95</v>
       </c>
-      <c r="U3">
-        <v>3.75</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
-      <c r="W3">
-        <v>1.85</v>
-      </c>
       <c r="X3">
-        <v>0.6659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Y3">
         <v>-1</v>
@@ -825,16 +825,16 @@
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7032276</v>
+        <v>7032481</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -946,16 +946,16 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -964,43 +964,43 @@
         <v>59</v>
       </c>
       <c r="L5">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>4.2</v>
+      </c>
+      <c r="O5">
+        <v>1.666</v>
+      </c>
+      <c r="P5">
+        <v>4.75</v>
+      </c>
+      <c r="Q5">
+        <v>3.4</v>
+      </c>
+      <c r="R5">
+        <v>-0.75</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>1.95</v>
+      </c>
+      <c r="U5">
         <v>3.75</v>
       </c>
-      <c r="N5">
-        <v>2.6</v>
-      </c>
-      <c r="O5">
-        <v>1.833</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>3.2</v>
-      </c>
-      <c r="R5">
-        <v>-0.5</v>
-      </c>
-      <c r="S5">
-        <v>1.925</v>
-      </c>
-      <c r="T5">
-        <v>1.875</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
       <c r="V5">
+        <v>1.95</v>
+      </c>
+      <c r="W5">
         <v>1.85</v>
       </c>
-      <c r="W5">
-        <v>1.95</v>
-      </c>
       <c r="X5">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -1009,16 +1009,16 @@
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1222,7 +1222,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1314,7 +1314,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1406,7 +1406,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1486,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7062953</v>
+        <v>7032283</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1498,79 +1498,79 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M11">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="O11">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="P11">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="R11">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S11">
+        <v>1.775</v>
+      </c>
+      <c r="T11">
         <v>1.925</v>
       </c>
-      <c r="T11">
-        <v>1.875</v>
-      </c>
       <c r="U11">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V11">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1590,7 +1590,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1670,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7032283</v>
+        <v>7062953</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1682,79 +1682,79 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="O13">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q13">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="R13">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>1.875</v>
+      </c>
+      <c r="U13">
+        <v>3.25</v>
+      </c>
+      <c r="V13">
         <v>1.775</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>1.925</v>
       </c>
-      <c r="U13">
-        <v>3.5</v>
-      </c>
-      <c r="V13">
-        <v>1.975</v>
-      </c>
-      <c r="W13">
-        <v>1.825</v>
-      </c>
       <c r="X13">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1774,7 +1774,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1863,7 +1863,7 @@
         <v>45156.625</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -2038,7 +2038,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7032285</v>
+        <v>7032287</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2047,82 +2047,82 @@
         <v>45156.625</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="M17">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N17">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O17">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q17">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U17">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V17">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X17">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2130,7 +2130,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7032294</v>
+        <v>7032285</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2139,64 +2139,64 @@
         <v>45156.625</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
         <v>59</v>
       </c>
       <c r="L18">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="M18">
         <v>4.333</v>
       </c>
       <c r="N18">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O18">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="R18">
         <v>-1</v>
       </c>
       <c r="S18">
+        <v>1.75</v>
+      </c>
+      <c r="T18">
         <v>1.95</v>
       </c>
-      <c r="T18">
-        <v>1.85</v>
-      </c>
       <c r="U18">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X18">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
@@ -2205,16 +2205,16 @@
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2222,7 +2222,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032293</v>
+        <v>7032289</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2234,79 +2234,79 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M19">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N19">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O19">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S19">
+        <v>1.825</v>
+      </c>
+      <c r="T19">
+        <v>1.975</v>
+      </c>
+      <c r="U19">
+        <v>3.5</v>
+      </c>
+      <c r="V19">
         <v>1.9</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>1.9</v>
       </c>
-      <c r="U19">
-        <v>3.75</v>
-      </c>
-      <c r="V19">
-        <v>1.925</v>
-      </c>
-      <c r="W19">
-        <v>1.875</v>
-      </c>
       <c r="X19">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC19">
+        <v>-1</v>
+      </c>
+      <c r="AD19">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.925</v>
-      </c>
-      <c r="AD19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2314,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032291</v>
+        <v>7032294</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2326,79 +2326,79 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L20">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M20">
+        <v>4.333</v>
+      </c>
+      <c r="N20">
+        <v>3.3</v>
+      </c>
+      <c r="O20">
+        <v>1.55</v>
+      </c>
+      <c r="P20">
+        <v>4.5</v>
+      </c>
+      <c r="Q20">
         <v>4</v>
       </c>
-      <c r="N20">
-        <v>2.4</v>
-      </c>
-      <c r="O20">
-        <v>3.25</v>
-      </c>
-      <c r="P20">
-        <v>4.2</v>
-      </c>
-      <c r="Q20">
-        <v>1.75</v>
-      </c>
       <c r="R20">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U20">
         <v>3.5</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y20">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032290</v>
+        <v>7032293</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2418,76 +2418,76 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="M21">
         <v>4.2</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O21">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q21">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V21">
+        <v>1.925</v>
+      </c>
+      <c r="W21">
         <v>1.875</v>
       </c>
-      <c r="W21">
-        <v>1.925</v>
-      </c>
       <c r="X21">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y21">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD21">
         <v>-1</v>
@@ -2498,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7032289</v>
+        <v>7032291</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2510,10 +2510,10 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2522,67 +2522,67 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L22">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O22">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="R22">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T22">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U22">
         <v>3.5</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2590,7 +2590,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7032287</v>
+        <v>7032290</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2602,16 +2602,16 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2620,61 +2620,61 @@
         <v>60</v>
       </c>
       <c r="L23">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="M23">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N23">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="P23">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="S23">
+        <v>1.75</v>
+      </c>
+      <c r="T23">
+        <v>1.95</v>
+      </c>
+      <c r="U23">
+        <v>3.5</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>1.925</v>
       </c>
-      <c r="U23">
-        <v>3.75</v>
-      </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
-      <c r="W23">
-        <v>1.875</v>
-      </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
+        <v>0.375</v>
+      </c>
+      <c r="AB23">
+        <v>-0.5</v>
+      </c>
+      <c r="AC23">
         <v>0.875</v>
       </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
-      </c>
       <c r="AD23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2967,7 +2967,7 @@
         <v>45159.625</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
         <v>32</v>
@@ -3050,7 +3050,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7032303</v>
+        <v>7039925</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3059,46 +3059,46 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
         <v>60</v>
       </c>
       <c r="L28">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="M28">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N28">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R28">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S28">
         <v>1.925</v>
@@ -3110,10 +3110,10 @@
         <v>3.5</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3131,10 +3131,10 @@
         <v>0.875</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3142,7 +3142,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7032300</v>
+        <v>7032303</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3151,82 +3151,82 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L29">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N29">
-        <v>2.35</v>
+        <v>4.5</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="P29">
         <v>4</v>
       </c>
       <c r="Q29">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="R29">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U29">
         <v>3.5</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z29">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3234,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7039925</v>
+        <v>7032300</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3243,82 +3243,82 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L30">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M30">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="O30">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
         <v>4</v>
       </c>
       <c r="Q30">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="R30">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U30">
         <v>3.5</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC30">
         <v>-1</v>
       </c>
       <c r="AD30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3338,7 +3338,7 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3418,7 +3418,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7032299</v>
+        <v>7032484</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3427,82 +3427,82 @@
         <v>45163.625</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L32">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
         <v>4.5</v>
       </c>
       <c r="N32">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O32">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q32">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X32">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
       </c>
       <c r="AD32">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3510,7 +3510,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7032484</v>
+        <v>7032486</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3519,82 +3519,82 @@
         <v>45163.625</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
         <v>4.5</v>
       </c>
       <c r="N33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O33">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U33">
         <v>3.75</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3602,7 +3602,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7032486</v>
+        <v>7032299</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3611,55 +3611,55 @@
         <v>45163.625</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>59</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="M34">
         <v>4.5</v>
       </c>
       <c r="N34">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O34">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R34">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U34">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V34">
         <v>1.925</v>
@@ -3668,7 +3668,7 @@
         <v>1.875</v>
       </c>
       <c r="X34">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3677,16 +3677,16 @@
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3694,7 +3694,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7032297</v>
+        <v>7032485</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3703,79 +3703,79 @@
         <v>45163.625</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L35">
         <v>2.3</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
         <v>2.2</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
+        <v>1.9</v>
+      </c>
+      <c r="T35">
+        <v>1.9</v>
+      </c>
+      <c r="U35">
+        <v>3.25</v>
+      </c>
+      <c r="V35">
         <v>1.825</v>
       </c>
-      <c r="T35">
+      <c r="W35">
         <v>1.975</v>
       </c>
-      <c r="U35">
-        <v>3.5</v>
-      </c>
-      <c r="V35">
-        <v>1.9</v>
-      </c>
-      <c r="W35">
-        <v>1.9</v>
-      </c>
       <c r="X35">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD35">
         <v>-1</v>
@@ -3786,7 +3786,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7032485</v>
+        <v>7032297</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3795,79 +3795,79 @@
         <v>45163.625</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L36">
         <v>2.3</v>
       </c>
       <c r="M36">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O36">
         <v>2.2</v>
       </c>
       <c r="P36">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36">
+        <v>1.825</v>
+      </c>
+      <c r="T36">
+        <v>1.975</v>
+      </c>
+      <c r="U36">
+        <v>3.5</v>
+      </c>
+      <c r="V36">
         <v>1.9</v>
       </c>
-      <c r="T36">
+      <c r="W36">
         <v>1.9</v>
       </c>
-      <c r="U36">
-        <v>3.25</v>
-      </c>
-      <c r="V36">
-        <v>1.825</v>
-      </c>
-      <c r="W36">
-        <v>1.975</v>
-      </c>
       <c r="X36">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC36">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>0.825</v>
       </c>
       <c r="AD36">
         <v>-1</v>
@@ -3887,10 +3887,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -4166,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4258,7 +4258,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -4350,7 +4350,7 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4430,7 +4430,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7032487</v>
+        <v>7039926</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4439,19 +4439,19 @@
         <v>45170.625</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4460,43 +4460,43 @@
         <v>59</v>
       </c>
       <c r="L43">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N43">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="P43">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="R43">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X43">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y43">
         <v>-1</v>
@@ -4505,16 +4505,16 @@
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC43">
         <v>-1</v>
       </c>
       <c r="AD43">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4522,7 +4522,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7039926</v>
+        <v>7032487</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4531,19 +4531,19 @@
         <v>45170.625</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -4552,43 +4552,43 @@
         <v>59</v>
       </c>
       <c r="L44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M44">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N44">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O44">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="P44">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q44">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="R44">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X44">
-        <v>0.6499999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4597,16 +4597,16 @@
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
         <v>-1</v>
       </c>
       <c r="AD44">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4715,7 +4715,7 @@
         <v>45170.625</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
         <v>54</v>
@@ -4902,7 +4902,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -5175,7 +5175,7 @@
         <v>45172.33333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
         <v>51</v>
@@ -5258,7 +5258,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7156449</v>
+        <v>7032313</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5267,79 +5267,79 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="M52">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="O52">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="P52">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q52">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="R52">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S52">
+        <v>1.95</v>
+      </c>
+      <c r="T52">
         <v>1.85</v>
       </c>
-      <c r="T52">
-        <v>1.95</v>
-      </c>
       <c r="U52">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB52">
-        <v>-1</v>
-      </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AD52">
         <v>-1</v>
@@ -5350,7 +5350,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7032313</v>
+        <v>7156449</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5359,79 +5359,79 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>4</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
       <c r="K53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L53">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N53">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="O53">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="P53">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q53">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="R53">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S53">
+        <v>1.85</v>
+      </c>
+      <c r="T53">
         <v>1.95</v>
       </c>
-      <c r="T53">
-        <v>1.85</v>
-      </c>
       <c r="U53">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z53">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD53">
         <v>-1</v>
@@ -5451,10 +5451,10 @@
         <v>45191.625</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5546,7 +5546,7 @@
         <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5730,7 +5730,7 @@
         <v>54</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5911,10 +5911,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -6086,7 +6086,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7032320</v>
+        <v>7032321</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -6095,82 +6095,82 @@
         <v>45193.375</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>2</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L61">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="M61">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N61">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O61">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q61">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="R61">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U61">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W61">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6178,7 +6178,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7032321</v>
+        <v>7032320</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -6187,82 +6187,82 @@
         <v>45193.375</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>2</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L62">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O62">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="P62">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q62">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="R62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U62">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V62">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X62">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6282,7 +6282,7 @@
         <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6374,7 +6374,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -6463,7 +6463,7 @@
         <v>45194.625</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
         <v>50</v>
@@ -6647,7 +6647,7 @@
         <v>45198.625</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
         <v>51</v>
@@ -6730,7 +6730,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7039928</v>
+        <v>7032338</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6739,46 +6739,46 @@
         <v>45198.625</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L68">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="M68">
         <v>4.2</v>
       </c>
       <c r="N68">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="O68">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="R68">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S68">
         <v>1.85</v>
@@ -6790,31 +6790,31 @@
         <v>3.75</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X68">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
+        <v>-0.5</v>
+      </c>
+      <c r="AB68">
+        <v>0.475</v>
+      </c>
+      <c r="AC68">
+        <v>-1</v>
+      </c>
+      <c r="AD68">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>0.825</v>
-      </c>
-      <c r="AD68">
-        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6822,7 +6822,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7032337</v>
+        <v>7032325</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6831,61 +6831,61 @@
         <v>45198.625</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" t="s">
         <v>58</v>
       </c>
       <c r="L69">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N69">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="O69">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="P69">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q69">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="R69">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U69">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6894,19 +6894,19 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6914,7 +6914,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7032338</v>
+        <v>7032326</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6923,82 +6923,82 @@
         <v>45198.625</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L70">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="M70">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="P70">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q70">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="R70">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA70">
+        <v>0.4</v>
+      </c>
+      <c r="AB70">
         <v>-0.5</v>
       </c>
-      <c r="AB70">
-        <v>0.475</v>
-      </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -7006,7 +7006,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7032326</v>
+        <v>7032330</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -7015,82 +7015,82 @@
         <v>45198.625</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
         <v>5</v>
       </c>
       <c r="N71">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="P71">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q71">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="R71">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U71">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V71">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z71">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7098,7 +7098,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7032330</v>
+        <v>7032337</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7107,46 +7107,46 @@
         <v>45198.625</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L72">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N72">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="O72">
-        <v>2.875</v>
+        <v>1.2</v>
       </c>
       <c r="P72">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q72">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="S72">
         <v>1.925</v>
@@ -7155,34 +7155,34 @@
         <v>1.875</v>
       </c>
       <c r="U72">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="AA72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD72">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -7190,7 +7190,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7032325</v>
+        <v>7039928</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7199,79 +7199,79 @@
         <v>45198.625</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
         <v>3</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>2.75</v>
+        <v>4.3</v>
       </c>
       <c r="O73">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="P73">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="R73">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U73">
         <v>3.75</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD73">
         <v>-1</v>
@@ -7294,7 +7294,7 @@
         <v>55</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7386,7 +7386,7 @@
         <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7475,7 +7475,7 @@
         <v>45200.375</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
         <v>52</v>
@@ -7570,7 +7570,7 @@
         <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7754,7 +7754,7 @@
         <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7846,7 +7846,7 @@
         <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -8027,10 +8027,10 @@
         <v>45226.625</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -8119,7 +8119,7 @@
         <v>45226.625</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
         <v>42</v>
@@ -8211,7 +8211,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
         <v>35</v>
@@ -8398,7 +8398,7 @@
         <v>53</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8487,7 +8487,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
         <v>34</v>
@@ -8582,7 +8582,7 @@
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8855,7 +8855,7 @@
         <v>45233.375</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s">
         <v>40</v>
@@ -8947,7 +8947,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s">
         <v>50</v>
@@ -9131,7 +9131,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
         <v>35</v>
@@ -9315,7 +9315,7 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
         <v>43</v>
@@ -9591,7 +9591,7 @@
         <v>45234.375</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
         <v>54</v>
@@ -9683,10 +9683,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>55</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9867,10 +9867,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -10143,7 +10143,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F105" t="s">
         <v>38</v>
@@ -10235,7 +10235,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
         <v>55</v>
@@ -10410,7 +10410,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7039979</v>
+        <v>7032364</v>
       </c>
       <c r="C108" t="s">
         <v>29</v>
@@ -10419,16 +10419,16 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F108" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G108">
         <v>5</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -10440,43 +10440,43 @@
         <v>59</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="M108">
         <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="P108">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q108">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="R108">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X108">
-        <v>1.875</v>
+        <v>0.363</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10485,13 +10485,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AD108">
         <v>-1</v>
@@ -10502,7 +10502,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7032365</v>
+        <v>7039979</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
@@ -10511,79 +10511,79 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L109">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
+        <v>4.5</v>
+      </c>
+      <c r="N109">
+        <v>1.615</v>
+      </c>
+      <c r="O109">
+        <v>2.875</v>
+      </c>
+      <c r="P109">
         <v>4.333</v>
       </c>
-      <c r="N109">
-        <v>2.15</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
-      <c r="P109">
-        <v>4.75</v>
-      </c>
       <c r="Q109">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R109">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U109">
         <v>3.5</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD109">
         <v>-1</v>
@@ -10594,7 +10594,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7032364</v>
+        <v>7032365</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
@@ -10603,79 +10603,79 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L110">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M110">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="R110">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S110">
+        <v>1.875</v>
+      </c>
+      <c r="T110">
+        <v>1.925</v>
+      </c>
+      <c r="U110">
+        <v>3.5</v>
+      </c>
+      <c r="V110">
+        <v>1.975</v>
+      </c>
+      <c r="W110">
         <v>1.825</v>
       </c>
-      <c r="T110">
-        <v>1.975</v>
-      </c>
-      <c r="U110">
-        <v>4</v>
-      </c>
-      <c r="V110">
-        <v>1.925</v>
-      </c>
-      <c r="W110">
-        <v>1.775</v>
-      </c>
       <c r="X110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD110">
         <v>-1</v>
@@ -10695,10 +10695,10 @@
         <v>45275.35416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10971,7 +10971,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
         <v>36</v>
@@ -11146,7 +11146,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7032371</v>
+        <v>7032498</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11155,82 +11155,82 @@
         <v>45277.41666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L116">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N116">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O116">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="R116">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U116">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11238,7 +11238,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7032498</v>
+        <v>7032371</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11247,82 +11247,82 @@
         <v>45277.41666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L117">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N117">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q117">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="R117">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S117">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U117">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11342,7 +11342,7 @@
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -11431,7 +11431,7 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
         <v>38</v>
@@ -11526,7 +11526,7 @@
         <v>51</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -11698,7 +11698,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7032499</v>
+        <v>7032372</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11707,16 +11707,16 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11725,64 +11725,64 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L122">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="M122">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="N122">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="O122">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q122">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="R122">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U122">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X122">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11790,7 +11790,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7032372</v>
+        <v>7032499</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11799,16 +11799,16 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11817,64 +11817,64 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L123">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="M123">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="N123">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="P123">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="R123">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11882,7 +11882,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7650774</v>
+        <v>7671764</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11891,46 +11891,46 @@
         <v>45299.66666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L124">
+        <v>2.875</v>
+      </c>
+      <c r="M124">
+        <v>3.9</v>
+      </c>
+      <c r="N124">
+        <v>1.95</v>
+      </c>
+      <c r="O124">
         <v>2.4</v>
       </c>
-      <c r="M124">
-        <v>3.8</v>
-      </c>
-      <c r="N124">
-        <v>2.3</v>
-      </c>
-      <c r="O124">
-        <v>2.15</v>
-      </c>
       <c r="P124">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="R124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S124">
         <v>2</v>
@@ -11939,31 +11939,31 @@
         <v>1.8</v>
       </c>
       <c r="U124">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y124">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB124">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD124">
         <v>-1</v>
@@ -11974,7 +11974,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7671764</v>
+        <v>7650774</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11983,46 +11983,46 @@
         <v>45299.66666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L125">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="M125">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q125">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="R125">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S125">
         <v>2</v>
@@ -12031,31 +12031,31 @@
         <v>1.8</v>
       </c>
       <c r="U125">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X125">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD125">
         <v>-1</v>
@@ -12075,10 +12075,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -12167,7 +12167,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
         <v>32</v>
@@ -12354,7 +12354,7 @@
         <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -12443,10 +12443,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -12535,7 +12535,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F131" t="s">
         <v>50</v>
@@ -12630,7 +12630,7 @@
         <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -12814,7 +12814,7 @@
         <v>52</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12903,7 +12903,7 @@
         <v>45306.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
         <v>35</v>
@@ -13182,7 +13182,7 @@
         <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -13271,10 +13271,10 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -13363,7 +13363,7 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F140" t="s">
         <v>52</v>
@@ -13547,7 +13547,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
         <v>51</v>
@@ -13639,10 +13639,10 @@
         <v>45318.5</v>
       </c>
       <c r="E143" t="s">
+        <v>45</v>
+      </c>
+      <c r="F143" t="s">
         <v>48</v>
-      </c>
-      <c r="F143" t="s">
-        <v>46</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -13731,7 +13731,7 @@
         <v>45319.375</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
         <v>43</v>
@@ -13906,7 +13906,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7032392</v>
+        <v>7039947</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13915,61 +13915,61 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K146" t="s">
         <v>58</v>
       </c>
       <c r="L146">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M146">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N146">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O146">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q146">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="R146">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S146">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U146">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13978,19 +13978,19 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD146">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14102,7 +14102,7 @@
         <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -14182,7 +14182,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7039947</v>
+        <v>7032392</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14191,61 +14191,61 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K149" t="s">
         <v>58</v>
       </c>
       <c r="L149">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M149">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N149">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O149">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q149">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R149">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U149">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -14254,19 +14254,19 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD149">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14283,10 +14283,10 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -14559,7 +14559,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
         <v>53</v>
@@ -14654,7 +14654,7 @@
         <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -14835,10 +14835,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="E156" t="s">
+        <v>39</v>
+      </c>
+      <c r="F156" t="s">
         <v>41</v>
-      </c>
-      <c r="F156" t="s">
-        <v>39</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -14930,7 +14930,7 @@
         <v>52</v>
       </c>
       <c r="F157" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -15019,7 +15019,7 @@
         <v>45338.66666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F158" t="s">
         <v>43</v>
@@ -15111,10 +15111,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -15206,7 +15206,7 @@
         <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -15298,7 +15298,7 @@
         <v>50</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -15482,7 +15482,7 @@
         <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -15574,7 +15574,7 @@
         <v>53</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -15663,7 +15663,7 @@
         <v>45341.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
         <v>34</v>
@@ -15746,7 +15746,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7032412</v>
+        <v>7032413</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15755,82 +15755,82 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K166" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L166">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="M166">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N166">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O166">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="P166">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q166">
+        <v>3.25</v>
+      </c>
+      <c r="R166">
+        <v>-0.5</v>
+      </c>
+      <c r="S166">
+        <v>1.9</v>
+      </c>
+      <c r="T166">
+        <v>1.9</v>
+      </c>
+      <c r="U166">
+        <v>3.25</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
+        <v>1.975</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
         <v>2.25</v>
       </c>
-      <c r="R166">
-        <v>0</v>
-      </c>
-      <c r="S166">
-        <v>1.95</v>
-      </c>
-      <c r="T166">
-        <v>1.85</v>
-      </c>
-      <c r="U166">
-        <v>4</v>
-      </c>
-      <c r="V166">
-        <v>1.9</v>
-      </c>
-      <c r="W166">
-        <v>1.9</v>
-      </c>
-      <c r="X166">
-        <v>1.3</v>
-      </c>
-      <c r="Y166">
-        <v>-1</v>
-      </c>
-      <c r="Z166">
-        <v>-1</v>
-      </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD166">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15838,7 +15838,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7032413</v>
+        <v>7032507</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15847,55 +15847,55 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L167">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M167">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O167">
+        <v>1.5</v>
+      </c>
+      <c r="P167">
+        <v>4.333</v>
+      </c>
+      <c r="Q167">
+        <v>4.75</v>
+      </c>
+      <c r="R167">
+        <v>-1.25</v>
+      </c>
+      <c r="S167">
+        <v>2</v>
+      </c>
+      <c r="T167">
         <v>1.8</v>
       </c>
-      <c r="P167">
-        <v>3.8</v>
-      </c>
-      <c r="Q167">
-        <v>3.25</v>
-      </c>
-      <c r="R167">
-        <v>-0.5</v>
-      </c>
-      <c r="S167">
-        <v>1.9</v>
-      </c>
-      <c r="T167">
-        <v>1.9</v>
-      </c>
       <c r="U167">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V167">
         <v>1.825</v>
@@ -15904,25 +15904,25 @@
         <v>1.975</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD167">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15930,7 +15930,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7032414</v>
+        <v>7039896</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15939,82 +15939,82 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G168">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K168" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="M168">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O168">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="P168">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="R168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U168">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AD168">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16022,7 +16022,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7032507</v>
+        <v>7032414</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -16031,46 +16031,46 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169" t="s">
+        <v>60</v>
+      </c>
+      <c r="L169">
         <v>3</v>
       </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169" t="s">
-        <v>59</v>
-      </c>
-      <c r="L169">
-        <v>1.727</v>
-      </c>
       <c r="M169">
+        <v>4.1</v>
+      </c>
+      <c r="N169">
+        <v>1.85</v>
+      </c>
+      <c r="O169">
+        <v>2.45</v>
+      </c>
+      <c r="P169">
         <v>4</v>
       </c>
-      <c r="N169">
-        <v>3.5</v>
-      </c>
-      <c r="O169">
-        <v>1.5</v>
-      </c>
-      <c r="P169">
-        <v>4.333</v>
-      </c>
       <c r="Q169">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="R169">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S169">
         <v>2</v>
@@ -16082,31 +16082,31 @@
         <v>3.5</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X169">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC169">
         <v>-1</v>
       </c>
       <c r="AD169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16114,7 +16114,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7039896</v>
+        <v>7032412</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16123,82 +16123,82 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F170" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L170">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="M170">
+        <v>4.75</v>
+      </c>
+      <c r="N170">
         <v>4</v>
       </c>
-      <c r="N170">
-        <v>2.45</v>
-      </c>
       <c r="O170">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="P170">
         <v>4.2</v>
       </c>
       <c r="Q170">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="R170">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U170">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AD170">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16215,10 +16215,10 @@
         <v>45345.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -16310,7 +16310,7 @@
         <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -16402,7 +16402,7 @@
         <v>52</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -16491,10 +16491,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E174" t="s">
+        <v>33</v>
+      </c>
+      <c r="F174" t="s">
         <v>31</v>
-      </c>
-      <c r="F174" t="s">
-        <v>33</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -16675,10 +16675,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -16767,10 +16767,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F177" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -17046,7 +17046,7 @@
         <v>55</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17135,7 +17135,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
         <v>30</v>
@@ -17230,7 +17230,7 @@
         <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7032426</v>
+        <v>7032424</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17319,82 +17319,82 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G183">
         <v>2</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L183">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M183">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N183">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O183">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="P183">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="R183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U183">
         <v>3.5</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y183">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD183">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17402,7 +17402,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7032424</v>
+        <v>7898839</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17411,10 +17411,10 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F184" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -17423,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -17432,43 +17432,43 @@
         <v>59</v>
       </c>
       <c r="L184">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M184">
         <v>3.75</v>
       </c>
       <c r="N184">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O184">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="P184">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R184">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X184">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y184">
         <v>-1</v>
@@ -17477,7 +17477,7 @@
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
         <v>-1</v>
@@ -17486,7 +17486,7 @@
         <v>-1</v>
       </c>
       <c r="AD184">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17494,7 +17494,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7898839</v>
+        <v>7032425</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17503,82 +17503,82 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L185">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="M185">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N185">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O185">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q185">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="R185">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U185">
         <v>3.75</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X185">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD185">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17586,7 +17586,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7032425</v>
+        <v>7032426</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17595,16 +17595,16 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -17613,64 +17613,64 @@
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L186">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="M186">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N186">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O186">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q186">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="R186">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S186">
+        <v>1.95</v>
+      </c>
+      <c r="T186">
+        <v>1.85</v>
+      </c>
+      <c r="U186">
+        <v>3.5</v>
+      </c>
+      <c r="V186">
         <v>1.825</v>
       </c>
-      <c r="T186">
+      <c r="W186">
         <v>1.975</v>
       </c>
-      <c r="U186">
-        <v>3.75</v>
-      </c>
-      <c r="V186">
-        <v>1.875</v>
-      </c>
-      <c r="W186">
-        <v>1.925</v>
-      </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z186">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC186">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AD186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17871,7 +17871,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F189" t="s">
         <v>43</v>
@@ -17954,7 +17954,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7032427</v>
+        <v>7032430</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17963,82 +17963,82 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F190" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K190" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L190">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="M190">
         <v>4</v>
       </c>
       <c r="N190">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O190">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="P190">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q190">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R190">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U190">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y190">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD190">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18046,7 +18046,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7032433</v>
+        <v>7032427</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18055,46 +18055,46 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L191">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M191">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O191">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="P191">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q191">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="R191">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S191">
         <v>1.95</v>
@@ -18109,28 +18109,28 @@
         <v>1.925</v>
       </c>
       <c r="W191">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z191">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB191">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD191">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18138,7 +18138,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7032430</v>
+        <v>7039908</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18150,61 +18150,61 @@
         <v>47</v>
       </c>
       <c r="F192" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K192" t="s">
         <v>59</v>
       </c>
       <c r="L192">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="M192">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N192">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O192">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="P192">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q192">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R192">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U192">
         <v>4</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X192">
-        <v>0.833</v>
+        <v>0.7</v>
       </c>
       <c r="Y192">
         <v>-1</v>
@@ -18213,13 +18213,13 @@
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD192">
         <v>-1</v>
@@ -18242,7 +18242,7 @@
         <v>53</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -18322,7 +18322,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7039908</v>
+        <v>7032433</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18331,79 +18331,79 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>7</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="K194" t="s">
+        <v>58</v>
+      </c>
+      <c r="L194">
+        <v>3.25</v>
+      </c>
+      <c r="M194">
+        <v>4.333</v>
+      </c>
+      <c r="N194">
+        <v>1.727</v>
+      </c>
+      <c r="O194">
         <v>5</v>
-      </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="I194">
-        <v>4</v>
-      </c>
-      <c r="J194">
-        <v>1</v>
-      </c>
-      <c r="K194" t="s">
-        <v>59</v>
-      </c>
-      <c r="L194">
-        <v>2.15</v>
-      </c>
-      <c r="M194">
-        <v>4.2</v>
-      </c>
-      <c r="N194">
-        <v>2.45</v>
-      </c>
-      <c r="O194">
-        <v>1.7</v>
       </c>
       <c r="P194">
         <v>4.5</v>
       </c>
       <c r="Q194">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="R194">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U194">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X194">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="AA194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD194">
         <v>-1</v>
@@ -18426,7 +18426,7 @@
         <v>51</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -18791,7 +18791,7 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F199" t="s">
         <v>32</v>
@@ -19070,7 +19070,7 @@
         <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -19159,7 +19159,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F203" t="s">
         <v>38</v>
@@ -19251,10 +19251,10 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E204" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -19435,7 +19435,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F206" t="s">
         <v>37</v>
@@ -19527,7 +19527,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F207" t="s">
         <v>50</v>
@@ -19619,7 +19619,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F208" t="s">
         <v>35</v>
@@ -19806,7 +19806,7 @@
         <v>52</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -19898,7 +19898,7 @@
         <v>51</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -19987,7 +19987,7 @@
         <v>45373.66666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F212" t="s">
         <v>36</v>
@@ -20263,10 +20263,10 @@
         <v>45387.625</v>
       </c>
       <c r="E215" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F215" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -20355,10 +20355,10 @@
         <v>45387.625</v>
       </c>
       <c r="E216" t="s">
+        <v>46</v>
+      </c>
+      <c r="F216" t="s">
         <v>44</v>
-      </c>
-      <c r="F216" t="s">
-        <v>49</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -20450,7 +20450,7 @@
         <v>55</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -20726,7 +20726,7 @@
         <v>43</v>
       </c>
       <c r="F220" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -20818,7 +20818,7 @@
         <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>45390.625</v>
       </c>
       <c r="E222" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
         <v>34</v>
@@ -21082,7 +21082,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7032512</v>
+        <v>7032456</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21091,13 +21091,13 @@
         <v>45390.625</v>
       </c>
       <c r="E224" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -21109,37 +21109,37 @@
         <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L224">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="M224">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N224">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O224">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q224">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="R224">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="S224">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U224">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="V224">
         <v>1.9</v>
@@ -21151,22 +21151,22 @@
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z224">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD224">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21266,7 +21266,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7032456</v>
+        <v>7032512</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21275,13 +21275,13 @@
         <v>45390.625</v>
       </c>
       <c r="E226" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -21293,37 +21293,37 @@
         <v>1</v>
       </c>
       <c r="K226" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L226">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="M226">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N226">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O226">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="P226">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q226">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="R226">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="S226">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U226">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="V226">
         <v>1.9</v>
@@ -21335,22 +21335,22 @@
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD226">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21367,10 +21367,10 @@
         <v>45394.625</v>
       </c>
       <c r="E227" t="s">
+        <v>48</v>
+      </c>
+      <c r="F227" t="s">
         <v>46</v>
-      </c>
-      <c r="F227" t="s">
-        <v>44</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -21450,7 +21450,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7032459</v>
+        <v>7032513</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21459,82 +21459,82 @@
         <v>45394.625</v>
       </c>
       <c r="E228" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228">
         <v>0</v>
       </c>
       <c r="K228" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L228">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="M228">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="N228">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O228">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="P228">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q228">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="R228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S228">
+        <v>1.95</v>
+      </c>
+      <c r="T228">
         <v>1.85</v>
-      </c>
-      <c r="T228">
-        <v>1.95</v>
       </c>
       <c r="U228">
         <v>3.75</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y228">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
+      </c>
+      <c r="AD228">
         <v>0.95</v>
-      </c>
-      <c r="AC228">
-        <v>-1</v>
-      </c>
-      <c r="AD228">
-        <v>0.925</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -21542,7 +21542,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7032464</v>
+        <v>7032459</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -21551,82 +21551,82 @@
         <v>45394.625</v>
       </c>
       <c r="E229" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F229" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L229">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="M229">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="N229">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O229">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="P229">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q229">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R229">
         <v>-1</v>
       </c>
       <c r="S229">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U229">
         <v>3.75</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z229">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD229">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -21634,7 +21634,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7032513</v>
+        <v>7032464</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -21643,25 +21643,25 @@
         <v>45394.625</v>
       </c>
       <c r="E230" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F230" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G230">
         <v>2</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K230" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L230">
         <v>2.2</v>
@@ -21673,52 +21673,52 @@
         <v>2.4</v>
       </c>
       <c r="O230">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="P230">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q230">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="R230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U230">
         <v>3.75</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W230">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -21738,7 +21738,7 @@
         <v>37</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -21827,10 +21827,10 @@
         <v>45394.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -22106,7 +22106,7 @@
         <v>53</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G235">
         <v>3</v>
@@ -22287,7 +22287,7 @@
         <v>45397.625</v>
       </c>
       <c r="E237" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F237" t="s">
         <v>30</v>
@@ -22370,7 +22370,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7032468</v>
+        <v>7039815</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22379,55 +22379,55 @@
         <v>45397.625</v>
       </c>
       <c r="E238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F238" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L238">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M238">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N238">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O238">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="P238">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q238">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="R238">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T238">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V238">
         <v>1.925</v>
@@ -22436,19 +22436,19 @@
         <v>1.875</v>
       </c>
       <c r="X238">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA238">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -22462,7 +22462,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7039815</v>
+        <v>7032468</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22471,55 +22471,55 @@
         <v>45397.625</v>
       </c>
       <c r="E239" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F239" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K239" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L239">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M239">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="N239">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O239">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="P239">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q239">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="R239">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S239">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U239">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V239">
         <v>1.925</v>
@@ -22528,19 +22528,19 @@
         <v>1.875</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -22750,7 +22750,7 @@
         <v>50</v>
       </c>
       <c r="F242" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -22934,7 +22934,7 @@
         <v>55</v>
       </c>
       <c r="F244" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -23026,7 +23026,7 @@
         <v>40</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -23207,7 +23207,7 @@
         <v>45408.625</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F247" t="s">
         <v>36</v>
@@ -23302,7 +23302,7 @@
         <v>38</v>
       </c>
       <c r="F248" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -23391,10 +23391,10 @@
         <v>45408.625</v>
       </c>
       <c r="E249" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F249" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -23483,7 +23483,7 @@
         <v>45408.625</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F250" t="s">
         <v>37</v>
@@ -23566,7 +23566,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7032473</v>
+        <v>7032469</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23575,55 +23575,55 @@
         <v>45408.625</v>
       </c>
       <c r="E251" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F251" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G251">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K251" t="s">
         <v>58</v>
       </c>
       <c r="L251">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="M251">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N251">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O251">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="P251">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q251">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="R251">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V251">
         <v>1.875</v>
@@ -23638,19 +23638,19 @@
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AA251">
         <v>-1</v>
       </c>
       <c r="AB251">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC251">
         <v>0.875</v>
       </c>
-      <c r="AC251">
-        <v>0.4375</v>
-      </c>
       <c r="AD251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23658,7 +23658,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7032469</v>
+        <v>7032473</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23667,55 +23667,55 @@
         <v>45408.625</v>
       </c>
       <c r="E252" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G252">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K252" t="s">
         <v>58</v>
       </c>
       <c r="L252">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="M252">
+        <v>5</v>
+      </c>
+      <c r="N252">
+        <v>5</v>
+      </c>
+      <c r="O252">
+        <v>1.571</v>
+      </c>
+      <c r="P252">
         <v>4.5</v>
       </c>
-      <c r="N252">
-        <v>2.75</v>
-      </c>
-      <c r="O252">
-        <v>1.666</v>
-      </c>
-      <c r="P252">
-        <v>4.75</v>
-      </c>
       <c r="Q252">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="R252">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V252">
         <v>1.875</v>
@@ -23730,19 +23730,19 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC252">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AD252">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23851,10 +23851,10 @@
         <v>45410.375</v>
       </c>
       <c r="E254" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -24035,10 +24035,10 @@
         <v>45411.33333333334</v>
       </c>
       <c r="E256" t="s">
+        <v>47</v>
+      </c>
+      <c r="F256" t="s">
         <v>45</v>
-      </c>
-      <c r="F256" t="s">
-        <v>48</v>
       </c>
       <c r="G256">
         <v>3</v>
@@ -24118,7 +24118,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7032476</v>
+        <v>7032477</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24127,82 +24127,82 @@
         <v>45411.625</v>
       </c>
       <c r="E257" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F257" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257">
         <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L257">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="M257">
         <v>3.9</v>
       </c>
       <c r="N257">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O257">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P257">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q257">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="R257">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S257">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T257">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U257">
         <v>3.5</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X257">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC257">
         <v>-1</v>
       </c>
       <c r="AD257">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24210,7 +24210,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7032477</v>
+        <v>8101471</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24219,46 +24219,46 @@
         <v>45411.625</v>
       </c>
       <c r="E258" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F258" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J258">
         <v>0</v>
       </c>
       <c r="K258" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L258">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="M258">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="N258">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="O258">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="P258">
         <v>4</v>
       </c>
       <c r="Q258">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="R258">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S258">
         <v>1.9</v>
@@ -24267,34 +24267,34 @@
         <v>1.9</v>
       </c>
       <c r="U258">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V258">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W258">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y258">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB258">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD258">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24486,7 +24486,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>8101471</v>
+        <v>7032476</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24495,19 +24495,19 @@
         <v>45411.625</v>
       </c>
       <c r="E261" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F261" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G261">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H261">
         <v>0</v>
       </c>
       <c r="I261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -24516,43 +24516,43 @@
         <v>59</v>
       </c>
       <c r="L261">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="M261">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="N261">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O261">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="P261">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q261">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="R261">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S261">
+        <v>1.975</v>
+      </c>
+      <c r="T261">
+        <v>1.825</v>
+      </c>
+      <c r="U261">
+        <v>3.5</v>
+      </c>
+      <c r="V261">
         <v>1.9</v>
       </c>
-      <c r="T261">
+      <c r="W261">
         <v>1.9</v>
       </c>
-      <c r="U261">
-        <v>3.75</v>
-      </c>
-      <c r="V261">
-        <v>1.75</v>
-      </c>
-      <c r="W261">
-        <v>1.95</v>
-      </c>
       <c r="X261">
-        <v>0.8500000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="Y261">
         <v>-1</v>
@@ -24561,16 +24561,16 @@
         <v>-1</v>
       </c>
       <c r="AA261">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB261">
+        <v>-1</v>
+      </c>
+      <c r="AC261">
+        <v>-1</v>
+      </c>
+      <c r="AD261">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB261">
-        <v>-1</v>
-      </c>
-      <c r="AC261">
-        <v>0.75</v>
-      </c>
-      <c r="AD261">
-        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -24587,7 +24587,7 @@
         <v>45415.625</v>
       </c>
       <c r="E262" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F262" t="s">
         <v>34</v>
@@ -24679,10 +24679,10 @@
         <v>45415.625</v>
       </c>
       <c r="E263" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G263">
         <v>6</v>
@@ -24771,7 +24771,7 @@
         <v>45415.625</v>
       </c>
       <c r="E264" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F264" t="s">
         <v>55</v>
@@ -24866,7 +24866,7 @@
         <v>51</v>
       </c>
       <c r="F265" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -24955,7 +24955,7 @@
         <v>45417.375</v>
       </c>
       <c r="E266" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F266" t="s">
         <v>37</v>
@@ -25323,10 +25323,10 @@
         <v>45423.375</v>
       </c>
       <c r="E270" t="s">
+        <v>31</v>
+      </c>
+      <c r="F270" t="s">
         <v>33</v>
-      </c>
-      <c r="F270" t="s">
-        <v>31</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -25510,7 +25510,7 @@
         <v>50</v>
       </c>
       <c r="F272" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G272">
         <v>8</v>
@@ -25602,7 +25602,7 @@
         <v>40</v>
       </c>
       <c r="F273" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G273">
         <v>8</v>
@@ -25694,7 +25694,7 @@
         <v>50</v>
       </c>
       <c r="F274" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G274">
         <v>2</v>

--- a/England Premier League 2/England Premier League 2.xlsx
+++ b/England Premier League 2/England Premier League 2.xlsx
@@ -154,16 +154,16 @@
     <t>West Ham U21</t>
   </si>
   <si>
+    <t>Fulham U21</t>
+  </si>
+  <si>
+    <t>Derby U21</t>
+  </si>
+  <si>
     <t>Man Utd U21</t>
   </si>
   <si>
-    <t>Fulham U21</t>
-  </si>
-  <si>
     <t>Southampton U21</t>
-  </si>
-  <si>
-    <t>Derby U21</t>
   </si>
   <si>
     <t>Tottenham U21</t>
@@ -946,7 +946,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1222,7 +1222,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1314,7 +1314,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1682,7 +1682,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2222,7 +2222,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7032289</v>
+        <v>7032288</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2234,79 +2234,79 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L19">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N19">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P19">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="R19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S19">
+        <v>1.975</v>
+      </c>
+      <c r="T19">
         <v>1.825</v>
-      </c>
-      <c r="T19">
-        <v>1.975</v>
       </c>
       <c r="U19">
         <v>3.5</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
       </c>
       <c r="AD19">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2314,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7032288</v>
+        <v>7032287</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2326,70 +2326,70 @@
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O20">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q20">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="R20">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U20">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V20">
+        <v>1.925</v>
+      </c>
+      <c r="W20">
         <v>1.875</v>
       </c>
-      <c r="W20">
-        <v>1.925</v>
-      </c>
       <c r="X20">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2398,7 +2398,7 @@
         <v>-1</v>
       </c>
       <c r="AD20">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2406,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7032293</v>
+        <v>7032289</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2418,79 +2418,79 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M21">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N21">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O21">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="P21">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S21">
+        <v>1.825</v>
+      </c>
+      <c r="T21">
+        <v>1.975</v>
+      </c>
+      <c r="U21">
+        <v>3.5</v>
+      </c>
+      <c r="V21">
         <v>1.9</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>1.9</v>
       </c>
-      <c r="U21">
-        <v>3.75</v>
-      </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
-      <c r="W21">
-        <v>1.875</v>
-      </c>
       <c r="X21">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC21">
+        <v>-1</v>
+      </c>
+      <c r="AD21">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
-      <c r="AC21">
-        <v>0.925</v>
-      </c>
-      <c r="AD21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2498,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7032285</v>
+        <v>7032293</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2507,64 +2507,64 @@
         <v>45156.625</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="s">
         <v>59</v>
       </c>
       <c r="L22">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N22">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O22">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q22">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="R22">
         <v>-1</v>
       </c>
       <c r="S22">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U22">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V22">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X22">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="Y22">
         <v>-1</v>
@@ -2573,13 +2573,13 @@
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2590,7 +2590,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7032287</v>
+        <v>7032285</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2599,82 +2599,82 @@
         <v>45156.625</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="M23">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O23">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="P23">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T23">
+        <v>1.95</v>
+      </c>
+      <c r="U23">
+        <v>3.25</v>
+      </c>
+      <c r="V23">
+        <v>1.775</v>
+      </c>
+      <c r="W23">
         <v>1.925</v>
       </c>
-      <c r="U23">
-        <v>3.75</v>
-      </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
-      <c r="W23">
-        <v>1.875</v>
-      </c>
       <c r="X23">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y23">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -3059,7 +3059,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
@@ -3519,7 +3519,7 @@
         <v>45163.625</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
         <v>50</v>
@@ -3887,7 +3887,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
@@ -4074,7 +4074,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4255,10 +4255,10 @@
         <v>45170.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -4350,7 +4350,7 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -5362,7 +5362,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -5442,7 +5442,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7032317</v>
+        <v>7032316</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5451,82 +5451,82 @@
         <v>45191.625</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L54">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M54">
         <v>3.75</v>
       </c>
       <c r="N54">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O54">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="P54">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q54">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="R54">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T54">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U54">
         <v>3.5</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5534,7 +5534,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7032316</v>
+        <v>7032317</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5543,82 +5543,82 @@
         <v>45191.625</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L55">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M55">
         <v>3.75</v>
       </c>
       <c r="N55">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O55">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="P55">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S55">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U55">
         <v>3.5</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5626,7 +5626,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7039927</v>
+        <v>7032489</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5635,82 +5635,82 @@
         <v>45191.625</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L56">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="M56">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N56">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
         <v>2.375</v>
       </c>
       <c r="P56">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q56">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U56">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
+        <v>-1</v>
+      </c>
+      <c r="Z56">
         <v>1.375</v>
       </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>-1</v>
-      </c>
       <c r="AA56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD56">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5718,7 +5718,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7032489</v>
+        <v>7039927</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5727,82 +5727,82 @@
         <v>45191.625</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L57">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O57">
         <v>2.375</v>
       </c>
       <c r="P57">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q57">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U57">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD57">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5911,7 +5911,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
         <v>31</v>
@@ -6374,7 +6374,7 @@
         <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6638,7 +6638,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7032337</v>
+        <v>7039930</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6647,82 +6647,82 @@
         <v>45198.625</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L67">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="M67">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O67">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="P67">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q67">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="R67">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U67">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD67">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6822,7 +6822,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7039930</v>
+        <v>7032337</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6831,82 +6831,82 @@
         <v>45198.625</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L69">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="M69">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="P69">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q69">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="R69">
+        <v>-2.25</v>
+      </c>
+      <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
+        <v>1.875</v>
+      </c>
+      <c r="U69">
+        <v>4.25</v>
+      </c>
+      <c r="V69">
+        <v>1.925</v>
+      </c>
+      <c r="W69">
+        <v>1.875</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
+        <v>7.5</v>
+      </c>
+      <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
+        <v>0.875</v>
+      </c>
+      <c r="AC69">
         <v>-0.5</v>
       </c>
-      <c r="S69">
-        <v>1.85</v>
-      </c>
-      <c r="T69">
-        <v>1.95</v>
-      </c>
-      <c r="U69">
-        <v>3.75</v>
-      </c>
-      <c r="V69">
-        <v>1.9</v>
-      </c>
-      <c r="W69">
-        <v>1.9</v>
-      </c>
-      <c r="X69">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>-1</v>
-      </c>
-      <c r="AA69">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
-      <c r="AC69">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AD69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6923,7 +6923,7 @@
         <v>45198.625</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
         <v>32</v>
@@ -7294,7 +7294,7 @@
         <v>55</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -8119,10 +8119,10 @@
         <v>45226.625</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="E84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
         <v>35</v>
@@ -8582,7 +8582,7 @@
         <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8855,7 +8855,7 @@
         <v>45233.375</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -9042,7 +9042,7 @@
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -9591,7 +9591,7 @@
         <v>45234.375</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
         <v>54</v>
@@ -9778,7 +9778,7 @@
         <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -10051,7 +10051,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F104" t="s">
         <v>32</v>
@@ -10134,7 +10134,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7032360</v>
+        <v>7039934</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10143,16 +10143,16 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -10164,34 +10164,34 @@
         <v>59</v>
       </c>
       <c r="L105">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="M105">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N105">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O105">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="P105">
+        <v>5.75</v>
+      </c>
+      <c r="Q105">
+        <v>5.5</v>
+      </c>
+      <c r="R105">
+        <v>-1.75</v>
+      </c>
+      <c r="S105">
+        <v>1.875</v>
+      </c>
+      <c r="T105">
+        <v>1.925</v>
+      </c>
+      <c r="U105">
         <v>4.5</v>
-      </c>
-      <c r="Q105">
-        <v>4</v>
-      </c>
-      <c r="R105">
-        <v>-1</v>
-      </c>
-      <c r="S105">
-        <v>1.95</v>
-      </c>
-      <c r="T105">
-        <v>1.85</v>
-      </c>
-      <c r="U105">
-        <v>3.5</v>
       </c>
       <c r="V105">
         <v>1.9</v>
@@ -10200,7 +10200,7 @@
         <v>1.9</v>
       </c>
       <c r="X105">
-        <v>0.55</v>
+        <v>0.333</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -10209,16 +10209,16 @@
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
+        <v>-1</v>
+      </c>
+      <c r="AD105">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AD105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10226,7 +10226,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7039934</v>
+        <v>7032360</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -10235,16 +10235,16 @@
         <v>45261.66666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -10256,34 +10256,34 @@
         <v>59</v>
       </c>
       <c r="L106">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M106">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O106">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="P106">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q106">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="R106">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U106">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="V106">
         <v>1.9</v>
@@ -10292,7 +10292,7 @@
         <v>1.9</v>
       </c>
       <c r="X106">
-        <v>0.333</v>
+        <v>0.55</v>
       </c>
       <c r="Y106">
         <v>-1</v>
@@ -10301,16 +10301,16 @@
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10422,7 +10422,7 @@
         <v>54</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G108">
         <v>5</v>
@@ -10603,7 +10603,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
         <v>51</v>
@@ -10695,10 +10695,10 @@
         <v>45275.35416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10790,7 +10790,7 @@
         <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10971,7 +10971,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
         <v>36</v>
@@ -11422,7 +11422,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7032374</v>
+        <v>7039936</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11431,82 +11431,82 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119" t="s">
+        <v>60</v>
+      </c>
+      <c r="L119">
         <v>3</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119" t="s">
-        <v>59</v>
-      </c>
-      <c r="L119">
-        <v>3.6</v>
-      </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="N119">
-        <v>1.615</v>
+        <v>1.869</v>
       </c>
       <c r="O119">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P119">
         <v>4</v>
       </c>
       <c r="Q119">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="R119">
         <v>-0.25</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U119">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC119">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AD119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11514,7 +11514,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7032375</v>
+        <v>7032372</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11523,16 +11523,16 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11544,41 +11544,41 @@
         <v>58</v>
       </c>
       <c r="L120">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="M120">
+        <v>4.1</v>
+      </c>
+      <c r="N120">
+        <v>2.05</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>4.5</v>
+      </c>
+      <c r="Q120">
+        <v>1.8</v>
+      </c>
+      <c r="R120">
+        <v>0.5</v>
+      </c>
+      <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
+        <v>1.85</v>
+      </c>
+      <c r="U120">
         <v>4</v>
       </c>
-      <c r="N120">
-        <v>1.909</v>
-      </c>
-      <c r="O120">
-        <v>1.533</v>
-      </c>
-      <c r="P120">
-        <v>4.75</v>
-      </c>
-      <c r="Q120">
-        <v>4.2</v>
-      </c>
-      <c r="R120">
-        <v>-1.5</v>
-      </c>
-      <c r="S120">
+      <c r="V120">
+        <v>1.95</v>
+      </c>
+      <c r="W120">
         <v>1.85</v>
       </c>
-      <c r="T120">
-        <v>1.95</v>
-      </c>
-      <c r="U120">
-        <v>4.25</v>
-      </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
-      <c r="W120">
-        <v>1.975</v>
-      </c>
       <c r="X120">
         <v>-1</v>
       </c>
@@ -11586,19 +11586,19 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC120">
         <v>0.95</v>
       </c>
-      <c r="AC120">
-        <v>-1</v>
-      </c>
       <c r="AD120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11606,7 +11606,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7032500</v>
+        <v>7032375</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11615,10 +11615,10 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -11627,7 +11627,7 @@
         <v>2</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -11636,41 +11636,41 @@
         <v>58</v>
       </c>
       <c r="L121">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="M121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N121">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="P121">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q121">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="R121">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="S121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U121">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="V121">
+        <v>1.825</v>
+      </c>
+      <c r="W121">
         <v>1.975</v>
       </c>
-      <c r="W121">
-        <v>1.825</v>
-      </c>
       <c r="X121">
         <v>-1</v>
       </c>
@@ -11678,19 +11678,19 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
       </c>
       <c r="AD121">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11698,7 +11698,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7032372</v>
+        <v>7032374</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11707,16 +11707,16 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11725,61 +11725,61 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L122">
+        <v>3.6</v>
+      </c>
+      <c r="M122">
+        <v>4.5</v>
+      </c>
+      <c r="N122">
+        <v>1.615</v>
+      </c>
+      <c r="O122">
+        <v>2.05</v>
+      </c>
+      <c r="P122">
+        <v>4</v>
+      </c>
+      <c r="Q122">
         <v>2.625</v>
       </c>
-      <c r="M122">
-        <v>4.1</v>
-      </c>
-      <c r="N122">
-        <v>2.05</v>
-      </c>
-      <c r="O122">
-        <v>3</v>
-      </c>
-      <c r="P122">
-        <v>4.5</v>
-      </c>
-      <c r="Q122">
-        <v>1.8</v>
-      </c>
       <c r="R122">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U122">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD122">
         <v>-1</v>
@@ -11790,7 +11790,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7039936</v>
+        <v>7032500</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11799,82 +11799,82 @@
         <v>45278.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="M123">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="N123">
-        <v>1.869</v>
+        <v>5.5</v>
       </c>
       <c r="O123">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="P123">
+        <v>6.5</v>
+      </c>
+      <c r="Q123">
+        <v>7.5</v>
+      </c>
+      <c r="R123">
+        <v>-2</v>
+      </c>
+      <c r="S123">
+        <v>1.875</v>
+      </c>
+      <c r="T123">
+        <v>1.925</v>
+      </c>
+      <c r="U123">
         <v>4</v>
       </c>
-      <c r="Q123">
-        <v>2.5</v>
-      </c>
-      <c r="R123">
-        <v>-0.25</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>1.85</v>
-      </c>
-      <c r="U123">
-        <v>3.75</v>
-      </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD123">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11882,7 +11882,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7650774</v>
+        <v>7671764</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11891,46 +11891,46 @@
         <v>45299.66666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L124">
+        <v>2.875</v>
+      </c>
+      <c r="M124">
+        <v>3.9</v>
+      </c>
+      <c r="N124">
+        <v>1.95</v>
+      </c>
+      <c r="O124">
         <v>2.4</v>
       </c>
-      <c r="M124">
-        <v>3.8</v>
-      </c>
-      <c r="N124">
-        <v>2.3</v>
-      </c>
-      <c r="O124">
-        <v>2.15</v>
-      </c>
       <c r="P124">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="R124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S124">
         <v>2</v>
@@ -11939,31 +11939,31 @@
         <v>1.8</v>
       </c>
       <c r="U124">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y124">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB124">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD124">
         <v>-1</v>
@@ -11974,7 +11974,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7671764</v>
+        <v>7650774</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11983,46 +11983,46 @@
         <v>45299.66666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L125">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="M125">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q125">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="R125">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S125">
         <v>2</v>
@@ -12031,31 +12031,31 @@
         <v>1.8</v>
       </c>
       <c r="U125">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X125">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD125">
         <v>-1</v>
@@ -12066,7 +12066,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7032379</v>
+        <v>7032502</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12075,82 +12075,82 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L126">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N126">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="O126">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q126">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="R126">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U126">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X126">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB126">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12158,7 +12158,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7032502</v>
+        <v>7032501</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12167,61 +12167,61 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K127" t="s">
         <v>58</v>
       </c>
       <c r="L127">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="M127">
+        <v>4</v>
+      </c>
+      <c r="N127">
+        <v>2.55</v>
+      </c>
+      <c r="O127">
+        <v>1.571</v>
+      </c>
+      <c r="P127">
         <v>4.5</v>
       </c>
-      <c r="N127">
-        <v>1.5</v>
-      </c>
-      <c r="O127">
-        <v>5</v>
-      </c>
-      <c r="P127">
-        <v>4.75</v>
-      </c>
       <c r="Q127">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="R127">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U127">
         <v>3.75</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -12230,16 +12230,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.3999999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="AA127">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD127">
         <v>-1</v>
@@ -12250,7 +12250,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7032501</v>
+        <v>7032377</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12259,82 +12259,82 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128" t="s">
+        <v>59</v>
+      </c>
+      <c r="L128">
+        <v>1.533</v>
+      </c>
+      <c r="M128">
+        <v>4.333</v>
+      </c>
+      <c r="N128">
+        <v>4.333</v>
+      </c>
+      <c r="O128">
+        <v>1.75</v>
+      </c>
+      <c r="P128">
         <v>4</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-      <c r="J128">
-        <v>2</v>
-      </c>
-      <c r="K128" t="s">
-        <v>58</v>
-      </c>
-      <c r="L128">
-        <v>2.1</v>
-      </c>
-      <c r="M128">
-        <v>4</v>
-      </c>
-      <c r="N128">
-        <v>2.55</v>
-      </c>
-      <c r="O128">
-        <v>1.571</v>
-      </c>
-      <c r="P128">
-        <v>4.5</v>
-      </c>
       <c r="Q128">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="R128">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U128">
         <v>3.75</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12342,7 +12342,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7032377</v>
+        <v>7032378</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12351,19 +12351,19 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -12372,31 +12372,31 @@
         <v>59</v>
       </c>
       <c r="L129">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="M129">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N129">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O129">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="P129">
         <v>4</v>
       </c>
       <c r="Q129">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="R129">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T129">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U129">
         <v>3.75</v>
@@ -12408,25 +12408,25 @@
         <v>1.875</v>
       </c>
       <c r="X129">
+        <v>1.5</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
         <v>0.75</v>
       </c>
-      <c r="Y129">
-        <v>-1</v>
-      </c>
-      <c r="Z129">
-        <v>-1</v>
-      </c>
-      <c r="AA129">
-        <v>0.4875</v>
-      </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12434,7 +12434,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7032378</v>
+        <v>7032380</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12443,79 +12443,79 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L130">
         <v>2.2</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O130">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P130">
         <v>4</v>
       </c>
       <c r="Q130">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="R130">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S130">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U130">
         <v>3.75</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X130">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA130">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC130">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD130">
         <v>-1</v>
@@ -12526,7 +12526,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7032380</v>
+        <v>7032379</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12535,82 +12535,82 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>59</v>
+      </c>
+      <c r="L131">
+        <v>1.222</v>
+      </c>
+      <c r="M131">
+        <v>6.5</v>
+      </c>
+      <c r="N131">
+        <v>7</v>
+      </c>
+      <c r="O131">
+        <v>1.3</v>
+      </c>
+      <c r="P131">
+        <v>6.5</v>
+      </c>
+      <c r="Q131">
         <v>5</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
+      <c r="R131">
+        <v>-1.75</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>1.9</v>
+      </c>
+      <c r="U131">
         <v>4</v>
       </c>
-      <c r="K131" t="s">
-        <v>58</v>
-      </c>
-      <c r="L131">
-        <v>2.2</v>
-      </c>
-      <c r="M131">
-        <v>4.2</v>
-      </c>
-      <c r="N131">
-        <v>2.375</v>
-      </c>
-      <c r="O131">
-        <v>2</v>
-      </c>
-      <c r="P131">
-        <v>4</v>
-      </c>
-      <c r="Q131">
-        <v>2.75</v>
-      </c>
-      <c r="R131">
-        <v>-0.25</v>
-      </c>
-      <c r="S131">
-        <v>1.8</v>
-      </c>
-      <c r="T131">
-        <v>2</v>
-      </c>
-      <c r="U131">
-        <v>3.75</v>
-      </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -13170,7 +13170,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7032386</v>
+        <v>7032395</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13179,13 +13179,13 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -13194,31 +13194,31 @@
         <v>1</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="s">
         <v>59</v>
       </c>
       <c r="L138">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N138">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="P138">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q138">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="R138">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="S138">
         <v>1.825</v>
@@ -13227,16 +13227,16 @@
         <v>1.975</v>
       </c>
       <c r="U138">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X138">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y138">
         <v>-1</v>
@@ -13251,10 +13251,10 @@
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD138">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13262,7 +13262,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7032395</v>
+        <v>7039946</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13271,82 +13271,82 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L139">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="M139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O139">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="P139">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q139">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="R139">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S139">
+        <v>1.85</v>
+      </c>
+      <c r="T139">
+        <v>1.95</v>
+      </c>
+      <c r="U139">
+        <v>3.5</v>
+      </c>
+      <c r="V139">
         <v>1.825</v>
       </c>
-      <c r="T139">
+      <c r="W139">
         <v>1.975</v>
       </c>
-      <c r="U139">
-        <v>3.75</v>
-      </c>
-      <c r="V139">
-        <v>1.8</v>
-      </c>
-      <c r="W139">
-        <v>2</v>
-      </c>
       <c r="X139">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD139">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13354,7 +13354,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7039946</v>
+        <v>7032386</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13363,52 +13363,52 @@
         <v>45317.66666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L140">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M140">
         <v>4</v>
       </c>
       <c r="N140">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q140">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="R140">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U140">
         <v>3.5</v>
@@ -13420,19 +13420,19 @@
         <v>1.975</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13639,7 +13639,7 @@
         <v>45318.5</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F143" t="s">
         <v>44</v>
@@ -13734,7 +13734,7 @@
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -13906,7 +13906,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7032392</v>
+        <v>7039947</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13915,61 +13915,61 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K146" t="s">
         <v>58</v>
       </c>
       <c r="L146">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M146">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N146">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O146">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q146">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="R146">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S146">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U146">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13978,19 +13978,19 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD146">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -13998,7 +13998,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7032394</v>
+        <v>7032393</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -14007,16 +14007,16 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -14025,37 +14025,37 @@
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L147">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M147">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O147">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="P147">
         <v>4</v>
       </c>
       <c r="Q147">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="R147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
         <v>1.975</v>
       </c>
-      <c r="T147">
-        <v>1.825</v>
-      </c>
       <c r="U147">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V147">
         <v>1.9</v>
@@ -14067,16 +14067,16 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z147">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -14090,7 +14090,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7032393</v>
+        <v>7032392</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14099,13 +14099,13 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -14114,67 +14114,67 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M148">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N148">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O148">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="P148">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q148">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R148">
         <v>0.25</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U148">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC148">
         <v>-1</v>
       </c>
       <c r="AD148">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14182,7 +14182,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7039947</v>
+        <v>7032394</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14191,61 +14191,61 @@
         <v>45320.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K149" t="s">
         <v>58</v>
       </c>
       <c r="L149">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="M149">
         <v>3.9</v>
       </c>
       <c r="N149">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O149">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q149">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="R149">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U149">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -14254,19 +14254,19 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.75</v>
+        <v>1.625</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD149">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14283,7 +14283,7 @@
         <v>45331.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
         <v>55</v>
@@ -14930,7 +14930,7 @@
         <v>52</v>
       </c>
       <c r="F157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -15114,7 +15114,7 @@
         <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -15206,7 +15206,7 @@
         <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -15755,7 +15755,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F166" t="s">
         <v>35</v>
@@ -16031,7 +16031,7 @@
         <v>45341.66666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
         <v>55</v>
@@ -16482,7 +16482,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7032418</v>
+        <v>7032417</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16491,82 +16491,82 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L174">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M174">
         <v>3.75</v>
       </c>
       <c r="N174">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O174">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="P174">
+        <v>3.8</v>
+      </c>
+      <c r="Q174">
         <v>3.75</v>
       </c>
-      <c r="Q174">
-        <v>1.95</v>
-      </c>
       <c r="R174">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U174">
         <v>3.75</v>
       </c>
       <c r="V174">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y174">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16574,7 +16574,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7032417</v>
+        <v>7032418</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16583,82 +16583,82 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G175">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L175">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M175">
         <v>3.75</v>
       </c>
       <c r="N175">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O175">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q175">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="R175">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T175">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U175">
         <v>3.75</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X175">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16767,10 +16767,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -17230,7 +17230,7 @@
         <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7032425</v>
+        <v>7032426</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17319,16 +17319,16 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -17337,64 +17337,64 @@
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L183">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="M183">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N183">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O183">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q183">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="R183">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>1.85</v>
+      </c>
+      <c r="U183">
+        <v>3.5</v>
+      </c>
+      <c r="V183">
         <v>1.825</v>
       </c>
-      <c r="T183">
+      <c r="W183">
         <v>1.975</v>
       </c>
-      <c r="U183">
-        <v>3.75</v>
-      </c>
-      <c r="V183">
-        <v>1.875</v>
-      </c>
-      <c r="W183">
-        <v>1.925</v>
-      </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z183">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC183">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AD183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17402,7 +17402,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7032424</v>
+        <v>7898839</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17411,10 +17411,10 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F184" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -17423,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -17432,43 +17432,43 @@
         <v>59</v>
       </c>
       <c r="L184">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M184">
         <v>3.75</v>
       </c>
       <c r="N184">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O184">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="P184">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R184">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X184">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y184">
         <v>-1</v>
@@ -17477,7 +17477,7 @@
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
         <v>-1</v>
@@ -17486,7 +17486,7 @@
         <v>-1</v>
       </c>
       <c r="AD184">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17494,7 +17494,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7898839</v>
+        <v>7032424</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17503,10 +17503,10 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -17515,7 +17515,7 @@
         <v>0</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -17524,43 +17524,43 @@
         <v>59</v>
       </c>
       <c r="L185">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M185">
         <v>3.75</v>
       </c>
       <c r="N185">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O185">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R185">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S185">
+        <v>2</v>
+      </c>
+      <c r="T185">
         <v>1.8</v>
       </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
       <c r="U185">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W185">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X185">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="Y185">
         <v>-1</v>
@@ -17569,7 +17569,7 @@
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
@@ -17578,7 +17578,7 @@
         <v>-1</v>
       </c>
       <c r="AD185">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17586,7 +17586,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7032426</v>
+        <v>7032425</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17595,16 +17595,16 @@
         <v>45355.66666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -17613,64 +17613,64 @@
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L186">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="M186">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N186">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O186">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="P186">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q186">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="R186">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U186">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC186">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AD186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17678,7 +17678,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7039907</v>
+        <v>7032433</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17687,55 +17687,55 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K187" t="s">
         <v>58</v>
       </c>
       <c r="L187">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N187">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O187">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="P187">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q187">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="R187">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U187">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V187">
         <v>1.925</v>
@@ -17750,19 +17750,19 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD187">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17770,7 +17770,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7032433</v>
+        <v>7039907</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17779,55 +17779,55 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K188" t="s">
         <v>58</v>
       </c>
       <c r="L188">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="M188">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N188">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O188">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P188">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="R188">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T188">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U188">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V188">
         <v>1.925</v>
@@ -17842,19 +17842,19 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD188">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -17963,7 +17963,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F190" t="s">
         <v>39</v>
@@ -18150,7 +18150,7 @@
         <v>45</v>
       </c>
       <c r="F192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -18334,7 +18334,7 @@
         <v>43</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -18506,7 +18506,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7032435</v>
+        <v>7032509</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18515,43 +18515,43 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+      <c r="K196" t="s">
+        <v>58</v>
+      </c>
+      <c r="L196">
+        <v>2.55</v>
+      </c>
+      <c r="M196">
         <v>4</v>
       </c>
-      <c r="H196">
-        <v>2</v>
-      </c>
-      <c r="I196">
-        <v>3</v>
-      </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-      <c r="K196" t="s">
-        <v>59</v>
-      </c>
-      <c r="L196">
-        <v>2.2</v>
-      </c>
-      <c r="M196">
-        <v>4.2</v>
-      </c>
       <c r="N196">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O196">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="P196">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q196">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R196">
         <v>0.25</v>
@@ -18563,34 +18563,34 @@
         <v>1.95</v>
       </c>
       <c r="U196">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X196">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18690,7 +18690,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7032509</v>
+        <v>7905004</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18699,70 +18699,70 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198">
         <v>2</v>
       </c>
       <c r="K198" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L198">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="M198">
+        <v>4.5</v>
+      </c>
+      <c r="N198">
+        <v>2.5</v>
+      </c>
+      <c r="O198">
+        <v>1.5</v>
+      </c>
+      <c r="P198">
+        <v>5</v>
+      </c>
+      <c r="Q198">
         <v>4</v>
       </c>
-      <c r="N198">
-        <v>2.15</v>
-      </c>
-      <c r="O198">
-        <v>2.55</v>
-      </c>
-      <c r="P198">
-        <v>4</v>
-      </c>
-      <c r="Q198">
-        <v>2.15</v>
-      </c>
       <c r="R198">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T198">
         <v>1.95</v>
       </c>
       <c r="U198">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z198">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
         <v>-1</v>
@@ -18771,10 +18771,10 @@
         <v>0.95</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD198">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18782,7 +18782,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7905004</v>
+        <v>7032435</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18791,55 +18791,55 @@
         <v>45362.66666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H199">
         <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K199" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L199">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="M199">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N199">
+        <v>2.375</v>
+      </c>
+      <c r="O199">
         <v>2.5</v>
       </c>
-      <c r="O199">
-        <v>1.5</v>
-      </c>
       <c r="P199">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q199">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="R199">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S199">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
         <v>1.95</v>
       </c>
       <c r="U199">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V199">
         <v>1.875</v>
@@ -18848,25 +18848,25 @@
         <v>1.925</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y199">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD199">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -18975,7 +18975,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F201" t="s">
         <v>39</v>
@@ -19254,7 +19254,7 @@
         <v>53</v>
       </c>
       <c r="F204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G204">
         <v>3</v>
@@ -19343,7 +19343,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F205" t="s">
         <v>37</v>
@@ -19794,7 +19794,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7032446</v>
+        <v>7039814</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -19803,37 +19803,37 @@
         <v>45369.66666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L210">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="M210">
         <v>4</v>
       </c>
       <c r="N210">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O210">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P210">
         <v>4.2</v>
@@ -19845,40 +19845,40 @@
         <v>0.5</v>
       </c>
       <c r="S210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T210">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U210">
         <v>4</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
       <c r="AB210">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
         <v>-1</v>
       </c>
       <c r="AD210">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -19886,7 +19886,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7039814</v>
+        <v>7032446</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19895,37 +19895,37 @@
         <v>45369.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K211" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L211">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M211">
         <v>4</v>
       </c>
       <c r="N211">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O211">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P211">
         <v>4.2</v>
@@ -19937,40 +19937,40 @@
         <v>0.5</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U211">
         <v>4</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W211">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X211">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC211">
         <v>-1</v>
       </c>
       <c r="AD211">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -20174,7 +20174,7 @@
         <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -20266,7 +20266,7 @@
         <v>44</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -20723,7 +20723,7 @@
         <v>45390.33333333334</v>
       </c>
       <c r="E220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F220" t="s">
         <v>43</v>
@@ -21091,7 +21091,7 @@
         <v>45390.625</v>
       </c>
       <c r="E224" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F224" t="s">
         <v>32</v>
@@ -21367,7 +21367,7 @@
         <v>45394.625</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F227" t="s">
         <v>40</v>
@@ -21827,7 +21827,7 @@
         <v>45394.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F232" t="s">
         <v>38</v>
@@ -21922,7 +21922,7 @@
         <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -22106,7 +22106,7 @@
         <v>53</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G235">
         <v>3</v>
@@ -22186,7 +22186,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7032514</v>
+        <v>7032463</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22195,79 +22195,79 @@
         <v>45397.625</v>
       </c>
       <c r="E236" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236">
         <v>5</v>
       </c>
-      <c r="H236">
-        <v>1</v>
-      </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K236" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L236">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M236">
         <v>4.5</v>
       </c>
       <c r="N236">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O236">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="P236">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
       </c>
       <c r="R236">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T236">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U236">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W236">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X236">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AD236">
         <v>-1</v>
@@ -22278,7 +22278,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7032468</v>
+        <v>7032514</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22287,64 +22287,64 @@
         <v>45397.625</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G237">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>2</v>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237" t="s">
         <v>59</v>
       </c>
       <c r="L237">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="M237">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="N237">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O237">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="P237">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q237">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R237">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S237">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U237">
         <v>3.75</v>
       </c>
       <c r="V237">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X237">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="Y237">
         <v>-1</v>
@@ -22353,16 +22353,16 @@
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -22370,7 +22370,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7032463</v>
+        <v>7032468</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22379,46 +22379,46 @@
         <v>45397.625</v>
       </c>
       <c r="E238" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G238">
         <v>3</v>
       </c>
       <c r="H238">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K238" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L238">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="M238">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="N238">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O238">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="P238">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q238">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="R238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S238">
         <v>1.85</v>
@@ -22427,34 +22427,34 @@
         <v>1.95</v>
       </c>
       <c r="U238">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V238">
+        <v>1.925</v>
+      </c>
+      <c r="W238">
         <v>1.875</v>
       </c>
-      <c r="W238">
-        <v>1.925</v>
-      </c>
       <c r="X238">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
+        <v>-1</v>
+      </c>
+      <c r="AD238">
         <v>0.875</v>
-      </c>
-      <c r="AD238">
-        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22750,7 +22750,7 @@
         <v>50</v>
       </c>
       <c r="F242" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -22922,7 +22922,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7569964</v>
+        <v>7970841</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -22931,46 +22931,46 @@
         <v>45404.625</v>
       </c>
       <c r="E244" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G244">
         <v>2</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K244" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L244">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N244">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O244">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P244">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q244">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="R244">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S244">
         <v>2</v>
@@ -22979,19 +22979,19 @@
         <v>1.8</v>
       </c>
       <c r="U244">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V244">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W244">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X244">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z244">
         <v>-1</v>
@@ -23003,10 +23003,10 @@
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD244">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23014,7 +23014,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7970841</v>
+        <v>7569964</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23023,46 +23023,46 @@
         <v>45404.625</v>
       </c>
       <c r="E245" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F245" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G245">
         <v>2</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L245">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M245">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N245">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O245">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P245">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q245">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="R245">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S245">
         <v>2</v>
@@ -23071,19 +23071,19 @@
         <v>1.8</v>
       </c>
       <c r="U245">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W245">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y245">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
         <v>-1</v>
@@ -23095,10 +23095,10 @@
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD245">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -23198,7 +23198,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7032475</v>
+        <v>7032515</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23207,82 +23207,82 @@
         <v>45408.625</v>
       </c>
       <c r="E247" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G247">
         <v>2</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K247" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L247">
         <v>1.909</v>
       </c>
       <c r="M247">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N247">
         <v>2.75</v>
       </c>
       <c r="O247">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P247">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q247">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R247">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S247">
+        <v>1.75</v>
+      </c>
+      <c r="T247">
         <v>1.95</v>
       </c>
-      <c r="T247">
-        <v>1.85</v>
-      </c>
       <c r="U247">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="V247">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD247">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23290,7 +23290,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7032515</v>
+        <v>7032475</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23299,82 +23299,82 @@
         <v>45408.625</v>
       </c>
       <c r="E248" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F248" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G248">
         <v>2</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K248" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L248">
         <v>1.909</v>
       </c>
       <c r="M248">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N248">
         <v>2.75</v>
       </c>
       <c r="O248">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P248">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q248">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R248">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S248">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U248">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="V248">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W248">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X248">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA248">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD248">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23382,7 +23382,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7032473</v>
+        <v>7032472</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23391,61 +23391,61 @@
         <v>45408.625</v>
       </c>
       <c r="E249" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G249">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K249" t="s">
         <v>58</v>
       </c>
       <c r="L249">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M249">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N249">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O249">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="P249">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q249">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="R249">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T249">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U249">
         <v>3.75</v>
       </c>
       <c r="V249">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W249">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -23454,19 +23454,19 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC249">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD249">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23474,7 +23474,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7032472</v>
+        <v>7032471</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23483,46 +23483,46 @@
         <v>45408.625</v>
       </c>
       <c r="E250" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K250" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L250">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="M250">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N250">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O250">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P250">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q250">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R250">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S250">
         <v>1.975</v>
@@ -23534,31 +23534,31 @@
         <v>3.75</v>
       </c>
       <c r="V250">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z250">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB250">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC250">
         <v>-1</v>
       </c>
       <c r="AD250">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23566,7 +23566,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7032471</v>
+        <v>7032469</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23575,82 +23575,82 @@
         <v>45408.625</v>
       </c>
       <c r="E251" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L251">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="M251">
+        <v>4.5</v>
+      </c>
+      <c r="N251">
+        <v>2.75</v>
+      </c>
+      <c r="O251">
+        <v>1.666</v>
+      </c>
+      <c r="P251">
+        <v>4.75</v>
+      </c>
+      <c r="Q251">
+        <v>3.3</v>
+      </c>
+      <c r="R251">
+        <v>-0.75</v>
+      </c>
+      <c r="S251">
+        <v>1.825</v>
+      </c>
+      <c r="T251">
+        <v>1.975</v>
+      </c>
+      <c r="U251">
         <v>4</v>
       </c>
-      <c r="N251">
-        <v>2.25</v>
-      </c>
-      <c r="O251">
-        <v>2.15</v>
-      </c>
-      <c r="P251">
-        <v>4</v>
-      </c>
-      <c r="Q251">
-        <v>2.5</v>
-      </c>
-      <c r="R251">
-        <v>-0.25</v>
-      </c>
-      <c r="S251">
-        <v>1.975</v>
-      </c>
-      <c r="T251">
-        <v>1.825</v>
-      </c>
-      <c r="U251">
-        <v>3.75</v>
-      </c>
       <c r="V251">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W251">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD251">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23658,7 +23658,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7032469</v>
+        <v>7032473</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23667,55 +23667,55 @@
         <v>45408.625</v>
       </c>
       <c r="E252" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F252" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G252">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K252" t="s">
         <v>58</v>
       </c>
       <c r="L252">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="M252">
+        <v>5</v>
+      </c>
+      <c r="N252">
+        <v>5</v>
+      </c>
+      <c r="O252">
+        <v>1.571</v>
+      </c>
+      <c r="P252">
         <v>4.5</v>
       </c>
-      <c r="N252">
-        <v>2.75</v>
-      </c>
-      <c r="O252">
-        <v>1.666</v>
-      </c>
-      <c r="P252">
-        <v>4.75</v>
-      </c>
       <c r="Q252">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="R252">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V252">
         <v>1.875</v>
@@ -23730,19 +23730,19 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC252">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AD252">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23759,7 +23759,7 @@
         <v>45408.64583333334</v>
       </c>
       <c r="E253" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F253" t="s">
         <v>50</v>
@@ -24035,10 +24035,10 @@
         <v>45411.33333333334</v>
       </c>
       <c r="E256" t="s">
+        <v>49</v>
+      </c>
+      <c r="F256" t="s">
         <v>48</v>
-      </c>
-      <c r="F256" t="s">
-        <v>46</v>
       </c>
       <c r="G256">
         <v>3</v>
@@ -24118,7 +24118,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7039816</v>
+        <v>8101471</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24127,16 +24127,16 @@
         <v>45411.625</v>
       </c>
       <c r="E257" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F257" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G257">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>3</v>
@@ -24148,43 +24148,43 @@
         <v>59</v>
       </c>
       <c r="L257">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="M257">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="N257">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O257">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P257">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q257">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R257">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S257">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T257">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U257">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W257">
         <v>1.95</v>
       </c>
       <c r="X257">
-        <v>0.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y257">
         <v>-1</v>
@@ -24193,13 +24193,13 @@
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
         <v>-1</v>
       </c>
       <c r="AC257">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AD257">
         <v>-1</v>
@@ -24210,7 +24210,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7032476</v>
+       